--- a/doc_new/4.服务器配置文档/抽奖配置.xlsx
+++ b/doc_new/4.服务器配置文档/抽奖配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11925"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="普通抽奖(template_draw_lottery)" sheetId="2" r:id="rId1"/>
@@ -1416,30 +1416,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{D7442275-9425-47BE-A74C-6707A12E7B02}">
+    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{C8E916B5-D673-4E81-B0E9-7E514CC92028}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstColumn" dxfId="1"/>
       <tableStyleElement type="firstRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{B413D9DF-C44D-4E80-97C5-70604F382E33}">
+    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{48BDCCF0-21D3-474A-BB59-6FE375B9AEBF}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
       <tableStyleElement type="secondColumnStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{06A2F59A-760F-4EA3-AAB5-1D1CDBA6EEB9}">
+    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{968A3D01-40BB-4677-B184-ABC93C9D20E1}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{E5F5561B-4C41-49E6-B69C-1BC86C9B258F}">
+    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{853F4F70-D354-4D35-AB0F-961347887857}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumnStripe" dxfId="12"/>
       <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3C5D5D3E-774E-465C-A204-844CF50D9E89}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{68FC22A5-AA2C-4C89-9672-E155A6F9C167}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
@@ -1457,8 +1457,9 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="物品(template_item)"/>
-      <sheetName val="算法表"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1473,6 +1474,23 @@
             <v>物品名称</v>
           </cell>
         </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>1000-1199货币
+1200-19999消耗类型
+2000-3500 图鉴卡牌
+3501-3700 图鉴箱子
+10000-10100 1级魂石
+10101-10200 2级魂石
+10201-10300 3级魂石
+10301-10400 4级魂石
+20000-39999固定类型
+20000-20100 特权
+20101-20200 称号
+20201-20300 通行证相关
+40000-69999特殊类型</v>
+          </cell>
+        </row>
         <row r="3">
           <cell r="B3" t="str">
             <v>int</v>
@@ -1497,127 +1515,2954 @@
         </row>
         <row r="5">
           <cell r="B5">
-            <v>1</v>
+            <v>1001</v>
           </cell>
           <cell r="C5">
             <v>1</v>
           </cell>
           <cell r="D5" t="str">
-            <v>钻石</v>
+            <v>琥珀</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>2</v>
+            <v>1002</v>
           </cell>
           <cell r="C6">
             <v>1</v>
           </cell>
           <cell r="D6" t="str">
-            <v>充值积分</v>
+            <v>良善点</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>3</v>
+            <v>1003</v>
           </cell>
           <cell r="C7">
             <v>1</v>
           </cell>
           <cell r="D7" t="str">
-            <v>礼包A</v>
+            <v>金币</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>4</v>
+            <v>1004</v>
           </cell>
           <cell r="C8">
             <v>1</v>
           </cell>
           <cell r="D8" t="str">
-            <v>特权A</v>
+            <v>地图经验</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>5</v>
+            <v>1005</v>
           </cell>
           <cell r="C9">
             <v>1</v>
           </cell>
           <cell r="D9" t="str">
-            <v>抽奖券</v>
+            <v>货币A</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>6</v>
+            <v>1006</v>
           </cell>
           <cell r="C10">
             <v>1</v>
           </cell>
           <cell r="D10" t="str">
-            <v>材料1</v>
+            <v>货币B</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>7</v>
+            <v>1007</v>
           </cell>
           <cell r="C11">
             <v>1</v>
           </cell>
           <cell r="D11" t="str">
-            <v>材料2</v>
+            <v>货币C</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>8</v>
+            <v>1008</v>
           </cell>
           <cell r="C12">
             <v>1</v>
           </cell>
           <cell r="D12" t="str">
-            <v>材料3</v>
+            <v>祈福卷轴</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>9</v>
+            <v>1201</v>
           </cell>
           <cell r="C13">
             <v>1</v>
           </cell>
           <cell r="D13" t="str">
-            <v>材料4</v>
+            <v>强化石</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>10</v>
+            <v>1202</v>
           </cell>
           <cell r="C14">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="D14" t="str">
-            <v>材料5</v>
+            <v>强化保护卷</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15">
-            <v>11</v>
+            <v>1203</v>
           </cell>
           <cell r="C15">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="D15" t="str">
-            <v>材料6</v>
+            <v>高级强化保护卷</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>1204</v>
+          </cell>
+          <cell r="C16">
+            <v>3</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>强化转移卷</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>1205</v>
+          </cell>
+          <cell r="C17">
+            <v>1</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>吸附石(吸附前)</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>1206</v>
+          </cell>
+          <cell r="C18">
+            <v>1</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>吸附石(吸附后)</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>1279</v>
+          </cell>
+          <cell r="C19">
+            <v>1</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>1级魂石降级卷</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>1280</v>
+          </cell>
+          <cell r="C20">
+            <v>2</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>2级魂石降级卷</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>1281</v>
+          </cell>
+          <cell r="C21">
+            <v>3</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>3级魂石降级卷</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>1282</v>
+          </cell>
+          <cell r="C22">
+            <v>4</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>4级魂石降级卷</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>1283</v>
+          </cell>
+          <cell r="C23">
+            <v>1</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>低级魂石升级保护卷</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>1284</v>
+          </cell>
+          <cell r="C24">
+            <v>2</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>中级魂石升级保护卷</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>1285</v>
+          </cell>
+          <cell r="C25">
+            <v>3</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>高级魂石升级保护卷</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>1286</v>
+          </cell>
+          <cell r="C26">
+            <v>4</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>魂石转移卷</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>1287</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27" t="str">
+            <v>1级魂石自选箱</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>1288</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28" t="str">
+            <v>2级魂石自选箱</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>1289</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29" t="str">
+            <v>3级魂石自选箱</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>1290</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30" t="str">
+            <v>4级魂石自选箱</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>1291</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31" t="str">
+            <v>天赋点</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>1292</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32" t="str">
+            <v>高阶精通点</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>1293</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33" t="str">
+            <v>技能精通经验</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>1294</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34" t="str">
+            <v>万能精通经验</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>2001</v>
+          </cell>
+          <cell r="C35">
+            <v>1</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>炼狱熊怪</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>2002</v>
+          </cell>
+          <cell r="C36">
+            <v>1</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>炼狱羚羊</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>2003</v>
+          </cell>
+          <cell r="C37">
+            <v>1</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>疾行火熊</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>2004</v>
+          </cell>
+          <cell r="C38">
+            <v>1</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>炼狱亡魂</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>2005</v>
+          </cell>
+          <cell r="C39">
+            <v>1</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>夜魇近战兵</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>2006</v>
+          </cell>
+          <cell r="C40">
+            <v>1</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>炽甲虫战士</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>2007</v>
+          </cell>
+          <cell r="C41">
+            <v>1</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>远古炼狱巨人</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>2008</v>
+          </cell>
+          <cell r="C42">
+            <v>1</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>骷髅勇士</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>2009</v>
+          </cell>
+          <cell r="C43">
+            <v>1</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>炼狱火</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>2010</v>
+          </cell>
+          <cell r="C44">
+            <v>1</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>冥火剑圣</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>2011</v>
+          </cell>
+          <cell r="C45">
+            <v>1</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>小狗头人</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>2012</v>
+          </cell>
+          <cell r="C46">
+            <v>1</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>雷电之魂</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>2013</v>
+          </cell>
+          <cell r="C47">
+            <v>1</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>萨特窃神者</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>2014</v>
+          </cell>
+          <cell r="C48">
+            <v>1</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>远古岚肤兽</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>2015</v>
+          </cell>
+          <cell r="C49">
+            <v>1</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>雷树精兽</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>2016</v>
+          </cell>
+          <cell r="C50">
+            <v>1</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>雷角兽</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>2017</v>
+          </cell>
+          <cell r="C51">
+            <v>1</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>霹雳怪手</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>2018</v>
+          </cell>
+          <cell r="C52">
+            <v>1</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>幼年青眼雷龙</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>2019</v>
+          </cell>
+          <cell r="C53">
+            <v>1</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>雷羽鹫</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>2020</v>
+          </cell>
+          <cell r="C54">
+            <v>1</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>雷山鹫</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>2021</v>
+          </cell>
+          <cell r="C55">
+            <v>1</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>雷翼鹫</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>2022</v>
+          </cell>
+          <cell r="C56">
+            <v>1</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>冰川鬼魂</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>2023</v>
+          </cell>
+          <cell r="C57">
+            <v>1</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>极寒精灵</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>2024</v>
+          </cell>
+          <cell r="C58">
+            <v>1</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>极寒冰狐</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>2025</v>
+          </cell>
+          <cell r="C59">
+            <v>1</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>极地少女</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>2026</v>
+          </cell>
+          <cell r="C60">
+            <v>1</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>冰原行者</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>2027</v>
+          </cell>
+          <cell r="C61">
+            <v>1</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>极地虎</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>2028</v>
+          </cell>
+          <cell r="C62">
+            <v>1</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>极地小冰龙</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>2029</v>
+          </cell>
+          <cell r="C63">
+            <v>1</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>极地小飞龙</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>2030</v>
+          </cell>
+          <cell r="C64">
+            <v>1</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>冰晶小海马</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>2031</v>
+          </cell>
+          <cell r="C65">
+            <v>1</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>冰原狐</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>2032</v>
+          </cell>
+          <cell r="C66">
+            <v>1</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>冰宫守卫</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>2033</v>
+          </cell>
+          <cell r="C67">
+            <v>1</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>冰宫奴仆</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>2034</v>
+          </cell>
+          <cell r="C68">
+            <v>1</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>绿洲鬼魂</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>2035</v>
+          </cell>
+          <cell r="C69">
+            <v>1</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>绿洲丧尸</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>2036</v>
+          </cell>
+          <cell r="C70">
+            <v>1</v>
+          </cell>
+          <cell r="D70" t="str">
+            <v>幼年沙龙</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>2037</v>
+          </cell>
+          <cell r="C71">
+            <v>1</v>
+          </cell>
+          <cell r="D71" t="str">
+            <v>绿洲精灵幼龙</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>2038</v>
+          </cell>
+          <cell r="C72">
+            <v>1</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>绿洲跳跳蛙</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>2039</v>
+          </cell>
+          <cell r="C73">
+            <v>1</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v>绿洲剧毒蛇</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>2040</v>
+          </cell>
+          <cell r="C74">
+            <v>1</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v>狂沙怪手</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>2041</v>
+          </cell>
+          <cell r="C75">
+            <v>1</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v>绿洲精灵马</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>2042</v>
+          </cell>
+          <cell r="C76">
+            <v>1</v>
+          </cell>
+          <cell r="D76" t="str">
+            <v>绿洲小精灵</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>2043</v>
+          </cell>
+          <cell r="C77">
+            <v>1</v>
+          </cell>
+          <cell r="D77" t="str">
+            <v>沙漠金龟</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>2044</v>
+          </cell>
+          <cell r="C78">
+            <v>1</v>
+          </cell>
+          <cell r="D78" t="str">
+            <v>天辉高级战士</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>2045</v>
+          </cell>
+          <cell r="C79">
+            <v>1</v>
+          </cell>
+          <cell r="D79" t="str">
+            <v>高级精灵战士</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>2501</v>
+          </cell>
+          <cell r="C80">
+            <v>1</v>
+          </cell>
+          <cell r="D80" t="str">
+            <v>炼狱狼</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>2502</v>
+          </cell>
+          <cell r="C81">
+            <v>1</v>
+          </cell>
+          <cell r="D81" t="str">
+            <v>夜魇远程兵</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>2503</v>
+          </cell>
+          <cell r="C82">
+            <v>1</v>
+          </cell>
+          <cell r="D82" t="str">
+            <v>炼狱小双头犬</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>2504</v>
+          </cell>
+          <cell r="C83">
+            <v>1</v>
+          </cell>
+          <cell r="D83" t="str">
+            <v>炽甲虫战车</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>2505</v>
+          </cell>
+          <cell r="C84">
+            <v>1</v>
+          </cell>
+          <cell r="D84" t="str">
+            <v>炼狱石甲虫</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>2506</v>
+          </cell>
+          <cell r="C85">
+            <v>1</v>
+          </cell>
+          <cell r="D85" t="str">
+            <v>炼狱战熊</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>2507</v>
+          </cell>
+          <cell r="C86">
+            <v>1</v>
+          </cell>
+          <cell r="D86" t="str">
+            <v>炼狱界弓</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>2508</v>
+          </cell>
+          <cell r="C87">
+            <v>1</v>
+          </cell>
+          <cell r="D87" t="str">
+            <v>烈焰战龟</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>2509</v>
+          </cell>
+          <cell r="C88">
+            <v>1</v>
+          </cell>
+          <cell r="D88" t="str">
+            <v>炼狱蜘蛛</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>2510</v>
+          </cell>
+          <cell r="C89">
+            <v>1</v>
+          </cell>
+          <cell r="D89" t="str">
+            <v>炼狱猎蜥</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>2511</v>
+          </cell>
+          <cell r="C90">
+            <v>1</v>
+          </cell>
+          <cell r="D90" t="str">
+            <v>炼狱火精灵</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>2512</v>
+          </cell>
+          <cell r="C91">
+            <v>1</v>
+          </cell>
+          <cell r="D91" t="str">
+            <v>熔岩飞翼兽</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>2513</v>
+          </cell>
+          <cell r="C92">
+            <v>1</v>
+          </cell>
+          <cell r="D92" t="str">
+            <v>双斧狂战</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>2514</v>
+          </cell>
+          <cell r="C93">
+            <v>1</v>
+          </cell>
+          <cell r="D93" t="str">
+            <v>熔岩卫兵</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>2515</v>
+          </cell>
+          <cell r="C94">
+            <v>1</v>
+          </cell>
+          <cell r="D94" t="str">
+            <v>远古炼狱火</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>2516</v>
+          </cell>
+          <cell r="C95">
+            <v>1</v>
+          </cell>
+          <cell r="D95" t="str">
+            <v>雷须兽</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>2517</v>
+          </cell>
+          <cell r="C96">
+            <v>1</v>
+          </cell>
+          <cell r="D96" t="str">
+            <v>雷霆晶龟</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>2518</v>
+          </cell>
+          <cell r="C97">
+            <v>1</v>
+          </cell>
+          <cell r="D97" t="str">
+            <v>霹雳怪虫</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>2519</v>
+          </cell>
+          <cell r="C98">
+            <v>1</v>
+          </cell>
+          <cell r="D98" t="str">
+            <v>独角雷兽</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>2520</v>
+          </cell>
+          <cell r="C99">
+            <v>1</v>
+          </cell>
+          <cell r="D99" t="str">
+            <v>雷电见习者</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>2521</v>
+          </cell>
+          <cell r="C100">
+            <v>1</v>
+          </cell>
+          <cell r="D100" t="str">
+            <v>雷霆拍熊</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>2522</v>
+          </cell>
+          <cell r="C101">
+            <v>1</v>
+          </cell>
+          <cell r="D101" t="str">
+            <v>雷翼飞狐</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>2523</v>
+          </cell>
+          <cell r="C102">
+            <v>1</v>
+          </cell>
+          <cell r="D102" t="str">
+            <v>远古黑龙</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>2524</v>
+          </cell>
+          <cell r="C103">
+            <v>1</v>
+          </cell>
+          <cell r="D103" t="str">
+            <v>雷霆领主</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>2525</v>
+          </cell>
+          <cell r="C104">
+            <v>1</v>
+          </cell>
+          <cell r="D104" t="str">
+            <v>霹雳怪泥</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>2526</v>
+          </cell>
+          <cell r="C105">
+            <v>1</v>
+          </cell>
+          <cell r="D105" t="str">
+            <v>雷霆战蜥</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>2527</v>
+          </cell>
+          <cell r="C106">
+            <v>1</v>
+          </cell>
+          <cell r="D106" t="str">
+            <v>霹雳女妖</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>2528</v>
+          </cell>
+          <cell r="C107">
+            <v>1</v>
+          </cell>
+          <cell r="D107" t="str">
+            <v>雷压巨兽</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>2529</v>
+          </cell>
+          <cell r="C108">
+            <v>1</v>
+          </cell>
+          <cell r="D108" t="str">
+            <v>雷压射手</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>2530</v>
+          </cell>
+          <cell r="C109">
+            <v>1</v>
+          </cell>
+          <cell r="D109" t="str">
+            <v>雷霆梦魇</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>2531</v>
+          </cell>
+          <cell r="C110">
+            <v>1</v>
+          </cell>
+          <cell r="D110" t="str">
+            <v>冰川幼龟</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>2532</v>
+          </cell>
+          <cell r="C111">
+            <v>1</v>
+          </cell>
+          <cell r="D111" t="str">
+            <v>近代冰魂</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>2533</v>
+          </cell>
+          <cell r="C112">
+            <v>1</v>
+          </cell>
+          <cell r="D112" t="str">
+            <v>冰晶石甲虫</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>2534</v>
+          </cell>
+          <cell r="C113">
+            <v>1</v>
+          </cell>
+          <cell r="D113" t="str">
+            <v>冰原犬</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>2535</v>
+          </cell>
+          <cell r="C114">
+            <v>1</v>
+          </cell>
+          <cell r="D114" t="str">
+            <v>冰甲战熊</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>2536</v>
+          </cell>
+          <cell r="C115">
+            <v>1</v>
+          </cell>
+          <cell r="D115" t="str">
+            <v>寒霜战士</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>2537</v>
+          </cell>
+          <cell r="C116">
+            <v>1</v>
+          </cell>
+          <cell r="D116" t="str">
+            <v>寒霜萨满</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>2538</v>
+          </cell>
+          <cell r="C117">
+            <v>1</v>
+          </cell>
+          <cell r="D117" t="str">
+            <v>冰原巨兽</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>2539</v>
+          </cell>
+          <cell r="C118">
+            <v>1</v>
+          </cell>
+          <cell r="D118" t="str">
+            <v>极地熊战士</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>2540</v>
+          </cell>
+          <cell r="C119">
+            <v>1</v>
+          </cell>
+          <cell r="D119" t="str">
+            <v>冰原猩猩兽</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>2541</v>
+          </cell>
+          <cell r="C120">
+            <v>1</v>
+          </cell>
+          <cell r="D120" t="str">
+            <v>极地巨人</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>2542</v>
+          </cell>
+          <cell r="C121">
+            <v>1</v>
+          </cell>
+          <cell r="D121" t="str">
+            <v>极地四脚兽</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>2543</v>
+          </cell>
+          <cell r="C122">
+            <v>1</v>
+          </cell>
+          <cell r="D122" t="str">
+            <v>极地飞翼兽</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>2544</v>
+          </cell>
+          <cell r="C123">
+            <v>1</v>
+          </cell>
+          <cell r="D123" t="str">
+            <v>极冰守卫</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>2545</v>
+          </cell>
+          <cell r="C124">
+            <v>1</v>
+          </cell>
+          <cell r="D124" t="str">
+            <v>冰原守卫</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>2546</v>
+          </cell>
+          <cell r="C125">
+            <v>1</v>
+          </cell>
+          <cell r="D125" t="str">
+            <v>绿洲剧毒飞蛇</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>2547</v>
+          </cell>
+          <cell r="C126">
+            <v>1</v>
+          </cell>
+          <cell r="D126" t="str">
+            <v>绿洲魔法飞马</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>2548</v>
+          </cell>
+          <cell r="C127">
+            <v>1</v>
+          </cell>
+          <cell r="D127" t="str">
+            <v>绿洲怪手</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>2549</v>
+          </cell>
+          <cell r="C128">
+            <v>1</v>
+          </cell>
+          <cell r="D128" t="str">
+            <v>毒风鹫</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>2550</v>
+          </cell>
+          <cell r="C129">
+            <v>1</v>
+          </cell>
+          <cell r="D129" t="str">
+            <v>天辉高级术士</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>2551</v>
+          </cell>
+          <cell r="C130">
+            <v>1</v>
+          </cell>
+          <cell r="D130" t="str">
+            <v>独角沙兽</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>2552</v>
+          </cell>
+          <cell r="C131">
+            <v>1</v>
+          </cell>
+          <cell r="D131" t="str">
+            <v>高级精灵战车</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>2553</v>
+          </cell>
+          <cell r="C132">
+            <v>1</v>
+          </cell>
+          <cell r="D132" t="str">
+            <v>风沙狼</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>2554</v>
+          </cell>
+          <cell r="C133">
+            <v>1</v>
+          </cell>
+          <cell r="D133" t="str">
+            <v>风沙狮</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>2555</v>
+          </cell>
+          <cell r="C134">
+            <v>1</v>
+          </cell>
+          <cell r="D134" t="str">
+            <v>风沙战熊</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>2556</v>
+          </cell>
+          <cell r="C135">
+            <v>1</v>
+          </cell>
+          <cell r="D135" t="str">
+            <v>绿洲守卫</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136">
+            <v>2557</v>
+          </cell>
+          <cell r="C136">
+            <v>1</v>
+          </cell>
+          <cell r="D136" t="str">
+            <v>风沙刺鼬</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137">
+            <v>2558</v>
+          </cell>
+          <cell r="C137">
+            <v>1</v>
+          </cell>
+          <cell r="D137" t="str">
+            <v>绿洲女巫</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>2559</v>
+          </cell>
+          <cell r="C138">
+            <v>1</v>
+          </cell>
+          <cell r="D138" t="str">
+            <v>砂砾小巨人</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>2901</v>
+          </cell>
+          <cell r="C139">
+            <v>1</v>
+          </cell>
+          <cell r="D139" t="str">
+            <v>炼狱领主</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140">
+            <v>2902</v>
+          </cell>
+          <cell r="C140">
+            <v>1</v>
+          </cell>
+          <cell r="D140" t="str">
+            <v>熔岩巨人</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>2903</v>
+          </cell>
+          <cell r="C141">
+            <v>1</v>
+          </cell>
+          <cell r="D141" t="str">
+            <v>烈焰神狐</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>2904</v>
+          </cell>
+          <cell r="C142">
+            <v>1</v>
+          </cell>
+          <cell r="D142" t="str">
+            <v>炼狱双头犬</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>2905</v>
+          </cell>
+          <cell r="C143">
+            <v>1</v>
+          </cell>
+          <cell r="D143" t="str">
+            <v>烈焰战神</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144">
+            <v>2906</v>
+          </cell>
+          <cell r="C144">
+            <v>1</v>
+          </cell>
+          <cell r="D144" t="str">
+            <v>青眼雷龙</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145">
+            <v>2907</v>
+          </cell>
+          <cell r="C145">
+            <v>1</v>
+          </cell>
+          <cell r="D145" t="str">
+            <v>雷压飞翼兽</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>2908</v>
+          </cell>
+          <cell r="C146">
+            <v>1</v>
+          </cell>
+          <cell r="D146" t="str">
+            <v>雷电掌控者</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147">
+            <v>2909</v>
+          </cell>
+          <cell r="C147">
+            <v>1</v>
+          </cell>
+          <cell r="D147" t="str">
+            <v>雷神鸟</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148">
+            <v>2910</v>
+          </cell>
+          <cell r="C148">
+            <v>1</v>
+          </cell>
+          <cell r="D148" t="str">
+            <v>闪电制造者</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149">
+            <v>2911</v>
+          </cell>
+          <cell r="C149">
+            <v>1</v>
+          </cell>
+          <cell r="D149" t="str">
+            <v>极寒领主</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150">
+            <v>2912</v>
+          </cell>
+          <cell r="C150">
+            <v>1</v>
+          </cell>
+          <cell r="D150" t="str">
+            <v>极寒蛛美丽</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>2913</v>
+          </cell>
+          <cell r="C151">
+            <v>1</v>
+          </cell>
+          <cell r="D151" t="str">
+            <v>冰原领主</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>2914</v>
+          </cell>
+          <cell r="C152">
+            <v>1</v>
+          </cell>
+          <cell r="D152" t="str">
+            <v>狂沙熊战士</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>2915</v>
+          </cell>
+          <cell r="C153">
+            <v>1</v>
+          </cell>
+          <cell r="D153" t="str">
+            <v>黄沙护卫</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>2916</v>
+          </cell>
+          <cell r="C154">
+            <v>1</v>
+          </cell>
+          <cell r="D154" t="str">
+            <v>绿洲之主</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>2917</v>
+          </cell>
+          <cell r="C155">
+            <v>1</v>
+          </cell>
+          <cell r="D155" t="str">
+            <v>黄沙之主</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>2918</v>
+          </cell>
+          <cell r="C156">
+            <v>1</v>
+          </cell>
+          <cell r="D156" t="str">
+            <v>祈风使</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>2919</v>
+          </cell>
+          <cell r="C157">
+            <v>1</v>
+          </cell>
+          <cell r="D157" t="str">
+            <v>寒冰使</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158">
+            <v>2920</v>
+          </cell>
+          <cell r="C158">
+            <v>1</v>
+          </cell>
+          <cell r="D158" t="str">
+            <v>霹雳使</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159">
+            <v>2921</v>
+          </cell>
+          <cell r="C159">
+            <v>1</v>
+          </cell>
+          <cell r="D159" t="str">
+            <v>烈火使</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160">
+            <v>3201</v>
+          </cell>
+          <cell r="C160">
+            <v>1</v>
+          </cell>
+          <cell r="D160" t="str">
+            <v>炼狱之王</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161">
+            <v>3202</v>
+          </cell>
+          <cell r="C161">
+            <v>1</v>
+          </cell>
+          <cell r="D161" t="str">
+            <v>雷神</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162">
+            <v>3203</v>
+          </cell>
+          <cell r="C162">
+            <v>1</v>
+          </cell>
+          <cell r="D162" t="str">
+            <v>冰宫女王</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163">
+            <v>3204</v>
+          </cell>
+          <cell r="C163">
+            <v>1</v>
+          </cell>
+          <cell r="D163" t="str">
+            <v>风神</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164">
+            <v>3205</v>
+          </cell>
+          <cell r="C164">
+            <v>1</v>
+          </cell>
+          <cell r="D164" t="str">
+            <v>元素之主</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165">
+            <v>3501</v>
+          </cell>
+          <cell r="C165">
+            <v>1</v>
+          </cell>
+          <cell r="D165" t="str">
+            <v>精良图鉴箱</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166">
+            <v>3502</v>
+          </cell>
+          <cell r="C166">
+            <v>1</v>
+          </cell>
+          <cell r="D166" t="str">
+            <v>史诗图鉴箱</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167">
+            <v>3503</v>
+          </cell>
+          <cell r="C167">
+            <v>1</v>
+          </cell>
+          <cell r="D167" t="str">
+            <v>传说图鉴箱</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168">
+            <v>3504</v>
+          </cell>
+          <cell r="C168">
+            <v>1</v>
+          </cell>
+          <cell r="D168" t="str">
+            <v>元素大陆的图鉴箱</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169">
+            <v>3505</v>
+          </cell>
+          <cell r="C169">
+            <v>1</v>
+          </cell>
+          <cell r="D169" t="str">
+            <v>熔火炼狱的图鉴箱</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170">
+            <v>3506</v>
+          </cell>
+          <cell r="C170">
+            <v>1</v>
+          </cell>
+          <cell r="D170" t="str">
+            <v>极北之地的图鉴箱</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171">
+            <v>3507</v>
+          </cell>
+          <cell r="C171">
+            <v>1</v>
+          </cell>
+          <cell r="D171" t="str">
+            <v>狂风沙漠的图鉴箱</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172">
+            <v>3508</v>
+          </cell>
+          <cell r="C172">
+            <v>1</v>
+          </cell>
+          <cell r="D172" t="str">
+            <v>雷霆之地的图鉴箱</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173">
+            <v>3509</v>
+          </cell>
+          <cell r="C173">
+            <v>1</v>
+          </cell>
+          <cell r="D173" t="str">
+            <v>熔火炼狱的史诗图鉴图鉴箱</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174">
+            <v>3510</v>
+          </cell>
+          <cell r="C174">
+            <v>1</v>
+          </cell>
+          <cell r="D174" t="str">
+            <v>极北之地的史诗图鉴图鉴箱</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175">
+            <v>3511</v>
+          </cell>
+          <cell r="C175">
+            <v>1</v>
+          </cell>
+          <cell r="D175" t="str">
+            <v>狂风沙漠的史诗图鉴图鉴箱</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176">
+            <v>3512</v>
+          </cell>
+          <cell r="C176">
+            <v>1</v>
+          </cell>
+          <cell r="D176" t="str">
+            <v>雷霆之地的史诗图鉴图鉴箱</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177">
+            <v>3513</v>
+          </cell>
+          <cell r="C177">
+            <v>1</v>
+          </cell>
+          <cell r="D177" t="str">
+            <v>熔火炼狱的传说图鉴图鉴箱</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178">
+            <v>3514</v>
+          </cell>
+          <cell r="C178">
+            <v>1</v>
+          </cell>
+          <cell r="D178" t="str">
+            <v>极北之地的传说图鉴图鉴箱</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179">
+            <v>3515</v>
+          </cell>
+          <cell r="C179">
+            <v>1</v>
+          </cell>
+          <cell r="D179" t="str">
+            <v>狂风沙漠的传说图鉴图鉴箱</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180">
+            <v>3516</v>
+          </cell>
+          <cell r="C180">
+            <v>1</v>
+          </cell>
+          <cell r="D180" t="str">
+            <v>雷霆之地的传说图鉴图鉴箱</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181">
+            <v>3517</v>
+          </cell>
+          <cell r="C181">
+            <v>1</v>
+          </cell>
+          <cell r="D181" t="str">
+            <v>精良图鉴箱（自选）</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182">
+            <v>3518</v>
+          </cell>
+          <cell r="C182">
+            <v>1</v>
+          </cell>
+          <cell r="D182" t="str">
+            <v>史诗图鉴箱（自选）</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183">
+            <v>3519</v>
+          </cell>
+          <cell r="C183">
+            <v>1</v>
+          </cell>
+          <cell r="D183" t="str">
+            <v>传说图鉴箱（自选）</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184">
+            <v>3520</v>
+          </cell>
+          <cell r="C184">
+            <v>1</v>
+          </cell>
+          <cell r="D184" t="str">
+            <v>不朽图鉴箱（自选）</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185">
+            <v>3521</v>
+          </cell>
+          <cell r="C185">
+            <v>1</v>
+          </cell>
+          <cell r="D185" t="str">
+            <v>熔火炼狱的图鉴箱（自选）</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186">
+            <v>3522</v>
+          </cell>
+          <cell r="C186">
+            <v>1</v>
+          </cell>
+          <cell r="D186" t="str">
+            <v>极北之地的图鉴箱（自选）</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187">
+            <v>3523</v>
+          </cell>
+          <cell r="C187">
+            <v>1</v>
+          </cell>
+          <cell r="D187" t="str">
+            <v>狂风沙漠的图鉴箱（自选）</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188">
+            <v>3524</v>
+          </cell>
+          <cell r="C188">
+            <v>1</v>
+          </cell>
+          <cell r="D188" t="str">
+            <v>雷霆之地的图鉴箱（自选）</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189">
+            <v>3525</v>
+          </cell>
+          <cell r="C189">
+            <v>1</v>
+          </cell>
+          <cell r="D189" t="str">
+            <v>元素大陆图的鉴箱（自选）</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190">
+            <v>10000</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="D190" t="str">
+            <v>1级魂石·攻击力</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191">
+            <v>10001</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="D191" t="str">
+            <v>1级魂石·固定伤害</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192">
+            <v>10002</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="D192" t="str">
+            <v>1级魂石·全元素伤害</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193">
+            <v>10003</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="D193" t="str">
+            <v>1级魂石·暴击概率</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194">
+            <v>10004</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="D194" t="str">
+            <v>1级魂石·暴击伤害</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195">
+            <v>10005</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="D195" t="str">
+            <v>1级魂石·元素穿透</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196">
+            <v>10006</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="D196" t="str">
+            <v>1级魂石·生命值</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197">
+            <v>10007</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="D197" t="str">
+            <v>1级魂石·攻击速度</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198">
+            <v>10008</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="D198" t="str">
+            <v>1级魂石·防御</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199">
+            <v>10009</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="D199" t="str">
+            <v>1级魂石·元素抗性</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200">
+            <v>10010</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="D200" t="str">
+            <v>1级魂石·暴击抵抗</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201">
+            <v>10011</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="D201" t="str">
+            <v>1级魂石·爆伤抵抗</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="B202">
+            <v>10012</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="D202" t="str">
+            <v>1级魂石·生命回复</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="B203">
+            <v>10013</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="D203" t="str">
+            <v>1级魂石·固定伤害减免</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="B204">
+            <v>10014</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="D204" t="str">
+            <v>1级魂石·技能急速</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="B205">
+            <v>10015</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="D205" t="str">
+            <v>1级魂石·全元素抗性</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="B206">
+            <v>10016</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="D206" t="str">
+            <v>1级魂石·移动速度</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="B207">
+            <v>10017</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="D207" t="str">
+            <v>1级魂石·闪避率</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="B208">
+            <v>10101</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="D208" t="str">
+            <v>2级魂石·攻击力</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="B209">
+            <v>10102</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="D209" t="str">
+            <v>2级魂石·固定伤害</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="B210">
+            <v>10103</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="D210" t="str">
+            <v>2级魂石·全元素伤害</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="B211">
+            <v>10104</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="D211" t="str">
+            <v>2级魂石·暴击概率</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="B212">
+            <v>10105</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="D212" t="str">
+            <v>2级魂石·暴击伤害</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="B213">
+            <v>10106</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="D213" t="str">
+            <v>2级魂石·元素穿透</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="B214">
+            <v>10107</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="D214" t="str">
+            <v>2级魂石·生命值</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="B215">
+            <v>10108</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="D215" t="str">
+            <v>2级魂石·攻击速度</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="B216">
+            <v>10109</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="D216" t="str">
+            <v>2级魂石·防御</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="B217">
+            <v>10110</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="D217" t="str">
+            <v>2级魂石·元素抗性</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="B218">
+            <v>10111</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="D218" t="str">
+            <v>2级魂石·暴击抵抗</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="B219">
+            <v>10112</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="D219" t="str">
+            <v>2级魂石·爆伤抵抗</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="B220">
+            <v>10113</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="D220" t="str">
+            <v>2级魂石·生命回复</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="B221">
+            <v>10114</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="D221" t="str">
+            <v>2级魂石·固定伤害减免</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="B222">
+            <v>10115</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="D222" t="str">
+            <v>2级魂石·技能急速</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="B223">
+            <v>10116</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="D223" t="str">
+            <v>2级魂石·全元素抗性</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="B224">
+            <v>10117</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="D224" t="str">
+            <v>2级魂石·移动速度</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="B225">
+            <v>10118</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="D225" t="str">
+            <v>2级魂石·闪避率</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="B226">
+            <v>10201</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="D226" t="str">
+            <v>3级魂石·攻击力</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="B227">
+            <v>10202</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="D227" t="str">
+            <v>3级魂石·固定伤害</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="B228">
+            <v>10203</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="D228" t="str">
+            <v>3级魂石·全元素伤害</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="B229">
+            <v>10204</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="D229" t="str">
+            <v>3级魂石·暴击概率</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="B230">
+            <v>10205</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="D230" t="str">
+            <v>3级魂石·暴击伤害</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="B231">
+            <v>10206</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="D231" t="str">
+            <v>3级魂石·元素穿透</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="B232">
+            <v>10207</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="D232" t="str">
+            <v>3级魂石·生命值</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="B233">
+            <v>10208</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="D233" t="str">
+            <v>3级魂石·攻击速度</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="B234">
+            <v>10209</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="D234" t="str">
+            <v>3级魂石·防御</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="B235">
+            <v>10210</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="D235" t="str">
+            <v>3级魂石·元素抗性</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="B236">
+            <v>10211</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="D236" t="str">
+            <v>3级魂石·暴击抵抗</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="B237">
+            <v>10212</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="D237" t="str">
+            <v>3级魂石·爆伤抵抗</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="B238">
+            <v>10213</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="D238" t="str">
+            <v>3级魂石·生命回复</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="B239">
+            <v>10214</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="D239" t="str">
+            <v>3级魂石·固定伤害减免</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="B240">
+            <v>10215</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="D240" t="str">
+            <v>3级魂石·技能急速</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="B241">
+            <v>10216</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="D241" t="str">
+            <v>3级魂石·全元素抗性</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="B242">
+            <v>10217</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="D242" t="str">
+            <v>3级魂石·移动速度</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="B243">
+            <v>10218</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="D243" t="str">
+            <v>3级魂石·闪避率</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="B244">
+            <v>10301</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="D244" t="str">
+            <v>4级魂石·攻击力</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="B245">
+            <v>10302</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="D245" t="str">
+            <v>4级魂石·固定伤害</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="B246">
+            <v>10303</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="D246" t="str">
+            <v>4级魂石·全元素伤害</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="B247">
+            <v>10304</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="D247" t="str">
+            <v>4级魂石·暴击概率</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="B248">
+            <v>10305</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="D248" t="str">
+            <v>4级魂石·暴击伤害</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="B249">
+            <v>10306</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="D249" t="str">
+            <v>4级魂石·元素穿透</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="B250">
+            <v>10307</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="D250" t="str">
+            <v>4级魂石·生命值</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="B251">
+            <v>10308</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="D251" t="str">
+            <v>4级魂石·攻击速度</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="B252">
+            <v>10309</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="D252" t="str">
+            <v>4级魂石·防御</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="B253">
+            <v>10310</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="D253" t="str">
+            <v>4级魂石·元素抗性</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="B254">
+            <v>10311</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="D254" t="str">
+            <v>4级魂石·暴击抵抗</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="B255">
+            <v>10312</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="D255" t="str">
+            <v>4级魂石·爆伤抵抗</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="B256">
+            <v>10313</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="D256" t="str">
+            <v>4级魂石·生命回复</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="B257">
+            <v>10314</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="D257" t="str">
+            <v>4级魂石·固定伤害减免</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="B258">
+            <v>10315</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="D258" t="str">
+            <v>4级魂石·技能急速</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="B259">
+            <v>10316</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="D259" t="str">
+            <v>4级魂石·全元素抗性</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="B260">
+            <v>10317</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="D260" t="str">
+            <v>4级魂石·移动速度</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="B261">
+            <v>10318</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="D261" t="str">
+            <v>4级魂石·闪避率</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="B262">
+            <v>20000</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="D262" t="str">
+            <v>月卡</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="B263">
+            <v>20001</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="D263" t="str">
+            <v>终身特权</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="B264">
+            <v>20002</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="D264" t="str">
+            <v>元素祈福</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="B265">
+            <v>20003</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="D265" t="str">
+            <v>天辉信物</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="B266">
+            <v>20004</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="D266" t="str">
+            <v>夜魇信物</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="B267">
+            <v>20005</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="D267" t="str">
+            <v>灵魂战刃</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="B268">
+            <v>20006</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="D268" t="str">
+            <v>老者的指引</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="B269">
+            <v>20007</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="D269" t="str">
+            <v>图鉴大师</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="B270">
+            <v>20008</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="D270" t="str">
+            <v>不留遗憾之矢</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="B271">
+            <v>20009</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="D271" t="str">
+            <v>命运的骰子</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="B272">
+            <v>20010</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="D272" t="str">
+            <v>元素之地的救赎</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="B273">
+            <v>20101</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="D273" t="str">
+            <v>终结者</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="B274">
+            <v>20102</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="D274" t="str">
+            <v>领袖</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="B275">
+            <v>20103</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="D275" t="str">
+            <v>圣坛使者</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="B276">
+            <v>20104</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="D276" t="str">
+            <v>元素大陆征服者</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="B277">
+            <v>20105</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="D277" t="str">
+            <v>图鉴领悟者</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="B278">
+            <v>20106</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="D278" t="str">
+            <v>忠实粉丝</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="B279">
+            <v>20107</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="D279" t="str">
+            <v>魂石掌控者</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="B280">
+            <v>20201</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="D280" t="str">
+            <v>元素大陆征服者（成长礼）</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="B281">
+            <v>20202</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="D281" t="str">
+            <v>元素大陆首通点</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1915,7 +4760,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2112,14 +4957,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="16">
-        <v>6</v>
+        <v>1003</v>
       </c>
       <c r="D5" s="16" t="str">
-        <f>VLOOKUP(C5,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E5</f>
-        <v>材料1*100</v>
+        <f>VLOOKUP(C5,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E5</f>
+        <v>金币*500</v>
       </c>
       <c r="E5" s="11">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
@@ -2166,9 +5011,9 @@
       <c r="C6" s="16">
         <v>7</v>
       </c>
-      <c r="D6" s="16" t="str">
-        <f>VLOOKUP(C6,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E6</f>
-        <v>材料2*100</v>
+      <c r="D6" s="16" t="e">
+        <f>VLOOKUP(C6,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E6</f>
+        <v>#N/A</v>
       </c>
       <c r="E6" s="11">
         <v>100</v>
@@ -2218,9 +5063,9 @@
       <c r="C7" s="16">
         <v>8</v>
       </c>
-      <c r="D7" s="16" t="str">
-        <f>VLOOKUP(C7,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E7</f>
-        <v>材料3*200</v>
+      <c r="D7" s="16" t="e">
+        <f>VLOOKUP(C7,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E7</f>
+        <v>#N/A</v>
       </c>
       <c r="E7" s="11">
         <v>200</v>
@@ -2270,9 +5115,9 @@
       <c r="C8" s="16">
         <v>9</v>
       </c>
-      <c r="D8" s="16" t="str">
-        <f>VLOOKUP(C8,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E8</f>
-        <v>材料4*200</v>
+      <c r="D8" s="16" t="e">
+        <f>VLOOKUP(C8,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E8</f>
+        <v>#N/A</v>
       </c>
       <c r="E8" s="11">
         <v>200</v>
@@ -2322,9 +5167,9 @@
       <c r="C9" s="16">
         <v>10</v>
       </c>
-      <c r="D9" s="16" t="str">
-        <f>VLOOKUP(C9,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E9</f>
-        <v>材料5*300</v>
+      <c r="D9" s="16" t="e">
+        <f>VLOOKUP(C9,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E9</f>
+        <v>#N/A</v>
       </c>
       <c r="E9" s="11">
         <v>300</v>
@@ -2374,9 +5219,9 @@
       <c r="C10" s="16">
         <v>11</v>
       </c>
-      <c r="D10" s="16" t="str">
-        <f>VLOOKUP(C10,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E10</f>
-        <v>材料6*300</v>
+      <c r="D10" s="16" t="e">
+        <f>VLOOKUP(C10,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E10</f>
+        <v>#N/A</v>
       </c>
       <c r="E10" s="11">
         <v>300</v>
@@ -2422,9 +5267,9 @@
       <c r="C11" s="16">
         <v>6</v>
       </c>
-      <c r="D11" s="16" t="str">
-        <f>VLOOKUP(C11,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E11</f>
-        <v>材料1*400</v>
+      <c r="D11" s="16" t="e">
+        <f>VLOOKUP(C11,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E11</f>
+        <v>#N/A</v>
       </c>
       <c r="E11" s="11">
         <v>400</v>
@@ -2470,9 +5315,9 @@
       <c r="C12" s="16">
         <v>7</v>
       </c>
-      <c r="D12" s="16" t="str">
-        <f>VLOOKUP(C12,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E12</f>
-        <v>材料2*400</v>
+      <c r="D12" s="16" t="e">
+        <f>VLOOKUP(C12,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E12</f>
+        <v>#N/A</v>
       </c>
       <c r="E12" s="11">
         <v>400</v>
@@ -2518,9 +5363,9 @@
       <c r="C13" s="16">
         <v>8</v>
       </c>
-      <c r="D13" s="16" t="str">
-        <f>VLOOKUP(C13,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E13</f>
-        <v>材料3*500</v>
+      <c r="D13" s="16" t="e">
+        <f>VLOOKUP(C13,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E13</f>
+        <v>#N/A</v>
       </c>
       <c r="E13" s="11">
         <v>500</v>
@@ -2566,9 +5411,9 @@
       <c r="C14" s="16">
         <v>9</v>
       </c>
-      <c r="D14" s="16" t="str">
-        <f>VLOOKUP(C14,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E14</f>
-        <v>材料4*500</v>
+      <c r="D14" s="16" t="e">
+        <f>VLOOKUP(C14,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E14</f>
+        <v>#N/A</v>
       </c>
       <c r="E14" s="11">
         <v>500</v>
@@ -2614,9 +5459,9 @@
       <c r="C15" s="16">
         <v>7</v>
       </c>
-      <c r="D15" s="16" t="str">
-        <f>VLOOKUP(C15,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E15</f>
-        <v>材料2*600</v>
+      <c r="D15" s="16" t="e">
+        <f>VLOOKUP(C15,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E15</f>
+        <v>#N/A</v>
       </c>
       <c r="E15" s="11">
         <v>600</v>
@@ -2662,9 +5507,9 @@
       <c r="C16" s="16">
         <v>8</v>
       </c>
-      <c r="D16" s="16" t="str">
-        <f>VLOOKUP(C16,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E16</f>
-        <v>材料3*600</v>
+      <c r="D16" s="16" t="e">
+        <f>VLOOKUP(C16,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E16</f>
+        <v>#N/A</v>
       </c>
       <c r="E16" s="11">
         <v>600</v>
@@ -2710,9 +5555,9 @@
       <c r="C17" s="16">
         <v>9</v>
       </c>
-      <c r="D17" s="16" t="str">
-        <f>VLOOKUP(C17,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E17</f>
-        <v>材料4*600</v>
+      <c r="D17" s="16" t="e">
+        <f>VLOOKUP(C17,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E17</f>
+        <v>#N/A</v>
       </c>
       <c r="E17" s="11">
         <v>600</v>
@@ -2758,9 +5603,9 @@
       <c r="C18" s="16">
         <v>6</v>
       </c>
-      <c r="D18" s="16" t="str">
-        <f>VLOOKUP(C18,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E18</f>
-        <v>材料1*100</v>
+      <c r="D18" s="16" t="e">
+        <f>VLOOKUP(C18,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E18</f>
+        <v>#N/A</v>
       </c>
       <c r="E18" s="11">
         <v>100</v>
@@ -2806,9 +5651,9 @@
       <c r="C19" s="16">
         <v>7</v>
       </c>
-      <c r="D19" s="16" t="str">
-        <f>VLOOKUP(C19,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E19</f>
-        <v>材料2*100</v>
+      <c r="D19" s="16" t="e">
+        <f>VLOOKUP(C19,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E19</f>
+        <v>#N/A</v>
       </c>
       <c r="E19" s="11">
         <v>100</v>
@@ -2854,9 +5699,9 @@
       <c r="C20" s="16">
         <v>8</v>
       </c>
-      <c r="D20" s="16" t="str">
-        <f>VLOOKUP(C20,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E20</f>
-        <v>材料3*200</v>
+      <c r="D20" s="16" t="e">
+        <f>VLOOKUP(C20,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E20</f>
+        <v>#N/A</v>
       </c>
       <c r="E20" s="11">
         <v>200</v>
@@ -2902,9 +5747,9 @@
       <c r="C21" s="16">
         <v>9</v>
       </c>
-      <c r="D21" s="16" t="str">
-        <f>VLOOKUP(C21,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E21</f>
-        <v>材料4*200</v>
+      <c r="D21" s="16" t="e">
+        <f>VLOOKUP(C21,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E21</f>
+        <v>#N/A</v>
       </c>
       <c r="E21" s="11">
         <v>200</v>
@@ -2950,9 +5795,9 @@
       <c r="C22" s="16">
         <v>10</v>
       </c>
-      <c r="D22" s="16" t="str">
-        <f>VLOOKUP(C22,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E22</f>
-        <v>材料5*300</v>
+      <c r="D22" s="16" t="e">
+        <f>VLOOKUP(C22,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E22</f>
+        <v>#N/A</v>
       </c>
       <c r="E22" s="11">
         <v>300</v>
@@ -2998,9 +5843,9 @@
       <c r="C23" s="16">
         <v>11</v>
       </c>
-      <c r="D23" s="16" t="str">
-        <f>VLOOKUP(C23,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E23</f>
-        <v>材料6*300</v>
+      <c r="D23" s="16" t="e">
+        <f>VLOOKUP(C23,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E23</f>
+        <v>#N/A</v>
       </c>
       <c r="E23" s="11">
         <v>300</v>
@@ -3046,9 +5891,9 @@
       <c r="C24" s="16">
         <v>6</v>
       </c>
-      <c r="D24" s="16" t="str">
-        <f>VLOOKUP(C24,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E24</f>
-        <v>材料1*400</v>
+      <c r="D24" s="16" t="e">
+        <f>VLOOKUP(C24,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E24</f>
+        <v>#N/A</v>
       </c>
       <c r="E24" s="11">
         <v>400</v>
@@ -3094,9 +5939,9 @@
       <c r="C25" s="16">
         <v>7</v>
       </c>
-      <c r="D25" s="16" t="str">
-        <f>VLOOKUP(C25,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E25</f>
-        <v>材料2*400</v>
+      <c r="D25" s="16" t="e">
+        <f>VLOOKUP(C25,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E25</f>
+        <v>#N/A</v>
       </c>
       <c r="E25" s="11">
         <v>400</v>
@@ -3142,9 +5987,9 @@
       <c r="C26" s="16">
         <v>8</v>
       </c>
-      <c r="D26" s="16" t="str">
-        <f>VLOOKUP(C26,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E26</f>
-        <v>材料3*500</v>
+      <c r="D26" s="16" t="e">
+        <f>VLOOKUP(C26,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E26</f>
+        <v>#N/A</v>
       </c>
       <c r="E26" s="11">
         <v>500</v>
@@ -3190,9 +6035,9 @@
       <c r="C27" s="16">
         <v>9</v>
       </c>
-      <c r="D27" s="16" t="str">
-        <f>VLOOKUP(C27,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E27</f>
-        <v>材料4*500</v>
+      <c r="D27" s="16" t="e">
+        <f>VLOOKUP(C27,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E27</f>
+        <v>#N/A</v>
       </c>
       <c r="E27" s="11">
         <v>500</v>
@@ -3238,9 +6083,9 @@
       <c r="C28" s="16">
         <v>7</v>
       </c>
-      <c r="D28" s="16" t="str">
-        <f>VLOOKUP(C28,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E28</f>
-        <v>材料2*600</v>
+      <c r="D28" s="16" t="e">
+        <f>VLOOKUP(C28,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E28</f>
+        <v>#N/A</v>
       </c>
       <c r="E28" s="11">
         <v>600</v>
@@ -3286,9 +6131,9 @@
       <c r="C29" s="16">
         <v>8</v>
       </c>
-      <c r="D29" s="16" t="str">
-        <f>VLOOKUP(C29,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E29</f>
-        <v>材料3*600</v>
+      <c r="D29" s="16" t="e">
+        <f>VLOOKUP(C29,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E29</f>
+        <v>#N/A</v>
       </c>
       <c r="E29" s="11">
         <v>600</v>
@@ -3334,9 +6179,9 @@
       <c r="C30" s="16">
         <v>9</v>
       </c>
-      <c r="D30" s="16" t="str">
-        <f>VLOOKUP(C30,'[1]物品(template_item)'!$B:$D,3)&amp;"*"&amp;E30</f>
-        <v>材料4*600</v>
+      <c r="D30" s="16" t="e">
+        <f>VLOOKUP(C30,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E30</f>
+        <v>#N/A</v>
       </c>
       <c r="E30" s="11">
         <v>600</v>

--- a/doc_new/4.服务器配置文档/抽奖配置.xlsx
+++ b/doc_new/4.服务器配置文档/抽奖配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="普通抽奖(template_draw_lottery)" sheetId="2" r:id="rId1"/>
@@ -75,8 +75,8 @@
 3=ssr
 4=ur
 5=sp
-氪金流水必须&lt;500 抽奖池非保底   没有品质4的物品 
-氪金流水必须&gt;=500 抽奖池非保底   有品质4的物品
+氪金流水必须&lt;500 抽奖池非保底   没有品质5的物品 
+氪金流水必须&gt;=500 抽奖池非保底   有品质5的物品
 </t>
   </si>
   <si>
@@ -157,7 +157,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000000%"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +188,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF08090C"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -782,16 +788,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,119 +803,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -962,6 +968,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,30 +1425,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{C8E916B5-D673-4E81-B0E9-7E514CC92028}">
+    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{A1229CDC-44C0-4A70-8955-CBC0BFD7BECB}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstColumn" dxfId="1"/>
       <tableStyleElement type="firstRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{48BDCCF0-21D3-474A-BB59-6FE375B9AEBF}">
+    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{63D260AF-4EDE-4B6A-849A-E4EB25E6BDA5}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
       <tableStyleElement type="secondColumnStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{968A3D01-40BB-4677-B184-ABC93C9D20E1}">
+    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{40778852-838A-4C12-BD32-2FE2FFF91CF4}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{853F4F70-D354-4D35-AB0F-961347887857}">
+    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{9FEFC8BF-DD04-4322-8FA6-2BD04CECE097}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumnStripe" dxfId="12"/>
       <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{68FC22A5-AA2C-4C89-9672-E155A6F9C167}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{ACE79000-187C-4F33-A733-BBC9997EB0C0}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
@@ -1477,7 +1486,7 @@
         <row r="2">
           <cell r="B2" t="str">
             <v>1000-1199货币
-1200-19999消耗类型
+1200-1999消耗类型
 2000-3500 图鉴卡牌
 3501-3700 图鉴箱子
 10000-10100 1级魂石
@@ -1565,7 +1574,7 @@
             <v>1</v>
           </cell>
           <cell r="D9" t="str">
-            <v>货币A</v>
+            <v>翡翠</v>
           </cell>
         </row>
         <row r="10">
@@ -1592,7 +1601,7 @@
         </row>
         <row r="12">
           <cell r="B12">
-            <v>1008</v>
+            <v>1201</v>
           </cell>
           <cell r="C12">
             <v>1</v>
@@ -1603,7 +1612,7 @@
         </row>
         <row r="13">
           <cell r="B13">
-            <v>1201</v>
+            <v>1202</v>
           </cell>
           <cell r="C13">
             <v>1</v>
@@ -1614,7 +1623,7 @@
         </row>
         <row r="14">
           <cell r="B14">
-            <v>1202</v>
+            <v>1203</v>
           </cell>
           <cell r="C14">
             <v>2</v>
@@ -1625,7 +1634,7 @@
         </row>
         <row r="15">
           <cell r="B15">
-            <v>1203</v>
+            <v>1204</v>
           </cell>
           <cell r="C15">
             <v>3</v>
@@ -1636,7 +1645,7 @@
         </row>
         <row r="16">
           <cell r="B16">
-            <v>1204</v>
+            <v>1205</v>
           </cell>
           <cell r="C16">
             <v>3</v>
@@ -1647,7 +1656,7 @@
         </row>
         <row r="17">
           <cell r="B17">
-            <v>1205</v>
+            <v>1206</v>
           </cell>
           <cell r="C17">
             <v>1</v>
@@ -1658,7 +1667,7 @@
         </row>
         <row r="18">
           <cell r="B18">
-            <v>1206</v>
+            <v>1207</v>
           </cell>
           <cell r="C18">
             <v>1</v>
@@ -1669,2583 +1678,2662 @@
         </row>
         <row r="19">
           <cell r="B19">
-            <v>1279</v>
+            <v>1208</v>
           </cell>
           <cell r="C19">
             <v>1</v>
           </cell>
           <cell r="D19" t="str">
-            <v>1级魂石降级卷</v>
+            <v>小黑</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20">
-            <v>1280</v>
+            <v>1209</v>
           </cell>
           <cell r="C20">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="D20" t="str">
-            <v>2级魂石降级卷</v>
+            <v>小黑碎片</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21">
-            <v>1281</v>
+            <v>1210</v>
           </cell>
           <cell r="C21">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="D21" t="str">
-            <v>3级魂石降级卷</v>
+            <v>法爷</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22">
-            <v>1282</v>
+            <v>1211</v>
           </cell>
           <cell r="C22">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="D22" t="str">
-            <v>4级魂石降级卷</v>
+            <v>法爷碎片</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23">
-            <v>1283</v>
+            <v>1279</v>
           </cell>
           <cell r="C23">
             <v>1</v>
           </cell>
           <cell r="D23" t="str">
-            <v>低级魂石升级保护卷</v>
+            <v>1级魂石降级卷</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24">
-            <v>1284</v>
+            <v>1280</v>
           </cell>
           <cell r="C24">
             <v>2</v>
           </cell>
           <cell r="D24" t="str">
-            <v>中级魂石升级保护卷</v>
+            <v>2级魂石降级卷</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25">
-            <v>1285</v>
+            <v>1281</v>
           </cell>
           <cell r="C25">
             <v>3</v>
           </cell>
           <cell r="D25" t="str">
-            <v>高级魂石升级保护卷</v>
+            <v>3级魂石降级卷</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26">
-            <v>1286</v>
+            <v>1282</v>
           </cell>
           <cell r="C26">
             <v>4</v>
           </cell>
           <cell r="D26" t="str">
-            <v>魂石转移卷</v>
+            <v>4级魂石降级卷</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27">
-            <v>1287</v>
-          </cell>
-        </row>
-        <row r="27">
+            <v>1283</v>
+          </cell>
+          <cell r="C27">
+            <v>1</v>
+          </cell>
           <cell r="D27" t="str">
-            <v>1级魂石自选箱</v>
+            <v>低级魂石升级保护卷</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28">
-            <v>1288</v>
-          </cell>
-        </row>
-        <row r="28">
+            <v>1284</v>
+          </cell>
+          <cell r="C28">
+            <v>2</v>
+          </cell>
           <cell r="D28" t="str">
-            <v>2级魂石自选箱</v>
+            <v>中级魂石升级保护卷</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29">
-            <v>1289</v>
-          </cell>
-        </row>
-        <row r="29">
+            <v>1285</v>
+          </cell>
+          <cell r="C29">
+            <v>3</v>
+          </cell>
           <cell r="D29" t="str">
-            <v>3级魂石自选箱</v>
+            <v>高级魂石升级保护卷</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30">
-            <v>1290</v>
-          </cell>
-        </row>
-        <row r="30">
+            <v>1286</v>
+          </cell>
+          <cell r="C30">
+            <v>4</v>
+          </cell>
           <cell r="D30" t="str">
-            <v>4级魂石自选箱</v>
+            <v>魂石转移卷</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31">
-            <v>1291</v>
-          </cell>
-        </row>
-        <row r="31">
+            <v>1287</v>
+          </cell>
+          <cell r="C31">
+            <v>1</v>
+          </cell>
           <cell r="D31" t="str">
-            <v>天赋点</v>
+            <v>1级魂石自选箱</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32">
-            <v>1292</v>
-          </cell>
-        </row>
-        <row r="32">
+            <v>1288</v>
+          </cell>
+          <cell r="C32">
+            <v>2</v>
+          </cell>
           <cell r="D32" t="str">
-            <v>高阶精通点</v>
+            <v>2级魂石自选箱</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33">
-            <v>1293</v>
-          </cell>
-        </row>
-        <row r="33">
+            <v>1289</v>
+          </cell>
+          <cell r="C33">
+            <v>3</v>
+          </cell>
           <cell r="D33" t="str">
-            <v>技能精通经验</v>
+            <v>3级魂石自选箱</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34">
-            <v>1294</v>
-          </cell>
-        </row>
-        <row r="34">
+            <v>1290</v>
+          </cell>
+          <cell r="C34">
+            <v>4</v>
+          </cell>
           <cell r="D34" t="str">
-            <v>万能精通经验</v>
+            <v>4级魂石自选箱</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35">
-            <v>2001</v>
+            <v>1291</v>
           </cell>
           <cell r="C35">
             <v>1</v>
           </cell>
           <cell r="D35" t="str">
-            <v>炼狱熊怪</v>
+            <v>天赋点</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36">
-            <v>2002</v>
+            <v>1292</v>
           </cell>
           <cell r="C36">
             <v>1</v>
           </cell>
           <cell r="D36" t="str">
-            <v>炼狱羚羊</v>
+            <v>高阶精通点</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37">
-            <v>2003</v>
+            <v>1293</v>
           </cell>
           <cell r="C37">
             <v>1</v>
           </cell>
           <cell r="D37" t="str">
-            <v>疾行火熊</v>
+            <v>技能精通经验</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38">
-            <v>2004</v>
+            <v>1294</v>
           </cell>
           <cell r="C38">
             <v>1</v>
           </cell>
           <cell r="D38" t="str">
-            <v>炼狱亡魂</v>
+            <v>万能精通经验</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39">
-            <v>2005</v>
+            <v>2001</v>
           </cell>
           <cell r="C39">
             <v>1</v>
           </cell>
           <cell r="D39" t="str">
-            <v>夜魇近战兵</v>
+            <v>炼狱熊怪</v>
           </cell>
         </row>
         <row r="40">
           <cell r="B40">
-            <v>2006</v>
+            <v>2002</v>
           </cell>
           <cell r="C40">
             <v>1</v>
           </cell>
           <cell r="D40" t="str">
-            <v>炽甲虫战士</v>
+            <v>炼狱羚羊</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41">
-            <v>2007</v>
+            <v>2003</v>
           </cell>
           <cell r="C41">
             <v>1</v>
           </cell>
           <cell r="D41" t="str">
-            <v>远古炼狱巨人</v>
+            <v>疾行火熊</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42">
-            <v>2008</v>
+            <v>2004</v>
           </cell>
           <cell r="C42">
             <v>1</v>
           </cell>
           <cell r="D42" t="str">
-            <v>骷髅勇士</v>
+            <v>炼狱亡魂</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43">
-            <v>2009</v>
+            <v>2005</v>
           </cell>
           <cell r="C43">
             <v>1</v>
           </cell>
           <cell r="D43" t="str">
-            <v>炼狱火</v>
+            <v>夜魇近战兵</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44">
-            <v>2010</v>
+            <v>2006</v>
           </cell>
           <cell r="C44">
             <v>1</v>
           </cell>
           <cell r="D44" t="str">
-            <v>冥火剑圣</v>
+            <v>炽甲虫战士</v>
           </cell>
         </row>
         <row r="45">
           <cell r="B45">
-            <v>2011</v>
+            <v>2007</v>
           </cell>
           <cell r="C45">
             <v>1</v>
           </cell>
           <cell r="D45" t="str">
-            <v>小狗头人</v>
+            <v>远古炼狱巨人</v>
           </cell>
         </row>
         <row r="46">
           <cell r="B46">
-            <v>2012</v>
+            <v>2008</v>
           </cell>
           <cell r="C46">
             <v>1</v>
           </cell>
           <cell r="D46" t="str">
-            <v>雷电之魂</v>
+            <v>骷髅勇士</v>
           </cell>
         </row>
         <row r="47">
           <cell r="B47">
-            <v>2013</v>
+            <v>2009</v>
           </cell>
           <cell r="C47">
             <v>1</v>
           </cell>
           <cell r="D47" t="str">
-            <v>萨特窃神者</v>
+            <v>炼狱火</v>
           </cell>
         </row>
         <row r="48">
           <cell r="B48">
-            <v>2014</v>
+            <v>2010</v>
           </cell>
           <cell r="C48">
             <v>1</v>
           </cell>
           <cell r="D48" t="str">
-            <v>远古岚肤兽</v>
+            <v>冥火剑圣</v>
           </cell>
         </row>
         <row r="49">
           <cell r="B49">
-            <v>2015</v>
+            <v>2011</v>
           </cell>
           <cell r="C49">
             <v>1</v>
           </cell>
           <cell r="D49" t="str">
-            <v>雷树精兽</v>
+            <v>小狗头人</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50">
-            <v>2016</v>
+            <v>2012</v>
           </cell>
           <cell r="C50">
             <v>1</v>
           </cell>
           <cell r="D50" t="str">
-            <v>雷角兽</v>
+            <v>雷电之魂</v>
           </cell>
         </row>
         <row r="51">
           <cell r="B51">
-            <v>2017</v>
+            <v>2013</v>
           </cell>
           <cell r="C51">
             <v>1</v>
           </cell>
           <cell r="D51" t="str">
-            <v>霹雳怪手</v>
+            <v>萨特窃神者</v>
           </cell>
         </row>
         <row r="52">
           <cell r="B52">
-            <v>2018</v>
+            <v>2014</v>
           </cell>
           <cell r="C52">
             <v>1</v>
           </cell>
           <cell r="D52" t="str">
-            <v>幼年青眼雷龙</v>
+            <v>远古岚肤兽</v>
           </cell>
         </row>
         <row r="53">
           <cell r="B53">
-            <v>2019</v>
+            <v>2015</v>
           </cell>
           <cell r="C53">
             <v>1</v>
           </cell>
           <cell r="D53" t="str">
-            <v>雷羽鹫</v>
+            <v>雷树精兽</v>
           </cell>
         </row>
         <row r="54">
           <cell r="B54">
-            <v>2020</v>
+            <v>2016</v>
           </cell>
           <cell r="C54">
             <v>1</v>
           </cell>
           <cell r="D54" t="str">
-            <v>雷山鹫</v>
+            <v>雷角兽</v>
           </cell>
         </row>
         <row r="55">
           <cell r="B55">
-            <v>2021</v>
+            <v>2017</v>
           </cell>
           <cell r="C55">
             <v>1</v>
           </cell>
           <cell r="D55" t="str">
-            <v>雷翼鹫</v>
+            <v>霹雳怪手</v>
           </cell>
         </row>
         <row r="56">
           <cell r="B56">
-            <v>2022</v>
+            <v>2019</v>
           </cell>
           <cell r="C56">
             <v>1</v>
           </cell>
           <cell r="D56" t="str">
-            <v>冰川鬼魂</v>
+            <v>雷羽鹫</v>
           </cell>
         </row>
         <row r="57">
           <cell r="B57">
-            <v>2023</v>
+            <v>2020</v>
           </cell>
           <cell r="C57">
             <v>1</v>
           </cell>
           <cell r="D57" t="str">
-            <v>极寒精灵</v>
+            <v>雷山鹫</v>
           </cell>
         </row>
         <row r="58">
           <cell r="B58">
-            <v>2024</v>
+            <v>2021</v>
           </cell>
           <cell r="C58">
             <v>1</v>
           </cell>
           <cell r="D58" t="str">
-            <v>极寒冰狐</v>
+            <v>雷翼鹫</v>
           </cell>
         </row>
         <row r="59">
           <cell r="B59">
-            <v>2025</v>
+            <v>2022</v>
           </cell>
           <cell r="C59">
             <v>1</v>
           </cell>
           <cell r="D59" t="str">
-            <v>极地少女</v>
+            <v>冰川鬼魂</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60">
-            <v>2026</v>
+            <v>2023</v>
           </cell>
           <cell r="C60">
             <v>1</v>
           </cell>
           <cell r="D60" t="str">
-            <v>冰原行者</v>
+            <v>极寒精灵</v>
           </cell>
         </row>
         <row r="61">
           <cell r="B61">
-            <v>2027</v>
+            <v>2024</v>
           </cell>
           <cell r="C61">
             <v>1</v>
           </cell>
           <cell r="D61" t="str">
-            <v>极地虎</v>
+            <v>极寒冰狐</v>
           </cell>
         </row>
         <row r="62">
           <cell r="B62">
-            <v>2028</v>
+            <v>2025</v>
           </cell>
           <cell r="C62">
             <v>1</v>
           </cell>
           <cell r="D62" t="str">
-            <v>极地小冰龙</v>
+            <v>极地少女</v>
           </cell>
         </row>
         <row r="63">
           <cell r="B63">
-            <v>2029</v>
+            <v>2026</v>
           </cell>
           <cell r="C63">
             <v>1</v>
           </cell>
           <cell r="D63" t="str">
-            <v>极地小飞龙</v>
+            <v>冰原行者</v>
           </cell>
         </row>
         <row r="64">
           <cell r="B64">
-            <v>2030</v>
+            <v>2027</v>
           </cell>
           <cell r="C64">
             <v>1</v>
           </cell>
           <cell r="D64" t="str">
-            <v>冰晶小海马</v>
+            <v>极地虎</v>
           </cell>
         </row>
         <row r="65">
           <cell r="B65">
-            <v>2031</v>
+            <v>2028</v>
           </cell>
           <cell r="C65">
             <v>1</v>
           </cell>
           <cell r="D65" t="str">
-            <v>冰原狐</v>
+            <v>极地小冰龙</v>
           </cell>
         </row>
         <row r="66">
           <cell r="B66">
-            <v>2032</v>
+            <v>2029</v>
           </cell>
           <cell r="C66">
             <v>1</v>
           </cell>
           <cell r="D66" t="str">
-            <v>冰宫守卫</v>
+            <v>极地小飞龙</v>
           </cell>
         </row>
         <row r="67">
           <cell r="B67">
-            <v>2033</v>
+            <v>2030</v>
           </cell>
           <cell r="C67">
             <v>1</v>
           </cell>
           <cell r="D67" t="str">
-            <v>冰宫奴仆</v>
+            <v>冰晶小海马</v>
           </cell>
         </row>
         <row r="68">
           <cell r="B68">
-            <v>2034</v>
+            <v>2031</v>
           </cell>
           <cell r="C68">
             <v>1</v>
           </cell>
           <cell r="D68" t="str">
-            <v>绿洲鬼魂</v>
+            <v>冰原狐</v>
           </cell>
         </row>
         <row r="69">
           <cell r="B69">
-            <v>2035</v>
+            <v>2032</v>
           </cell>
           <cell r="C69">
             <v>1</v>
           </cell>
           <cell r="D69" t="str">
-            <v>绿洲丧尸</v>
+            <v>冰宫守卫</v>
           </cell>
         </row>
         <row r="70">
           <cell r="B70">
-            <v>2036</v>
+            <v>2033</v>
           </cell>
           <cell r="C70">
             <v>1</v>
           </cell>
           <cell r="D70" t="str">
-            <v>幼年沙龙</v>
+            <v>冰宫奴仆</v>
           </cell>
         </row>
         <row r="71">
           <cell r="B71">
-            <v>2037</v>
+            <v>2034</v>
           </cell>
           <cell r="C71">
             <v>1</v>
           </cell>
           <cell r="D71" t="str">
-            <v>绿洲精灵幼龙</v>
+            <v>绿洲鬼魂</v>
           </cell>
         </row>
         <row r="72">
           <cell r="B72">
-            <v>2038</v>
+            <v>2035</v>
           </cell>
           <cell r="C72">
             <v>1</v>
           </cell>
           <cell r="D72" t="str">
-            <v>绿洲跳跳蛙</v>
+            <v>绿洲丧尸</v>
           </cell>
         </row>
         <row r="73">
           <cell r="B73">
-            <v>2039</v>
+            <v>2036</v>
           </cell>
           <cell r="C73">
             <v>1</v>
           </cell>
           <cell r="D73" t="str">
-            <v>绿洲剧毒蛇</v>
+            <v>幼年沙龙</v>
           </cell>
         </row>
         <row r="74">
           <cell r="B74">
-            <v>2040</v>
+            <v>2037</v>
           </cell>
           <cell r="C74">
             <v>1</v>
           </cell>
           <cell r="D74" t="str">
-            <v>狂沙怪手</v>
+            <v>绿洲精灵幼龙</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75">
-            <v>2041</v>
+            <v>2038</v>
           </cell>
           <cell r="C75">
             <v>1</v>
           </cell>
           <cell r="D75" t="str">
-            <v>绿洲精灵马</v>
+            <v>绿洲跳跳蛙</v>
           </cell>
         </row>
         <row r="76">
           <cell r="B76">
-            <v>2042</v>
+            <v>2039</v>
           </cell>
           <cell r="C76">
             <v>1</v>
           </cell>
           <cell r="D76" t="str">
-            <v>绿洲小精灵</v>
+            <v>绿洲剧毒蛇</v>
           </cell>
         </row>
         <row r="77">
           <cell r="B77">
-            <v>2043</v>
+            <v>2040</v>
           </cell>
           <cell r="C77">
             <v>1</v>
           </cell>
           <cell r="D77" t="str">
-            <v>沙漠金龟</v>
+            <v>狂沙怪手</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78">
-            <v>2044</v>
+            <v>2041</v>
           </cell>
           <cell r="C78">
             <v>1</v>
           </cell>
           <cell r="D78" t="str">
-            <v>天辉高级战士</v>
+            <v>绿洲精灵马</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79">
-            <v>2045</v>
+            <v>2042</v>
           </cell>
           <cell r="C79">
             <v>1</v>
           </cell>
           <cell r="D79" t="str">
-            <v>高级精灵战士</v>
+            <v>绿洲小精灵</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80">
-            <v>2501</v>
+            <v>2043</v>
           </cell>
           <cell r="C80">
             <v>1</v>
           </cell>
           <cell r="D80" t="str">
-            <v>炼狱狼</v>
+            <v>沙漠金龟</v>
           </cell>
         </row>
         <row r="81">
           <cell r="B81">
-            <v>2502</v>
+            <v>2044</v>
           </cell>
           <cell r="C81">
             <v>1</v>
           </cell>
           <cell r="D81" t="str">
-            <v>夜魇远程兵</v>
+            <v>天辉高级战士</v>
           </cell>
         </row>
         <row r="82">
           <cell r="B82">
-            <v>2503</v>
+            <v>2045</v>
           </cell>
           <cell r="C82">
             <v>1</v>
           </cell>
           <cell r="D82" t="str">
-            <v>炼狱小双头犬</v>
+            <v>高级精灵战士</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83">
-            <v>2504</v>
+            <v>2501</v>
           </cell>
           <cell r="C83">
             <v>1</v>
           </cell>
           <cell r="D83" t="str">
-            <v>炽甲虫战车</v>
+            <v>炼狱狼</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84">
-            <v>2505</v>
+            <v>2502</v>
           </cell>
           <cell r="C84">
             <v>1</v>
           </cell>
           <cell r="D84" t="str">
-            <v>炼狱石甲虫</v>
+            <v>夜魇远程兵</v>
           </cell>
         </row>
         <row r="85">
           <cell r="B85">
-            <v>2506</v>
+            <v>2503</v>
           </cell>
           <cell r="C85">
             <v>1</v>
           </cell>
           <cell r="D85" t="str">
-            <v>炼狱战熊</v>
+            <v>炼狱小双头犬</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86">
-            <v>2507</v>
+            <v>2504</v>
           </cell>
           <cell r="C86">
             <v>1</v>
           </cell>
           <cell r="D86" t="str">
-            <v>炼狱界弓</v>
+            <v>炽甲虫战车</v>
           </cell>
         </row>
         <row r="87">
           <cell r="B87">
-            <v>2508</v>
+            <v>2505</v>
           </cell>
           <cell r="C87">
             <v>1</v>
           </cell>
           <cell r="D87" t="str">
-            <v>烈焰战龟</v>
+            <v>炼狱石甲虫</v>
           </cell>
         </row>
         <row r="88">
           <cell r="B88">
-            <v>2509</v>
+            <v>2506</v>
           </cell>
           <cell r="C88">
             <v>1</v>
           </cell>
           <cell r="D88" t="str">
-            <v>炼狱蜘蛛</v>
+            <v>炼狱战熊</v>
           </cell>
         </row>
         <row r="89">
           <cell r="B89">
-            <v>2510</v>
+            <v>2507</v>
           </cell>
           <cell r="C89">
             <v>1</v>
           </cell>
           <cell r="D89" t="str">
-            <v>炼狱猎蜥</v>
+            <v>炼狱界弓</v>
           </cell>
         </row>
         <row r="90">
           <cell r="B90">
-            <v>2511</v>
+            <v>2508</v>
           </cell>
           <cell r="C90">
             <v>1</v>
           </cell>
           <cell r="D90" t="str">
-            <v>炼狱火精灵</v>
+            <v>烈焰战龟</v>
           </cell>
         </row>
         <row r="91">
           <cell r="B91">
-            <v>2512</v>
+            <v>2509</v>
           </cell>
           <cell r="C91">
             <v>1</v>
           </cell>
           <cell r="D91" t="str">
-            <v>熔岩飞翼兽</v>
+            <v>炼狱蜘蛛</v>
           </cell>
         </row>
         <row r="92">
           <cell r="B92">
-            <v>2513</v>
+            <v>2510</v>
           </cell>
           <cell r="C92">
             <v>1</v>
           </cell>
           <cell r="D92" t="str">
-            <v>双斧狂战</v>
+            <v>炼狱猎蜥</v>
           </cell>
         </row>
         <row r="93">
           <cell r="B93">
-            <v>2514</v>
+            <v>2511</v>
           </cell>
           <cell r="C93">
             <v>1</v>
           </cell>
           <cell r="D93" t="str">
-            <v>熔岩卫兵</v>
+            <v>炼狱火精灵</v>
           </cell>
         </row>
         <row r="94">
           <cell r="B94">
-            <v>2515</v>
+            <v>2512</v>
           </cell>
           <cell r="C94">
             <v>1</v>
           </cell>
           <cell r="D94" t="str">
-            <v>远古炼狱火</v>
+            <v>熔岩飞翼兽</v>
           </cell>
         </row>
         <row r="95">
           <cell r="B95">
-            <v>2516</v>
+            <v>2513</v>
           </cell>
           <cell r="C95">
             <v>1</v>
           </cell>
           <cell r="D95" t="str">
-            <v>雷须兽</v>
+            <v>双斧狂战</v>
           </cell>
         </row>
         <row r="96">
           <cell r="B96">
-            <v>2517</v>
+            <v>2514</v>
           </cell>
           <cell r="C96">
             <v>1</v>
           </cell>
           <cell r="D96" t="str">
-            <v>雷霆晶龟</v>
+            <v>熔岩卫兵</v>
           </cell>
         </row>
         <row r="97">
           <cell r="B97">
-            <v>2518</v>
+            <v>2516</v>
           </cell>
           <cell r="C97">
             <v>1</v>
           </cell>
           <cell r="D97" t="str">
-            <v>霹雳怪虫</v>
+            <v>雷须兽</v>
           </cell>
         </row>
         <row r="98">
           <cell r="B98">
-            <v>2519</v>
+            <v>2517</v>
           </cell>
           <cell r="C98">
             <v>1</v>
           </cell>
           <cell r="D98" t="str">
-            <v>独角雷兽</v>
+            <v>雷霆晶龟</v>
           </cell>
         </row>
         <row r="99">
           <cell r="B99">
-            <v>2520</v>
+            <v>2518</v>
           </cell>
           <cell r="C99">
             <v>1</v>
           </cell>
           <cell r="D99" t="str">
-            <v>雷电见习者</v>
+            <v>霹雳怪虫</v>
           </cell>
         </row>
         <row r="100">
           <cell r="B100">
-            <v>2521</v>
+            <v>2519</v>
           </cell>
           <cell r="C100">
             <v>1</v>
           </cell>
           <cell r="D100" t="str">
-            <v>雷霆拍熊</v>
+            <v>独角雷兽</v>
           </cell>
         </row>
         <row r="101">
           <cell r="B101">
-            <v>2522</v>
+            <v>2520</v>
           </cell>
           <cell r="C101">
             <v>1</v>
           </cell>
           <cell r="D101" t="str">
-            <v>雷翼飞狐</v>
+            <v>雷电见习者</v>
           </cell>
         </row>
         <row r="102">
           <cell r="B102">
-            <v>2523</v>
+            <v>2521</v>
           </cell>
           <cell r="C102">
             <v>1</v>
           </cell>
           <cell r="D102" t="str">
-            <v>远古黑龙</v>
+            <v>雷霆拍熊</v>
           </cell>
         </row>
         <row r="103">
           <cell r="B103">
-            <v>2524</v>
+            <v>2522</v>
           </cell>
           <cell r="C103">
             <v>1</v>
           </cell>
           <cell r="D103" t="str">
-            <v>雷霆领主</v>
+            <v>雷翼飞狐</v>
           </cell>
         </row>
         <row r="104">
           <cell r="B104">
-            <v>2525</v>
+            <v>2523</v>
           </cell>
           <cell r="C104">
             <v>1</v>
           </cell>
           <cell r="D104" t="str">
-            <v>霹雳怪泥</v>
+            <v>远古黑龙</v>
           </cell>
         </row>
         <row r="105">
           <cell r="B105">
-            <v>2526</v>
+            <v>2524</v>
           </cell>
           <cell r="C105">
             <v>1</v>
           </cell>
           <cell r="D105" t="str">
-            <v>雷霆战蜥</v>
+            <v>雷霆领主</v>
           </cell>
         </row>
         <row r="106">
           <cell r="B106">
-            <v>2527</v>
+            <v>2525</v>
           </cell>
           <cell r="C106">
             <v>1</v>
           </cell>
           <cell r="D106" t="str">
-            <v>霹雳女妖</v>
+            <v>霹雳怪泥</v>
           </cell>
         </row>
         <row r="107">
           <cell r="B107">
-            <v>2528</v>
+            <v>2526</v>
           </cell>
           <cell r="C107">
             <v>1</v>
           </cell>
           <cell r="D107" t="str">
-            <v>雷压巨兽</v>
+            <v>雷霆战蜥</v>
           </cell>
         </row>
         <row r="108">
           <cell r="B108">
-            <v>2529</v>
+            <v>2527</v>
           </cell>
           <cell r="C108">
             <v>1</v>
           </cell>
           <cell r="D108" t="str">
-            <v>雷压射手</v>
+            <v>霹雳女妖</v>
           </cell>
         </row>
         <row r="109">
           <cell r="B109">
-            <v>2530</v>
+            <v>2528</v>
           </cell>
           <cell r="C109">
             <v>1</v>
           </cell>
           <cell r="D109" t="str">
-            <v>雷霆梦魇</v>
+            <v>雷压巨兽</v>
           </cell>
         </row>
         <row r="110">
           <cell r="B110">
-            <v>2531</v>
+            <v>2529</v>
           </cell>
           <cell r="C110">
             <v>1</v>
           </cell>
           <cell r="D110" t="str">
-            <v>冰川幼龟</v>
+            <v>雷压射手</v>
           </cell>
         </row>
         <row r="111">
           <cell r="B111">
-            <v>2532</v>
+            <v>2530</v>
           </cell>
           <cell r="C111">
             <v>1</v>
           </cell>
           <cell r="D111" t="str">
-            <v>近代冰魂</v>
+            <v>雷霆梦魇</v>
           </cell>
         </row>
         <row r="112">
           <cell r="B112">
-            <v>2533</v>
+            <v>2531</v>
           </cell>
           <cell r="C112">
             <v>1</v>
           </cell>
           <cell r="D112" t="str">
-            <v>冰晶石甲虫</v>
+            <v>冰川幼龟</v>
           </cell>
         </row>
         <row r="113">
           <cell r="B113">
-            <v>2534</v>
+            <v>2532</v>
           </cell>
           <cell r="C113">
             <v>1</v>
           </cell>
           <cell r="D113" t="str">
-            <v>冰原犬</v>
+            <v>近代冰魂</v>
           </cell>
         </row>
         <row r="114">
           <cell r="B114">
-            <v>2535</v>
+            <v>2533</v>
           </cell>
           <cell r="C114">
             <v>1</v>
           </cell>
           <cell r="D114" t="str">
-            <v>冰甲战熊</v>
+            <v>冰晶石甲虫</v>
           </cell>
         </row>
         <row r="115">
           <cell r="B115">
-            <v>2536</v>
+            <v>2534</v>
           </cell>
           <cell r="C115">
             <v>1</v>
           </cell>
           <cell r="D115" t="str">
-            <v>寒霜战士</v>
+            <v>冰原犬</v>
           </cell>
         </row>
         <row r="116">
           <cell r="B116">
-            <v>2537</v>
+            <v>2535</v>
           </cell>
           <cell r="C116">
             <v>1</v>
           </cell>
           <cell r="D116" t="str">
-            <v>寒霜萨满</v>
+            <v>冰甲战熊</v>
           </cell>
         </row>
         <row r="117">
           <cell r="B117">
-            <v>2538</v>
+            <v>2536</v>
           </cell>
           <cell r="C117">
             <v>1</v>
           </cell>
           <cell r="D117" t="str">
-            <v>冰原巨兽</v>
+            <v>寒霜战士</v>
           </cell>
         </row>
         <row r="118">
           <cell r="B118">
-            <v>2539</v>
+            <v>2537</v>
           </cell>
           <cell r="C118">
             <v>1</v>
           </cell>
           <cell r="D118" t="str">
-            <v>极地熊战士</v>
+            <v>寒霜萨满</v>
           </cell>
         </row>
         <row r="119">
           <cell r="B119">
-            <v>2540</v>
+            <v>2538</v>
           </cell>
           <cell r="C119">
             <v>1</v>
           </cell>
           <cell r="D119" t="str">
-            <v>冰原猩猩兽</v>
+            <v>冰原巨兽</v>
           </cell>
         </row>
         <row r="120">
           <cell r="B120">
-            <v>2541</v>
+            <v>2539</v>
           </cell>
           <cell r="C120">
             <v>1</v>
           </cell>
           <cell r="D120" t="str">
-            <v>极地巨人</v>
+            <v>极地熊战士</v>
           </cell>
         </row>
         <row r="121">
           <cell r="B121">
-            <v>2542</v>
+            <v>2540</v>
           </cell>
           <cell r="C121">
             <v>1</v>
           </cell>
           <cell r="D121" t="str">
-            <v>极地四脚兽</v>
+            <v>冰原猩猩兽</v>
           </cell>
         </row>
         <row r="122">
           <cell r="B122">
-            <v>2543</v>
+            <v>2541</v>
           </cell>
           <cell r="C122">
             <v>1</v>
           </cell>
           <cell r="D122" t="str">
-            <v>极地飞翼兽</v>
+            <v>极地巨人</v>
           </cell>
         </row>
         <row r="123">
           <cell r="B123">
-            <v>2544</v>
+            <v>2542</v>
           </cell>
           <cell r="C123">
             <v>1</v>
           </cell>
           <cell r="D123" t="str">
-            <v>极冰守卫</v>
+            <v>极地四脚兽</v>
           </cell>
         </row>
         <row r="124">
           <cell r="B124">
-            <v>2545</v>
+            <v>2543</v>
           </cell>
           <cell r="C124">
             <v>1</v>
           </cell>
           <cell r="D124" t="str">
-            <v>冰原守卫</v>
+            <v>极地飞翼兽</v>
           </cell>
         </row>
         <row r="125">
           <cell r="B125">
-            <v>2546</v>
+            <v>2544</v>
           </cell>
           <cell r="C125">
             <v>1</v>
           </cell>
           <cell r="D125" t="str">
-            <v>绿洲剧毒飞蛇</v>
+            <v>极冰守卫</v>
           </cell>
         </row>
         <row r="126">
           <cell r="B126">
-            <v>2547</v>
+            <v>2545</v>
           </cell>
           <cell r="C126">
             <v>1</v>
           </cell>
           <cell r="D126" t="str">
-            <v>绿洲魔法飞马</v>
+            <v>冰原守卫</v>
           </cell>
         </row>
         <row r="127">
           <cell r="B127">
-            <v>2548</v>
+            <v>2546</v>
           </cell>
           <cell r="C127">
             <v>1</v>
           </cell>
           <cell r="D127" t="str">
-            <v>绿洲怪手</v>
+            <v>绿洲剧毒飞蛇</v>
           </cell>
         </row>
         <row r="128">
           <cell r="B128">
-            <v>2549</v>
+            <v>2547</v>
           </cell>
           <cell r="C128">
             <v>1</v>
           </cell>
           <cell r="D128" t="str">
-            <v>毒风鹫</v>
+            <v>绿洲魔法飞马</v>
           </cell>
         </row>
         <row r="129">
           <cell r="B129">
-            <v>2550</v>
+            <v>2548</v>
           </cell>
           <cell r="C129">
             <v>1</v>
           </cell>
           <cell r="D129" t="str">
-            <v>天辉高级术士</v>
+            <v>绿洲怪手</v>
           </cell>
         </row>
         <row r="130">
           <cell r="B130">
-            <v>2551</v>
+            <v>2549</v>
           </cell>
           <cell r="C130">
             <v>1</v>
           </cell>
           <cell r="D130" t="str">
-            <v>独角沙兽</v>
+            <v>毒风鹫</v>
           </cell>
         </row>
         <row r="131">
           <cell r="B131">
-            <v>2552</v>
+            <v>2550</v>
           </cell>
           <cell r="C131">
             <v>1</v>
           </cell>
           <cell r="D131" t="str">
-            <v>高级精灵战车</v>
+            <v>天辉高级术士</v>
           </cell>
         </row>
         <row r="132">
           <cell r="B132">
-            <v>2553</v>
+            <v>2551</v>
           </cell>
           <cell r="C132">
             <v>1</v>
           </cell>
           <cell r="D132" t="str">
-            <v>风沙狼</v>
+            <v>独角沙兽</v>
           </cell>
         </row>
         <row r="133">
           <cell r="B133">
-            <v>2554</v>
+            <v>2552</v>
           </cell>
           <cell r="C133">
             <v>1</v>
           </cell>
           <cell r="D133" t="str">
-            <v>风沙狮</v>
+            <v>高级精灵战车</v>
           </cell>
         </row>
         <row r="134">
           <cell r="B134">
-            <v>2555</v>
+            <v>2553</v>
           </cell>
           <cell r="C134">
             <v>1</v>
           </cell>
           <cell r="D134" t="str">
-            <v>风沙战熊</v>
+            <v>风沙狼</v>
           </cell>
         </row>
         <row r="135">
           <cell r="B135">
-            <v>2556</v>
+            <v>2554</v>
           </cell>
           <cell r="C135">
             <v>1</v>
           </cell>
           <cell r="D135" t="str">
-            <v>绿洲守卫</v>
+            <v>风沙狮</v>
           </cell>
         </row>
         <row r="136">
           <cell r="B136">
-            <v>2557</v>
+            <v>2555</v>
           </cell>
           <cell r="C136">
             <v>1</v>
           </cell>
           <cell r="D136" t="str">
-            <v>风沙刺鼬</v>
+            <v>风沙战熊</v>
           </cell>
         </row>
         <row r="137">
           <cell r="B137">
-            <v>2558</v>
+            <v>2556</v>
           </cell>
           <cell r="C137">
             <v>1</v>
           </cell>
           <cell r="D137" t="str">
-            <v>绿洲女巫</v>
+            <v>绿洲守卫</v>
           </cell>
         </row>
         <row r="138">
           <cell r="B138">
-            <v>2559</v>
+            <v>2557</v>
           </cell>
           <cell r="C138">
             <v>1</v>
           </cell>
           <cell r="D138" t="str">
-            <v>砂砾小巨人</v>
+            <v>风沙刺鼬</v>
           </cell>
         </row>
         <row r="139">
           <cell r="B139">
-            <v>2901</v>
+            <v>2558</v>
           </cell>
           <cell r="C139">
             <v>1</v>
           </cell>
           <cell r="D139" t="str">
-            <v>炼狱领主</v>
+            <v>绿洲女巫</v>
           </cell>
         </row>
         <row r="140">
           <cell r="B140">
-            <v>2902</v>
+            <v>2559</v>
           </cell>
           <cell r="C140">
             <v>1</v>
           </cell>
           <cell r="D140" t="str">
-            <v>熔岩巨人</v>
+            <v>砂砾小巨人</v>
           </cell>
         </row>
         <row r="141">
           <cell r="B141">
-            <v>2903</v>
+            <v>2560</v>
           </cell>
           <cell r="C141">
             <v>1</v>
           </cell>
           <cell r="D141" t="str">
-            <v>烈焰神狐</v>
+            <v>幼年青眼雷龙</v>
           </cell>
         </row>
         <row r="142">
           <cell r="B142">
-            <v>2904</v>
+            <v>2901</v>
           </cell>
           <cell r="C142">
             <v>1</v>
           </cell>
           <cell r="D142" t="str">
-            <v>炼狱双头犬</v>
+            <v>炼狱领主</v>
           </cell>
         </row>
         <row r="143">
           <cell r="B143">
-            <v>2905</v>
+            <v>2902</v>
           </cell>
           <cell r="C143">
             <v>1</v>
           </cell>
           <cell r="D143" t="str">
-            <v>烈焰战神</v>
+            <v>熔岩巨人</v>
           </cell>
         </row>
         <row r="144">
           <cell r="B144">
-            <v>2906</v>
+            <v>2903</v>
           </cell>
           <cell r="C144">
             <v>1</v>
           </cell>
           <cell r="D144" t="str">
-            <v>青眼雷龙</v>
+            <v>烈焰神狐</v>
           </cell>
         </row>
         <row r="145">
           <cell r="B145">
-            <v>2907</v>
+            <v>2904</v>
           </cell>
           <cell r="C145">
             <v>1</v>
           </cell>
           <cell r="D145" t="str">
-            <v>雷压飞翼兽</v>
+            <v>炼狱双头犬</v>
           </cell>
         </row>
         <row r="146">
           <cell r="B146">
-            <v>2908</v>
+            <v>2905</v>
           </cell>
           <cell r="C146">
             <v>1</v>
           </cell>
           <cell r="D146" t="str">
-            <v>雷电掌控者</v>
+            <v>烈焰战神</v>
           </cell>
         </row>
         <row r="147">
           <cell r="B147">
-            <v>2909</v>
+            <v>2906</v>
           </cell>
           <cell r="C147">
             <v>1</v>
           </cell>
           <cell r="D147" t="str">
-            <v>雷神鸟</v>
+            <v>青眼雷龙</v>
           </cell>
         </row>
         <row r="148">
           <cell r="B148">
-            <v>2910</v>
+            <v>2907</v>
           </cell>
           <cell r="C148">
             <v>1</v>
           </cell>
           <cell r="D148" t="str">
-            <v>闪电制造者</v>
+            <v>雷压飞翼兽</v>
           </cell>
         </row>
         <row r="149">
           <cell r="B149">
-            <v>2911</v>
+            <v>2908</v>
           </cell>
           <cell r="C149">
             <v>1</v>
           </cell>
           <cell r="D149" t="str">
-            <v>极寒领主</v>
+            <v>雷电掌控者</v>
           </cell>
         </row>
         <row r="150">
           <cell r="B150">
-            <v>2912</v>
+            <v>2909</v>
           </cell>
           <cell r="C150">
             <v>1</v>
           </cell>
           <cell r="D150" t="str">
-            <v>极寒蛛美丽</v>
+            <v>雷神鸟</v>
           </cell>
         </row>
         <row r="151">
           <cell r="B151">
-            <v>2913</v>
+            <v>2910</v>
           </cell>
           <cell r="C151">
             <v>1</v>
           </cell>
           <cell r="D151" t="str">
-            <v>冰原领主</v>
+            <v>闪电制造者</v>
           </cell>
         </row>
         <row r="152">
           <cell r="B152">
-            <v>2914</v>
+            <v>2911</v>
           </cell>
           <cell r="C152">
             <v>1</v>
           </cell>
           <cell r="D152" t="str">
-            <v>狂沙熊战士</v>
+            <v>极寒领主</v>
           </cell>
         </row>
         <row r="153">
           <cell r="B153">
-            <v>2915</v>
+            <v>2912</v>
           </cell>
           <cell r="C153">
             <v>1</v>
           </cell>
           <cell r="D153" t="str">
-            <v>黄沙护卫</v>
+            <v>极寒蛛美丽</v>
           </cell>
         </row>
         <row r="154">
           <cell r="B154">
-            <v>2916</v>
+            <v>2913</v>
           </cell>
           <cell r="C154">
             <v>1</v>
           </cell>
           <cell r="D154" t="str">
-            <v>绿洲之主</v>
+            <v>冰原领主</v>
           </cell>
         </row>
         <row r="155">
           <cell r="B155">
-            <v>2917</v>
+            <v>2914</v>
           </cell>
           <cell r="C155">
             <v>1</v>
           </cell>
           <cell r="D155" t="str">
-            <v>黄沙之主</v>
+            <v>狂沙熊战士</v>
           </cell>
         </row>
         <row r="156">
           <cell r="B156">
-            <v>2918</v>
+            <v>2915</v>
           </cell>
           <cell r="C156">
             <v>1</v>
           </cell>
           <cell r="D156" t="str">
-            <v>祈风使</v>
+            <v>黄沙护卫</v>
           </cell>
         </row>
         <row r="157">
           <cell r="B157">
-            <v>2919</v>
+            <v>2916</v>
           </cell>
           <cell r="C157">
             <v>1</v>
           </cell>
           <cell r="D157" t="str">
-            <v>寒冰使</v>
+            <v>绿洲之主</v>
           </cell>
         </row>
         <row r="158">
           <cell r="B158">
-            <v>2920</v>
+            <v>2917</v>
           </cell>
           <cell r="C158">
             <v>1</v>
           </cell>
           <cell r="D158" t="str">
-            <v>霹雳使</v>
+            <v>黄沙之主</v>
           </cell>
         </row>
         <row r="159">
           <cell r="B159">
-            <v>2921</v>
+            <v>2918</v>
           </cell>
           <cell r="C159">
             <v>1</v>
           </cell>
           <cell r="D159" t="str">
-            <v>烈火使</v>
+            <v>祈风使</v>
           </cell>
         </row>
         <row r="160">
           <cell r="B160">
-            <v>3201</v>
+            <v>2919</v>
           </cell>
           <cell r="C160">
             <v>1</v>
           </cell>
           <cell r="D160" t="str">
-            <v>炼狱之王</v>
+            <v>寒冰使</v>
           </cell>
         </row>
         <row r="161">
           <cell r="B161">
-            <v>3202</v>
+            <v>2920</v>
           </cell>
           <cell r="C161">
             <v>1</v>
           </cell>
           <cell r="D161" t="str">
-            <v>雷神</v>
+            <v>霹雳使</v>
           </cell>
         </row>
         <row r="162">
           <cell r="B162">
-            <v>3203</v>
+            <v>2921</v>
           </cell>
           <cell r="C162">
             <v>1</v>
           </cell>
           <cell r="D162" t="str">
-            <v>冰宫女王</v>
+            <v>烈火使</v>
           </cell>
         </row>
         <row r="163">
           <cell r="B163">
-            <v>3204</v>
+            <v>2922</v>
           </cell>
           <cell r="C163">
             <v>1</v>
           </cell>
           <cell r="D163" t="str">
-            <v>风神</v>
+            <v>远古炼狱火</v>
           </cell>
         </row>
         <row r="164">
           <cell r="B164">
-            <v>3205</v>
+            <v>3201</v>
           </cell>
           <cell r="C164">
             <v>1</v>
           </cell>
           <cell r="D164" t="str">
-            <v>元素之主</v>
+            <v>炼狱之王</v>
           </cell>
         </row>
         <row r="165">
           <cell r="B165">
-            <v>3501</v>
+            <v>3202</v>
           </cell>
           <cell r="C165">
             <v>1</v>
           </cell>
           <cell r="D165" t="str">
-            <v>精良图鉴箱</v>
+            <v>雷神</v>
           </cell>
         </row>
         <row r="166">
           <cell r="B166">
-            <v>3502</v>
+            <v>3203</v>
           </cell>
           <cell r="C166">
             <v>1</v>
           </cell>
           <cell r="D166" t="str">
-            <v>史诗图鉴箱</v>
+            <v>冰宫女王</v>
           </cell>
         </row>
         <row r="167">
           <cell r="B167">
-            <v>3503</v>
+            <v>3204</v>
           </cell>
           <cell r="C167">
             <v>1</v>
           </cell>
           <cell r="D167" t="str">
-            <v>传说图鉴箱</v>
+            <v>风神</v>
           </cell>
         </row>
         <row r="168">
           <cell r="B168">
-            <v>3504</v>
+            <v>3205</v>
           </cell>
           <cell r="C168">
             <v>1</v>
           </cell>
           <cell r="D168" t="str">
-            <v>元素大陆的图鉴箱</v>
+            <v>元素之主</v>
           </cell>
         </row>
         <row r="169">
           <cell r="B169">
-            <v>3505</v>
+            <v>3501</v>
           </cell>
           <cell r="C169">
             <v>1</v>
           </cell>
           <cell r="D169" t="str">
-            <v>熔火炼狱的图鉴箱</v>
+            <v>精良图鉴箱</v>
           </cell>
         </row>
         <row r="170">
           <cell r="B170">
-            <v>3506</v>
+            <v>3502</v>
           </cell>
           <cell r="C170">
             <v>1</v>
           </cell>
           <cell r="D170" t="str">
-            <v>极北之地的图鉴箱</v>
+            <v>史诗图鉴箱</v>
           </cell>
         </row>
         <row r="171">
           <cell r="B171">
-            <v>3507</v>
+            <v>3503</v>
           </cell>
           <cell r="C171">
             <v>1</v>
           </cell>
           <cell r="D171" t="str">
-            <v>狂风沙漠的图鉴箱</v>
+            <v>传说图鉴箱</v>
           </cell>
         </row>
         <row r="172">
           <cell r="B172">
-            <v>3508</v>
+            <v>3504</v>
           </cell>
           <cell r="C172">
             <v>1</v>
           </cell>
           <cell r="D172" t="str">
-            <v>雷霆之地的图鉴箱</v>
+            <v>元素大陆的图鉴箱</v>
           </cell>
         </row>
         <row r="173">
           <cell r="B173">
-            <v>3509</v>
+            <v>3505</v>
           </cell>
           <cell r="C173">
             <v>1</v>
           </cell>
           <cell r="D173" t="str">
-            <v>熔火炼狱的史诗图鉴图鉴箱</v>
+            <v>熔火炼狱的图鉴箱</v>
           </cell>
         </row>
         <row r="174">
           <cell r="B174">
-            <v>3510</v>
+            <v>3506</v>
           </cell>
           <cell r="C174">
             <v>1</v>
           </cell>
           <cell r="D174" t="str">
-            <v>极北之地的史诗图鉴图鉴箱</v>
+            <v>极北之地的图鉴箱</v>
           </cell>
         </row>
         <row r="175">
           <cell r="B175">
-            <v>3511</v>
+            <v>3507</v>
           </cell>
           <cell r="C175">
             <v>1</v>
           </cell>
           <cell r="D175" t="str">
-            <v>狂风沙漠的史诗图鉴图鉴箱</v>
+            <v>狂风沙漠的图鉴箱</v>
           </cell>
         </row>
         <row r="176">
           <cell r="B176">
-            <v>3512</v>
+            <v>3508</v>
           </cell>
           <cell r="C176">
             <v>1</v>
           </cell>
           <cell r="D176" t="str">
-            <v>雷霆之地的史诗图鉴图鉴箱</v>
+            <v>雷霆之地的图鉴箱</v>
           </cell>
         </row>
         <row r="177">
           <cell r="B177">
-            <v>3513</v>
+            <v>3509</v>
           </cell>
           <cell r="C177">
             <v>1</v>
           </cell>
           <cell r="D177" t="str">
-            <v>熔火炼狱的传说图鉴图鉴箱</v>
+            <v>熔火炼狱的史诗图鉴图鉴箱</v>
           </cell>
         </row>
         <row r="178">
           <cell r="B178">
-            <v>3514</v>
+            <v>3510</v>
           </cell>
           <cell r="C178">
             <v>1</v>
           </cell>
           <cell r="D178" t="str">
-            <v>极北之地的传说图鉴图鉴箱</v>
+            <v>极北之地的史诗图鉴图鉴箱</v>
           </cell>
         </row>
         <row r="179">
           <cell r="B179">
-            <v>3515</v>
+            <v>3511</v>
           </cell>
           <cell r="C179">
             <v>1</v>
           </cell>
           <cell r="D179" t="str">
-            <v>狂风沙漠的传说图鉴图鉴箱</v>
+            <v>狂风沙漠的史诗图鉴图鉴箱</v>
           </cell>
         </row>
         <row r="180">
           <cell r="B180">
-            <v>3516</v>
+            <v>3512</v>
           </cell>
           <cell r="C180">
             <v>1</v>
           </cell>
           <cell r="D180" t="str">
-            <v>雷霆之地的传说图鉴图鉴箱</v>
+            <v>雷霆之地的史诗图鉴图鉴箱</v>
           </cell>
         </row>
         <row r="181">
           <cell r="B181">
-            <v>3517</v>
+            <v>3513</v>
           </cell>
           <cell r="C181">
             <v>1</v>
           </cell>
           <cell r="D181" t="str">
-            <v>精良图鉴箱（自选）</v>
+            <v>熔火炼狱的传说图鉴图鉴箱</v>
           </cell>
         </row>
         <row r="182">
           <cell r="B182">
-            <v>3518</v>
+            <v>3514</v>
           </cell>
           <cell r="C182">
             <v>1</v>
           </cell>
           <cell r="D182" t="str">
-            <v>史诗图鉴箱（自选）</v>
+            <v>极北之地的传说图鉴图鉴箱</v>
           </cell>
         </row>
         <row r="183">
           <cell r="B183">
-            <v>3519</v>
+            <v>3515</v>
           </cell>
           <cell r="C183">
             <v>1</v>
           </cell>
           <cell r="D183" t="str">
-            <v>传说图鉴箱（自选）</v>
+            <v>狂风沙漠的传说图鉴图鉴箱</v>
           </cell>
         </row>
         <row r="184">
           <cell r="B184">
-            <v>3520</v>
+            <v>3516</v>
           </cell>
           <cell r="C184">
             <v>1</v>
           </cell>
           <cell r="D184" t="str">
-            <v>不朽图鉴箱（自选）</v>
+            <v>雷霆之地的传说图鉴图鉴箱</v>
           </cell>
         </row>
         <row r="185">
           <cell r="B185">
-            <v>3521</v>
+            <v>3517</v>
           </cell>
           <cell r="C185">
             <v>1</v>
           </cell>
           <cell r="D185" t="str">
-            <v>熔火炼狱的图鉴箱（自选）</v>
+            <v>精良图鉴箱（自选）</v>
           </cell>
         </row>
         <row r="186">
           <cell r="B186">
-            <v>3522</v>
+            <v>3518</v>
           </cell>
           <cell r="C186">
             <v>1</v>
           </cell>
           <cell r="D186" t="str">
-            <v>极北之地的图鉴箱（自选）</v>
+            <v>史诗图鉴箱（自选）</v>
           </cell>
         </row>
         <row r="187">
           <cell r="B187">
-            <v>3523</v>
+            <v>3519</v>
           </cell>
           <cell r="C187">
             <v>1</v>
           </cell>
           <cell r="D187" t="str">
-            <v>狂风沙漠的图鉴箱（自选）</v>
+            <v>传说图鉴箱（自选）</v>
           </cell>
         </row>
         <row r="188">
           <cell r="B188">
-            <v>3524</v>
+            <v>3520</v>
           </cell>
           <cell r="C188">
             <v>1</v>
           </cell>
           <cell r="D188" t="str">
-            <v>雷霆之地的图鉴箱（自选）</v>
+            <v>不朽图鉴箱（自选）</v>
           </cell>
         </row>
         <row r="189">
           <cell r="B189">
-            <v>3525</v>
+            <v>3521</v>
           </cell>
           <cell r="C189">
             <v>1</v>
           </cell>
           <cell r="D189" t="str">
-            <v>元素大陆图的鉴箱（自选）</v>
+            <v>熔火炼狱的图鉴箱（自选）</v>
           </cell>
         </row>
         <row r="190">
           <cell r="B190">
-            <v>10000</v>
-          </cell>
-        </row>
-        <row r="190">
+            <v>3522</v>
+          </cell>
+          <cell r="C190">
+            <v>1</v>
+          </cell>
           <cell r="D190" t="str">
-            <v>1级魂石·攻击力</v>
+            <v>极北之地的图鉴箱（自选）</v>
           </cell>
         </row>
         <row r="191">
           <cell r="B191">
-            <v>10001</v>
-          </cell>
-        </row>
-        <row r="191">
+            <v>3523</v>
+          </cell>
+          <cell r="C191">
+            <v>1</v>
+          </cell>
           <cell r="D191" t="str">
-            <v>1级魂石·固定伤害</v>
+            <v>狂风沙漠的图鉴箱（自选）</v>
           </cell>
         </row>
         <row r="192">
           <cell r="B192">
-            <v>10002</v>
-          </cell>
-        </row>
-        <row r="192">
+            <v>3524</v>
+          </cell>
+          <cell r="C192">
+            <v>1</v>
+          </cell>
           <cell r="D192" t="str">
-            <v>1级魂石·全元素伤害</v>
+            <v>雷霆之地的图鉴箱（自选）</v>
           </cell>
         </row>
         <row r="193">
           <cell r="B193">
-            <v>10003</v>
-          </cell>
-        </row>
-        <row r="193">
+            <v>3525</v>
+          </cell>
+          <cell r="C193">
+            <v>1</v>
+          </cell>
           <cell r="D193" t="str">
-            <v>1级魂石·暴击概率</v>
+            <v>元素大陆图的鉴箱（自选）</v>
           </cell>
         </row>
         <row r="194">
           <cell r="B194">
-            <v>10004</v>
-          </cell>
-        </row>
-        <row r="194">
+            <v>10000</v>
+          </cell>
+          <cell r="C194">
+            <v>1</v>
+          </cell>
           <cell r="D194" t="str">
-            <v>1级魂石·暴击伤害</v>
+            <v>1级魂石·攻击力</v>
           </cell>
         </row>
         <row r="195">
           <cell r="B195">
-            <v>10005</v>
-          </cell>
-        </row>
-        <row r="195">
+            <v>10001</v>
+          </cell>
+          <cell r="C195">
+            <v>1</v>
+          </cell>
           <cell r="D195" t="str">
-            <v>1级魂石·元素穿透</v>
+            <v>1级魂石·固定伤害</v>
           </cell>
         </row>
         <row r="196">
           <cell r="B196">
-            <v>10006</v>
-          </cell>
-        </row>
-        <row r="196">
+            <v>10002</v>
+          </cell>
+          <cell r="C196">
+            <v>1</v>
+          </cell>
           <cell r="D196" t="str">
-            <v>1级魂石·生命值</v>
+            <v>1级魂石·全元素伤害</v>
           </cell>
         </row>
         <row r="197">
           <cell r="B197">
-            <v>10007</v>
-          </cell>
-        </row>
-        <row r="197">
+            <v>10003</v>
+          </cell>
+          <cell r="C197">
+            <v>1</v>
+          </cell>
           <cell r="D197" t="str">
-            <v>1级魂石·攻击速度</v>
+            <v>1级魂石·暴击概率</v>
           </cell>
         </row>
         <row r="198">
           <cell r="B198">
-            <v>10008</v>
-          </cell>
-        </row>
-        <row r="198">
+            <v>10004</v>
+          </cell>
+          <cell r="C198">
+            <v>1</v>
+          </cell>
           <cell r="D198" t="str">
-            <v>1级魂石·防御</v>
+            <v>1级魂石·暴击伤害</v>
           </cell>
         </row>
         <row r="199">
           <cell r="B199">
-            <v>10009</v>
-          </cell>
-        </row>
-        <row r="199">
+            <v>10005</v>
+          </cell>
+          <cell r="C199">
+            <v>1</v>
+          </cell>
           <cell r="D199" t="str">
-            <v>1级魂石·元素抗性</v>
+            <v>1级魂石·元素穿透</v>
           </cell>
         </row>
         <row r="200">
           <cell r="B200">
-            <v>10010</v>
-          </cell>
-        </row>
-        <row r="200">
+            <v>10006</v>
+          </cell>
+          <cell r="C200">
+            <v>1</v>
+          </cell>
           <cell r="D200" t="str">
-            <v>1级魂石·暴击抵抗</v>
+            <v>1级魂石·生命值</v>
           </cell>
         </row>
         <row r="201">
           <cell r="B201">
-            <v>10011</v>
-          </cell>
-        </row>
-        <row r="201">
+            <v>10007</v>
+          </cell>
+          <cell r="C201">
+            <v>1</v>
+          </cell>
           <cell r="D201" t="str">
-            <v>1级魂石·爆伤抵抗</v>
+            <v>1级魂石·攻击速度</v>
           </cell>
         </row>
         <row r="202">
           <cell r="B202">
-            <v>10012</v>
-          </cell>
-        </row>
-        <row r="202">
+            <v>10008</v>
+          </cell>
+          <cell r="C202">
+            <v>1</v>
+          </cell>
           <cell r="D202" t="str">
-            <v>1级魂石·生命回复</v>
+            <v>1级魂石·防御</v>
           </cell>
         </row>
         <row r="203">
           <cell r="B203">
-            <v>10013</v>
-          </cell>
-        </row>
-        <row r="203">
+            <v>10009</v>
+          </cell>
+          <cell r="C203">
+            <v>1</v>
+          </cell>
           <cell r="D203" t="str">
-            <v>1级魂石·固定伤害减免</v>
+            <v>1级魂石·元素抗性</v>
           </cell>
         </row>
         <row r="204">
           <cell r="B204">
-            <v>10014</v>
-          </cell>
-        </row>
-        <row r="204">
+            <v>10010</v>
+          </cell>
+          <cell r="C204">
+            <v>1</v>
+          </cell>
           <cell r="D204" t="str">
-            <v>1级魂石·技能急速</v>
+            <v>1级魂石·暴击抵抗</v>
           </cell>
         </row>
         <row r="205">
           <cell r="B205">
-            <v>10015</v>
-          </cell>
-        </row>
-        <row r="205">
+            <v>10011</v>
+          </cell>
+          <cell r="C205">
+            <v>1</v>
+          </cell>
           <cell r="D205" t="str">
-            <v>1级魂石·全元素抗性</v>
+            <v>1级魂石·爆伤抵抗</v>
           </cell>
         </row>
         <row r="206">
           <cell r="B206">
-            <v>10016</v>
-          </cell>
-        </row>
-        <row r="206">
+            <v>10012</v>
+          </cell>
+          <cell r="C206">
+            <v>1</v>
+          </cell>
           <cell r="D206" t="str">
-            <v>1级魂石·移动速度</v>
+            <v>1级魂石·生命回复</v>
           </cell>
         </row>
         <row r="207">
           <cell r="B207">
-            <v>10017</v>
-          </cell>
-        </row>
-        <row r="207">
+            <v>10013</v>
+          </cell>
+          <cell r="C207">
+            <v>1</v>
+          </cell>
           <cell r="D207" t="str">
-            <v>1级魂石·闪避率</v>
+            <v>1级魂石·固定伤害减免</v>
           </cell>
         </row>
         <row r="208">
           <cell r="B208">
-            <v>10101</v>
-          </cell>
-        </row>
-        <row r="208">
+            <v>10014</v>
+          </cell>
+          <cell r="C208">
+            <v>1</v>
+          </cell>
           <cell r="D208" t="str">
-            <v>2级魂石·攻击力</v>
+            <v>1级魂石·技能急速</v>
           </cell>
         </row>
         <row r="209">
           <cell r="B209">
-            <v>10102</v>
-          </cell>
-        </row>
-        <row r="209">
+            <v>10016</v>
+          </cell>
+          <cell r="C209">
+            <v>1</v>
+          </cell>
           <cell r="D209" t="str">
-            <v>2级魂石·固定伤害</v>
+            <v>1级魂石·移动速度</v>
           </cell>
         </row>
         <row r="210">
           <cell r="B210">
-            <v>10103</v>
-          </cell>
-        </row>
-        <row r="210">
+            <v>10017</v>
+          </cell>
+          <cell r="C210">
+            <v>1</v>
+          </cell>
           <cell r="D210" t="str">
-            <v>2级魂石·全元素伤害</v>
+            <v>1级魂石·闪避率</v>
           </cell>
         </row>
         <row r="211">
           <cell r="B211">
-            <v>10104</v>
-          </cell>
-        </row>
-        <row r="211">
+            <v>10101</v>
+          </cell>
+          <cell r="C211">
+            <v>1</v>
+          </cell>
           <cell r="D211" t="str">
-            <v>2级魂石·暴击概率</v>
+            <v>2级魂石·攻击力</v>
           </cell>
         </row>
         <row r="212">
           <cell r="B212">
-            <v>10105</v>
-          </cell>
-        </row>
-        <row r="212">
+            <v>10102</v>
+          </cell>
+          <cell r="C212">
+            <v>1</v>
+          </cell>
           <cell r="D212" t="str">
-            <v>2级魂石·暴击伤害</v>
+            <v>2级魂石·固定伤害</v>
           </cell>
         </row>
         <row r="213">
           <cell r="B213">
-            <v>10106</v>
-          </cell>
-        </row>
-        <row r="213">
+            <v>10103</v>
+          </cell>
+          <cell r="C213">
+            <v>1</v>
+          </cell>
           <cell r="D213" t="str">
-            <v>2级魂石·元素穿透</v>
+            <v>2级魂石·全元素伤害</v>
           </cell>
         </row>
         <row r="214">
           <cell r="B214">
-            <v>10107</v>
-          </cell>
-        </row>
-        <row r="214">
+            <v>10104</v>
+          </cell>
+          <cell r="C214">
+            <v>1</v>
+          </cell>
           <cell r="D214" t="str">
-            <v>2级魂石·生命值</v>
+            <v>2级魂石·暴击概率</v>
           </cell>
         </row>
         <row r="215">
           <cell r="B215">
-            <v>10108</v>
-          </cell>
-        </row>
-        <row r="215">
+            <v>10105</v>
+          </cell>
+          <cell r="C215">
+            <v>1</v>
+          </cell>
           <cell r="D215" t="str">
-            <v>2级魂石·攻击速度</v>
+            <v>2级魂石·暴击伤害</v>
           </cell>
         </row>
         <row r="216">
           <cell r="B216">
-            <v>10109</v>
-          </cell>
-        </row>
-        <row r="216">
+            <v>10106</v>
+          </cell>
+          <cell r="C216">
+            <v>1</v>
+          </cell>
           <cell r="D216" t="str">
-            <v>2级魂石·防御</v>
+            <v>2级魂石·元素穿透</v>
           </cell>
         </row>
         <row r="217">
           <cell r="B217">
-            <v>10110</v>
-          </cell>
-        </row>
-        <row r="217">
+            <v>10107</v>
+          </cell>
+          <cell r="C217">
+            <v>1</v>
+          </cell>
           <cell r="D217" t="str">
-            <v>2级魂石·元素抗性</v>
+            <v>2级魂石·生命值</v>
           </cell>
         </row>
         <row r="218">
           <cell r="B218">
-            <v>10111</v>
-          </cell>
-        </row>
-        <row r="218">
+            <v>10108</v>
+          </cell>
+          <cell r="C218">
+            <v>1</v>
+          </cell>
           <cell r="D218" t="str">
-            <v>2级魂石·暴击抵抗</v>
+            <v>2级魂石·攻击速度</v>
           </cell>
         </row>
         <row r="219">
           <cell r="B219">
-            <v>10112</v>
-          </cell>
-        </row>
-        <row r="219">
+            <v>10109</v>
+          </cell>
+          <cell r="C219">
+            <v>1</v>
+          </cell>
           <cell r="D219" t="str">
-            <v>2级魂石·爆伤抵抗</v>
+            <v>2级魂石·防御</v>
           </cell>
         </row>
         <row r="220">
           <cell r="B220">
-            <v>10113</v>
-          </cell>
-        </row>
-        <row r="220">
+            <v>10110</v>
+          </cell>
+          <cell r="C220">
+            <v>1</v>
+          </cell>
           <cell r="D220" t="str">
-            <v>2级魂石·生命回复</v>
+            <v>2级魂石·元素抗性</v>
           </cell>
         </row>
         <row r="221">
           <cell r="B221">
-            <v>10114</v>
-          </cell>
-        </row>
-        <row r="221">
+            <v>10111</v>
+          </cell>
+          <cell r="C221">
+            <v>1</v>
+          </cell>
           <cell r="D221" t="str">
-            <v>2级魂石·固定伤害减免</v>
+            <v>2级魂石·暴击抵抗</v>
           </cell>
         </row>
         <row r="222">
           <cell r="B222">
-            <v>10115</v>
-          </cell>
-        </row>
-        <row r="222">
+            <v>10112</v>
+          </cell>
+          <cell r="C222">
+            <v>1</v>
+          </cell>
           <cell r="D222" t="str">
-            <v>2级魂石·技能急速</v>
+            <v>2级魂石·爆伤抵抗</v>
           </cell>
         </row>
         <row r="223">
           <cell r="B223">
-            <v>10116</v>
-          </cell>
-        </row>
-        <row r="223">
+            <v>10113</v>
+          </cell>
+          <cell r="C223">
+            <v>1</v>
+          </cell>
           <cell r="D223" t="str">
-            <v>2级魂石·全元素抗性</v>
+            <v>2级魂石·生命回复</v>
           </cell>
         </row>
         <row r="224">
           <cell r="B224">
-            <v>10117</v>
-          </cell>
-        </row>
-        <row r="224">
+            <v>10114</v>
+          </cell>
+          <cell r="C224">
+            <v>1</v>
+          </cell>
           <cell r="D224" t="str">
-            <v>2级魂石·移动速度</v>
+            <v>2级魂石·固定伤害减免</v>
           </cell>
         </row>
         <row r="225">
           <cell r="B225">
-            <v>10118</v>
-          </cell>
-        </row>
-        <row r="225">
+            <v>10115</v>
+          </cell>
+          <cell r="C225">
+            <v>1</v>
+          </cell>
           <cell r="D225" t="str">
-            <v>2级魂石·闪避率</v>
+            <v>2级魂石·技能急速</v>
           </cell>
         </row>
         <row r="226">
           <cell r="B226">
-            <v>10201</v>
-          </cell>
-        </row>
-        <row r="226">
+            <v>10117</v>
+          </cell>
+          <cell r="C226">
+            <v>1</v>
+          </cell>
           <cell r="D226" t="str">
-            <v>3级魂石·攻击力</v>
+            <v>2级魂石·移动速度</v>
           </cell>
         </row>
         <row r="227">
           <cell r="B227">
-            <v>10202</v>
-          </cell>
-        </row>
-        <row r="227">
+            <v>10118</v>
+          </cell>
+          <cell r="C227">
+            <v>1</v>
+          </cell>
           <cell r="D227" t="str">
-            <v>3级魂石·固定伤害</v>
+            <v>2级魂石·闪避率</v>
           </cell>
         </row>
         <row r="228">
           <cell r="B228">
-            <v>10203</v>
-          </cell>
-        </row>
-        <row r="228">
+            <v>10201</v>
+          </cell>
+          <cell r="C228">
+            <v>1</v>
+          </cell>
           <cell r="D228" t="str">
-            <v>3级魂石·全元素伤害</v>
+            <v>3级魂石·攻击力</v>
           </cell>
         </row>
         <row r="229">
           <cell r="B229">
-            <v>10204</v>
-          </cell>
-        </row>
-        <row r="229">
+            <v>10202</v>
+          </cell>
+          <cell r="C229">
+            <v>1</v>
+          </cell>
           <cell r="D229" t="str">
-            <v>3级魂石·暴击概率</v>
+            <v>3级魂石·固定伤害</v>
           </cell>
         </row>
         <row r="230">
           <cell r="B230">
-            <v>10205</v>
-          </cell>
-        </row>
-        <row r="230">
+            <v>10203</v>
+          </cell>
+          <cell r="C230">
+            <v>1</v>
+          </cell>
           <cell r="D230" t="str">
-            <v>3级魂石·暴击伤害</v>
+            <v>3级魂石·全元素伤害</v>
           </cell>
         </row>
         <row r="231">
           <cell r="B231">
-            <v>10206</v>
-          </cell>
-        </row>
-        <row r="231">
+            <v>10204</v>
+          </cell>
+          <cell r="C231">
+            <v>1</v>
+          </cell>
           <cell r="D231" t="str">
-            <v>3级魂石·元素穿透</v>
+            <v>3级魂石·暴击概率</v>
           </cell>
         </row>
         <row r="232">
           <cell r="B232">
-            <v>10207</v>
-          </cell>
-        </row>
-        <row r="232">
+            <v>10205</v>
+          </cell>
+          <cell r="C232">
+            <v>1</v>
+          </cell>
           <cell r="D232" t="str">
-            <v>3级魂石·生命值</v>
+            <v>3级魂石·暴击伤害</v>
           </cell>
         </row>
         <row r="233">
           <cell r="B233">
-            <v>10208</v>
-          </cell>
-        </row>
-        <row r="233">
+            <v>10206</v>
+          </cell>
+          <cell r="C233">
+            <v>1</v>
+          </cell>
           <cell r="D233" t="str">
-            <v>3级魂石·攻击速度</v>
+            <v>3级魂石·元素穿透</v>
           </cell>
         </row>
         <row r="234">
           <cell r="B234">
-            <v>10209</v>
-          </cell>
-        </row>
-        <row r="234">
+            <v>10207</v>
+          </cell>
+          <cell r="C234">
+            <v>1</v>
+          </cell>
           <cell r="D234" t="str">
-            <v>3级魂石·防御</v>
+            <v>3级魂石·生命值</v>
           </cell>
         </row>
         <row r="235">
           <cell r="B235">
-            <v>10210</v>
-          </cell>
-        </row>
-        <row r="235">
+            <v>10208</v>
+          </cell>
+          <cell r="C235">
+            <v>1</v>
+          </cell>
           <cell r="D235" t="str">
-            <v>3级魂石·元素抗性</v>
+            <v>3级魂石·攻击速度</v>
           </cell>
         </row>
         <row r="236">
           <cell r="B236">
-            <v>10211</v>
-          </cell>
-        </row>
-        <row r="236">
+            <v>10209</v>
+          </cell>
+          <cell r="C236">
+            <v>1</v>
+          </cell>
           <cell r="D236" t="str">
-            <v>3级魂石·暴击抵抗</v>
+            <v>3级魂石·防御</v>
           </cell>
         </row>
         <row r="237">
           <cell r="B237">
-            <v>10212</v>
-          </cell>
-        </row>
-        <row r="237">
+            <v>10210</v>
+          </cell>
+          <cell r="C237">
+            <v>1</v>
+          </cell>
           <cell r="D237" t="str">
-            <v>3级魂石·爆伤抵抗</v>
+            <v>3级魂石·元素抗性</v>
           </cell>
         </row>
         <row r="238">
           <cell r="B238">
-            <v>10213</v>
-          </cell>
-        </row>
-        <row r="238">
+            <v>10211</v>
+          </cell>
+          <cell r="C238">
+            <v>1</v>
+          </cell>
           <cell r="D238" t="str">
-            <v>3级魂石·生命回复</v>
+            <v>3级魂石·暴击抵抗</v>
           </cell>
         </row>
         <row r="239">
           <cell r="B239">
-            <v>10214</v>
-          </cell>
-        </row>
-        <row r="239">
+            <v>10212</v>
+          </cell>
+          <cell r="C239">
+            <v>1</v>
+          </cell>
           <cell r="D239" t="str">
-            <v>3级魂石·固定伤害减免</v>
+            <v>3级魂石·爆伤抵抗</v>
           </cell>
         </row>
         <row r="240">
           <cell r="B240">
-            <v>10215</v>
-          </cell>
-        </row>
-        <row r="240">
+            <v>10213</v>
+          </cell>
+          <cell r="C240">
+            <v>1</v>
+          </cell>
           <cell r="D240" t="str">
-            <v>3级魂石·技能急速</v>
+            <v>3级魂石·生命回复</v>
           </cell>
         </row>
         <row r="241">
           <cell r="B241">
-            <v>10216</v>
-          </cell>
-        </row>
-        <row r="241">
+            <v>10214</v>
+          </cell>
+          <cell r="C241">
+            <v>1</v>
+          </cell>
           <cell r="D241" t="str">
-            <v>3级魂石·全元素抗性</v>
+            <v>3级魂石·固定伤害减免</v>
           </cell>
         </row>
         <row r="242">
           <cell r="B242">
-            <v>10217</v>
-          </cell>
-        </row>
-        <row r="242">
+            <v>10215</v>
+          </cell>
+          <cell r="C242">
+            <v>1</v>
+          </cell>
           <cell r="D242" t="str">
-            <v>3级魂石·移动速度</v>
+            <v>3级魂石·技能急速</v>
           </cell>
         </row>
         <row r="243">
           <cell r="B243">
-            <v>10218</v>
-          </cell>
-        </row>
-        <row r="243">
+            <v>10217</v>
+          </cell>
+          <cell r="C243">
+            <v>1</v>
+          </cell>
           <cell r="D243" t="str">
-            <v>3级魂石·闪避率</v>
+            <v>3级魂石·移动速度</v>
           </cell>
         </row>
         <row r="244">
           <cell r="B244">
-            <v>10301</v>
-          </cell>
-        </row>
-        <row r="244">
+            <v>10218</v>
+          </cell>
+          <cell r="C244">
+            <v>1</v>
+          </cell>
           <cell r="D244" t="str">
-            <v>4级魂石·攻击力</v>
+            <v>3级魂石·闪避率</v>
           </cell>
         </row>
         <row r="245">
           <cell r="B245">
-            <v>10302</v>
-          </cell>
-        </row>
-        <row r="245">
+            <v>10301</v>
+          </cell>
+          <cell r="C245">
+            <v>1</v>
+          </cell>
           <cell r="D245" t="str">
-            <v>4级魂石·固定伤害</v>
+            <v>4级魂石·攻击力</v>
           </cell>
         </row>
         <row r="246">
           <cell r="B246">
-            <v>10303</v>
-          </cell>
-        </row>
-        <row r="246">
+            <v>10302</v>
+          </cell>
+          <cell r="C246">
+            <v>1</v>
+          </cell>
           <cell r="D246" t="str">
-            <v>4级魂石·全元素伤害</v>
+            <v>4级魂石·固定伤害</v>
           </cell>
         </row>
         <row r="247">
           <cell r="B247">
-            <v>10304</v>
-          </cell>
-        </row>
-        <row r="247">
+            <v>10303</v>
+          </cell>
+          <cell r="C247">
+            <v>1</v>
+          </cell>
           <cell r="D247" t="str">
-            <v>4级魂石·暴击概率</v>
+            <v>4级魂石·全元素伤害</v>
           </cell>
         </row>
         <row r="248">
           <cell r="B248">
-            <v>10305</v>
-          </cell>
-        </row>
-        <row r="248">
+            <v>10304</v>
+          </cell>
+          <cell r="C248">
+            <v>1</v>
+          </cell>
           <cell r="D248" t="str">
-            <v>4级魂石·暴击伤害</v>
+            <v>4级魂石·暴击概率</v>
           </cell>
         </row>
         <row r="249">
           <cell r="B249">
-            <v>10306</v>
-          </cell>
-        </row>
-        <row r="249">
+            <v>10305</v>
+          </cell>
+          <cell r="C249">
+            <v>1</v>
+          </cell>
           <cell r="D249" t="str">
-            <v>4级魂石·元素穿透</v>
+            <v>4级魂石·暴击伤害</v>
           </cell>
         </row>
         <row r="250">
           <cell r="B250">
-            <v>10307</v>
-          </cell>
-        </row>
-        <row r="250">
+            <v>10306</v>
+          </cell>
+          <cell r="C250">
+            <v>1</v>
+          </cell>
           <cell r="D250" t="str">
-            <v>4级魂石·生命值</v>
+            <v>4级魂石·元素穿透</v>
           </cell>
         </row>
         <row r="251">
           <cell r="B251">
-            <v>10308</v>
-          </cell>
-        </row>
-        <row r="251">
+            <v>10307</v>
+          </cell>
+          <cell r="C251">
+            <v>1</v>
+          </cell>
           <cell r="D251" t="str">
-            <v>4级魂石·攻击速度</v>
+            <v>4级魂石·生命值</v>
           </cell>
         </row>
         <row r="252">
           <cell r="B252">
-            <v>10309</v>
-          </cell>
-        </row>
-        <row r="252">
+            <v>10308</v>
+          </cell>
+          <cell r="C252">
+            <v>1</v>
+          </cell>
           <cell r="D252" t="str">
-            <v>4级魂石·防御</v>
+            <v>4级魂石·攻击速度</v>
           </cell>
         </row>
         <row r="253">
           <cell r="B253">
-            <v>10310</v>
-          </cell>
-        </row>
-        <row r="253">
+            <v>10309</v>
+          </cell>
+          <cell r="C253">
+            <v>1</v>
+          </cell>
           <cell r="D253" t="str">
-            <v>4级魂石·元素抗性</v>
+            <v>4级魂石·防御</v>
           </cell>
         </row>
         <row r="254">
           <cell r="B254">
-            <v>10311</v>
-          </cell>
-        </row>
-        <row r="254">
+            <v>10310</v>
+          </cell>
+          <cell r="C254">
+            <v>1</v>
+          </cell>
           <cell r="D254" t="str">
-            <v>4级魂石·暴击抵抗</v>
+            <v>4级魂石·元素抗性</v>
           </cell>
         </row>
         <row r="255">
           <cell r="B255">
-            <v>10312</v>
-          </cell>
-        </row>
-        <row r="255">
+            <v>10311</v>
+          </cell>
+          <cell r="C255">
+            <v>1</v>
+          </cell>
           <cell r="D255" t="str">
-            <v>4级魂石·爆伤抵抗</v>
+            <v>4级魂石·暴击抵抗</v>
           </cell>
         </row>
         <row r="256">
           <cell r="B256">
-            <v>10313</v>
-          </cell>
-        </row>
-        <row r="256">
+            <v>10312</v>
+          </cell>
+          <cell r="C256">
+            <v>1</v>
+          </cell>
           <cell r="D256" t="str">
-            <v>4级魂石·生命回复</v>
+            <v>4级魂石·爆伤抵抗</v>
           </cell>
         </row>
         <row r="257">
           <cell r="B257">
-            <v>10314</v>
-          </cell>
-        </row>
-        <row r="257">
+            <v>10313</v>
+          </cell>
+          <cell r="C257">
+            <v>1</v>
+          </cell>
           <cell r="D257" t="str">
-            <v>4级魂石·固定伤害减免</v>
+            <v>4级魂石·生命回复</v>
           </cell>
         </row>
         <row r="258">
           <cell r="B258">
-            <v>10315</v>
-          </cell>
-        </row>
-        <row r="258">
+            <v>10314</v>
+          </cell>
+          <cell r="C258">
+            <v>1</v>
+          </cell>
           <cell r="D258" t="str">
-            <v>4级魂石·技能急速</v>
+            <v>4级魂石·固定伤害减免</v>
           </cell>
         </row>
         <row r="259">
           <cell r="B259">
-            <v>10316</v>
-          </cell>
-        </row>
-        <row r="259">
+            <v>10315</v>
+          </cell>
+          <cell r="C259">
+            <v>1</v>
+          </cell>
           <cell r="D259" t="str">
-            <v>4级魂石·全元素抗性</v>
+            <v>4级魂石·技能急速</v>
           </cell>
         </row>
         <row r="260">
           <cell r="B260">
             <v>10317</v>
           </cell>
-        </row>
-        <row r="260">
+          <cell r="C260">
+            <v>1</v>
+          </cell>
           <cell r="D260" t="str">
             <v>4级魂石·移动速度</v>
           </cell>
@@ -4254,8 +4342,9 @@
           <cell r="B261">
             <v>10318</v>
           </cell>
-        </row>
-        <row r="261">
+          <cell r="C261">
+            <v>1</v>
+          </cell>
           <cell r="D261" t="str">
             <v>4级魂石·闪避率</v>
           </cell>
@@ -4264,8 +4353,9 @@
           <cell r="B262">
             <v>20000</v>
           </cell>
-        </row>
-        <row r="262">
+          <cell r="C262">
+            <v>1</v>
+          </cell>
           <cell r="D262" t="str">
             <v>月卡</v>
           </cell>
@@ -4274,190 +4364,578 @@
           <cell r="B263">
             <v>20001</v>
           </cell>
-        </row>
-        <row r="263">
+          <cell r="C263">
+            <v>1</v>
+          </cell>
           <cell r="D263" t="str">
             <v>终身特权</v>
           </cell>
         </row>
         <row r="264">
           <cell r="B264">
-            <v>20002</v>
-          </cell>
-        </row>
-        <row r="264">
+            <v>20003</v>
+          </cell>
+          <cell r="C264">
+            <v>1</v>
+          </cell>
           <cell r="D264" t="str">
-            <v>元素祈福</v>
+            <v>天辉信物</v>
           </cell>
         </row>
         <row r="265">
           <cell r="B265">
-            <v>20003</v>
-          </cell>
-        </row>
-        <row r="265">
+            <v>20004</v>
+          </cell>
+          <cell r="C265">
+            <v>1</v>
+          </cell>
           <cell r="D265" t="str">
-            <v>天辉信物</v>
+            <v>夜魇信物</v>
           </cell>
         </row>
         <row r="266">
           <cell r="B266">
-            <v>20004</v>
-          </cell>
-        </row>
-        <row r="266">
+            <v>20005</v>
+          </cell>
+          <cell r="C266">
+            <v>1</v>
+          </cell>
           <cell r="D266" t="str">
-            <v>夜魇信物</v>
+            <v>灵魂战刃</v>
           </cell>
         </row>
         <row r="267">
           <cell r="B267">
-            <v>20005</v>
-          </cell>
-        </row>
-        <row r="267">
+            <v>20006</v>
+          </cell>
+          <cell r="C267">
+            <v>1</v>
+          </cell>
           <cell r="D267" t="str">
-            <v>灵魂战刃</v>
+            <v>老者的指引·上</v>
           </cell>
         </row>
         <row r="268">
           <cell r="B268">
-            <v>20006</v>
-          </cell>
-        </row>
-        <row r="268">
+            <v>20007</v>
+          </cell>
+          <cell r="C268">
+            <v>1</v>
+          </cell>
           <cell r="D268" t="str">
-            <v>老者的指引</v>
+            <v>老者的指引·中</v>
           </cell>
         </row>
         <row r="269">
           <cell r="B269">
-            <v>20007</v>
+            <v>20008</v>
           </cell>
         </row>
         <row r="269">
           <cell r="D269" t="str">
-            <v>图鉴大师</v>
+            <v>老者的指引·下</v>
           </cell>
         </row>
         <row r="270">
           <cell r="B270">
-            <v>20008</v>
+            <v>20009</v>
           </cell>
         </row>
         <row r="270">
           <cell r="D270" t="str">
-            <v>不留遗憾之矢</v>
+            <v>图鉴大师</v>
           </cell>
         </row>
         <row r="271">
           <cell r="B271">
-            <v>20009</v>
+            <v>20010</v>
           </cell>
         </row>
         <row r="271">
           <cell r="D271" t="str">
-            <v>命运的骰子</v>
+            <v>不留遗憾之矢·上</v>
           </cell>
         </row>
         <row r="272">
           <cell r="B272">
-            <v>20010</v>
+            <v>20011</v>
           </cell>
         </row>
         <row r="272">
           <cell r="D272" t="str">
-            <v>元素之地的救赎</v>
+            <v>不留遗憾之矢·中</v>
           </cell>
         </row>
         <row r="273">
           <cell r="B273">
-            <v>20101</v>
+            <v>20012</v>
           </cell>
         </row>
         <row r="273">
           <cell r="D273" t="str">
-            <v>终结者</v>
+            <v>不留遗憾之矢·下</v>
           </cell>
         </row>
         <row r="274">
           <cell r="B274">
-            <v>20102</v>
+            <v>20013</v>
           </cell>
         </row>
         <row r="274">
           <cell r="D274" t="str">
-            <v>领袖</v>
+            <v>命运的骰子</v>
           </cell>
         </row>
         <row r="275">
           <cell r="B275">
-            <v>20103</v>
+            <v>20014</v>
           </cell>
         </row>
         <row r="275">
           <cell r="D275" t="str">
-            <v>圣坛使者</v>
+            <v>元素之地的救赎</v>
           </cell>
         </row>
         <row r="276">
           <cell r="B276">
-            <v>20104</v>
+            <v>20015</v>
           </cell>
         </row>
         <row r="276">
           <cell r="D276" t="str">
-            <v>元素大陆征服者</v>
+            <v>超越极限·上</v>
           </cell>
         </row>
         <row r="277">
           <cell r="B277">
-            <v>20105</v>
+            <v>20016</v>
           </cell>
         </row>
         <row r="277">
           <cell r="D277" t="str">
-            <v>图鉴领悟者</v>
+            <v>超越极限·中</v>
           </cell>
         </row>
         <row r="278">
           <cell r="B278">
-            <v>20106</v>
+            <v>20017</v>
           </cell>
         </row>
         <row r="278">
           <cell r="D278" t="str">
-            <v>忠实粉丝</v>
+            <v>超越极限·下</v>
           </cell>
         </row>
         <row r="279">
           <cell r="B279">
-            <v>20107</v>
+            <v>20018</v>
           </cell>
         </row>
         <row r="279">
           <cell r="D279" t="str">
-            <v>魂石掌控者</v>
+            <v>消费大师·上</v>
           </cell>
         </row>
         <row r="280">
           <cell r="B280">
-            <v>20201</v>
+            <v>20019</v>
           </cell>
         </row>
         <row r="280">
           <cell r="D280" t="str">
-            <v>元素大陆征服者（成长礼）</v>
+            <v>消费大师·中</v>
           </cell>
         </row>
         <row r="281">
           <cell r="B281">
-            <v>20202</v>
+            <v>20020</v>
           </cell>
         </row>
         <row r="281">
           <cell r="D281" t="str">
+            <v>消费大师·下</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="B282">
+            <v>20021</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="D282" t="str">
+            <v>符文大师·上</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="B283">
+            <v>20022</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="D283" t="str">
+            <v>符文大师·中</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="B284">
+            <v>20023</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="D284" t="str">
+            <v>符文大师·下</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="B285">
+            <v>20101</v>
+          </cell>
+          <cell r="C285">
+            <v>1</v>
+          </cell>
+          <cell r="D285" t="str">
+            <v>终结者</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="B286">
+            <v>20102</v>
+          </cell>
+          <cell r="C286">
+            <v>1</v>
+          </cell>
+          <cell r="D286" t="str">
+            <v>领袖</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="B287">
+            <v>20103</v>
+          </cell>
+          <cell r="C287">
+            <v>1</v>
+          </cell>
+          <cell r="D287" t="str">
+            <v>圣坛使者</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="B288">
+            <v>20104</v>
+          </cell>
+          <cell r="C288">
+            <v>1</v>
+          </cell>
+          <cell r="D288" t="str">
+            <v>元素大陆征服者</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="B289">
+            <v>20105</v>
+          </cell>
+          <cell r="C289">
+            <v>1</v>
+          </cell>
+          <cell r="D289" t="str">
+            <v>图鉴领悟者</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="B290">
+            <v>20106</v>
+          </cell>
+          <cell r="C290">
+            <v>1</v>
+          </cell>
+          <cell r="D290" t="str">
+            <v>忠实粉丝</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="B291">
+            <v>20107</v>
+          </cell>
+          <cell r="C291">
+            <v>1</v>
+          </cell>
+          <cell r="D291" t="str">
+            <v>魂石掌控者</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="B292">
+            <v>20108</v>
+          </cell>
+          <cell r="C292">
+            <v>1</v>
+          </cell>
+          <cell r="D292" t="str">
+            <v>风神</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="B293">
+            <v>20109</v>
+          </cell>
+          <cell r="C293">
+            <v>1</v>
+          </cell>
+          <cell r="D293" t="str">
+            <v>炼狱之王</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="B294">
+            <v>20110</v>
+          </cell>
+          <cell r="C294">
+            <v>1</v>
+          </cell>
+          <cell r="D294" t="str">
+            <v>冰宫之主</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="B295">
+            <v>20111</v>
+          </cell>
+          <cell r="C295">
+            <v>1</v>
+          </cell>
+          <cell r="D295" t="str">
+            <v>雷神</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="B296">
+            <v>20201</v>
+          </cell>
+          <cell r="C296">
+            <v>1</v>
+          </cell>
+          <cell r="D296" t="str">
+            <v>元素大陆征服者（成长礼）</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="B297">
+            <v>20202</v>
+          </cell>
+          <cell r="C297">
+            <v>1</v>
+          </cell>
+          <cell r="D297" t="str">
             <v>元素大陆首通点</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="B298">
+            <v>20203</v>
+          </cell>
+          <cell r="C298">
+            <v>1</v>
+          </cell>
+          <cell r="D298" t="str">
+            <v>熔火炼狱征服者（成长礼）</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="B299">
+            <v>20204</v>
+          </cell>
+          <cell r="C299">
+            <v>1</v>
+          </cell>
+          <cell r="D299" t="str">
+            <v>熔火炼狱首通点</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="B300">
+            <v>20205</v>
+          </cell>
+          <cell r="C300">
+            <v>1</v>
+          </cell>
+          <cell r="D300" t="str">
+            <v>极北之地征服者（成长礼）</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="B301">
+            <v>20206</v>
+          </cell>
+          <cell r="C301">
+            <v>1</v>
+          </cell>
+          <cell r="D301" t="str">
+            <v>极北之地首通点</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="B302">
+            <v>20207</v>
+          </cell>
+          <cell r="C302">
+            <v>1</v>
+          </cell>
+          <cell r="D302" t="str">
+            <v>雷霆之地征服者（成长礼）</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="B303">
+            <v>20208</v>
+          </cell>
+          <cell r="C303">
+            <v>1</v>
+          </cell>
+          <cell r="D303" t="str">
+            <v>雷霆之地首通点</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="B304">
+            <v>20209</v>
+          </cell>
+          <cell r="C304">
+            <v>1</v>
+          </cell>
+          <cell r="D304" t="str">
+            <v>狂风沙漠征服者（成长礼）</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="B305">
+            <v>20210</v>
+          </cell>
+          <cell r="C305">
+            <v>1</v>
+          </cell>
+          <cell r="D305" t="str">
+            <v>狂风沙漠首通点</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="B306">
+            <v>20211</v>
+          </cell>
+          <cell r="C306">
+            <v>1</v>
+          </cell>
+          <cell r="D306" t="str">
+            <v>游戏成长礼</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="B307">
+            <v>100001</v>
+          </cell>
+          <cell r="C307">
+            <v>1</v>
+          </cell>
+          <cell r="D307" t="str">
+            <v>怪物图鉴卡</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="B308">
+            <v>40000</v>
+          </cell>
+          <cell r="C308">
+            <v>1</v>
+          </cell>
+          <cell r="D308" t="str">
+            <v>祈福礼包</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="B309">
+            <v>40001</v>
+          </cell>
+          <cell r="C309">
+            <v>1</v>
+          </cell>
+          <cell r="D309" t="str">
+            <v>图鉴箱礼包·小</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="B310">
+            <v>40002</v>
+          </cell>
+          <cell r="C310">
+            <v>1</v>
+          </cell>
+          <cell r="D310" t="str">
+            <v>图鉴箱礼包·中</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="B311">
+            <v>40003</v>
+          </cell>
+          <cell r="C311">
+            <v>1</v>
+          </cell>
+          <cell r="D311" t="str">
+            <v>图鉴礼包箱·大</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="B312">
+            <v>40004</v>
+          </cell>
+          <cell r="C312">
+            <v>1</v>
+          </cell>
+          <cell r="D312" t="str">
+            <v>每日祈福礼包</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="B313">
+            <v>40005</v>
+          </cell>
+          <cell r="C313">
+            <v>1</v>
+          </cell>
+          <cell r="D313" t="str">
+            <v>每日魂石礼包</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="B314">
+            <v>40006</v>
+          </cell>
+          <cell r="C314">
+            <v>1</v>
+          </cell>
+          <cell r="D314" t="str">
+            <v>每日登录礼包</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="B315">
+            <v>40007</v>
+          </cell>
+          <cell r="C315">
+            <v>1</v>
+          </cell>
+          <cell r="D315" t="str">
+            <v>每日月卡礼包</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="B316">
+            <v>40008</v>
+          </cell>
+          <cell r="C316">
+            <v>1</v>
+          </cell>
+          <cell r="D316" t="str">
+            <v>每日终身卡礼包</v>
           </cell>
         </row>
       </sheetData>
@@ -4755,12 +5233,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4812,13 +5290,13 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="20"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
@@ -4827,7 +5305,7 @@
       <c r="U1" s="5"/>
       <c r="V1" s="6"/>
     </row>
-    <row r="2" ht="174" customHeight="1" spans="1:22">
+    <row r="2" ht="201" customHeight="1" spans="1:22">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -4850,30 +5328,30 @@
       <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="22" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="24" t="s">
         <v>18</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
-      <c r="V2" s="34"/>
+      <c r="V2" s="35"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:22">
       <c r="A3" s="10" t="s">
@@ -4898,20 +5376,20 @@
       <c r="H3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
-      <c r="V3" s="35"/>
+      <c r="V3" s="36"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:22">
       <c r="A4" s="13" t="s">
@@ -4936,20 +5414,20 @@
       <c r="H4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
-      <c r="V4" s="36"/>
+      <c r="V4" s="37"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:22">
       <c r="A5" s="10"/>
@@ -4973,35 +5451,35 @@
         <v>1</v>
       </c>
       <c r="H5" s="12">
-        <v>20000</v>
-      </c>
-      <c r="I5" s="25">
+        <v>35000</v>
+      </c>
+      <c r="I5" s="26">
         <f>SUMIFS(H:H,G:G,G5)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J5" s="11" t="str">
         <f>"占总概率为"&amp;ROUND((H5/I5*100),6)&amp;"%"</f>
-        <v>占总概率为20%</v>
-      </c>
-      <c r="K5" s="26" t="str">
+        <v>占总概率为12.275189%</v>
+      </c>
+      <c r="K5" s="27" t="str">
         <f>"配置【"&amp;VLOOKUP(F5,L:M,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F5,G:G,G5)/I5*100),6)&amp;"%"</f>
-        <v>配置【R】比重80%</v>
-      </c>
-      <c r="L5" s="27">
+        <v>配置【R】比重17.140372%</v>
+      </c>
+      <c r="L5" s="28">
         <v>1</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="33"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="34"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
-      <c r="V5" s="35"/>
+      <c r="V5" s="36"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:22">
       <c r="A6" s="13"/>
@@ -5009,51 +5487,51 @@
         <v>2</v>
       </c>
       <c r="C6" s="16">
-        <v>7</v>
-      </c>
-      <c r="D6" s="16" t="e">
+        <v>1003</v>
+      </c>
+      <c r="D6" s="16" t="str">
         <f>VLOOKUP(C6,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E6</f>
-        <v>#N/A</v>
+        <v>金币*1000</v>
       </c>
       <c r="E6" s="11">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F6" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="14">
         <v>1</v>
       </c>
       <c r="H6" s="12">
-        <v>20000</v>
-      </c>
-      <c r="I6" s="25">
+        <v>30000</v>
+      </c>
+      <c r="I6" s="26">
         <f t="shared" ref="I6:I14" si="0">SUMIFS(H:H,G:G,G6)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J6" s="11" t="str">
         <f t="shared" ref="J6:J30" si="1">"占总概率为"&amp;ROUND((H6/I6*100),6)&amp;"%"</f>
-        <v>占总概率为20%</v>
-      </c>
-      <c r="K6" s="26" t="str">
+        <v>占总概率为10.52159%</v>
+      </c>
+      <c r="K6" s="27" t="str">
         <f t="shared" ref="K6:K30" si="2">"配置【"&amp;VLOOKUP(F6,L:M,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F6,G:G,G6)/I6*100),6)&amp;"%"</f>
-        <v>配置【R】比重80%</v>
-      </c>
-      <c r="L6" s="27">
+        <v>配置【SR】比重13.723661%</v>
+      </c>
+      <c r="L6" s="28">
         <v>2</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="32"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="33"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
-      <c r="V6" s="36"/>
+      <c r="V6" s="37"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:22">
       <c r="A7" s="10"/>
@@ -5061,17 +5539,17 @@
         <v>3</v>
       </c>
       <c r="C7" s="16">
-        <v>8</v>
-      </c>
-      <c r="D7" s="16" t="e">
+        <v>1003</v>
+      </c>
+      <c r="D7" s="16" t="str">
         <f>VLOOKUP(C7,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E7</f>
-        <v>#N/A</v>
+        <v>金币*5000</v>
       </c>
       <c r="E7" s="11">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="F7" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -5079,33 +5557,33 @@
       <c r="H7" s="12">
         <v>20000</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="26">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J7" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为20%</v>
-      </c>
-      <c r="K7" s="26" t="str">
+        <v>占总概率为7.014394%</v>
+      </c>
+      <c r="K7" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【R】比重80%</v>
-      </c>
-      <c r="L7" s="27">
+        <v>配置【SSR】比重41.431918%</v>
+      </c>
+      <c r="L7" s="28">
         <v>3</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
-      <c r="V7" s="35"/>
+      <c r="V7" s="36"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:22">
       <c r="A8" s="13"/>
@@ -5113,51 +5591,51 @@
         <v>4</v>
       </c>
       <c r="C8" s="16">
-        <v>9</v>
-      </c>
-      <c r="D8" s="16" t="e">
+        <v>1003</v>
+      </c>
+      <c r="D8" s="16" t="str">
         <f>VLOOKUP(C8,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E8</f>
-        <v>#N/A</v>
+        <v>金币*15000</v>
       </c>
       <c r="E8" s="11">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="F8" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" s="14">
         <v>1</v>
       </c>
       <c r="H8" s="12">
-        <v>20000</v>
-      </c>
-      <c r="I8" s="25">
+        <v>10000</v>
+      </c>
+      <c r="I8" s="26">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J8" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为20%</v>
-      </c>
-      <c r="K8" s="26" t="str">
+        <v>占总概率为3.507197%</v>
+      </c>
+      <c r="K8" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【R】比重80%</v>
-      </c>
-      <c r="L8" s="27">
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L8" s="28">
         <v>4</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="32"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="33"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
-      <c r="V8" s="36"/>
+      <c r="V8" s="37"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:22">
       <c r="A9" s="10"/>
@@ -5165,66 +5643,66 @@
         <v>5</v>
       </c>
       <c r="C9" s="16">
-        <v>10</v>
-      </c>
-      <c r="D9" s="16" t="e">
+        <v>1003</v>
+      </c>
+      <c r="D9" s="16" t="str">
         <f>VLOOKUP(C9,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E9</f>
-        <v>#N/A</v>
+        <v>金币*66666</v>
       </c>
       <c r="E9" s="11">
-        <v>300</v>
+        <v>66666</v>
       </c>
       <c r="F9" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
       </c>
       <c r="H9" s="12">
-        <v>3000</v>
-      </c>
-      <c r="I9" s="25">
+        <v>1500</v>
+      </c>
+      <c r="I9" s="26">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J9" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为3%</v>
-      </c>
-      <c r="K9" s="26" t="str">
+        <v>占总概率为0.52608%</v>
+      </c>
+      <c r="K9" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SR】比重9%</v>
-      </c>
-      <c r="L9" s="27">
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L9" s="28">
         <v>5</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="29"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="35"/>
+      <c r="V9" s="36"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:22">
       <c r="A10" s="13"/>
       <c r="B10" s="14">
         <v>6</v>
       </c>
-      <c r="C10" s="16">
-        <v>11</v>
-      </c>
-      <c r="D10" s="16" t="e">
+      <c r="C10" s="17">
+        <v>3501</v>
+      </c>
+      <c r="D10" s="16" t="str">
         <f>VLOOKUP(C10,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E10</f>
-        <v>#N/A</v>
+        <v>精良图鉴箱*1</v>
       </c>
       <c r="E10" s="11">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="F10" s="11">
         <v>2</v>
@@ -5235,47 +5713,47 @@
       <c r="H10" s="12">
         <v>3000</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="26">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J10" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为3%</v>
-      </c>
-      <c r="K10" s="26" t="str">
+        <v>占总概率为1.052159%</v>
+      </c>
+      <c r="K10" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SR】比重9%</v>
-      </c>
-      <c r="L10" s="31"/>
+        <v>配置【SR】比重13.723661%</v>
+      </c>
+      <c r="L10" s="32"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="33"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
-      <c r="V10" s="36"/>
+      <c r="V10" s="37"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:22">
       <c r="A11" s="10"/>
       <c r="B11" s="11">
         <v>7</v>
       </c>
-      <c r="C11" s="16">
-        <v>6</v>
-      </c>
-      <c r="D11" s="16" t="e">
+      <c r="C11" s="17">
+        <v>3502</v>
+      </c>
+      <c r="D11" s="16" t="str">
         <f>VLOOKUP(C11,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E11</f>
-        <v>#N/A</v>
+        <v>史诗图鉴箱*1</v>
       </c>
       <c r="E11" s="11">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="F11" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
@@ -5283,47 +5761,47 @@
       <c r="H11" s="12">
         <v>3000</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="26">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J11" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为3%</v>
-      </c>
-      <c r="K11" s="26" t="str">
+        <v>占总概率为1.052159%</v>
+      </c>
+      <c r="K11" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SR】比重9%</v>
-      </c>
-      <c r="L11" s="27"/>
+        <v>配置【SSR】比重41.431918%</v>
+      </c>
+      <c r="L11" s="28"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="35"/>
+      <c r="V11" s="36"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:22">
       <c r="A12" s="13"/>
       <c r="B12" s="14">
         <v>8</v>
       </c>
-      <c r="C12" s="16">
-        <v>7</v>
-      </c>
-      <c r="D12" s="16" t="e">
+      <c r="C12" s="17">
+        <v>3503</v>
+      </c>
+      <c r="D12" s="16" t="str">
         <f>VLOOKUP(C12,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E12</f>
-        <v>#N/A</v>
+        <v>传说图鉴箱*1</v>
       </c>
       <c r="E12" s="11">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="F12" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="14">
         <v>1</v>
@@ -5331,44 +5809,44 @@
       <c r="H12" s="12">
         <v>2000</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="26">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J12" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为2%</v>
-      </c>
-      <c r="K12" s="26" t="str">
+        <v>占总概率为0.701439%</v>
+      </c>
+      <c r="K12" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重8%</v>
-      </c>
-      <c r="L12" s="31"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L12" s="32"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="33"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="36"/>
+      <c r="V12" s="37"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:22">
       <c r="A13" s="10"/>
       <c r="B13" s="11">
         <v>9</v>
       </c>
-      <c r="C13" s="16">
-        <v>8</v>
-      </c>
-      <c r="D13" s="16" t="e">
+      <c r="C13" s="17">
+        <v>3504</v>
+      </c>
+      <c r="D13" s="16" t="str">
         <f>VLOOKUP(C13,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E13</f>
-        <v>#N/A</v>
+        <v>元素大陆的图鉴箱*1</v>
       </c>
       <c r="E13" s="11">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="F13" s="14">
         <v>3</v>
@@ -5379,44 +5857,44 @@
       <c r="H13" s="12">
         <v>2000</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="26">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J13" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为2%</v>
-      </c>
-      <c r="K13" s="26" t="str">
+        <v>占总概率为0.701439%</v>
+      </c>
+      <c r="K13" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重8%</v>
-      </c>
-      <c r="L13" s="27"/>
+        <v>配置【SSR】比重41.431918%</v>
+      </c>
+      <c r="L13" s="28"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="35"/>
+      <c r="V13" s="36"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:22">
       <c r="A14" s="13"/>
       <c r="B14" s="11">
         <v>10</v>
       </c>
-      <c r="C14" s="16">
-        <v>9</v>
-      </c>
-      <c r="D14" s="16" t="e">
+      <c r="C14" s="17">
+        <v>3505</v>
+      </c>
+      <c r="D14" s="16" t="str">
         <f>VLOOKUP(C14,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E14</f>
-        <v>#N/A</v>
+        <v>熔火炼狱的图鉴箱*1</v>
       </c>
       <c r="E14" s="11">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="F14" s="14">
         <v>3</v>
@@ -5427,44 +5905,44 @@
       <c r="H14" s="12">
         <v>2000</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="26">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J14" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为2%</v>
-      </c>
-      <c r="K14" s="26" t="str">
+        <v>占总概率为0.701439%</v>
+      </c>
+      <c r="K14" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重8%</v>
-      </c>
-      <c r="L14" s="31"/>
+        <v>配置【SSR】比重41.431918%</v>
+      </c>
+      <c r="L14" s="32"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="33"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
-      <c r="V14" s="36"/>
+      <c r="V14" s="37"/>
     </row>
     <row r="15" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A15" s="13"/>
       <c r="B15" s="11">
         <v>11</v>
       </c>
-      <c r="C15" s="16">
-        <v>7</v>
-      </c>
-      <c r="D15" s="16" t="e">
+      <c r="C15" s="17">
+        <v>3506</v>
+      </c>
+      <c r="D15" s="16" t="str">
         <f>VLOOKUP(C15,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E15</f>
-        <v>#N/A</v>
+        <v>极北之地的图鉴箱*1</v>
       </c>
       <c r="E15" s="11">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="F15" s="14">
         <v>3</v>
@@ -5475,47 +5953,47 @@
       <c r="H15" s="12">
         <v>2000</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="26">
         <f>SUMIFS(H:H,G:G,G15)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J15" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为2%</v>
-      </c>
-      <c r="K15" s="26" t="str">
+        <v>占总概率为0.701439%</v>
+      </c>
+      <c r="K15" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重8%</v>
-      </c>
-      <c r="L15" s="31"/>
+        <v>配置【SSR】比重41.431918%</v>
+      </c>
+      <c r="L15" s="32"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="33"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
-      <c r="V15" s="36"/>
+      <c r="V15" s="37"/>
     </row>
     <row r="16" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A16" s="10"/>
       <c r="B16" s="11">
         <v>12</v>
       </c>
-      <c r="C16" s="16">
-        <v>8</v>
-      </c>
-      <c r="D16" s="16" t="e">
+      <c r="C16" s="17">
+        <v>3507</v>
+      </c>
+      <c r="D16" s="16" t="str">
         <f>VLOOKUP(C16,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E16</f>
-        <v>#N/A</v>
+        <v>狂风沙漠的图鉴箱*1</v>
       </c>
       <c r="E16" s="11">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="F16" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
@@ -5523,47 +6001,47 @@
       <c r="H16" s="12">
         <v>1500</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="26">
         <f>SUMIFS(H:H,G:G,G16)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J16" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为1.5%</v>
-      </c>
-      <c r="K16" s="26" t="str">
+        <v>占总概率为0.52608%</v>
+      </c>
+      <c r="K16" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【UR】比重3%</v>
-      </c>
-      <c r="L16" s="27"/>
+        <v>配置【SSR】比重41.431918%</v>
+      </c>
+      <c r="L16" s="28"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="29"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
-      <c r="V16" s="35"/>
+      <c r="V16" s="36"/>
     </row>
     <row r="17" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A17" s="13"/>
       <c r="B17" s="11">
         <v>13</v>
       </c>
-      <c r="C17" s="16">
-        <v>9</v>
-      </c>
-      <c r="D17" s="16" t="e">
+      <c r="C17" s="17">
+        <v>3508</v>
+      </c>
+      <c r="D17" s="16" t="str">
         <f>VLOOKUP(C17,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E17</f>
-        <v>#N/A</v>
+        <v>雷霆之地的图鉴箱*1</v>
       </c>
       <c r="E17" s="11">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="F17" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" s="14">
         <v>1</v>
@@ -5571,653 +6049,2895 @@
       <c r="H17" s="12">
         <v>1500</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="26">
         <f>SUMIFS(H:H,G:G,G17)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J17" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为1.5%</v>
-      </c>
-      <c r="K17" s="26" t="str">
+        <v>占总概率为0.52608%</v>
+      </c>
+      <c r="K17" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【UR】比重3%</v>
-      </c>
-      <c r="L17" s="31"/>
+        <v>配置【SSR】比重41.431918%</v>
+      </c>
+      <c r="L17" s="32"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="33"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
-      <c r="V17" s="36"/>
+      <c r="V17" s="37"/>
     </row>
     <row r="18" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A18" s="10"/>
       <c r="B18" s="11">
         <v>14</v>
       </c>
-      <c r="C18" s="16">
-        <v>6</v>
-      </c>
-      <c r="D18" s="16" t="e">
+      <c r="C18" s="17">
+        <v>3509</v>
+      </c>
+      <c r="D18" s="16" t="str">
         <f>VLOOKUP(C18,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E18</f>
-        <v>#N/A</v>
+        <v>熔火炼狱的史诗图鉴图鉴箱*1</v>
       </c>
       <c r="E18" s="11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F18" s="11">
-        <v>1</v>
-      </c>
-      <c r="G18" s="11">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1</v>
       </c>
       <c r="H18" s="12">
         <v>20000</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="26">
         <f>SUMIFS(H:H,G:G,G18)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J18" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为20%</v>
-      </c>
-      <c r="K18" s="26" t="str">
+        <v>占总概率为7.014394%</v>
+      </c>
+      <c r="K18" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【R】比重80%</v>
-      </c>
-      <c r="L18" s="27"/>
+        <v>配置【SSR】比重41.431918%</v>
+      </c>
+      <c r="L18" s="28"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="33"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="34"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
-      <c r="V18" s="35"/>
+      <c r="V18" s="36"/>
     </row>
     <row r="19" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A19" s="13"/>
       <c r="B19" s="11">
         <v>15</v>
       </c>
-      <c r="C19" s="16">
-        <v>7</v>
-      </c>
-      <c r="D19" s="16" t="e">
+      <c r="C19" s="17">
+        <v>3510</v>
+      </c>
+      <c r="D19" s="16" t="str">
         <f>VLOOKUP(C19,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E19</f>
-        <v>#N/A</v>
+        <v>极北之地的史诗图鉴图鉴箱*1</v>
       </c>
       <c r="E19" s="11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F19" s="11">
-        <v>1</v>
-      </c>
-      <c r="G19" s="11">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
       </c>
       <c r="H19" s="12">
         <v>20000</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="26">
         <f>SUMIFS(H:H,G:G,G19)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J19" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为20%</v>
-      </c>
-      <c r="K19" s="26" t="str">
+        <v>占总概率为7.014394%</v>
+      </c>
+      <c r="K19" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【R】比重80%</v>
-      </c>
-      <c r="L19" s="31"/>
+        <v>配置【SSR】比重41.431918%</v>
+      </c>
+      <c r="L19" s="32"/>
       <c r="M19" s="14"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="32"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="33"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
-      <c r="V19" s="36"/>
+      <c r="V19" s="37"/>
     </row>
     <row r="20" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A20" s="10"/>
       <c r="B20" s="11">
         <v>16</v>
       </c>
-      <c r="C20" s="16">
-        <v>8</v>
-      </c>
-      <c r="D20" s="16" t="e">
+      <c r="C20" s="17">
+        <v>3511</v>
+      </c>
+      <c r="D20" s="16" t="str">
         <f>VLOOKUP(C20,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E20</f>
-        <v>#N/A</v>
+        <v>狂风沙漠的史诗图鉴图鉴箱*1</v>
       </c>
       <c r="E20" s="11">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="F20" s="11">
-        <v>1</v>
-      </c>
-      <c r="G20" s="11">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1</v>
       </c>
       <c r="H20" s="12">
         <v>20000</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="26">
         <f>SUMIFS(H:H,G:G,G20)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J20" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为20%</v>
-      </c>
-      <c r="K20" s="26" t="str">
+        <v>占总概率为7.014394%</v>
+      </c>
+      <c r="K20" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【R】比重80%</v>
-      </c>
-      <c r="L20" s="27"/>
+        <v>配置【SSR】比重41.431918%</v>
+      </c>
+      <c r="L20" s="17"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="29"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
-      <c r="V20" s="35"/>
+      <c r="V20" s="36"/>
     </row>
     <row r="21" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A21" s="13"/>
       <c r="B21" s="11">
         <v>17</v>
       </c>
-      <c r="C21" s="16">
-        <v>9</v>
-      </c>
-      <c r="D21" s="16" t="e">
+      <c r="C21" s="17">
+        <v>3512</v>
+      </c>
+      <c r="D21" s="16" t="str">
         <f>VLOOKUP(C21,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E21</f>
-        <v>#N/A</v>
+        <v>雷霆之地的史诗图鉴图鉴箱*1</v>
       </c>
       <c r="E21" s="11">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="F21" s="11">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1</v>
       </c>
       <c r="H21" s="12">
         <v>20000</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="26">
         <f>SUMIFS(H:H,G:G,G21)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J21" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为20%</v>
-      </c>
-      <c r="K21" s="26" t="str">
+        <v>占总概率为7.014394%</v>
+      </c>
+      <c r="K21" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【R】比重80%</v>
-      </c>
-      <c r="L21" s="31"/>
+        <v>配置【SSR】比重41.431918%</v>
+      </c>
+      <c r="L21" s="17"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="32"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="33"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="36"/>
+      <c r="V21" s="37"/>
     </row>
     <row r="22" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A22" s="10"/>
       <c r="B22" s="11">
         <v>18</v>
       </c>
-      <c r="C22" s="16">
-        <v>10</v>
-      </c>
-      <c r="D22" s="16" t="e">
+      <c r="C22" s="17">
+        <v>3513</v>
+      </c>
+      <c r="D22" s="16" t="str">
         <f>VLOOKUP(C22,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E22</f>
-        <v>#N/A</v>
+        <v>熔火炼狱的传说图鉴图鉴箱*1</v>
       </c>
       <c r="E22" s="11">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="F22" s="11">
-        <v>2</v>
-      </c>
-      <c r="G22" s="11">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1</v>
       </c>
       <c r="H22" s="12">
         <v>3000</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="26">
         <f>SUMIFS(H:H,G:G,G22)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J22" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为3%</v>
-      </c>
-      <c r="K22" s="26" t="str">
+        <v>占总概率为1.052159%</v>
+      </c>
+      <c r="K22" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SR】比重9%</v>
-      </c>
-      <c r="L22" s="27"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L22" s="17"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="29"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
-      <c r="V22" s="35"/>
+      <c r="V22" s="36"/>
     </row>
     <row r="23" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A23" s="13"/>
       <c r="B23" s="11">
         <v>19</v>
       </c>
-      <c r="C23" s="16">
-        <v>11</v>
-      </c>
-      <c r="D23" s="16" t="e">
+      <c r="C23" s="17">
+        <v>3514</v>
+      </c>
+      <c r="D23" s="16" t="str">
         <f>VLOOKUP(C23,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E23</f>
-        <v>#N/A</v>
+        <v>极北之地的传说图鉴图鉴箱*1</v>
       </c>
       <c r="E23" s="11">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="F23" s="11">
-        <v>2</v>
-      </c>
-      <c r="G23" s="11">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
       </c>
       <c r="H23" s="12">
         <v>3000</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="26">
         <f>SUMIFS(H:H,G:G,G23)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J23" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为3%</v>
-      </c>
-      <c r="K23" s="26" t="str">
+        <v>占总概率为1.052159%</v>
+      </c>
+      <c r="K23" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SR】比重9%</v>
-      </c>
-      <c r="L23" s="31"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L23" s="17"/>
       <c r="M23" s="14"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="33"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="36"/>
+      <c r="V23" s="37"/>
     </row>
     <row r="24" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A24" s="10"/>
       <c r="B24" s="11">
         <v>20</v>
       </c>
-      <c r="C24" s="16">
-        <v>6</v>
-      </c>
-      <c r="D24" s="16" t="e">
+      <c r="C24" s="17">
+        <v>3515</v>
+      </c>
+      <c r="D24" s="16" t="str">
         <f>VLOOKUP(C24,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E24</f>
-        <v>#N/A</v>
+        <v>狂风沙漠的传说图鉴图鉴箱*1</v>
       </c>
       <c r="E24" s="11">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="F24" s="11">
-        <v>2</v>
-      </c>
-      <c r="G24" s="11">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1</v>
       </c>
       <c r="H24" s="12">
         <v>3000</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="26">
         <f>SUMIFS(H:H,G:G,G24)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J24" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为3%</v>
-      </c>
-      <c r="K24" s="26" t="str">
+        <v>占总概率为1.052159%</v>
+      </c>
+      <c r="K24" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SR】比重9%</v>
-      </c>
-      <c r="L24" s="27"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L24" s="17"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="29"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-      <c r="V24" s="35"/>
+      <c r="V24" s="36"/>
     </row>
     <row r="25" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A25" s="13"/>
       <c r="B25" s="11">
         <v>21</v>
       </c>
-      <c r="C25" s="16">
-        <v>7</v>
-      </c>
-      <c r="D25" s="16" t="e">
+      <c r="C25" s="17">
+        <v>3516</v>
+      </c>
+      <c r="D25" s="16" t="str">
         <f>VLOOKUP(C25,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E25</f>
-        <v>#N/A</v>
+        <v>雷霆之地的传说图鉴图鉴箱*1</v>
       </c>
       <c r="E25" s="11">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="F25" s="14">
-        <v>3</v>
-      </c>
-      <c r="G25" s="11">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1</v>
       </c>
       <c r="H25" s="12">
         <v>2000</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="26">
         <f>SUMIFS(H:H,G:G,G25)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J25" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为2%</v>
-      </c>
-      <c r="K25" s="26" t="str">
+        <v>占总概率为0.701439%</v>
+      </c>
+      <c r="K25" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重8%</v>
-      </c>
-      <c r="L25" s="31"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L25" s="17"/>
       <c r="M25" s="14"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="33"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
-      <c r="V25" s="36"/>
+      <c r="V25" s="37"/>
     </row>
     <row r="26" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A26" s="10"/>
       <c r="B26" s="11">
         <v>22</v>
       </c>
-      <c r="C26" s="16">
-        <v>8</v>
-      </c>
-      <c r="D26" s="16" t="e">
+      <c r="C26" s="17">
+        <v>3517</v>
+      </c>
+      <c r="D26" s="16" t="str">
         <f>VLOOKUP(C26,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E26</f>
-        <v>#N/A</v>
+        <v>精良图鉴箱（自选）*1</v>
       </c>
       <c r="E26" s="11">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="F26" s="14">
-        <v>3</v>
-      </c>
-      <c r="G26" s="11">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1</v>
       </c>
       <c r="H26" s="12">
         <v>2000</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="26">
         <f>SUMIFS(H:H,G:G,G26)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J26" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为2%</v>
-      </c>
-      <c r="K26" s="26" t="str">
+        <v>占总概率为0.701439%</v>
+      </c>
+      <c r="K26" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重8%</v>
-      </c>
-      <c r="L26" s="27"/>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L26" s="17"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="29"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
-      <c r="V26" s="35"/>
+      <c r="V26" s="36"/>
     </row>
     <row r="27" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A27" s="13"/>
       <c r="B27" s="11">
         <v>23</v>
       </c>
-      <c r="C27" s="16">
-        <v>9</v>
-      </c>
-      <c r="D27" s="16" t="e">
+      <c r="C27" s="17">
+        <v>3518</v>
+      </c>
+      <c r="D27" s="16" t="str">
         <f>VLOOKUP(C27,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E27</f>
-        <v>#N/A</v>
+        <v>史诗图鉴箱（自选）*1</v>
       </c>
       <c r="E27" s="11">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="F27" s="14">
-        <v>3</v>
-      </c>
-      <c r="G27" s="11">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1</v>
       </c>
       <c r="H27" s="12">
         <v>2000</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="26">
         <f>SUMIFS(H:H,G:G,G27)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J27" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为2%</v>
-      </c>
-      <c r="K27" s="26" t="str">
+        <v>占总概率为0.701439%</v>
+      </c>
+      <c r="K27" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重8%</v>
-      </c>
-      <c r="L27" s="31"/>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L27" s="17"/>
       <c r="M27" s="14"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="33"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
-      <c r="V27" s="36"/>
+      <c r="V27" s="37"/>
     </row>
     <row r="28" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A28" s="13"/>
       <c r="B28" s="11">
         <v>24</v>
       </c>
-      <c r="C28" s="16">
-        <v>7</v>
-      </c>
-      <c r="D28" s="16" t="e">
+      <c r="C28" s="17">
+        <v>3519</v>
+      </c>
+      <c r="D28" s="16" t="str">
         <f>VLOOKUP(C28,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E28</f>
-        <v>#N/A</v>
+        <v>传说图鉴箱（自选）*1</v>
       </c>
       <c r="E28" s="11">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="F28" s="14">
-        <v>3</v>
-      </c>
-      <c r="G28" s="11">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1</v>
       </c>
       <c r="H28" s="12">
         <v>2000</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="26">
         <f>SUMIFS(H:H,G:G,G28)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J28" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为2%</v>
-      </c>
-      <c r="K28" s="26" t="str">
+        <v>占总概率为0.701439%</v>
+      </c>
+      <c r="K28" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重8%</v>
-      </c>
-      <c r="L28" s="31"/>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L28" s="17"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="33"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
-      <c r="V28" s="36"/>
+      <c r="V28" s="37"/>
     </row>
     <row r="29" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A29" s="10"/>
       <c r="B29" s="11">
         <v>25</v>
       </c>
-      <c r="C29" s="16">
-        <v>8</v>
-      </c>
-      <c r="D29" s="16" t="e">
+      <c r="C29" s="17">
+        <v>3520</v>
+      </c>
+      <c r="D29" s="16" t="str">
         <f>VLOOKUP(C29,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E29</f>
-        <v>#N/A</v>
+        <v>不朽图鉴箱（自选）*1</v>
       </c>
       <c r="E29" s="11">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="F29" s="14">
-        <v>4</v>
-      </c>
-      <c r="G29" s="11">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G29" s="14">
+        <v>1</v>
       </c>
       <c r="H29" s="12">
         <v>1500</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="26">
         <f>SUMIFS(H:H,G:G,G29)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J29" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为1.5%</v>
-      </c>
-      <c r="K29" s="26" t="str">
+        <v>占总概率为0.52608%</v>
+      </c>
+      <c r="K29" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【UR】比重3%</v>
-      </c>
-      <c r="L29" s="27"/>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L29" s="17"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="29"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
-      <c r="V29" s="35"/>
+      <c r="V29" s="36"/>
     </row>
     <row r="30" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A30" s="13"/>
       <c r="B30" s="11">
         <v>26</v>
       </c>
-      <c r="C30" s="16">
-        <v>9</v>
-      </c>
-      <c r="D30" s="16" t="e">
+      <c r="C30" s="17">
+        <v>3521</v>
+      </c>
+      <c r="D30" s="16" t="str">
         <f>VLOOKUP(C30,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E30</f>
-        <v>#N/A</v>
+        <v>熔火炼狱的图鉴箱（自选）*1</v>
       </c>
       <c r="E30" s="11">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="F30" s="14">
-        <v>4</v>
-      </c>
-      <c r="G30" s="11">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1</v>
       </c>
       <c r="H30" s="12">
         <v>1500</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="26">
         <f>SUMIFS(H:H,G:G,G30)</f>
-        <v>100000</v>
+        <v>285128</v>
       </c>
       <c r="J30" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为1.5%</v>
-      </c>
-      <c r="K30" s="26" t="str">
+        <v>占总概率为0.52608%</v>
+      </c>
+      <c r="K30" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【UR】比重3%</v>
-      </c>
-      <c r="L30" s="31"/>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L30" s="17"/>
       <c r="M30" s="14"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="33"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
-      <c r="V30" s="36"/>
+      <c r="V30" s="37"/>
+    </row>
+    <row r="31" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A31" s="13"/>
+      <c r="B31" s="11">
+        <v>27</v>
+      </c>
+      <c r="C31" s="17">
+        <v>3522</v>
+      </c>
+      <c r="D31" s="16" t="str">
+        <f>VLOOKUP(C31,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E31</f>
+        <v>极北之地的图鉴箱（自选）*1</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14">
+        <v>5</v>
+      </c>
+      <c r="G31" s="14">
+        <v>1</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1501</v>
+      </c>
+      <c r="I31" s="26">
+        <f>SUMIFS(H:H,G:G,G31)</f>
+        <v>285128</v>
+      </c>
+      <c r="J31" s="11" t="str">
+        <f>"占总概率为"&amp;ROUND((H31/I31*100),6)&amp;"%"</f>
+        <v>占总概率为0.52643%</v>
+      </c>
+      <c r="K31" s="27" t="str">
+        <f>"配置【"&amp;VLOOKUP(F31,L:M,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F31,G:G,G31)/I31*100),6)&amp;"%"</f>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="37"/>
+    </row>
+    <row r="32" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A32" s="13"/>
+      <c r="B32" s="11">
+        <v>28</v>
+      </c>
+      <c r="C32" s="17">
+        <v>3523</v>
+      </c>
+      <c r="D32" s="16" t="str">
+        <f>VLOOKUP(C32,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E32</f>
+        <v>狂风沙漠的图鉴箱（自选）*1</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1</v>
+      </c>
+      <c r="F32" s="14">
+        <v>5</v>
+      </c>
+      <c r="G32" s="14">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12">
+        <v>1502</v>
+      </c>
+      <c r="I32" s="26">
+        <f>SUMIFS(H:H,G:G,G32)</f>
+        <v>285128</v>
+      </c>
+      <c r="J32" s="11" t="str">
+        <f>"占总概率为"&amp;ROUND((H32/I32*100),6)&amp;"%"</f>
+        <v>占总概率为0.526781%</v>
+      </c>
+      <c r="K32" s="27" t="str">
+        <f>"配置【"&amp;VLOOKUP(F32,L:M,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F32,G:G,G32)/I32*100),6)&amp;"%"</f>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="37"/>
+    </row>
+    <row r="33" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A33" s="13"/>
+      <c r="B33" s="11">
+        <v>29</v>
+      </c>
+      <c r="C33" s="17">
+        <v>3524</v>
+      </c>
+      <c r="D33" s="16" t="str">
+        <f>VLOOKUP(C33,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E33</f>
+        <v>雷霆之地的图鉴箱（自选）*1</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1</v>
+      </c>
+      <c r="F33" s="14">
+        <v>5</v>
+      </c>
+      <c r="G33" s="14">
+        <v>1</v>
+      </c>
+      <c r="H33" s="12">
+        <v>1503</v>
+      </c>
+      <c r="I33" s="26">
+        <f>SUMIFS(H:H,G:G,G33)</f>
+        <v>285128</v>
+      </c>
+      <c r="J33" s="11" t="str">
+        <f>"占总概率为"&amp;ROUND((H33/I33*100),6)&amp;"%"</f>
+        <v>占总概率为0.527132%</v>
+      </c>
+      <c r="K33" s="27" t="str">
+        <f>"配置【"&amp;VLOOKUP(F33,L:M,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F33,G:G,G33)/I33*100),6)&amp;"%"</f>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="37"/>
+    </row>
+    <row r="34" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A34" s="13"/>
+      <c r="B34" s="11">
+        <v>30</v>
+      </c>
+      <c r="C34" s="17">
+        <v>3525</v>
+      </c>
+      <c r="D34" s="16" t="str">
+        <f>VLOOKUP(C34,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E34</f>
+        <v>元素大陆图的鉴箱（自选）*1</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1</v>
+      </c>
+      <c r="F34" s="14">
+        <v>5</v>
+      </c>
+      <c r="G34" s="14">
+        <v>1</v>
+      </c>
+      <c r="H34" s="12">
+        <v>1504</v>
+      </c>
+      <c r="I34" s="26">
+        <f>SUMIFS(H:H,G:G,G34)</f>
+        <v>285128</v>
+      </c>
+      <c r="J34" s="11" t="str">
+        <f>"占总概率为"&amp;ROUND((H34/I34*100),6)&amp;"%"</f>
+        <v>占总概率为0.527482%</v>
+      </c>
+      <c r="K34" s="27" t="str">
+        <f>"配置【"&amp;VLOOKUP(F34,L:M,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F34,G:G,G34)/I34*100),6)&amp;"%"</f>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="37"/>
+    </row>
+    <row r="35" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A35" s="13"/>
+      <c r="B35" s="11">
+        <v>31</v>
+      </c>
+      <c r="C35" s="17">
+        <v>20006</v>
+      </c>
+      <c r="D35" s="16" t="str">
+        <f>VLOOKUP(C35,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E35</f>
+        <v>老者的指引·上*1</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1</v>
+      </c>
+      <c r="F35" s="14">
+        <v>4</v>
+      </c>
+      <c r="G35" s="14">
+        <v>1</v>
+      </c>
+      <c r="H35" s="12">
+        <v>1505</v>
+      </c>
+      <c r="I35" s="26">
+        <f t="shared" ref="I35:I67" si="3">SUMIFS(H:H,G:G,G35)</f>
+        <v>285128</v>
+      </c>
+      <c r="J35" s="11" t="str">
+        <f t="shared" ref="J35:J67" si="4">"占总概率为"&amp;ROUND((H35/I35*100),6)&amp;"%"</f>
+        <v>占总概率为0.527833%</v>
+      </c>
+      <c r="K35" s="27" t="str">
+        <f t="shared" ref="K35:K67" si="5">"配置【"&amp;VLOOKUP(F35,L:M,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F35,G:G,G35)/I35*100),6)&amp;"%"</f>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="37"/>
+    </row>
+    <row r="36" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A36" s="13"/>
+      <c r="B36" s="11">
+        <v>32</v>
+      </c>
+      <c r="C36" s="17">
+        <v>20007</v>
+      </c>
+      <c r="D36" s="16" t="str">
+        <f>VLOOKUP(C36,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E36</f>
+        <v>老者的指引·中*1</v>
+      </c>
+      <c r="E36" s="11">
+        <v>1</v>
+      </c>
+      <c r="F36" s="14">
+        <v>4</v>
+      </c>
+      <c r="G36" s="14">
+        <v>1</v>
+      </c>
+      <c r="H36" s="12">
+        <v>1506</v>
+      </c>
+      <c r="I36" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J36" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.528184%</v>
+      </c>
+      <c r="K36" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="37"/>
+    </row>
+    <row r="37" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A37" s="13"/>
+      <c r="B37" s="11">
+        <v>33</v>
+      </c>
+      <c r="C37" s="17">
+        <v>20008</v>
+      </c>
+      <c r="D37" s="16" t="str">
+        <f>VLOOKUP(C37,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E37</f>
+        <v>老者的指引·下*1</v>
+      </c>
+      <c r="E37" s="11">
+        <v>1</v>
+      </c>
+      <c r="F37" s="14">
+        <v>5</v>
+      </c>
+      <c r="G37" s="14">
+        <v>1</v>
+      </c>
+      <c r="H37" s="12">
+        <v>1507</v>
+      </c>
+      <c r="I37" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J37" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.528535%</v>
+      </c>
+      <c r="K37" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="37"/>
+    </row>
+    <row r="38" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A38" s="13"/>
+      <c r="B38" s="11">
+        <v>34</v>
+      </c>
+      <c r="C38" s="17">
+        <v>20010</v>
+      </c>
+      <c r="D38" s="16" t="str">
+        <f>VLOOKUP(C38,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E38</f>
+        <v>不留遗憾之矢·上*1</v>
+      </c>
+      <c r="E38" s="11">
+        <v>1</v>
+      </c>
+      <c r="F38" s="14">
+        <v>4</v>
+      </c>
+      <c r="G38" s="14">
+        <v>1</v>
+      </c>
+      <c r="H38" s="12">
+        <v>1508</v>
+      </c>
+      <c r="I38" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J38" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.528885%</v>
+      </c>
+      <c r="K38" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="37"/>
+    </row>
+    <row r="39" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A39" s="13"/>
+      <c r="B39" s="11">
+        <v>35</v>
+      </c>
+      <c r="C39" s="17">
+        <v>20011</v>
+      </c>
+      <c r="D39" s="16" t="str">
+        <f>VLOOKUP(C39,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E39</f>
+        <v>不留遗憾之矢·中*1</v>
+      </c>
+      <c r="E39" s="11">
+        <v>1</v>
+      </c>
+      <c r="F39" s="14">
+        <v>4</v>
+      </c>
+      <c r="G39" s="14">
+        <v>1</v>
+      </c>
+      <c r="H39" s="12">
+        <v>1509</v>
+      </c>
+      <c r="I39" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J39" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.529236%</v>
+      </c>
+      <c r="K39" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="37"/>
+    </row>
+    <row r="40" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A40" s="13"/>
+      <c r="B40" s="11">
+        <v>36</v>
+      </c>
+      <c r="C40" s="17">
+        <v>20012</v>
+      </c>
+      <c r="D40" s="16" t="str">
+        <f>VLOOKUP(C40,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E40</f>
+        <v>不留遗憾之矢·下*1</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1</v>
+      </c>
+      <c r="F40" s="14">
+        <v>5</v>
+      </c>
+      <c r="G40" s="14">
+        <v>1</v>
+      </c>
+      <c r="H40" s="12">
+        <v>1510</v>
+      </c>
+      <c r="I40" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J40" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.529587%</v>
+      </c>
+      <c r="K40" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="37"/>
+    </row>
+    <row r="41" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A41" s="13"/>
+      <c r="B41" s="11">
+        <v>37</v>
+      </c>
+      <c r="C41" s="17">
+        <v>20015</v>
+      </c>
+      <c r="D41" s="16" t="str">
+        <f>VLOOKUP(C41,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E41</f>
+        <v>超越极限·上*1</v>
+      </c>
+      <c r="E41" s="11">
+        <v>1</v>
+      </c>
+      <c r="F41" s="14">
+        <v>4</v>
+      </c>
+      <c r="G41" s="14">
+        <v>1</v>
+      </c>
+      <c r="H41" s="12">
+        <v>1511</v>
+      </c>
+      <c r="I41" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J41" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.529937%</v>
+      </c>
+      <c r="K41" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="37"/>
+    </row>
+    <row r="42" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A42" s="13"/>
+      <c r="B42" s="11">
+        <v>38</v>
+      </c>
+      <c r="C42" s="17">
+        <v>20016</v>
+      </c>
+      <c r="D42" s="16" t="str">
+        <f>VLOOKUP(C42,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E42</f>
+        <v>超越极限·中*1</v>
+      </c>
+      <c r="E42" s="11">
+        <v>1</v>
+      </c>
+      <c r="F42" s="14">
+        <v>4</v>
+      </c>
+      <c r="G42" s="14">
+        <v>1</v>
+      </c>
+      <c r="H42" s="12">
+        <v>1512</v>
+      </c>
+      <c r="I42" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J42" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.530288%</v>
+      </c>
+      <c r="K42" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="37"/>
+    </row>
+    <row r="43" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A43" s="13"/>
+      <c r="B43" s="11">
+        <v>39</v>
+      </c>
+      <c r="C43" s="17">
+        <v>20017</v>
+      </c>
+      <c r="D43" s="16" t="str">
+        <f>VLOOKUP(C43,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E43</f>
+        <v>超越极限·下*1</v>
+      </c>
+      <c r="E43" s="11">
+        <v>1</v>
+      </c>
+      <c r="F43" s="14">
+        <v>5</v>
+      </c>
+      <c r="G43" s="14">
+        <v>1</v>
+      </c>
+      <c r="H43" s="12">
+        <v>1513</v>
+      </c>
+      <c r="I43" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J43" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.530639%</v>
+      </c>
+      <c r="K43" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="37"/>
+    </row>
+    <row r="44" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A44" s="13"/>
+      <c r="B44" s="11">
+        <v>40</v>
+      </c>
+      <c r="C44" s="17">
+        <v>20018</v>
+      </c>
+      <c r="D44" s="16" t="str">
+        <f>VLOOKUP(C44,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E44</f>
+        <v>消费大师·上*1</v>
+      </c>
+      <c r="E44" s="11">
+        <v>1</v>
+      </c>
+      <c r="F44" s="14">
+        <v>4</v>
+      </c>
+      <c r="G44" s="14">
+        <v>1</v>
+      </c>
+      <c r="H44" s="12">
+        <v>1514</v>
+      </c>
+      <c r="I44" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J44" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.53099%</v>
+      </c>
+      <c r="K44" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="37"/>
+    </row>
+    <row r="45" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A45" s="13"/>
+      <c r="B45" s="11">
+        <v>41</v>
+      </c>
+      <c r="C45" s="17">
+        <v>20019</v>
+      </c>
+      <c r="D45" s="16" t="str">
+        <f>VLOOKUP(C45,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E45</f>
+        <v>消费大师·中*1</v>
+      </c>
+      <c r="E45" s="11">
+        <v>1</v>
+      </c>
+      <c r="F45" s="14">
+        <v>5</v>
+      </c>
+      <c r="G45" s="14">
+        <v>1</v>
+      </c>
+      <c r="H45" s="12">
+        <v>1515</v>
+      </c>
+      <c r="I45" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J45" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.53134%</v>
+      </c>
+      <c r="K45" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="37"/>
+    </row>
+    <row r="46" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A46" s="13"/>
+      <c r="B46" s="11">
+        <v>42</v>
+      </c>
+      <c r="C46" s="17">
+        <v>20020</v>
+      </c>
+      <c r="D46" s="16" t="str">
+        <f>VLOOKUP(C46,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E46</f>
+        <v>消费大师·下*1</v>
+      </c>
+      <c r="E46" s="11">
+        <v>1</v>
+      </c>
+      <c r="F46" s="14">
+        <v>4</v>
+      </c>
+      <c r="G46" s="14">
+        <v>1</v>
+      </c>
+      <c r="H46" s="12">
+        <v>1516</v>
+      </c>
+      <c r="I46" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J46" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.531691%</v>
+      </c>
+      <c r="K46" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="37"/>
+    </row>
+    <row r="47" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A47" s="13"/>
+      <c r="B47" s="11">
+        <v>43</v>
+      </c>
+      <c r="C47" s="17">
+        <v>20021</v>
+      </c>
+      <c r="D47" s="16" t="str">
+        <f>VLOOKUP(C47,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E47</f>
+        <v>符文大师·上*1</v>
+      </c>
+      <c r="E47" s="11">
+        <v>1</v>
+      </c>
+      <c r="F47" s="14">
+        <v>4</v>
+      </c>
+      <c r="G47" s="14">
+        <v>1</v>
+      </c>
+      <c r="H47" s="12">
+        <v>1517</v>
+      </c>
+      <c r="I47" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J47" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.532042%</v>
+      </c>
+      <c r="K47" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="37"/>
+    </row>
+    <row r="48" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A48" s="13"/>
+      <c r="B48" s="11">
+        <v>44</v>
+      </c>
+      <c r="C48" s="17">
+        <v>20022</v>
+      </c>
+      <c r="D48" s="16" t="str">
+        <f>VLOOKUP(C48,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E48</f>
+        <v>符文大师·中*1</v>
+      </c>
+      <c r="E48" s="11">
+        <v>1</v>
+      </c>
+      <c r="F48" s="14">
+        <v>5</v>
+      </c>
+      <c r="G48" s="14">
+        <v>1</v>
+      </c>
+      <c r="H48" s="12">
+        <v>1518</v>
+      </c>
+      <c r="I48" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J48" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.532392%</v>
+      </c>
+      <c r="K48" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="37"/>
+    </row>
+    <row r="49" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A49" s="13"/>
+      <c r="B49" s="11">
+        <v>45</v>
+      </c>
+      <c r="C49" s="17">
+        <v>20023</v>
+      </c>
+      <c r="D49" s="16" t="str">
+        <f>VLOOKUP(C49,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E49</f>
+        <v>符文大师·下*1</v>
+      </c>
+      <c r="E49" s="11">
+        <v>1</v>
+      </c>
+      <c r="F49" s="14">
+        <v>4</v>
+      </c>
+      <c r="G49" s="14">
+        <v>1</v>
+      </c>
+      <c r="H49" s="12">
+        <v>1519</v>
+      </c>
+      <c r="I49" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J49" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.532743%</v>
+      </c>
+      <c r="K49" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="37"/>
+    </row>
+    <row r="50" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A50" s="13"/>
+      <c r="B50" s="11">
+        <v>46</v>
+      </c>
+      <c r="C50" s="17">
+        <v>20101</v>
+      </c>
+      <c r="D50" s="16" t="str">
+        <f>VLOOKUP(C50,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E50</f>
+        <v>终结者*1</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1</v>
+      </c>
+      <c r="F50" s="14">
+        <v>5</v>
+      </c>
+      <c r="G50" s="14">
+        <v>1</v>
+      </c>
+      <c r="H50" s="12">
+        <v>1520</v>
+      </c>
+      <c r="I50" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J50" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.533094%</v>
+      </c>
+      <c r="K50" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="37"/>
+    </row>
+    <row r="51" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A51" s="13"/>
+      <c r="B51" s="11">
+        <v>47</v>
+      </c>
+      <c r="C51" s="17">
+        <v>20102</v>
+      </c>
+      <c r="D51" s="16" t="str">
+        <f>VLOOKUP(C51,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E51</f>
+        <v>领袖*1</v>
+      </c>
+      <c r="E51" s="11">
+        <v>1</v>
+      </c>
+      <c r="F51" s="14">
+        <v>5</v>
+      </c>
+      <c r="G51" s="14">
+        <v>1</v>
+      </c>
+      <c r="H51" s="12">
+        <v>1521</v>
+      </c>
+      <c r="I51" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J51" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.533445%</v>
+      </c>
+      <c r="K51" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="37"/>
+    </row>
+    <row r="52" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A52" s="13"/>
+      <c r="B52" s="11">
+        <v>48</v>
+      </c>
+      <c r="C52" s="17">
+        <v>20103</v>
+      </c>
+      <c r="D52" s="16" t="str">
+        <f>VLOOKUP(C52,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E52</f>
+        <v>圣坛使者*1</v>
+      </c>
+      <c r="E52" s="11">
+        <v>1</v>
+      </c>
+      <c r="F52" s="14">
+        <v>5</v>
+      </c>
+      <c r="G52" s="14">
+        <v>1</v>
+      </c>
+      <c r="H52" s="12">
+        <v>1522</v>
+      </c>
+      <c r="I52" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J52" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.533795%</v>
+      </c>
+      <c r="K52" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="37"/>
+    </row>
+    <row r="53" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A53" s="13"/>
+      <c r="B53" s="11">
+        <v>49</v>
+      </c>
+      <c r="C53" s="17">
+        <v>20105</v>
+      </c>
+      <c r="D53" s="16" t="str">
+        <f>VLOOKUP(C53,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E53</f>
+        <v>图鉴领悟者*1</v>
+      </c>
+      <c r="E53" s="11">
+        <v>1</v>
+      </c>
+      <c r="F53" s="14">
+        <v>5</v>
+      </c>
+      <c r="G53" s="14">
+        <v>1</v>
+      </c>
+      <c r="H53" s="12">
+        <v>1523</v>
+      </c>
+      <c r="I53" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J53" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.534146%</v>
+      </c>
+      <c r="K53" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="37"/>
+    </row>
+    <row r="54" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A54" s="13"/>
+      <c r="B54" s="11">
+        <v>50</v>
+      </c>
+      <c r="C54" s="17">
+        <v>20106</v>
+      </c>
+      <c r="D54" s="16" t="str">
+        <f>VLOOKUP(C54,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E54</f>
+        <v>忠实粉丝*1</v>
+      </c>
+      <c r="E54" s="11">
+        <v>1</v>
+      </c>
+      <c r="F54" s="14">
+        <v>5</v>
+      </c>
+      <c r="G54" s="14">
+        <v>1</v>
+      </c>
+      <c r="H54" s="12">
+        <v>1524</v>
+      </c>
+      <c r="I54" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J54" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.534497%</v>
+      </c>
+      <c r="K54" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="37"/>
+    </row>
+    <row r="55" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A55" s="13"/>
+      <c r="B55" s="11">
+        <v>51</v>
+      </c>
+      <c r="C55" s="17">
+        <v>20107</v>
+      </c>
+      <c r="D55" s="16" t="str">
+        <f>VLOOKUP(C55,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E55</f>
+        <v>魂石掌控者*1</v>
+      </c>
+      <c r="E55" s="11">
+        <v>1</v>
+      </c>
+      <c r="F55" s="14">
+        <v>5</v>
+      </c>
+      <c r="G55" s="14">
+        <v>1</v>
+      </c>
+      <c r="H55" s="12">
+        <v>1525</v>
+      </c>
+      <c r="I55" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J55" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.534848%</v>
+      </c>
+      <c r="K55" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="37"/>
+    </row>
+    <row r="56" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A56" s="13"/>
+      <c r="B56" s="11">
+        <v>52</v>
+      </c>
+      <c r="C56" s="17">
+        <v>1294</v>
+      </c>
+      <c r="D56" s="16" t="str">
+        <f>VLOOKUP(C56,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E56</f>
+        <v>万能精通经验*1000</v>
+      </c>
+      <c r="E56" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F56" s="14">
+        <v>2</v>
+      </c>
+      <c r="G56" s="14">
+        <v>1</v>
+      </c>
+      <c r="H56" s="12">
+        <v>1526</v>
+      </c>
+      <c r="I56" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J56" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.535198%</v>
+      </c>
+      <c r="K56" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SR】比重13.723661%</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="37"/>
+    </row>
+    <row r="57" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A57" s="13"/>
+      <c r="B57" s="11">
+        <v>53</v>
+      </c>
+      <c r="C57" s="17">
+        <v>1294</v>
+      </c>
+      <c r="D57" s="16" t="str">
+        <f>VLOOKUP(C57,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E57</f>
+        <v>万能精通经验*3000</v>
+      </c>
+      <c r="E57" s="11">
+        <v>3000</v>
+      </c>
+      <c r="F57" s="14">
+        <v>3</v>
+      </c>
+      <c r="G57" s="14">
+        <v>1</v>
+      </c>
+      <c r="H57" s="12">
+        <v>1527</v>
+      </c>
+      <c r="I57" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J57" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.535549%</v>
+      </c>
+      <c r="K57" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SSR】比重41.431918%</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="37"/>
+    </row>
+    <row r="58" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A58" s="13"/>
+      <c r="B58" s="11">
+        <v>54</v>
+      </c>
+      <c r="C58" s="17">
+        <v>1294</v>
+      </c>
+      <c r="D58" s="16" t="str">
+        <f>VLOOKUP(C58,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E58</f>
+        <v>万能精通经验*5000</v>
+      </c>
+      <c r="E58" s="11">
+        <v>5000</v>
+      </c>
+      <c r="F58" s="14">
+        <v>4</v>
+      </c>
+      <c r="G58" s="14">
+        <v>1</v>
+      </c>
+      <c r="H58" s="12">
+        <v>1528</v>
+      </c>
+      <c r="I58" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J58" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.5359%</v>
+      </c>
+      <c r="K58" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="37"/>
+    </row>
+    <row r="59" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A59" s="13"/>
+      <c r="B59" s="11">
+        <v>55</v>
+      </c>
+      <c r="C59" s="17">
+        <v>1294</v>
+      </c>
+      <c r="D59" s="16" t="str">
+        <f>VLOOKUP(C59,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E59</f>
+        <v>万能精通经验*20000</v>
+      </c>
+      <c r="E59" s="11">
+        <v>20000</v>
+      </c>
+      <c r="F59" s="14">
+        <v>5</v>
+      </c>
+      <c r="G59" s="14">
+        <v>1</v>
+      </c>
+      <c r="H59" s="12">
+        <v>1529</v>
+      </c>
+      <c r="I59" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J59" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.53625%</v>
+      </c>
+      <c r="K59" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SP】比重12.182949%</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="37"/>
+    </row>
+    <row r="60" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A60" s="13"/>
+      <c r="B60" s="11">
+        <v>56</v>
+      </c>
+      <c r="C60" s="17">
+        <v>1287</v>
+      </c>
+      <c r="D60" s="16" t="str">
+        <f>VLOOKUP(C60,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E60</f>
+        <v>1级魂石自选箱*1</v>
+      </c>
+      <c r="E60" s="11">
+        <v>1</v>
+      </c>
+      <c r="F60" s="14">
+        <v>1</v>
+      </c>
+      <c r="G60" s="14">
+        <v>1</v>
+      </c>
+      <c r="H60" s="12">
+        <v>1530</v>
+      </c>
+      <c r="I60" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J60" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.536601%</v>
+      </c>
+      <c r="K60" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【R】比重17.140372%</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="14"/>
+      <c r="U60" s="14"/>
+      <c r="V60" s="37"/>
+    </row>
+    <row r="61" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A61" s="13"/>
+      <c r="B61" s="11">
+        <v>57</v>
+      </c>
+      <c r="C61" s="17">
+        <v>1288</v>
+      </c>
+      <c r="D61" s="16" t="str">
+        <f>VLOOKUP(C61,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E61</f>
+        <v>2级魂石自选箱*1</v>
+      </c>
+      <c r="E61" s="11">
+        <v>1</v>
+      </c>
+      <c r="F61" s="14">
+        <v>2</v>
+      </c>
+      <c r="G61" s="14">
+        <v>1</v>
+      </c>
+      <c r="H61" s="12">
+        <v>1531</v>
+      </c>
+      <c r="I61" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J61" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.536952%</v>
+      </c>
+      <c r="K61" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SR】比重13.723661%</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="14"/>
+      <c r="V61" s="37"/>
+    </row>
+    <row r="62" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A62" s="13"/>
+      <c r="B62" s="11">
+        <v>58</v>
+      </c>
+      <c r="C62" s="17">
+        <v>1289</v>
+      </c>
+      <c r="D62" s="16" t="str">
+        <f>VLOOKUP(C62,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E62</f>
+        <v>3级魂石自选箱*1</v>
+      </c>
+      <c r="E62" s="11">
+        <v>1</v>
+      </c>
+      <c r="F62" s="14">
+        <v>3</v>
+      </c>
+      <c r="G62" s="14">
+        <v>1</v>
+      </c>
+      <c r="H62" s="12">
+        <v>1532</v>
+      </c>
+      <c r="I62" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J62" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.537303%</v>
+      </c>
+      <c r="K62" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SSR】比重41.431918%</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="14"/>
+      <c r="V62" s="37"/>
+    </row>
+    <row r="63" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A63" s="13"/>
+      <c r="B63" s="11">
+        <v>59</v>
+      </c>
+      <c r="C63" s="17">
+        <v>1290</v>
+      </c>
+      <c r="D63" s="16" t="str">
+        <f>VLOOKUP(C63,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E63</f>
+        <v>4级魂石自选箱*1</v>
+      </c>
+      <c r="E63" s="11">
+        <v>1</v>
+      </c>
+      <c r="F63" s="14">
+        <v>4</v>
+      </c>
+      <c r="G63" s="14">
+        <v>1</v>
+      </c>
+      <c r="H63" s="12">
+        <v>1533</v>
+      </c>
+      <c r="I63" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J63" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.537653%</v>
+      </c>
+      <c r="K63" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="37"/>
+    </row>
+    <row r="64" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A64" s="13"/>
+      <c r="B64" s="11">
+        <v>60</v>
+      </c>
+      <c r="C64" s="17">
+        <v>1279</v>
+      </c>
+      <c r="D64" s="16" t="str">
+        <f>VLOOKUP(C64,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E64</f>
+        <v>1级魂石降级卷*1</v>
+      </c>
+      <c r="E64" s="11">
+        <v>1</v>
+      </c>
+      <c r="F64" s="14">
+        <v>1</v>
+      </c>
+      <c r="G64" s="14">
+        <v>1</v>
+      </c>
+      <c r="H64" s="12">
+        <v>1534</v>
+      </c>
+      <c r="I64" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J64" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.538004%</v>
+      </c>
+      <c r="K64" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【R】比重17.140372%</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="37"/>
+    </row>
+    <row r="65" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A65" s="13"/>
+      <c r="B65" s="11">
+        <v>61</v>
+      </c>
+      <c r="C65" s="17">
+        <v>1280</v>
+      </c>
+      <c r="D65" s="16" t="str">
+        <f>VLOOKUP(C65,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E65</f>
+        <v>2级魂石降级卷*1</v>
+      </c>
+      <c r="E65" s="11">
+        <v>1</v>
+      </c>
+      <c r="F65" s="14">
+        <v>2</v>
+      </c>
+      <c r="G65" s="14">
+        <v>1</v>
+      </c>
+      <c r="H65" s="12">
+        <v>1535</v>
+      </c>
+      <c r="I65" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J65" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.538355%</v>
+      </c>
+      <c r="K65" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SR】比重13.723661%</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="14"/>
+      <c r="U65" s="14"/>
+      <c r="V65" s="37"/>
+    </row>
+    <row r="66" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A66" s="13"/>
+      <c r="B66" s="11">
+        <v>62</v>
+      </c>
+      <c r="C66" s="17">
+        <v>1281</v>
+      </c>
+      <c r="D66" s="16" t="str">
+        <f>VLOOKUP(C66,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E66</f>
+        <v>3级魂石降级卷*1</v>
+      </c>
+      <c r="E66" s="11">
+        <v>1</v>
+      </c>
+      <c r="F66" s="14">
+        <v>3</v>
+      </c>
+      <c r="G66" s="14">
+        <v>1</v>
+      </c>
+      <c r="H66" s="12">
+        <v>1536</v>
+      </c>
+      <c r="I66" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J66" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.538705%</v>
+      </c>
+      <c r="K66" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【SSR】比重41.431918%</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="37"/>
+    </row>
+    <row r="67" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A67" s="13"/>
+      <c r="B67" s="11">
+        <v>63</v>
+      </c>
+      <c r="C67" s="17">
+        <v>1282</v>
+      </c>
+      <c r="D67" s="16" t="str">
+        <f>VLOOKUP(C67,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E67</f>
+        <v>4级魂石降级卷*1</v>
+      </c>
+      <c r="E67" s="11">
+        <v>1</v>
+      </c>
+      <c r="F67" s="14">
+        <v>4</v>
+      </c>
+      <c r="G67" s="14">
+        <v>1</v>
+      </c>
+      <c r="H67" s="12">
+        <v>1537</v>
+      </c>
+      <c r="I67" s="26">
+        <f t="shared" si="3"/>
+        <v>285128</v>
+      </c>
+      <c r="J67" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>占总概率为0.539056%</v>
+      </c>
+      <c r="K67" s="27" t="str">
+        <f t="shared" si="5"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="37"/>
+    </row>
+    <row r="68" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A68" s="13"/>
+      <c r="B68" s="11">
+        <v>64</v>
+      </c>
+      <c r="C68" s="17">
+        <v>1283</v>
+      </c>
+      <c r="D68" s="16" t="str">
+        <f>VLOOKUP(C68,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E68</f>
+        <v>低级魂石升级保护卷*1</v>
+      </c>
+      <c r="E68" s="11">
+        <v>1</v>
+      </c>
+      <c r="F68" s="14">
+        <v>2</v>
+      </c>
+      <c r="G68" s="14">
+        <v>1</v>
+      </c>
+      <c r="H68" s="12">
+        <v>1538</v>
+      </c>
+      <c r="I68" s="26">
+        <f t="shared" ref="I68:I77" si="6">SUMIFS(H:H,G:G,G68)</f>
+        <v>285128</v>
+      </c>
+      <c r="J68" s="11" t="str">
+        <f t="shared" ref="J68:J77" si="7">"占总概率为"&amp;ROUND((H68/I68*100),6)&amp;"%"</f>
+        <v>占总概率为0.539407%</v>
+      </c>
+      <c r="K68" s="27" t="str">
+        <f t="shared" ref="K68:K77" si="8">"配置【"&amp;VLOOKUP(F68,L:M,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F68,G:G,G68)/I68*100),6)&amp;"%"</f>
+        <v>配置【SR】比重13.723661%</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="37"/>
+    </row>
+    <row r="69" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A69" s="13"/>
+      <c r="B69" s="11">
+        <v>65</v>
+      </c>
+      <c r="C69" s="17">
+        <v>1284</v>
+      </c>
+      <c r="D69" s="16" t="str">
+        <f>VLOOKUP(C69,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E69</f>
+        <v>中级魂石升级保护卷*1</v>
+      </c>
+      <c r="E69" s="11">
+        <v>1</v>
+      </c>
+      <c r="F69" s="14">
+        <v>3</v>
+      </c>
+      <c r="G69" s="14">
+        <v>1</v>
+      </c>
+      <c r="H69" s="12">
+        <v>1539</v>
+      </c>
+      <c r="I69" s="26">
+        <f t="shared" si="6"/>
+        <v>285128</v>
+      </c>
+      <c r="J69" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>占总概率为0.539758%</v>
+      </c>
+      <c r="K69" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>配置【SSR】比重41.431918%</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="37"/>
+    </row>
+    <row r="70" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A70" s="13"/>
+      <c r="B70" s="11">
+        <v>66</v>
+      </c>
+      <c r="C70" s="17">
+        <v>1285</v>
+      </c>
+      <c r="D70" s="16" t="str">
+        <f>VLOOKUP(C70,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E70</f>
+        <v>高级魂石升级保护卷*1</v>
+      </c>
+      <c r="E70" s="11">
+        <v>1</v>
+      </c>
+      <c r="F70" s="14">
+        <v>4</v>
+      </c>
+      <c r="G70" s="14">
+        <v>1</v>
+      </c>
+      <c r="H70" s="12">
+        <v>1540</v>
+      </c>
+      <c r="I70" s="26">
+        <f t="shared" si="6"/>
+        <v>285128</v>
+      </c>
+      <c r="J70" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>占总概率为0.540108%</v>
+      </c>
+      <c r="K70" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>配置【UR】比重15.521099%</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="37"/>
+    </row>
+    <row r="71" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A71" s="13"/>
+      <c r="B71" s="11">
+        <v>67</v>
+      </c>
+      <c r="C71" s="17"/>
+      <c r="D71" s="16" t="e">
+        <f>VLOOKUP(C71,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E71</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E71" s="11">
+        <v>1</v>
+      </c>
+      <c r="F71" s="14">
+        <v>1</v>
+      </c>
+      <c r="G71" s="14">
+        <v>1</v>
+      </c>
+      <c r="H71" s="12">
+        <v>1541</v>
+      </c>
+      <c r="I71" s="26">
+        <f t="shared" si="6"/>
+        <v>285128</v>
+      </c>
+      <c r="J71" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>占总概率为0.540459%</v>
+      </c>
+      <c r="K71" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>配置【R】比重17.140372%</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="14"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="37"/>
+    </row>
+    <row r="72" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A72" s="13"/>
+      <c r="B72" s="11">
+        <v>68</v>
+      </c>
+      <c r="C72" s="17"/>
+      <c r="D72" s="16" t="e">
+        <f>VLOOKUP(C72,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E72</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E72" s="11">
+        <v>1</v>
+      </c>
+      <c r="F72" s="14">
+        <v>1</v>
+      </c>
+      <c r="G72" s="14">
+        <v>1</v>
+      </c>
+      <c r="H72" s="12">
+        <v>1542</v>
+      </c>
+      <c r="I72" s="26">
+        <f t="shared" si="6"/>
+        <v>285128</v>
+      </c>
+      <c r="J72" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>占总概率为0.54081%</v>
+      </c>
+      <c r="K72" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>配置【R】比重17.140372%</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="33"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="37"/>
+    </row>
+    <row r="73" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A73" s="13"/>
+      <c r="B73" s="11">
+        <v>69</v>
+      </c>
+      <c r="C73" s="17"/>
+      <c r="D73" s="16" t="e">
+        <f>VLOOKUP(C73,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E73</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E73" s="11">
+        <v>1</v>
+      </c>
+      <c r="F73" s="14">
+        <v>1</v>
+      </c>
+      <c r="G73" s="14">
+        <v>1</v>
+      </c>
+      <c r="H73" s="12">
+        <v>1543</v>
+      </c>
+      <c r="I73" s="26">
+        <f t="shared" si="6"/>
+        <v>285128</v>
+      </c>
+      <c r="J73" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>占总概率为0.54116%</v>
+      </c>
+      <c r="K73" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>配置【R】比重17.140372%</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="32"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
+      <c r="T73" s="14"/>
+      <c r="U73" s="14"/>
+      <c r="V73" s="37"/>
+    </row>
+    <row r="74" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A74" s="13"/>
+      <c r="B74" s="11">
+        <v>70</v>
+      </c>
+      <c r="C74" s="17"/>
+      <c r="D74" s="16" t="e">
+        <f>VLOOKUP(C74,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E74</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E74" s="11">
+        <v>1</v>
+      </c>
+      <c r="F74" s="14">
+        <v>1</v>
+      </c>
+      <c r="G74" s="14">
+        <v>1</v>
+      </c>
+      <c r="H74" s="12">
+        <v>1544</v>
+      </c>
+      <c r="I74" s="26">
+        <f t="shared" si="6"/>
+        <v>285128</v>
+      </c>
+      <c r="J74" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>占总概率为0.541511%</v>
+      </c>
+      <c r="K74" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>配置【R】比重17.140372%</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="33"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="14"/>
+      <c r="V74" s="37"/>
+    </row>
+    <row r="75" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A75" s="13"/>
+      <c r="B75" s="11">
+        <v>71</v>
+      </c>
+      <c r="C75" s="17"/>
+      <c r="D75" s="16" t="e">
+        <f>VLOOKUP(C75,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E75</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E75" s="11">
+        <v>1</v>
+      </c>
+      <c r="F75" s="14">
+        <v>1</v>
+      </c>
+      <c r="G75" s="14">
+        <v>1</v>
+      </c>
+      <c r="H75" s="12">
+        <v>1545</v>
+      </c>
+      <c r="I75" s="26">
+        <f t="shared" si="6"/>
+        <v>285128</v>
+      </c>
+      <c r="J75" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>占总概率为0.541862%</v>
+      </c>
+      <c r="K75" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>配置【R】比重17.140372%</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="32"/>
+      <c r="O75" s="33"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
+      <c r="T75" s="14"/>
+      <c r="U75" s="14"/>
+      <c r="V75" s="37"/>
+    </row>
+    <row r="76" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A76" s="13"/>
+      <c r="B76" s="11">
+        <v>72</v>
+      </c>
+      <c r="C76" s="17"/>
+      <c r="D76" s="16" t="e">
+        <f>VLOOKUP(C76,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E76</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E76" s="11">
+        <v>1</v>
+      </c>
+      <c r="F76" s="14">
+        <v>1</v>
+      </c>
+      <c r="G76" s="14">
+        <v>1</v>
+      </c>
+      <c r="H76" s="12">
+        <v>1546</v>
+      </c>
+      <c r="I76" s="26">
+        <f t="shared" si="6"/>
+        <v>285128</v>
+      </c>
+      <c r="J76" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>占总概率为0.542213%</v>
+      </c>
+      <c r="K76" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>配置【R】比重17.140372%</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="32"/>
+      <c r="O76" s="33"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+      <c r="T76" s="14"/>
+      <c r="U76" s="14"/>
+      <c r="V76" s="37"/>
+    </row>
+    <row r="77" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A77" s="13"/>
+      <c r="B77" s="11">
+        <v>73</v>
+      </c>
+      <c r="C77" s="17"/>
+      <c r="D77" s="16" t="e">
+        <f>VLOOKUP(C77,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E77</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E77" s="11">
+        <v>1</v>
+      </c>
+      <c r="F77" s="14">
+        <v>1</v>
+      </c>
+      <c r="G77" s="14">
+        <v>1</v>
+      </c>
+      <c r="H77" s="12">
+        <v>1547</v>
+      </c>
+      <c r="I77" s="26">
+        <f t="shared" si="6"/>
+        <v>285128</v>
+      </c>
+      <c r="J77" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>占总概率为0.542563%</v>
+      </c>
+      <c r="K77" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>配置【R】比重17.140372%</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="33"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="14"/>
+      <c r="U77" s="14"/>
+      <c r="V77" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/doc_new/4.服务器配置文档/抽奖配置.xlsx
+++ b/doc_new/4.服务器配置文档/抽奖配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="普通抽奖(template_draw_lottery)" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>字段名称</t>
   </si>
@@ -48,10 +48,10 @@
     <t>数量</t>
   </si>
   <si>
-    <t>品质</t>
+    <t>品质(品质只和颜色挂钩)</t>
   </si>
   <si>
-    <t>库1 消耗道具(根据抽奖数消耗对应数量)</t>
+    <t>库 消耗道具(根据抽奖数消耗对应数量)</t>
   </si>
   <si>
     <t>概率</t>
@@ -70,17 +70,17 @@
     <t>根据物品表自动匹配不需要填写(item_id和number必须正确)</t>
   </si>
   <si>
-    <t xml:space="preserve">1=r
-2=sr
-3=ssr
-4=ur
-5=sp
-氪金流水必须&lt;500 抽奖池非保底   没有品质5的物品 
-氪金流水必须&gt;=500 抽奖池非保底   有品质5的物品
-</t>
+    <t>1=C
+2=B
+3=A
+4=S
+5=SS
+6=SSS
+氪金流水&lt;500   没有品质6的物品 
+氪金流水必须&gt;=500   有品质6的物品</t>
   </si>
   <si>
-    <t xml:space="preserve">库1 消耗item_id 4 </t>
+    <t>库1 消耗item_id 1207</t>
   </si>
   <si>
     <t>概率配置</t>
@@ -131,19 +131,22 @@
     <t>probability</t>
   </si>
   <si>
-    <t>R</t>
+    <t>C</t>
   </si>
   <si>
-    <t>SR</t>
+    <t>B</t>
   </si>
   <si>
-    <t>SSR</t>
+    <t>A</t>
   </si>
   <si>
-    <t>UR</t>
+    <t>S</t>
   </si>
   <si>
-    <t>SP</t>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>SSS</t>
   </si>
 </sst>
 </file>
@@ -1425,30 +1428,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{A1229CDC-44C0-4A70-8955-CBC0BFD7BECB}">
+    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{E1BB17D8-268F-46B3-9AA2-5EF2EDECA4C7}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstColumn" dxfId="1"/>
       <tableStyleElement type="firstRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{63D260AF-4EDE-4B6A-849A-E4EB25E6BDA5}">
+    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{F602B6BF-938C-442E-A95E-DCFB7DAA6976}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
       <tableStyleElement type="secondColumnStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{40778852-838A-4C12-BD32-2FE2FFF91CF4}">
+    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{714BD308-E49A-4A00-AA7D-9FD454E4232F}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{9FEFC8BF-DD04-4322-8FA6-2BD04CECE097}">
+    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{846F6946-FB7F-4791-B99A-11D910B046AA}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumnStripe" dxfId="12"/>
       <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{ACE79000-187C-4F33-A733-BBC9997EB0C0}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3AF16351-D901-44B2-8159-EFEFA2BE3454}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
@@ -1477,10 +1480,10 @@
             <v>物品引索</v>
           </cell>
           <cell r="C1" t="str">
-            <v>物品等级</v>
+            <v>物品名称</v>
           </cell>
           <cell r="D1" t="str">
-            <v>物品名称</v>
+            <v>物品说明</v>
           </cell>
         </row>
         <row r="2">
@@ -1500,14 +1503,16 @@
 40000-69999特殊类型</v>
           </cell>
         </row>
+        <row r="2">
+          <cell r="D2" t="str">
+            <v>备注</v>
+          </cell>
+        </row>
         <row r="3">
           <cell r="B3" t="str">
             <v>int</v>
           </cell>
           <cell r="C3" t="str">
-            <v>int</v>
-          </cell>
-          <cell r="D3" t="str">
             <v>string</v>
           </cell>
         </row>
@@ -1516,9 +1521,6 @@
             <v>id</v>
           </cell>
           <cell r="C4" t="str">
-            <v>lv</v>
-          </cell>
-          <cell r="D4" t="str">
             <v>name</v>
           </cell>
         </row>
@@ -1526,41 +1528,41 @@
           <cell r="B5">
             <v>1001</v>
           </cell>
-          <cell r="C5">
-            <v>1</v>
+          <cell r="C5" t="str">
+            <v>黄金</v>
           </cell>
           <cell r="D5" t="str">
-            <v>琥珀</v>
+            <v>充值货币</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
             <v>1002</v>
           </cell>
-          <cell r="C6">
-            <v>1</v>
+          <cell r="C6" t="str">
+            <v>良善点</v>
           </cell>
           <cell r="D6" t="str">
-            <v>良善点</v>
+            <v>？</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
             <v>1003</v>
           </cell>
-          <cell r="C7">
-            <v>1</v>
+          <cell r="C7" t="str">
+            <v>银币</v>
           </cell>
           <cell r="D7" t="str">
-            <v>金币</v>
+            <v>存档货币</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
             <v>1004</v>
           </cell>
-          <cell r="C8">
-            <v>1</v>
+          <cell r="C8" t="str">
+            <v>地图经验</v>
           </cell>
           <cell r="D8" t="str">
             <v>地图经验</v>
@@ -1570,21 +1572,18 @@
           <cell r="B9">
             <v>1005</v>
           </cell>
-          <cell r="C9">
-            <v>1</v>
+          <cell r="C9" t="str">
+            <v>钻石</v>
           </cell>
           <cell r="D9" t="str">
-            <v>翡翠</v>
+            <v>充值赠送</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
             <v>1006</v>
           </cell>
-          <cell r="C10">
-            <v>1</v>
-          </cell>
-          <cell r="D10" t="str">
+          <cell r="C10" t="str">
             <v>货币B</v>
           </cell>
         </row>
@@ -1592,3350 +1591,2927 @@
           <cell r="B11">
             <v>1007</v>
           </cell>
-          <cell r="C11">
-            <v>1</v>
-          </cell>
-          <cell r="D11" t="str">
+          <cell r="C11" t="str">
             <v>货币C</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>1201</v>
-          </cell>
-          <cell r="C12">
-            <v>1</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>祈福卷轴</v>
+            <v>1008</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>货币D</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>1202</v>
-          </cell>
-          <cell r="C13">
-            <v>1</v>
+            <v>1201</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>强化石</v>
           </cell>
           <cell r="D13" t="str">
-            <v>强化石</v>
+            <v>用于强化装备的石头</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>1203</v>
-          </cell>
-          <cell r="C14">
-            <v>2</v>
+            <v>1202</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>强化保护卷</v>
           </cell>
           <cell r="D14" t="str">
-            <v>强化保护卷</v>
+            <v>提高强化概率的卷轴</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15">
-            <v>1204</v>
-          </cell>
-          <cell r="C15">
-            <v>3</v>
+            <v>1203</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>高级强化保护卷</v>
           </cell>
           <cell r="D15" t="str">
-            <v>高级强化保护卷</v>
+            <v>提高强化概率的卷轴</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>1205</v>
-          </cell>
-          <cell r="C16">
-            <v>3</v>
+            <v>1204</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>强化转移卷</v>
           </cell>
           <cell r="D16" t="str">
-            <v>强化转移卷</v>
+            <v>转移强化等级的卷轴</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>1206</v>
-          </cell>
-          <cell r="C17">
-            <v>1</v>
-          </cell>
-          <cell r="D17" t="str">
+            <v>1205</v>
+          </cell>
+          <cell r="C17" t="str">
             <v>吸附石(吸附前)</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>1207</v>
-          </cell>
-          <cell r="C18">
-            <v>1</v>
-          </cell>
-          <cell r="D18" t="str">
+            <v>1206</v>
+          </cell>
+          <cell r="C18" t="str">
             <v>吸附石(吸附后)</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19">
-            <v>1208</v>
-          </cell>
-          <cell r="C19">
-            <v>1</v>
+            <v>1207</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>祈福卷轴</v>
           </cell>
           <cell r="D19" t="str">
-            <v>小黑</v>
+            <v>抽奖道具</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20">
-            <v>1209</v>
-          </cell>
-          <cell r="C20">
-            <v>1</v>
+            <v>1279</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>1级魂石降级卷</v>
           </cell>
           <cell r="D20" t="str">
-            <v>小黑碎片</v>
+            <v>降低魂石等级的卷轴</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21">
-            <v>1210</v>
-          </cell>
-          <cell r="C21">
-            <v>1</v>
+            <v>1280</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>2级魂石降级卷</v>
           </cell>
           <cell r="D21" t="str">
-            <v>法爷</v>
+            <v>降低魂石等级的卷轴</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22">
-            <v>1211</v>
-          </cell>
-          <cell r="C22">
-            <v>1</v>
+            <v>1281</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>3级魂石降级卷</v>
           </cell>
           <cell r="D22" t="str">
-            <v>法爷碎片</v>
+            <v>降低魂石等级的卷轴</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23">
-            <v>1279</v>
-          </cell>
-          <cell r="C23">
-            <v>1</v>
+            <v>1282</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>4级魂石降级卷</v>
           </cell>
           <cell r="D23" t="str">
-            <v>1级魂石降级卷</v>
+            <v>降低魂石等级的卷轴</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24">
-            <v>1280</v>
-          </cell>
-          <cell r="C24">
-            <v>2</v>
+            <v>1283</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>低级魂石升级保护卷</v>
           </cell>
           <cell r="D24" t="str">
-            <v>2级魂石降级卷</v>
+            <v>提高魂石升级概率的卷轴</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25">
-            <v>1281</v>
-          </cell>
-          <cell r="C25">
-            <v>3</v>
+            <v>1284</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>中级魂石升级保护卷</v>
           </cell>
           <cell r="D25" t="str">
-            <v>3级魂石降级卷</v>
+            <v>提高魂石升级概率的卷轴</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26">
-            <v>1282</v>
-          </cell>
-          <cell r="C26">
-            <v>4</v>
+            <v>1285</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>高级魂石升级保护卷</v>
           </cell>
           <cell r="D26" t="str">
-            <v>4级魂石降级卷</v>
+            <v>提高魂石升级概率的卷轴</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27">
-            <v>1283</v>
-          </cell>
-          <cell r="C27">
-            <v>1</v>
+            <v>1286</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>魂石转移卷</v>
           </cell>
           <cell r="D27" t="str">
-            <v>低级魂石升级保护卷</v>
+            <v>转移魂石等级的卷轴</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28">
-            <v>1284</v>
-          </cell>
-          <cell r="C28">
-            <v>2</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>中级魂石升级保护卷</v>
+            <v>1287</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>1级魂石自选箱</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29">
-            <v>1285</v>
-          </cell>
-          <cell r="C29">
-            <v>3</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>高级魂石升级保护卷</v>
+            <v>1288</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>2级魂石自选箱</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30">
-            <v>1286</v>
-          </cell>
-          <cell r="C30">
-            <v>4</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>魂石转移卷</v>
+            <v>1289</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>3级魂石自选箱</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31">
-            <v>1287</v>
-          </cell>
-          <cell r="C31">
-            <v>1</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>1级魂石自选箱</v>
+            <v>1290</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>4级魂石自选箱</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32">
-            <v>1288</v>
-          </cell>
-          <cell r="C32">
-            <v>2</v>
+            <v>1291</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>天赋点</v>
           </cell>
           <cell r="D32" t="str">
-            <v>2级魂石自选箱</v>
+            <v>升级地图等级获得</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33">
-            <v>1289</v>
-          </cell>
-          <cell r="C33">
-            <v>3</v>
+            <v>1292</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>高阶精通点</v>
           </cell>
           <cell r="D33" t="str">
-            <v>3级魂石自选箱</v>
+            <v>升级技能精通获得</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34">
-            <v>1290</v>
-          </cell>
-          <cell r="C34">
-            <v>4</v>
+            <v>1293</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>技能精通经验</v>
           </cell>
           <cell r="D34" t="str">
-            <v>4级魂石自选箱</v>
+            <v>用于增加技能精通的经验值</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35">
-            <v>1291</v>
-          </cell>
-          <cell r="C35">
-            <v>1</v>
+            <v>1294</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>万能精通经验</v>
           </cell>
           <cell r="D35" t="str">
-            <v>天赋点</v>
+            <v>使用后获得 技能精通经验</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36">
-            <v>1292</v>
-          </cell>
-          <cell r="C36">
-            <v>1</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>高阶精通点</v>
+            <v>2001</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>炼狱熊怪</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37">
-            <v>1293</v>
-          </cell>
-          <cell r="C37">
-            <v>1</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v>技能精通经验</v>
+            <v>2002</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>炼狱羚羊</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38">
-            <v>1294</v>
-          </cell>
-          <cell r="C38">
-            <v>1</v>
-          </cell>
-          <cell r="D38" t="str">
-            <v>万能精通经验</v>
+            <v>2003</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>疾行火熊</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39">
-            <v>2001</v>
-          </cell>
-          <cell r="C39">
-            <v>1</v>
-          </cell>
-          <cell r="D39" t="str">
-            <v>炼狱熊怪</v>
+            <v>2004</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>炼狱亡魂</v>
           </cell>
         </row>
         <row r="40">
           <cell r="B40">
-            <v>2002</v>
-          </cell>
-          <cell r="C40">
-            <v>1</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>炼狱羚羊</v>
+            <v>2005</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>夜魇近战兵</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41">
-            <v>2003</v>
-          </cell>
-          <cell r="C41">
-            <v>1</v>
-          </cell>
-          <cell r="D41" t="str">
-            <v>疾行火熊</v>
+            <v>2006</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>炽甲虫战士</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42">
-            <v>2004</v>
-          </cell>
-          <cell r="C42">
-            <v>1</v>
-          </cell>
-          <cell r="D42" t="str">
-            <v>炼狱亡魂</v>
+            <v>2007</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>远古炼狱巨人</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43">
-            <v>2005</v>
-          </cell>
-          <cell r="C43">
-            <v>1</v>
-          </cell>
-          <cell r="D43" t="str">
-            <v>夜魇近战兵</v>
+            <v>2008</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>骷髅勇士</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44">
-            <v>2006</v>
-          </cell>
-          <cell r="C44">
-            <v>1</v>
-          </cell>
-          <cell r="D44" t="str">
-            <v>炽甲虫战士</v>
+            <v>2009</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>炼狱火</v>
           </cell>
         </row>
         <row r="45">
           <cell r="B45">
-            <v>2007</v>
-          </cell>
-          <cell r="C45">
-            <v>1</v>
-          </cell>
-          <cell r="D45" t="str">
-            <v>远古炼狱巨人</v>
+            <v>2010</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>冥火剑圣</v>
           </cell>
         </row>
         <row r="46">
           <cell r="B46">
-            <v>2008</v>
-          </cell>
-          <cell r="C46">
-            <v>1</v>
-          </cell>
-          <cell r="D46" t="str">
-            <v>骷髅勇士</v>
+            <v>2011</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>小狗头人</v>
           </cell>
         </row>
         <row r="47">
           <cell r="B47">
-            <v>2009</v>
-          </cell>
-          <cell r="C47">
-            <v>1</v>
-          </cell>
-          <cell r="D47" t="str">
-            <v>炼狱火</v>
+            <v>2012</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>雷电之魂</v>
           </cell>
         </row>
         <row r="48">
           <cell r="B48">
-            <v>2010</v>
-          </cell>
-          <cell r="C48">
-            <v>1</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>冥火剑圣</v>
+            <v>2013</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>萨特窃神者</v>
           </cell>
         </row>
         <row r="49">
           <cell r="B49">
-            <v>2011</v>
-          </cell>
-          <cell r="C49">
-            <v>1</v>
-          </cell>
-          <cell r="D49" t="str">
-            <v>小狗头人</v>
+            <v>2014</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>远古岚肤兽</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50">
-            <v>2012</v>
-          </cell>
-          <cell r="C50">
-            <v>1</v>
-          </cell>
-          <cell r="D50" t="str">
-            <v>雷电之魂</v>
+            <v>2015</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>雷树精兽</v>
           </cell>
         </row>
         <row r="51">
           <cell r="B51">
-            <v>2013</v>
-          </cell>
-          <cell r="C51">
-            <v>1</v>
-          </cell>
-          <cell r="D51" t="str">
-            <v>萨特窃神者</v>
+            <v>2016</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>雷角兽</v>
           </cell>
         </row>
         <row r="52">
           <cell r="B52">
-            <v>2014</v>
-          </cell>
-          <cell r="C52">
-            <v>1</v>
-          </cell>
-          <cell r="D52" t="str">
-            <v>远古岚肤兽</v>
+            <v>2017</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>霹雳怪手</v>
           </cell>
         </row>
         <row r="53">
           <cell r="B53">
-            <v>2015</v>
-          </cell>
-          <cell r="C53">
-            <v>1</v>
-          </cell>
-          <cell r="D53" t="str">
-            <v>雷树精兽</v>
+            <v>2019</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>雷羽鹫</v>
           </cell>
         </row>
         <row r="54">
           <cell r="B54">
-            <v>2016</v>
-          </cell>
-          <cell r="C54">
-            <v>1</v>
-          </cell>
-          <cell r="D54" t="str">
-            <v>雷角兽</v>
+            <v>2020</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>雷山鹫</v>
           </cell>
         </row>
         <row r="55">
           <cell r="B55">
-            <v>2017</v>
-          </cell>
-          <cell r="C55">
-            <v>1</v>
-          </cell>
-          <cell r="D55" t="str">
-            <v>霹雳怪手</v>
+            <v>2021</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>雷翼鹫</v>
           </cell>
         </row>
         <row r="56">
           <cell r="B56">
-            <v>2019</v>
-          </cell>
-          <cell r="C56">
-            <v>1</v>
-          </cell>
-          <cell r="D56" t="str">
-            <v>雷羽鹫</v>
+            <v>2022</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>冰川鬼魂</v>
           </cell>
         </row>
         <row r="57">
           <cell r="B57">
-            <v>2020</v>
-          </cell>
-          <cell r="C57">
-            <v>1</v>
-          </cell>
-          <cell r="D57" t="str">
-            <v>雷山鹫</v>
+            <v>2023</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>极寒精灵</v>
           </cell>
         </row>
         <row r="58">
           <cell r="B58">
-            <v>2021</v>
-          </cell>
-          <cell r="C58">
-            <v>1</v>
-          </cell>
-          <cell r="D58" t="str">
-            <v>雷翼鹫</v>
+            <v>2024</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>极寒冰狐</v>
           </cell>
         </row>
         <row r="59">
           <cell r="B59">
-            <v>2022</v>
-          </cell>
-          <cell r="C59">
-            <v>1</v>
-          </cell>
-          <cell r="D59" t="str">
-            <v>冰川鬼魂</v>
+            <v>2025</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>极地少女</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60">
-            <v>2023</v>
-          </cell>
-          <cell r="C60">
-            <v>1</v>
-          </cell>
-          <cell r="D60" t="str">
-            <v>极寒精灵</v>
+            <v>2026</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>冰原行者</v>
           </cell>
         </row>
         <row r="61">
           <cell r="B61">
-            <v>2024</v>
-          </cell>
-          <cell r="C61">
-            <v>1</v>
-          </cell>
-          <cell r="D61" t="str">
-            <v>极寒冰狐</v>
+            <v>2027</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>极地虎</v>
           </cell>
         </row>
         <row r="62">
           <cell r="B62">
-            <v>2025</v>
-          </cell>
-          <cell r="C62">
-            <v>1</v>
-          </cell>
-          <cell r="D62" t="str">
-            <v>极地少女</v>
+            <v>2028</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>极地小冰龙</v>
           </cell>
         </row>
         <row r="63">
           <cell r="B63">
-            <v>2026</v>
-          </cell>
-          <cell r="C63">
-            <v>1</v>
-          </cell>
-          <cell r="D63" t="str">
-            <v>冰原行者</v>
+            <v>2029</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>极地小飞龙</v>
           </cell>
         </row>
         <row r="64">
           <cell r="B64">
-            <v>2027</v>
-          </cell>
-          <cell r="C64">
-            <v>1</v>
-          </cell>
-          <cell r="D64" t="str">
-            <v>极地虎</v>
+            <v>2030</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>冰晶小海马</v>
           </cell>
         </row>
         <row r="65">
           <cell r="B65">
-            <v>2028</v>
-          </cell>
-          <cell r="C65">
-            <v>1</v>
-          </cell>
-          <cell r="D65" t="str">
-            <v>极地小冰龙</v>
+            <v>2031</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>冰原狐</v>
           </cell>
         </row>
         <row r="66">
           <cell r="B66">
-            <v>2029</v>
-          </cell>
-          <cell r="C66">
-            <v>1</v>
-          </cell>
-          <cell r="D66" t="str">
-            <v>极地小飞龙</v>
+            <v>2032</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>冰宫守卫</v>
           </cell>
         </row>
         <row r="67">
           <cell r="B67">
-            <v>2030</v>
-          </cell>
-          <cell r="C67">
-            <v>1</v>
-          </cell>
-          <cell r="D67" t="str">
-            <v>冰晶小海马</v>
+            <v>2033</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>冰宫奴仆</v>
           </cell>
         </row>
         <row r="68">
           <cell r="B68">
-            <v>2031</v>
-          </cell>
-          <cell r="C68">
-            <v>1</v>
-          </cell>
-          <cell r="D68" t="str">
-            <v>冰原狐</v>
+            <v>2034</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>绿洲鬼魂</v>
           </cell>
         </row>
         <row r="69">
           <cell r="B69">
-            <v>2032</v>
-          </cell>
-          <cell r="C69">
-            <v>1</v>
-          </cell>
-          <cell r="D69" t="str">
-            <v>冰宫守卫</v>
+            <v>2035</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>绿洲丧尸</v>
           </cell>
         </row>
         <row r="70">
           <cell r="B70">
-            <v>2033</v>
-          </cell>
-          <cell r="C70">
-            <v>1</v>
-          </cell>
-          <cell r="D70" t="str">
-            <v>冰宫奴仆</v>
+            <v>2036</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>幼年沙龙</v>
           </cell>
         </row>
         <row r="71">
           <cell r="B71">
-            <v>2034</v>
-          </cell>
-          <cell r="C71">
-            <v>1</v>
-          </cell>
-          <cell r="D71" t="str">
-            <v>绿洲鬼魂</v>
+            <v>2037</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>绿洲精灵幼龙</v>
           </cell>
         </row>
         <row r="72">
           <cell r="B72">
-            <v>2035</v>
-          </cell>
-          <cell r="C72">
-            <v>1</v>
-          </cell>
-          <cell r="D72" t="str">
-            <v>绿洲丧尸</v>
+            <v>2038</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>绿洲跳跳蛙</v>
           </cell>
         </row>
         <row r="73">
           <cell r="B73">
-            <v>2036</v>
-          </cell>
-          <cell r="C73">
-            <v>1</v>
-          </cell>
-          <cell r="D73" t="str">
-            <v>幼年沙龙</v>
+            <v>2039</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>绿洲剧毒蛇</v>
           </cell>
         </row>
         <row r="74">
           <cell r="B74">
-            <v>2037</v>
-          </cell>
-          <cell r="C74">
-            <v>1</v>
-          </cell>
-          <cell r="D74" t="str">
-            <v>绿洲精灵幼龙</v>
+            <v>2040</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>狂沙怪手</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75">
-            <v>2038</v>
-          </cell>
-          <cell r="C75">
-            <v>1</v>
-          </cell>
-          <cell r="D75" t="str">
-            <v>绿洲跳跳蛙</v>
+            <v>2041</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>绿洲精灵马</v>
           </cell>
         </row>
         <row r="76">
           <cell r="B76">
-            <v>2039</v>
-          </cell>
-          <cell r="C76">
-            <v>1</v>
-          </cell>
-          <cell r="D76" t="str">
-            <v>绿洲剧毒蛇</v>
+            <v>2042</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>绿洲小精灵</v>
           </cell>
         </row>
         <row r="77">
           <cell r="B77">
-            <v>2040</v>
-          </cell>
-          <cell r="C77">
-            <v>1</v>
-          </cell>
-          <cell r="D77" t="str">
-            <v>狂沙怪手</v>
+            <v>2043</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>沙漠金龟</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78">
-            <v>2041</v>
-          </cell>
-          <cell r="C78">
-            <v>1</v>
-          </cell>
-          <cell r="D78" t="str">
-            <v>绿洲精灵马</v>
+            <v>2044</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>天辉高级战士</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79">
-            <v>2042</v>
-          </cell>
-          <cell r="C79">
-            <v>1</v>
-          </cell>
-          <cell r="D79" t="str">
-            <v>绿洲小精灵</v>
+            <v>2045</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>高级精灵战士</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80">
-            <v>2043</v>
-          </cell>
-          <cell r="C80">
-            <v>1</v>
-          </cell>
-          <cell r="D80" t="str">
-            <v>沙漠金龟</v>
+            <v>2501</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>炼狱狼</v>
           </cell>
         </row>
         <row r="81">
           <cell r="B81">
-            <v>2044</v>
-          </cell>
-          <cell r="C81">
-            <v>1</v>
-          </cell>
-          <cell r="D81" t="str">
-            <v>天辉高级战士</v>
+            <v>2502</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>夜魇远程兵</v>
           </cell>
         </row>
         <row r="82">
           <cell r="B82">
-            <v>2045</v>
-          </cell>
-          <cell r="C82">
-            <v>1</v>
-          </cell>
-          <cell r="D82" t="str">
-            <v>高级精灵战士</v>
+            <v>2503</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>炼狱小双头犬</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83">
-            <v>2501</v>
-          </cell>
-          <cell r="C83">
-            <v>1</v>
-          </cell>
-          <cell r="D83" t="str">
-            <v>炼狱狼</v>
+            <v>2504</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>炽甲虫战车</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84">
-            <v>2502</v>
-          </cell>
-          <cell r="C84">
-            <v>1</v>
-          </cell>
-          <cell r="D84" t="str">
-            <v>夜魇远程兵</v>
+            <v>2505</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>炼狱石甲虫</v>
           </cell>
         </row>
         <row r="85">
           <cell r="B85">
-            <v>2503</v>
-          </cell>
-          <cell r="C85">
-            <v>1</v>
-          </cell>
-          <cell r="D85" t="str">
-            <v>炼狱小双头犬</v>
+            <v>2506</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>炼狱战熊</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86">
-            <v>2504</v>
-          </cell>
-          <cell r="C86">
-            <v>1</v>
-          </cell>
-          <cell r="D86" t="str">
-            <v>炽甲虫战车</v>
+            <v>2507</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>炼狱界弓</v>
           </cell>
         </row>
         <row r="87">
           <cell r="B87">
-            <v>2505</v>
-          </cell>
-          <cell r="C87">
-            <v>1</v>
-          </cell>
-          <cell r="D87" t="str">
-            <v>炼狱石甲虫</v>
+            <v>2508</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>烈焰战龟</v>
           </cell>
         </row>
         <row r="88">
           <cell r="B88">
-            <v>2506</v>
-          </cell>
-          <cell r="C88">
-            <v>1</v>
-          </cell>
-          <cell r="D88" t="str">
-            <v>炼狱战熊</v>
+            <v>2509</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>炼狱蜘蛛</v>
           </cell>
         </row>
         <row r="89">
           <cell r="B89">
-            <v>2507</v>
-          </cell>
-          <cell r="C89">
-            <v>1</v>
-          </cell>
-          <cell r="D89" t="str">
-            <v>炼狱界弓</v>
+            <v>2510</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>炼狱猎蜥</v>
           </cell>
         </row>
         <row r="90">
           <cell r="B90">
-            <v>2508</v>
-          </cell>
-          <cell r="C90">
-            <v>1</v>
-          </cell>
-          <cell r="D90" t="str">
-            <v>烈焰战龟</v>
+            <v>2511</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>炼狱火精灵</v>
           </cell>
         </row>
         <row r="91">
           <cell r="B91">
-            <v>2509</v>
-          </cell>
-          <cell r="C91">
-            <v>1</v>
-          </cell>
-          <cell r="D91" t="str">
-            <v>炼狱蜘蛛</v>
+            <v>2512</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>熔岩飞翼兽</v>
           </cell>
         </row>
         <row r="92">
           <cell r="B92">
-            <v>2510</v>
-          </cell>
-          <cell r="C92">
-            <v>1</v>
-          </cell>
-          <cell r="D92" t="str">
-            <v>炼狱猎蜥</v>
+            <v>2513</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>双斧狂战</v>
           </cell>
         </row>
         <row r="93">
           <cell r="B93">
-            <v>2511</v>
-          </cell>
-          <cell r="C93">
-            <v>1</v>
-          </cell>
-          <cell r="D93" t="str">
-            <v>炼狱火精灵</v>
+            <v>2514</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>熔岩卫兵</v>
           </cell>
         </row>
         <row r="94">
           <cell r="B94">
-            <v>2512</v>
-          </cell>
-          <cell r="C94">
-            <v>1</v>
-          </cell>
-          <cell r="D94" t="str">
-            <v>熔岩飞翼兽</v>
+            <v>2516</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>雷须兽</v>
           </cell>
         </row>
         <row r="95">
           <cell r="B95">
-            <v>2513</v>
-          </cell>
-          <cell r="C95">
-            <v>1</v>
-          </cell>
-          <cell r="D95" t="str">
-            <v>双斧狂战</v>
+            <v>2517</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>雷霆晶龟</v>
           </cell>
         </row>
         <row r="96">
           <cell r="B96">
-            <v>2514</v>
-          </cell>
-          <cell r="C96">
-            <v>1</v>
-          </cell>
-          <cell r="D96" t="str">
-            <v>熔岩卫兵</v>
+            <v>2518</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>霹雳怪虫</v>
           </cell>
         </row>
         <row r="97">
           <cell r="B97">
-            <v>2516</v>
-          </cell>
-          <cell r="C97">
-            <v>1</v>
-          </cell>
-          <cell r="D97" t="str">
-            <v>雷须兽</v>
+            <v>2519</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>独角雷兽</v>
           </cell>
         </row>
         <row r="98">
           <cell r="B98">
-            <v>2517</v>
-          </cell>
-          <cell r="C98">
-            <v>1</v>
-          </cell>
-          <cell r="D98" t="str">
-            <v>雷霆晶龟</v>
+            <v>2520</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v>雷电见习者</v>
           </cell>
         </row>
         <row r="99">
           <cell r="B99">
-            <v>2518</v>
-          </cell>
-          <cell r="C99">
-            <v>1</v>
-          </cell>
-          <cell r="D99" t="str">
-            <v>霹雳怪虫</v>
+            <v>2521</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>雷霆拍熊</v>
           </cell>
         </row>
         <row r="100">
           <cell r="B100">
-            <v>2519</v>
-          </cell>
-          <cell r="C100">
-            <v>1</v>
-          </cell>
-          <cell r="D100" t="str">
-            <v>独角雷兽</v>
+            <v>2522</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v>雷翼飞狐</v>
           </cell>
         </row>
         <row r="101">
           <cell r="B101">
-            <v>2520</v>
-          </cell>
-          <cell r="C101">
-            <v>1</v>
-          </cell>
-          <cell r="D101" t="str">
-            <v>雷电见习者</v>
+            <v>2523</v>
+          </cell>
+          <cell r="C101" t="str">
+            <v>远古黑龙</v>
           </cell>
         </row>
         <row r="102">
           <cell r="B102">
-            <v>2521</v>
-          </cell>
-          <cell r="C102">
-            <v>1</v>
-          </cell>
-          <cell r="D102" t="str">
-            <v>雷霆拍熊</v>
+            <v>2524</v>
+          </cell>
+          <cell r="C102" t="str">
+            <v>雷霆领主</v>
           </cell>
         </row>
         <row r="103">
           <cell r="B103">
-            <v>2522</v>
-          </cell>
-          <cell r="C103">
-            <v>1</v>
-          </cell>
-          <cell r="D103" t="str">
-            <v>雷翼飞狐</v>
+            <v>2525</v>
+          </cell>
+          <cell r="C103" t="str">
+            <v>霹雳怪泥</v>
           </cell>
         </row>
         <row r="104">
           <cell r="B104">
-            <v>2523</v>
-          </cell>
-          <cell r="C104">
-            <v>1</v>
-          </cell>
-          <cell r="D104" t="str">
-            <v>远古黑龙</v>
+            <v>2526</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v>雷霆战蜥</v>
           </cell>
         </row>
         <row r="105">
           <cell r="B105">
-            <v>2524</v>
-          </cell>
-          <cell r="C105">
-            <v>1</v>
-          </cell>
-          <cell r="D105" t="str">
-            <v>雷霆领主</v>
+            <v>2527</v>
+          </cell>
+          <cell r="C105" t="str">
+            <v>霹雳女妖</v>
           </cell>
         </row>
         <row r="106">
           <cell r="B106">
-            <v>2525</v>
-          </cell>
-          <cell r="C106">
-            <v>1</v>
-          </cell>
-          <cell r="D106" t="str">
-            <v>霹雳怪泥</v>
+            <v>2528</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v>雷压巨兽</v>
           </cell>
         </row>
         <row r="107">
           <cell r="B107">
-            <v>2526</v>
-          </cell>
-          <cell r="C107">
-            <v>1</v>
-          </cell>
-          <cell r="D107" t="str">
-            <v>雷霆战蜥</v>
+            <v>2529</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v>雷压射手</v>
           </cell>
         </row>
         <row r="108">
           <cell r="B108">
-            <v>2527</v>
-          </cell>
-          <cell r="C108">
-            <v>1</v>
-          </cell>
-          <cell r="D108" t="str">
-            <v>霹雳女妖</v>
+            <v>2530</v>
+          </cell>
+          <cell r="C108" t="str">
+            <v>雷霆梦魇</v>
           </cell>
         </row>
         <row r="109">
           <cell r="B109">
-            <v>2528</v>
-          </cell>
-          <cell r="C109">
-            <v>1</v>
-          </cell>
-          <cell r="D109" t="str">
-            <v>雷压巨兽</v>
+            <v>2531</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v>冰川幼龟</v>
           </cell>
         </row>
         <row r="110">
           <cell r="B110">
-            <v>2529</v>
-          </cell>
-          <cell r="C110">
-            <v>1</v>
-          </cell>
-          <cell r="D110" t="str">
-            <v>雷压射手</v>
+            <v>2532</v>
+          </cell>
+          <cell r="C110" t="str">
+            <v>近代冰魂</v>
           </cell>
         </row>
         <row r="111">
           <cell r="B111">
-            <v>2530</v>
-          </cell>
-          <cell r="C111">
-            <v>1</v>
-          </cell>
-          <cell r="D111" t="str">
-            <v>雷霆梦魇</v>
+            <v>2533</v>
+          </cell>
+          <cell r="C111" t="str">
+            <v>冰晶石甲虫</v>
           </cell>
         </row>
         <row r="112">
           <cell r="B112">
-            <v>2531</v>
-          </cell>
-          <cell r="C112">
-            <v>1</v>
-          </cell>
-          <cell r="D112" t="str">
-            <v>冰川幼龟</v>
+            <v>2534</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v>冰原犬</v>
           </cell>
         </row>
         <row r="113">
           <cell r="B113">
-            <v>2532</v>
-          </cell>
-          <cell r="C113">
-            <v>1</v>
-          </cell>
-          <cell r="D113" t="str">
-            <v>近代冰魂</v>
+            <v>2535</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v>冰甲战熊</v>
           </cell>
         </row>
         <row r="114">
           <cell r="B114">
-            <v>2533</v>
-          </cell>
-          <cell r="C114">
-            <v>1</v>
-          </cell>
-          <cell r="D114" t="str">
-            <v>冰晶石甲虫</v>
+            <v>2536</v>
+          </cell>
+          <cell r="C114" t="str">
+            <v>寒霜战士</v>
           </cell>
         </row>
         <row r="115">
           <cell r="B115">
-            <v>2534</v>
-          </cell>
-          <cell r="C115">
-            <v>1</v>
-          </cell>
-          <cell r="D115" t="str">
-            <v>冰原犬</v>
+            <v>2537</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>寒霜萨满</v>
           </cell>
         </row>
         <row r="116">
           <cell r="B116">
-            <v>2535</v>
-          </cell>
-          <cell r="C116">
-            <v>1</v>
-          </cell>
-          <cell r="D116" t="str">
-            <v>冰甲战熊</v>
+            <v>2538</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v>冰原巨兽</v>
           </cell>
         </row>
         <row r="117">
           <cell r="B117">
-            <v>2536</v>
-          </cell>
-          <cell r="C117">
-            <v>1</v>
-          </cell>
-          <cell r="D117" t="str">
-            <v>寒霜战士</v>
+            <v>2539</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>极地熊战士</v>
           </cell>
         </row>
         <row r="118">
           <cell r="B118">
-            <v>2537</v>
-          </cell>
-          <cell r="C118">
-            <v>1</v>
-          </cell>
-          <cell r="D118" t="str">
-            <v>寒霜萨满</v>
+            <v>2540</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>冰原猩猩兽</v>
           </cell>
         </row>
         <row r="119">
           <cell r="B119">
-            <v>2538</v>
-          </cell>
-          <cell r="C119">
-            <v>1</v>
-          </cell>
-          <cell r="D119" t="str">
-            <v>冰原巨兽</v>
+            <v>2541</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v>极地巨人</v>
           </cell>
         </row>
         <row r="120">
           <cell r="B120">
-            <v>2539</v>
-          </cell>
-          <cell r="C120">
-            <v>1</v>
-          </cell>
-          <cell r="D120" t="str">
-            <v>极地熊战士</v>
+            <v>2542</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>极地四脚兽</v>
           </cell>
         </row>
         <row r="121">
           <cell r="B121">
-            <v>2540</v>
-          </cell>
-          <cell r="C121">
-            <v>1</v>
-          </cell>
-          <cell r="D121" t="str">
-            <v>冰原猩猩兽</v>
+            <v>2543</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v>极地飞翼兽</v>
           </cell>
         </row>
         <row r="122">
           <cell r="B122">
-            <v>2541</v>
-          </cell>
-          <cell r="C122">
-            <v>1</v>
-          </cell>
-          <cell r="D122" t="str">
-            <v>极地巨人</v>
+            <v>2544</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v>极冰守卫</v>
           </cell>
         </row>
         <row r="123">
           <cell r="B123">
-            <v>2542</v>
-          </cell>
-          <cell r="C123">
-            <v>1</v>
-          </cell>
-          <cell r="D123" t="str">
-            <v>极地四脚兽</v>
+            <v>2545</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v>冰原守卫</v>
           </cell>
         </row>
         <row r="124">
           <cell r="B124">
-            <v>2543</v>
-          </cell>
-          <cell r="C124">
-            <v>1</v>
-          </cell>
-          <cell r="D124" t="str">
-            <v>极地飞翼兽</v>
+            <v>2546</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v>绿洲剧毒飞蛇</v>
           </cell>
         </row>
         <row r="125">
           <cell r="B125">
-            <v>2544</v>
-          </cell>
-          <cell r="C125">
-            <v>1</v>
-          </cell>
-          <cell r="D125" t="str">
-            <v>极冰守卫</v>
+            <v>2547</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v>绿洲魔法飞马</v>
           </cell>
         </row>
         <row r="126">
           <cell r="B126">
-            <v>2545</v>
-          </cell>
-          <cell r="C126">
-            <v>1</v>
-          </cell>
-          <cell r="D126" t="str">
-            <v>冰原守卫</v>
+            <v>2548</v>
+          </cell>
+          <cell r="C126" t="str">
+            <v>绿洲怪手</v>
           </cell>
         </row>
         <row r="127">
           <cell r="B127">
-            <v>2546</v>
-          </cell>
-          <cell r="C127">
-            <v>1</v>
-          </cell>
-          <cell r="D127" t="str">
-            <v>绿洲剧毒飞蛇</v>
+            <v>2549</v>
+          </cell>
+          <cell r="C127" t="str">
+            <v>毒风鹫</v>
           </cell>
         </row>
         <row r="128">
           <cell r="B128">
-            <v>2547</v>
-          </cell>
-          <cell r="C128">
-            <v>1</v>
-          </cell>
-          <cell r="D128" t="str">
-            <v>绿洲魔法飞马</v>
+            <v>2550</v>
+          </cell>
+          <cell r="C128" t="str">
+            <v>天辉高级术士</v>
           </cell>
         </row>
         <row r="129">
           <cell r="B129">
-            <v>2548</v>
-          </cell>
-          <cell r="C129">
-            <v>1</v>
-          </cell>
-          <cell r="D129" t="str">
-            <v>绿洲怪手</v>
+            <v>2551</v>
+          </cell>
+          <cell r="C129" t="str">
+            <v>独角沙兽</v>
           </cell>
         </row>
         <row r="130">
           <cell r="B130">
-            <v>2549</v>
-          </cell>
-          <cell r="C130">
-            <v>1</v>
-          </cell>
-          <cell r="D130" t="str">
-            <v>毒风鹫</v>
+            <v>2552</v>
+          </cell>
+          <cell r="C130" t="str">
+            <v>高级精灵战车</v>
           </cell>
         </row>
         <row r="131">
           <cell r="B131">
-            <v>2550</v>
-          </cell>
-          <cell r="C131">
-            <v>1</v>
-          </cell>
-          <cell r="D131" t="str">
-            <v>天辉高级术士</v>
+            <v>2553</v>
+          </cell>
+          <cell r="C131" t="str">
+            <v>风沙狼</v>
           </cell>
         </row>
         <row r="132">
           <cell r="B132">
-            <v>2551</v>
-          </cell>
-          <cell r="C132">
-            <v>1</v>
-          </cell>
-          <cell r="D132" t="str">
-            <v>独角沙兽</v>
+            <v>2554</v>
+          </cell>
+          <cell r="C132" t="str">
+            <v>风沙狮</v>
           </cell>
         </row>
         <row r="133">
           <cell r="B133">
-            <v>2552</v>
-          </cell>
-          <cell r="C133">
-            <v>1</v>
-          </cell>
-          <cell r="D133" t="str">
-            <v>高级精灵战车</v>
+            <v>2555</v>
+          </cell>
+          <cell r="C133" t="str">
+            <v>风沙战熊</v>
           </cell>
         </row>
         <row r="134">
           <cell r="B134">
-            <v>2553</v>
-          </cell>
-          <cell r="C134">
-            <v>1</v>
-          </cell>
-          <cell r="D134" t="str">
-            <v>风沙狼</v>
+            <v>2556</v>
+          </cell>
+          <cell r="C134" t="str">
+            <v>绿洲守卫</v>
           </cell>
         </row>
         <row r="135">
           <cell r="B135">
-            <v>2554</v>
-          </cell>
-          <cell r="C135">
-            <v>1</v>
-          </cell>
-          <cell r="D135" t="str">
-            <v>风沙狮</v>
+            <v>2557</v>
+          </cell>
+          <cell r="C135" t="str">
+            <v>风沙刺鼬</v>
           </cell>
         </row>
         <row r="136">
           <cell r="B136">
-            <v>2555</v>
-          </cell>
-          <cell r="C136">
-            <v>1</v>
-          </cell>
-          <cell r="D136" t="str">
-            <v>风沙战熊</v>
+            <v>2558</v>
+          </cell>
+          <cell r="C136" t="str">
+            <v>绿洲女巫</v>
           </cell>
         </row>
         <row r="137">
           <cell r="B137">
-            <v>2556</v>
-          </cell>
-          <cell r="C137">
-            <v>1</v>
-          </cell>
-          <cell r="D137" t="str">
-            <v>绿洲守卫</v>
+            <v>2559</v>
+          </cell>
+          <cell r="C137" t="str">
+            <v>砂砾小巨人</v>
           </cell>
         </row>
         <row r="138">
           <cell r="B138">
-            <v>2557</v>
-          </cell>
-          <cell r="C138">
-            <v>1</v>
-          </cell>
-          <cell r="D138" t="str">
-            <v>风沙刺鼬</v>
+            <v>2560</v>
+          </cell>
+          <cell r="C138" t="str">
+            <v>幼年青眼雷龙</v>
           </cell>
         </row>
         <row r="139">
           <cell r="B139">
-            <v>2558</v>
-          </cell>
-          <cell r="C139">
-            <v>1</v>
-          </cell>
-          <cell r="D139" t="str">
-            <v>绿洲女巫</v>
+            <v>2901</v>
+          </cell>
+          <cell r="C139" t="str">
+            <v>炼狱领主</v>
           </cell>
         </row>
         <row r="140">
           <cell r="B140">
-            <v>2559</v>
-          </cell>
-          <cell r="C140">
-            <v>1</v>
-          </cell>
-          <cell r="D140" t="str">
-            <v>砂砾小巨人</v>
+            <v>2902</v>
+          </cell>
+          <cell r="C140" t="str">
+            <v>熔岩巨人</v>
           </cell>
         </row>
         <row r="141">
           <cell r="B141">
-            <v>2560</v>
-          </cell>
-          <cell r="C141">
-            <v>1</v>
-          </cell>
-          <cell r="D141" t="str">
-            <v>幼年青眼雷龙</v>
+            <v>2903</v>
+          </cell>
+          <cell r="C141" t="str">
+            <v>烈焰神狐</v>
           </cell>
         </row>
         <row r="142">
           <cell r="B142">
-            <v>2901</v>
-          </cell>
-          <cell r="C142">
-            <v>1</v>
-          </cell>
-          <cell r="D142" t="str">
-            <v>炼狱领主</v>
+            <v>2904</v>
+          </cell>
+          <cell r="C142" t="str">
+            <v>炼狱双头犬</v>
           </cell>
         </row>
         <row r="143">
           <cell r="B143">
-            <v>2902</v>
-          </cell>
-          <cell r="C143">
-            <v>1</v>
-          </cell>
-          <cell r="D143" t="str">
-            <v>熔岩巨人</v>
+            <v>2905</v>
+          </cell>
+          <cell r="C143" t="str">
+            <v>烈焰战神</v>
           </cell>
         </row>
         <row r="144">
           <cell r="B144">
-            <v>2903</v>
-          </cell>
-          <cell r="C144">
-            <v>1</v>
-          </cell>
-          <cell r="D144" t="str">
-            <v>烈焰神狐</v>
+            <v>2906</v>
+          </cell>
+          <cell r="C144" t="str">
+            <v>青眼雷龙</v>
           </cell>
         </row>
         <row r="145">
           <cell r="B145">
-            <v>2904</v>
-          </cell>
-          <cell r="C145">
-            <v>1</v>
-          </cell>
-          <cell r="D145" t="str">
-            <v>炼狱双头犬</v>
+            <v>2907</v>
+          </cell>
+          <cell r="C145" t="str">
+            <v>雷压飞翼兽</v>
           </cell>
         </row>
         <row r="146">
           <cell r="B146">
-            <v>2905</v>
-          </cell>
-          <cell r="C146">
-            <v>1</v>
-          </cell>
-          <cell r="D146" t="str">
-            <v>烈焰战神</v>
+            <v>2908</v>
+          </cell>
+          <cell r="C146" t="str">
+            <v>雷电掌控者</v>
           </cell>
         </row>
         <row r="147">
           <cell r="B147">
-            <v>2906</v>
-          </cell>
-          <cell r="C147">
-            <v>1</v>
-          </cell>
-          <cell r="D147" t="str">
-            <v>青眼雷龙</v>
+            <v>2909</v>
+          </cell>
+          <cell r="C147" t="str">
+            <v>雷神鸟</v>
           </cell>
         </row>
         <row r="148">
           <cell r="B148">
-            <v>2907</v>
-          </cell>
-          <cell r="C148">
-            <v>1</v>
-          </cell>
-          <cell r="D148" t="str">
-            <v>雷压飞翼兽</v>
+            <v>2910</v>
+          </cell>
+          <cell r="C148" t="str">
+            <v>闪电制造者</v>
           </cell>
         </row>
         <row r="149">
           <cell r="B149">
-            <v>2908</v>
-          </cell>
-          <cell r="C149">
-            <v>1</v>
-          </cell>
-          <cell r="D149" t="str">
-            <v>雷电掌控者</v>
+            <v>2911</v>
+          </cell>
+          <cell r="C149" t="str">
+            <v>极寒领主</v>
           </cell>
         </row>
         <row r="150">
           <cell r="B150">
-            <v>2909</v>
-          </cell>
-          <cell r="C150">
-            <v>1</v>
-          </cell>
-          <cell r="D150" t="str">
-            <v>雷神鸟</v>
+            <v>2912</v>
+          </cell>
+          <cell r="C150" t="str">
+            <v>极寒蛛美丽</v>
           </cell>
         </row>
         <row r="151">
           <cell r="B151">
-            <v>2910</v>
-          </cell>
-          <cell r="C151">
-            <v>1</v>
-          </cell>
-          <cell r="D151" t="str">
-            <v>闪电制造者</v>
+            <v>2913</v>
+          </cell>
+          <cell r="C151" t="str">
+            <v>冰原领主</v>
           </cell>
         </row>
         <row r="152">
           <cell r="B152">
-            <v>2911</v>
-          </cell>
-          <cell r="C152">
-            <v>1</v>
-          </cell>
-          <cell r="D152" t="str">
-            <v>极寒领主</v>
+            <v>2914</v>
+          </cell>
+          <cell r="C152" t="str">
+            <v>狂沙熊战士</v>
           </cell>
         </row>
         <row r="153">
           <cell r="B153">
-            <v>2912</v>
-          </cell>
-          <cell r="C153">
-            <v>1</v>
-          </cell>
-          <cell r="D153" t="str">
-            <v>极寒蛛美丽</v>
+            <v>2915</v>
+          </cell>
+          <cell r="C153" t="str">
+            <v>黄沙护卫</v>
           </cell>
         </row>
         <row r="154">
           <cell r="B154">
-            <v>2913</v>
-          </cell>
-          <cell r="C154">
-            <v>1</v>
-          </cell>
-          <cell r="D154" t="str">
-            <v>冰原领主</v>
+            <v>2916</v>
+          </cell>
+          <cell r="C154" t="str">
+            <v>绿洲之主</v>
           </cell>
         </row>
         <row r="155">
           <cell r="B155">
-            <v>2914</v>
-          </cell>
-          <cell r="C155">
-            <v>1</v>
-          </cell>
-          <cell r="D155" t="str">
-            <v>狂沙熊战士</v>
+            <v>2917</v>
+          </cell>
+          <cell r="C155" t="str">
+            <v>黄沙之主</v>
           </cell>
         </row>
         <row r="156">
           <cell r="B156">
-            <v>2915</v>
-          </cell>
-          <cell r="C156">
-            <v>1</v>
-          </cell>
-          <cell r="D156" t="str">
-            <v>黄沙护卫</v>
+            <v>2918</v>
+          </cell>
+          <cell r="C156" t="str">
+            <v>祈风使</v>
           </cell>
         </row>
         <row r="157">
           <cell r="B157">
-            <v>2916</v>
-          </cell>
-          <cell r="C157">
-            <v>1</v>
-          </cell>
-          <cell r="D157" t="str">
-            <v>绿洲之主</v>
+            <v>2919</v>
+          </cell>
+          <cell r="C157" t="str">
+            <v>寒冰使</v>
           </cell>
         </row>
         <row r="158">
           <cell r="B158">
-            <v>2917</v>
-          </cell>
-          <cell r="C158">
-            <v>1</v>
-          </cell>
-          <cell r="D158" t="str">
-            <v>黄沙之主</v>
+            <v>2920</v>
+          </cell>
+          <cell r="C158" t="str">
+            <v>霹雳使</v>
           </cell>
         </row>
         <row r="159">
           <cell r="B159">
-            <v>2918</v>
-          </cell>
-          <cell r="C159">
-            <v>1</v>
-          </cell>
-          <cell r="D159" t="str">
-            <v>祈风使</v>
+            <v>2921</v>
+          </cell>
+          <cell r="C159" t="str">
+            <v>烈火使</v>
           </cell>
         </row>
         <row r="160">
           <cell r="B160">
-            <v>2919</v>
-          </cell>
-          <cell r="C160">
-            <v>1</v>
-          </cell>
-          <cell r="D160" t="str">
-            <v>寒冰使</v>
+            <v>2922</v>
+          </cell>
+          <cell r="C160" t="str">
+            <v>远古炼狱火</v>
           </cell>
         </row>
         <row r="161">
           <cell r="B161">
-            <v>2920</v>
-          </cell>
-          <cell r="C161">
-            <v>1</v>
-          </cell>
-          <cell r="D161" t="str">
-            <v>霹雳使</v>
+            <v>3201</v>
+          </cell>
+          <cell r="C161" t="str">
+            <v>炼狱之王</v>
           </cell>
         </row>
         <row r="162">
           <cell r="B162">
-            <v>2921</v>
-          </cell>
-          <cell r="C162">
-            <v>1</v>
-          </cell>
-          <cell r="D162" t="str">
-            <v>烈火使</v>
+            <v>3202</v>
+          </cell>
+          <cell r="C162" t="str">
+            <v>雷神</v>
           </cell>
         </row>
         <row r="163">
           <cell r="B163">
-            <v>2922</v>
-          </cell>
-          <cell r="C163">
-            <v>1</v>
-          </cell>
-          <cell r="D163" t="str">
-            <v>远古炼狱火</v>
+            <v>3203</v>
+          </cell>
+          <cell r="C163" t="str">
+            <v>冰宫女王</v>
           </cell>
         </row>
         <row r="164">
           <cell r="B164">
-            <v>3201</v>
-          </cell>
-          <cell r="C164">
-            <v>1</v>
-          </cell>
-          <cell r="D164" t="str">
-            <v>炼狱之王</v>
+            <v>3204</v>
+          </cell>
+          <cell r="C164" t="str">
+            <v>风神</v>
           </cell>
         </row>
         <row r="165">
           <cell r="B165">
-            <v>3202</v>
-          </cell>
-          <cell r="C165">
-            <v>1</v>
-          </cell>
-          <cell r="D165" t="str">
-            <v>雷神</v>
+            <v>3205</v>
+          </cell>
+          <cell r="C165" t="str">
+            <v>元素之主</v>
           </cell>
         </row>
         <row r="166">
           <cell r="B166">
-            <v>3203</v>
-          </cell>
-          <cell r="C166">
-            <v>1</v>
+            <v>3501</v>
+          </cell>
+          <cell r="C166" t="str">
+            <v>精良图鉴箱</v>
           </cell>
           <cell r="D166" t="str">
-            <v>冰宫女王</v>
+            <v>可以开出一张随机精良级（C级）卡片</v>
           </cell>
         </row>
         <row r="167">
           <cell r="B167">
-            <v>3204</v>
-          </cell>
-          <cell r="C167">
-            <v>1</v>
+            <v>3502</v>
+          </cell>
+          <cell r="C167" t="str">
+            <v>史诗图鉴箱</v>
           </cell>
           <cell r="D167" t="str">
-            <v>风神</v>
+            <v>可以开出一张随机史诗级（B级）卡片</v>
           </cell>
         </row>
         <row r="168">
           <cell r="B168">
-            <v>3205</v>
-          </cell>
-          <cell r="C168">
-            <v>1</v>
+            <v>3503</v>
+          </cell>
+          <cell r="C168" t="str">
+            <v>传说图鉴箱</v>
           </cell>
           <cell r="D168" t="str">
-            <v>元素之主</v>
+            <v>可以开出一张随机传说级（A级）卡片</v>
           </cell>
         </row>
         <row r="169">
           <cell r="B169">
-            <v>3501</v>
-          </cell>
-          <cell r="C169">
-            <v>1</v>
+            <v>3504</v>
+          </cell>
+          <cell r="C169" t="str">
+            <v>元素大陆的图鉴箱</v>
           </cell>
           <cell r="D169" t="str">
-            <v>精良图鉴箱</v>
+            <v>可以随机开出一张地图·元素大陆出现的所有怪物的卡片</v>
           </cell>
         </row>
         <row r="170">
           <cell r="B170">
-            <v>3502</v>
-          </cell>
-          <cell r="C170">
-            <v>1</v>
+            <v>3505</v>
+          </cell>
+          <cell r="C170" t="str">
+            <v>熔火炼狱的图鉴箱</v>
           </cell>
           <cell r="D170" t="str">
-            <v>史诗图鉴箱</v>
+            <v>可以随机开出一张地图·熔火炼狱出现的所有怪物的卡片</v>
           </cell>
         </row>
         <row r="171">
           <cell r="B171">
-            <v>3503</v>
-          </cell>
-          <cell r="C171">
-            <v>1</v>
+            <v>3506</v>
+          </cell>
+          <cell r="C171" t="str">
+            <v>极北之地的图鉴箱</v>
           </cell>
           <cell r="D171" t="str">
-            <v>传说图鉴箱</v>
+            <v>可以随机开出一张地图·极北之地出现的所有怪物的卡片</v>
           </cell>
         </row>
         <row r="172">
           <cell r="B172">
-            <v>3504</v>
-          </cell>
-          <cell r="C172">
-            <v>1</v>
+            <v>3507</v>
+          </cell>
+          <cell r="C172" t="str">
+            <v>狂风沙漠的图鉴箱</v>
           </cell>
           <cell r="D172" t="str">
-            <v>元素大陆的图鉴箱</v>
+            <v>可以随机开出一张地图·狂风沙漠出现的所有怪物的卡片</v>
           </cell>
         </row>
         <row r="173">
           <cell r="B173">
-            <v>3505</v>
-          </cell>
-          <cell r="C173">
-            <v>1</v>
+            <v>3508</v>
+          </cell>
+          <cell r="C173" t="str">
+            <v>雷霆之地的图鉴箱</v>
           </cell>
           <cell r="D173" t="str">
-            <v>熔火炼狱的图鉴箱</v>
+            <v>可以随机开出一张地图·雷霆之地出现的所有怪物的卡片</v>
           </cell>
         </row>
         <row r="174">
           <cell r="B174">
-            <v>3506</v>
-          </cell>
-          <cell r="C174">
-            <v>1</v>
+            <v>3509</v>
+          </cell>
+          <cell r="C174" t="str">
+            <v>熔火炼狱的史诗图鉴图鉴箱</v>
           </cell>
           <cell r="D174" t="str">
-            <v>极北之地的图鉴箱</v>
+            <v>可以随机开出一张地图·熔火炼狱出现的史诗级（B级）卡片</v>
           </cell>
         </row>
         <row r="175">
           <cell r="B175">
-            <v>3507</v>
-          </cell>
-          <cell r="C175">
-            <v>1</v>
+            <v>3510</v>
+          </cell>
+          <cell r="C175" t="str">
+            <v>极北之地的史诗图鉴图鉴箱</v>
           </cell>
           <cell r="D175" t="str">
-            <v>狂风沙漠的图鉴箱</v>
+            <v>可以随机开出一张地图·极北之地出现的史诗级（B级）卡片</v>
           </cell>
         </row>
         <row r="176">
           <cell r="B176">
-            <v>3508</v>
-          </cell>
-          <cell r="C176">
-            <v>1</v>
+            <v>3511</v>
+          </cell>
+          <cell r="C176" t="str">
+            <v>狂风沙漠的史诗图鉴图鉴箱</v>
           </cell>
           <cell r="D176" t="str">
-            <v>雷霆之地的图鉴箱</v>
+            <v>可以随机开出一张地图·狂风沙漠出现的史诗级（B级）卡片</v>
           </cell>
         </row>
         <row r="177">
           <cell r="B177">
-            <v>3509</v>
-          </cell>
-          <cell r="C177">
-            <v>1</v>
+            <v>3512</v>
+          </cell>
+          <cell r="C177" t="str">
+            <v>雷霆之地的史诗图鉴图鉴箱</v>
           </cell>
           <cell r="D177" t="str">
-            <v>熔火炼狱的史诗图鉴图鉴箱</v>
+            <v>可以随机开出一张地图·雷霆之地出现的史诗级（B级）卡片</v>
           </cell>
         </row>
         <row r="178">
           <cell r="B178">
-            <v>3510</v>
-          </cell>
-          <cell r="C178">
-            <v>1</v>
+            <v>3513</v>
+          </cell>
+          <cell r="C178" t="str">
+            <v>熔火炼狱的传说图鉴图鉴箱</v>
           </cell>
           <cell r="D178" t="str">
-            <v>极北之地的史诗图鉴图鉴箱</v>
+            <v>可以随机开出一张地图·熔火炼狱出现的传说级（A级）卡片</v>
           </cell>
         </row>
         <row r="179">
           <cell r="B179">
-            <v>3511</v>
-          </cell>
-          <cell r="C179">
-            <v>1</v>
+            <v>3514</v>
+          </cell>
+          <cell r="C179" t="str">
+            <v>极北之地的传说图鉴图鉴箱</v>
           </cell>
           <cell r="D179" t="str">
-            <v>狂风沙漠的史诗图鉴图鉴箱</v>
+            <v>可以随机开出一张地图·极北之地出现的传说级（A级）卡片</v>
           </cell>
         </row>
         <row r="180">
           <cell r="B180">
-            <v>3512</v>
-          </cell>
-          <cell r="C180">
-            <v>1</v>
+            <v>3515</v>
+          </cell>
+          <cell r="C180" t="str">
+            <v>狂风沙漠的传说图鉴图鉴箱</v>
           </cell>
           <cell r="D180" t="str">
-            <v>雷霆之地的史诗图鉴图鉴箱</v>
+            <v>可以随机开出一张地图·狂风沙漠出现的传说级（A级）卡片</v>
           </cell>
         </row>
         <row r="181">
           <cell r="B181">
-            <v>3513</v>
-          </cell>
-          <cell r="C181">
-            <v>1</v>
+            <v>3516</v>
+          </cell>
+          <cell r="C181" t="str">
+            <v>雷霆之地的传说图鉴图鉴箱</v>
           </cell>
           <cell r="D181" t="str">
-            <v>熔火炼狱的传说图鉴图鉴箱</v>
+            <v>可以随机开出一张地图·雷霆之地出现的传说级（A级）卡片</v>
           </cell>
         </row>
         <row r="182">
           <cell r="B182">
-            <v>3514</v>
-          </cell>
-          <cell r="C182">
-            <v>1</v>
+            <v>3517</v>
+          </cell>
+          <cell r="C182" t="str">
+            <v>精良图鉴箱（自选）</v>
           </cell>
           <cell r="D182" t="str">
-            <v>极北之地的传说图鉴图鉴箱</v>
+            <v>可以自选获得一张精良级（C级）卡片</v>
           </cell>
         </row>
         <row r="183">
           <cell r="B183">
-            <v>3515</v>
-          </cell>
-          <cell r="C183">
-            <v>1</v>
+            <v>3518</v>
+          </cell>
+          <cell r="C183" t="str">
+            <v>史诗图鉴箱（自选）</v>
           </cell>
           <cell r="D183" t="str">
-            <v>狂风沙漠的传说图鉴图鉴箱</v>
+            <v>可以自选获得一张史诗级（B级）卡片</v>
           </cell>
         </row>
         <row r="184">
           <cell r="B184">
-            <v>3516</v>
-          </cell>
-          <cell r="C184">
-            <v>1</v>
+            <v>3519</v>
+          </cell>
+          <cell r="C184" t="str">
+            <v>传说图鉴箱（自选）</v>
           </cell>
           <cell r="D184" t="str">
-            <v>雷霆之地的传说图鉴图鉴箱</v>
+            <v>可以自选获得一张传说级（A级）卡片</v>
           </cell>
         </row>
         <row r="185">
           <cell r="B185">
-            <v>3517</v>
-          </cell>
-          <cell r="C185">
-            <v>1</v>
+            <v>3520</v>
+          </cell>
+          <cell r="C185" t="str">
+            <v>不朽图鉴箱（自选）</v>
           </cell>
           <cell r="D185" t="str">
-            <v>精良图鉴箱（自选）</v>
+            <v>可以自选获得一张不朽级（S级）卡片</v>
           </cell>
         </row>
         <row r="186">
           <cell r="B186">
-            <v>3518</v>
-          </cell>
-          <cell r="C186">
-            <v>1</v>
+            <v>3521</v>
+          </cell>
+          <cell r="C186" t="str">
+            <v>熔火炼狱的图鉴箱（自选）</v>
           </cell>
           <cell r="D186" t="str">
-            <v>史诗图鉴箱（自选）</v>
+            <v>可以自选获得一张地图·元素大陆出现的所有怪物的卡片</v>
           </cell>
         </row>
         <row r="187">
           <cell r="B187">
-            <v>3519</v>
-          </cell>
-          <cell r="C187">
-            <v>1</v>
+            <v>3522</v>
+          </cell>
+          <cell r="C187" t="str">
+            <v>极北之地的图鉴箱（自选）</v>
           </cell>
           <cell r="D187" t="str">
-            <v>传说图鉴箱（自选）</v>
+            <v>可以自选获得一张地图·熔火炼狱出现的所有怪物的卡片</v>
           </cell>
         </row>
         <row r="188">
           <cell r="B188">
-            <v>3520</v>
-          </cell>
-          <cell r="C188">
-            <v>1</v>
+            <v>3523</v>
+          </cell>
+          <cell r="C188" t="str">
+            <v>狂风沙漠的图鉴箱（自选）</v>
           </cell>
           <cell r="D188" t="str">
-            <v>不朽图鉴箱（自选）</v>
+            <v>可以自选获得一张地图·极北之地出现的所有怪物的卡片</v>
           </cell>
         </row>
         <row r="189">
           <cell r="B189">
-            <v>3521</v>
-          </cell>
-          <cell r="C189">
-            <v>1</v>
+            <v>3524</v>
+          </cell>
+          <cell r="C189" t="str">
+            <v>雷霆之地的图鉴箱（自选）</v>
           </cell>
           <cell r="D189" t="str">
-            <v>熔火炼狱的图鉴箱（自选）</v>
+            <v>可以自选获得一张地图·狂风沙漠出现的所有怪物的卡片</v>
           </cell>
         </row>
         <row r="190">
           <cell r="B190">
-            <v>3522</v>
-          </cell>
-          <cell r="C190">
-            <v>1</v>
+            <v>3525</v>
+          </cell>
+          <cell r="C190" t="str">
+            <v>元素大陆图的鉴箱（自选）</v>
           </cell>
           <cell r="D190" t="str">
-            <v>极北之地的图鉴箱（自选）</v>
+            <v>可以自选获得一张地图·雷霆之地出现的所有怪物的卡片</v>
           </cell>
         </row>
         <row r="191">
           <cell r="B191">
-            <v>3523</v>
-          </cell>
-          <cell r="C191">
-            <v>1</v>
+            <v>10001</v>
+          </cell>
+          <cell r="C191" t="str">
+            <v>1级魂石·攻击力</v>
           </cell>
           <cell r="D191" t="str">
-            <v>狂风沙漠的图鉴箱（自选）</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="192">
           <cell r="B192">
-            <v>3524</v>
-          </cell>
-          <cell r="C192">
-            <v>1</v>
+            <v>10002</v>
+          </cell>
+          <cell r="C192" t="str">
+            <v>1级魂石·固定伤害</v>
           </cell>
           <cell r="D192" t="str">
-            <v>雷霆之地的图鉴箱（自选）</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="193">
           <cell r="B193">
-            <v>3525</v>
-          </cell>
-          <cell r="C193">
-            <v>1</v>
+            <v>10003</v>
+          </cell>
+          <cell r="C193" t="str">
+            <v>1级魂石·全元素伤害</v>
           </cell>
           <cell r="D193" t="str">
-            <v>元素大陆图的鉴箱（自选）</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="194">
           <cell r="B194">
-            <v>10000</v>
-          </cell>
-          <cell r="C194">
-            <v>1</v>
+            <v>10004</v>
+          </cell>
+          <cell r="C194" t="str">
+            <v>1级魂石·暴击概率</v>
           </cell>
           <cell r="D194" t="str">
-            <v>1级魂石·攻击力</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="195">
           <cell r="B195">
-            <v>10001</v>
-          </cell>
-          <cell r="C195">
-            <v>1</v>
+            <v>10005</v>
+          </cell>
+          <cell r="C195" t="str">
+            <v>1级魂石·暴击伤害</v>
           </cell>
           <cell r="D195" t="str">
-            <v>1级魂石·固定伤害</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="196">
           <cell r="B196">
-            <v>10002</v>
-          </cell>
-          <cell r="C196">
-            <v>1</v>
+            <v>10006</v>
+          </cell>
+          <cell r="C196" t="str">
+            <v>1级魂石·元素穿透</v>
           </cell>
           <cell r="D196" t="str">
-            <v>1级魂石·全元素伤害</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="197">
           <cell r="B197">
-            <v>10003</v>
-          </cell>
-          <cell r="C197">
-            <v>1</v>
+            <v>10007</v>
+          </cell>
+          <cell r="C197" t="str">
+            <v>1级魂石·生命值</v>
           </cell>
           <cell r="D197" t="str">
-            <v>1级魂石·暴击概率</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="198">
           <cell r="B198">
-            <v>10004</v>
-          </cell>
-          <cell r="C198">
-            <v>1</v>
+            <v>10008</v>
+          </cell>
+          <cell r="C198" t="str">
+            <v>1级魂石·攻击速度</v>
           </cell>
           <cell r="D198" t="str">
-            <v>1级魂石·暴击伤害</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="199">
           <cell r="B199">
-            <v>10005</v>
-          </cell>
-          <cell r="C199">
-            <v>1</v>
+            <v>10009</v>
+          </cell>
+          <cell r="C199" t="str">
+            <v>1级魂石·防御</v>
           </cell>
           <cell r="D199" t="str">
-            <v>1级魂石·元素穿透</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="200">
           <cell r="B200">
-            <v>10006</v>
-          </cell>
-          <cell r="C200">
-            <v>1</v>
+            <v>10010</v>
+          </cell>
+          <cell r="C200" t="str">
+            <v>1级魂石·元素抗性</v>
           </cell>
           <cell r="D200" t="str">
-            <v>1级魂石·生命值</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="201">
           <cell r="B201">
-            <v>10007</v>
-          </cell>
-          <cell r="C201">
-            <v>1</v>
+            <v>10011</v>
+          </cell>
+          <cell r="C201" t="str">
+            <v>1级魂石·暴击抵抗</v>
           </cell>
           <cell r="D201" t="str">
-            <v>1级魂石·攻击速度</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="202">
           <cell r="B202">
-            <v>10008</v>
-          </cell>
-          <cell r="C202">
-            <v>1</v>
+            <v>10012</v>
+          </cell>
+          <cell r="C202" t="str">
+            <v>1级魂石·爆伤抵抗</v>
           </cell>
           <cell r="D202" t="str">
-            <v>1级魂石·防御</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="203">
           <cell r="B203">
-            <v>10009</v>
-          </cell>
-          <cell r="C203">
-            <v>1</v>
+            <v>10013</v>
+          </cell>
+          <cell r="C203" t="str">
+            <v>1级魂石·生命回复</v>
           </cell>
           <cell r="D203" t="str">
-            <v>1级魂石·元素抗性</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="204">
           <cell r="B204">
-            <v>10010</v>
-          </cell>
-          <cell r="C204">
-            <v>1</v>
+            <v>10014</v>
+          </cell>
+          <cell r="C204" t="str">
+            <v>1级魂石·固定伤害减免</v>
           </cell>
           <cell r="D204" t="str">
-            <v>1级魂石·暴击抵抗</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="205">
           <cell r="B205">
-            <v>10011</v>
-          </cell>
-          <cell r="C205">
-            <v>1</v>
+            <v>10015</v>
+          </cell>
+          <cell r="C205" t="str">
+            <v>1级魂石·技能急速</v>
           </cell>
           <cell r="D205" t="str">
-            <v>1级魂石·爆伤抵抗</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="206">
           <cell r="B206">
-            <v>10012</v>
-          </cell>
-          <cell r="C206">
-            <v>1</v>
+            <v>10016</v>
+          </cell>
+          <cell r="C206" t="str">
+            <v>1级魂石·全元素抗性</v>
           </cell>
           <cell r="D206" t="str">
-            <v>1级魂石·生命回复</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="207">
           <cell r="B207">
-            <v>10013</v>
-          </cell>
-          <cell r="C207">
-            <v>1</v>
+            <v>10017</v>
+          </cell>
+          <cell r="C207" t="str">
+            <v>1级魂石·移动速度</v>
           </cell>
           <cell r="D207" t="str">
-            <v>1级魂石·固定伤害减免</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="208">
           <cell r="B208">
-            <v>10014</v>
-          </cell>
-          <cell r="C208">
-            <v>1</v>
+            <v>10018</v>
+          </cell>
+          <cell r="C208" t="str">
+            <v>1级魂石·闪避率</v>
           </cell>
           <cell r="D208" t="str">
-            <v>1级魂石·技能急速</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="209">
           <cell r="B209">
-            <v>10016</v>
-          </cell>
-          <cell r="C209">
-            <v>1</v>
+            <v>10101</v>
+          </cell>
+          <cell r="C209" t="str">
+            <v>2级魂石·攻击力</v>
           </cell>
           <cell r="D209" t="str">
-            <v>1级魂石·移动速度</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="210">
           <cell r="B210">
-            <v>10017</v>
-          </cell>
-          <cell r="C210">
-            <v>1</v>
+            <v>10102</v>
+          </cell>
+          <cell r="C210" t="str">
+            <v>2级魂石·固定伤害</v>
           </cell>
           <cell r="D210" t="str">
-            <v>1级魂石·闪避率</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="211">
           <cell r="B211">
-            <v>10101</v>
-          </cell>
-          <cell r="C211">
-            <v>1</v>
+            <v>10103</v>
+          </cell>
+          <cell r="C211" t="str">
+            <v>2级魂石·全元素伤害</v>
           </cell>
           <cell r="D211" t="str">
-            <v>2级魂石·攻击力</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="212">
           <cell r="B212">
-            <v>10102</v>
-          </cell>
-          <cell r="C212">
-            <v>1</v>
+            <v>10104</v>
+          </cell>
+          <cell r="C212" t="str">
+            <v>2级魂石·暴击概率</v>
           </cell>
           <cell r="D212" t="str">
-            <v>2级魂石·固定伤害</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="213">
           <cell r="B213">
-            <v>10103</v>
-          </cell>
-          <cell r="C213">
-            <v>1</v>
+            <v>10105</v>
+          </cell>
+          <cell r="C213" t="str">
+            <v>2级魂石·暴击伤害</v>
           </cell>
           <cell r="D213" t="str">
-            <v>2级魂石·全元素伤害</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="214">
           <cell r="B214">
-            <v>10104</v>
-          </cell>
-          <cell r="C214">
-            <v>1</v>
+            <v>10106</v>
+          </cell>
+          <cell r="C214" t="str">
+            <v>2级魂石·元素穿透</v>
           </cell>
           <cell r="D214" t="str">
-            <v>2级魂石·暴击概率</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="215">
           <cell r="B215">
-            <v>10105</v>
-          </cell>
-          <cell r="C215">
-            <v>1</v>
+            <v>10107</v>
+          </cell>
+          <cell r="C215" t="str">
+            <v>2级魂石·生命值</v>
           </cell>
           <cell r="D215" t="str">
-            <v>2级魂石·暴击伤害</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="216">
           <cell r="B216">
-            <v>10106</v>
-          </cell>
-          <cell r="C216">
-            <v>1</v>
+            <v>10108</v>
+          </cell>
+          <cell r="C216" t="str">
+            <v>2级魂石·攻击速度</v>
           </cell>
           <cell r="D216" t="str">
-            <v>2级魂石·元素穿透</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="217">
           <cell r="B217">
-            <v>10107</v>
-          </cell>
-          <cell r="C217">
-            <v>1</v>
+            <v>10109</v>
+          </cell>
+          <cell r="C217" t="str">
+            <v>2级魂石·防御</v>
           </cell>
           <cell r="D217" t="str">
-            <v>2级魂石·生命值</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="218">
           <cell r="B218">
-            <v>10108</v>
-          </cell>
-          <cell r="C218">
-            <v>1</v>
+            <v>10110</v>
+          </cell>
+          <cell r="C218" t="str">
+            <v>2级魂石·元素抗性</v>
           </cell>
           <cell r="D218" t="str">
-            <v>2级魂石·攻击速度</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="219">
           <cell r="B219">
-            <v>10109</v>
-          </cell>
-          <cell r="C219">
-            <v>1</v>
+            <v>10111</v>
+          </cell>
+          <cell r="C219" t="str">
+            <v>2级魂石·暴击抵抗</v>
           </cell>
           <cell r="D219" t="str">
-            <v>2级魂石·防御</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="220">
           <cell r="B220">
-            <v>10110</v>
-          </cell>
-          <cell r="C220">
-            <v>1</v>
+            <v>10112</v>
+          </cell>
+          <cell r="C220" t="str">
+            <v>2级魂石·爆伤抵抗</v>
           </cell>
           <cell r="D220" t="str">
-            <v>2级魂石·元素抗性</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="221">
           <cell r="B221">
-            <v>10111</v>
-          </cell>
-          <cell r="C221">
-            <v>1</v>
+            <v>10113</v>
+          </cell>
+          <cell r="C221" t="str">
+            <v>2级魂石·生命回复</v>
           </cell>
           <cell r="D221" t="str">
-            <v>2级魂石·暴击抵抗</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="222">
           <cell r="B222">
-            <v>10112</v>
-          </cell>
-          <cell r="C222">
-            <v>1</v>
+            <v>10114</v>
+          </cell>
+          <cell r="C222" t="str">
+            <v>2级魂石·固定伤害减免</v>
           </cell>
           <cell r="D222" t="str">
-            <v>2级魂石·爆伤抵抗</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="223">
           <cell r="B223">
-            <v>10113</v>
-          </cell>
-          <cell r="C223">
-            <v>1</v>
+            <v>10115</v>
+          </cell>
+          <cell r="C223" t="str">
+            <v>2级魂石·技能急速</v>
           </cell>
           <cell r="D223" t="str">
-            <v>2级魂石·生命回复</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="224">
           <cell r="B224">
-            <v>10114</v>
-          </cell>
-          <cell r="C224">
-            <v>1</v>
+            <v>10116</v>
+          </cell>
+          <cell r="C224" t="str">
+            <v>2级魂石·全元素抗性</v>
           </cell>
           <cell r="D224" t="str">
-            <v>2级魂石·固定伤害减免</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="225">
           <cell r="B225">
-            <v>10115</v>
-          </cell>
-          <cell r="C225">
-            <v>1</v>
+            <v>10117</v>
+          </cell>
+          <cell r="C225" t="str">
+            <v>2级魂石·移动速度</v>
           </cell>
           <cell r="D225" t="str">
-            <v>2级魂石·技能急速</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="226">
           <cell r="B226">
-            <v>10117</v>
-          </cell>
-          <cell r="C226">
-            <v>1</v>
+            <v>10118</v>
+          </cell>
+          <cell r="C226" t="str">
+            <v>2级魂石·闪避率</v>
           </cell>
           <cell r="D226" t="str">
-            <v>2级魂石·移动速度</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="227">
           <cell r="B227">
-            <v>10118</v>
-          </cell>
-          <cell r="C227">
-            <v>1</v>
+            <v>10201</v>
+          </cell>
+          <cell r="C227" t="str">
+            <v>3级魂石·攻击力</v>
           </cell>
           <cell r="D227" t="str">
-            <v>2级魂石·闪避率</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="228">
           <cell r="B228">
-            <v>10201</v>
-          </cell>
-          <cell r="C228">
-            <v>1</v>
+            <v>10202</v>
+          </cell>
+          <cell r="C228" t="str">
+            <v>3级魂石·固定伤害</v>
           </cell>
           <cell r="D228" t="str">
-            <v>3级魂石·攻击力</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="229">
           <cell r="B229">
-            <v>10202</v>
-          </cell>
-          <cell r="C229">
-            <v>1</v>
+            <v>10203</v>
+          </cell>
+          <cell r="C229" t="str">
+            <v>3级魂石·全元素伤害</v>
           </cell>
           <cell r="D229" t="str">
-            <v>3级魂石·固定伤害</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="230">
           <cell r="B230">
-            <v>10203</v>
-          </cell>
-          <cell r="C230">
-            <v>1</v>
+            <v>10204</v>
+          </cell>
+          <cell r="C230" t="str">
+            <v>3级魂石·暴击概率</v>
           </cell>
           <cell r="D230" t="str">
-            <v>3级魂石·全元素伤害</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="231">
           <cell r="B231">
-            <v>10204</v>
-          </cell>
-          <cell r="C231">
-            <v>1</v>
+            <v>10205</v>
+          </cell>
+          <cell r="C231" t="str">
+            <v>3级魂石·暴击伤害</v>
           </cell>
           <cell r="D231" t="str">
-            <v>3级魂石·暴击概率</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="232">
           <cell r="B232">
-            <v>10205</v>
-          </cell>
-          <cell r="C232">
-            <v>1</v>
+            <v>10206</v>
+          </cell>
+          <cell r="C232" t="str">
+            <v>3级魂石·元素穿透</v>
           </cell>
           <cell r="D232" t="str">
-            <v>3级魂石·暴击伤害</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="233">
           <cell r="B233">
-            <v>10206</v>
-          </cell>
-          <cell r="C233">
-            <v>1</v>
+            <v>10207</v>
+          </cell>
+          <cell r="C233" t="str">
+            <v>3级魂石·生命值</v>
           </cell>
           <cell r="D233" t="str">
-            <v>3级魂石·元素穿透</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="234">
           <cell r="B234">
-            <v>10207</v>
-          </cell>
-          <cell r="C234">
-            <v>1</v>
+            <v>10208</v>
+          </cell>
+          <cell r="C234" t="str">
+            <v>3级魂石·攻击速度</v>
           </cell>
           <cell r="D234" t="str">
-            <v>3级魂石·生命值</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="235">
           <cell r="B235">
-            <v>10208</v>
-          </cell>
-          <cell r="C235">
-            <v>1</v>
+            <v>10209</v>
+          </cell>
+          <cell r="C235" t="str">
+            <v>3级魂石·防御</v>
           </cell>
           <cell r="D235" t="str">
-            <v>3级魂石·攻击速度</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="236">
           <cell r="B236">
-            <v>10209</v>
-          </cell>
-          <cell r="C236">
-            <v>1</v>
+            <v>10210</v>
+          </cell>
+          <cell r="C236" t="str">
+            <v>3级魂石·元素抗性</v>
           </cell>
           <cell r="D236" t="str">
-            <v>3级魂石·防御</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="237">
           <cell r="B237">
-            <v>10210</v>
-          </cell>
-          <cell r="C237">
-            <v>1</v>
+            <v>10211</v>
+          </cell>
+          <cell r="C237" t="str">
+            <v>3级魂石·暴击抵抗</v>
           </cell>
           <cell r="D237" t="str">
-            <v>3级魂石·元素抗性</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="238">
           <cell r="B238">
-            <v>10211</v>
-          </cell>
-          <cell r="C238">
-            <v>1</v>
+            <v>10212</v>
+          </cell>
+          <cell r="C238" t="str">
+            <v>3级魂石·爆伤抵抗</v>
           </cell>
           <cell r="D238" t="str">
-            <v>3级魂石·暴击抵抗</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="239">
           <cell r="B239">
-            <v>10212</v>
-          </cell>
-          <cell r="C239">
-            <v>1</v>
+            <v>10213</v>
+          </cell>
+          <cell r="C239" t="str">
+            <v>3级魂石·生命回复</v>
           </cell>
           <cell r="D239" t="str">
-            <v>3级魂石·爆伤抵抗</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="240">
           <cell r="B240">
-            <v>10213</v>
-          </cell>
-          <cell r="C240">
-            <v>1</v>
+            <v>10214</v>
+          </cell>
+          <cell r="C240" t="str">
+            <v>3级魂石·固定伤害减免</v>
           </cell>
           <cell r="D240" t="str">
-            <v>3级魂石·生命回复</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="241">
           <cell r="B241">
-            <v>10214</v>
-          </cell>
-          <cell r="C241">
-            <v>1</v>
+            <v>10215</v>
+          </cell>
+          <cell r="C241" t="str">
+            <v>3级魂石·技能急速</v>
           </cell>
           <cell r="D241" t="str">
-            <v>3级魂石·固定伤害减免</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="242">
           <cell r="B242">
-            <v>10215</v>
-          </cell>
-          <cell r="C242">
-            <v>1</v>
+            <v>10216</v>
+          </cell>
+          <cell r="C242" t="str">
+            <v>3级魂石·全元素抗性</v>
           </cell>
           <cell r="D242" t="str">
-            <v>3级魂石·技能急速</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="243">
           <cell r="B243">
             <v>10217</v>
           </cell>
-          <cell r="C243">
-            <v>1</v>
+          <cell r="C243" t="str">
+            <v>3级魂石·移动速度</v>
           </cell>
           <cell r="D243" t="str">
-            <v>3级魂石·移动速度</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="244">
           <cell r="B244">
             <v>10218</v>
           </cell>
-          <cell r="C244">
-            <v>1</v>
+          <cell r="C244" t="str">
+            <v>3级魂石·闪避率</v>
           </cell>
           <cell r="D244" t="str">
-            <v>3级魂石·闪避率</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="245">
           <cell r="B245">
             <v>10301</v>
           </cell>
-          <cell r="C245">
-            <v>1</v>
+          <cell r="C245" t="str">
+            <v>4级魂石·攻击力</v>
           </cell>
           <cell r="D245" t="str">
-            <v>4级魂石·攻击力</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="246">
           <cell r="B246">
             <v>10302</v>
           </cell>
-          <cell r="C246">
-            <v>1</v>
+          <cell r="C246" t="str">
+            <v>4级魂石·固定伤害</v>
           </cell>
           <cell r="D246" t="str">
-            <v>4级魂石·固定伤害</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="247">
           <cell r="B247">
             <v>10303</v>
           </cell>
-          <cell r="C247">
-            <v>1</v>
+          <cell r="C247" t="str">
+            <v>4级魂石·全元素伤害</v>
           </cell>
           <cell r="D247" t="str">
-            <v>4级魂石·全元素伤害</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="248">
           <cell r="B248">
             <v>10304</v>
           </cell>
-          <cell r="C248">
-            <v>1</v>
+          <cell r="C248" t="str">
+            <v>4级魂石·暴击概率</v>
           </cell>
           <cell r="D248" t="str">
-            <v>4级魂石·暴击概率</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="249">
           <cell r="B249">
             <v>10305</v>
           </cell>
-          <cell r="C249">
-            <v>1</v>
+          <cell r="C249" t="str">
+            <v>4级魂石·暴击伤害</v>
           </cell>
           <cell r="D249" t="str">
-            <v>4级魂石·暴击伤害</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="250">
           <cell r="B250">
             <v>10306</v>
           </cell>
-          <cell r="C250">
-            <v>1</v>
+          <cell r="C250" t="str">
+            <v>4级魂石·元素穿透</v>
           </cell>
           <cell r="D250" t="str">
-            <v>4级魂石·元素穿透</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="251">
           <cell r="B251">
             <v>10307</v>
           </cell>
-          <cell r="C251">
-            <v>1</v>
+          <cell r="C251" t="str">
+            <v>4级魂石·生命值</v>
           </cell>
           <cell r="D251" t="str">
-            <v>4级魂石·生命值</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="252">
           <cell r="B252">
             <v>10308</v>
           </cell>
-          <cell r="C252">
-            <v>1</v>
+          <cell r="C252" t="str">
+            <v>4级魂石·攻击速度</v>
           </cell>
           <cell r="D252" t="str">
-            <v>4级魂石·攻击速度</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="253">
           <cell r="B253">
             <v>10309</v>
           </cell>
-          <cell r="C253">
-            <v>1</v>
+          <cell r="C253" t="str">
+            <v>4级魂石·防御</v>
           </cell>
           <cell r="D253" t="str">
-            <v>4级魂石·防御</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="254">
           <cell r="B254">
             <v>10310</v>
           </cell>
-          <cell r="C254">
-            <v>1</v>
+          <cell r="C254" t="str">
+            <v>4级魂石·元素抗性</v>
           </cell>
           <cell r="D254" t="str">
-            <v>4级魂石·元素抗性</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="255">
           <cell r="B255">
             <v>10311</v>
           </cell>
-          <cell r="C255">
-            <v>1</v>
+          <cell r="C255" t="str">
+            <v>4级魂石·暴击抵抗</v>
           </cell>
           <cell r="D255" t="str">
-            <v>4级魂石·暴击抵抗</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="256">
           <cell r="B256">
             <v>10312</v>
           </cell>
-          <cell r="C256">
-            <v>1</v>
+          <cell r="C256" t="str">
+            <v>4级魂石·爆伤抵抗</v>
           </cell>
           <cell r="D256" t="str">
-            <v>4级魂石·爆伤抵抗</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="257">
           <cell r="B257">
             <v>10313</v>
           </cell>
-          <cell r="C257">
-            <v>1</v>
+          <cell r="C257" t="str">
+            <v>4级魂石·生命回复</v>
           </cell>
           <cell r="D257" t="str">
-            <v>4级魂石·生命回复</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="258">
           <cell r="B258">
             <v>10314</v>
           </cell>
-          <cell r="C258">
-            <v>1</v>
+          <cell r="C258" t="str">
+            <v>4级魂石·固定伤害减免</v>
           </cell>
           <cell r="D258" t="str">
-            <v>4级魂石·固定伤害减免</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="259">
           <cell r="B259">
             <v>10315</v>
           </cell>
-          <cell r="C259">
-            <v>1</v>
+          <cell r="C259" t="str">
+            <v>4级魂石·技能急速</v>
           </cell>
           <cell r="D259" t="str">
-            <v>4级魂石·技能急速</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="260">
           <cell r="B260">
-            <v>10317</v>
-          </cell>
-          <cell r="C260">
-            <v>1</v>
+            <v>10316</v>
+          </cell>
+          <cell r="C260" t="str">
+            <v>4级魂石·全元素抗性</v>
           </cell>
           <cell r="D260" t="str">
-            <v>4级魂石·移动速度</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="261">
           <cell r="B261">
-            <v>10318</v>
-          </cell>
-          <cell r="C261">
-            <v>1</v>
+            <v>10317</v>
+          </cell>
+          <cell r="C261" t="str">
+            <v>4级魂石·移动速度</v>
           </cell>
           <cell r="D261" t="str">
-            <v>4级魂石·闪避率</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="262">
           <cell r="B262">
-            <v>20000</v>
-          </cell>
-          <cell r="C262">
-            <v>1</v>
+            <v>10318</v>
+          </cell>
+          <cell r="C262" t="str">
+            <v>4级魂石·闪避率</v>
           </cell>
           <cell r="D262" t="str">
-            <v>月卡</v>
+            <v>魂石</v>
           </cell>
         </row>
         <row r="263">
           <cell r="B263">
-            <v>20001</v>
-          </cell>
-          <cell r="C263">
-            <v>1</v>
-          </cell>
-          <cell r="D263" t="str">
-            <v>终身特权</v>
+            <v>20000</v>
+          </cell>
+          <cell r="C263" t="str">
+            <v>月卡</v>
           </cell>
         </row>
         <row r="264">
           <cell r="B264">
-            <v>20003</v>
-          </cell>
-          <cell r="C264">
-            <v>1</v>
+            <v>20001</v>
+          </cell>
+          <cell r="C264" t="str">
+            <v>终身特权</v>
           </cell>
           <cell r="D264" t="str">
-            <v>天辉信物</v>
+            <v>特权</v>
           </cell>
         </row>
         <row r="265">
           <cell r="B265">
-            <v>20004</v>
-          </cell>
-          <cell r="C265">
-            <v>1</v>
+            <v>20002</v>
+          </cell>
+          <cell r="C265" t="str">
+            <v>元素祈福</v>
           </cell>
           <cell r="D265" t="str">
-            <v>夜魇信物</v>
+            <v>特权</v>
           </cell>
         </row>
         <row r="266">
           <cell r="B266">
-            <v>20005</v>
-          </cell>
-          <cell r="C266">
-            <v>1</v>
+            <v>20003</v>
+          </cell>
+          <cell r="C266" t="str">
+            <v>天辉信物</v>
           </cell>
           <cell r="D266" t="str">
-            <v>灵魂战刃</v>
+            <v>特权</v>
           </cell>
         </row>
         <row r="267">
           <cell r="B267">
-            <v>20006</v>
-          </cell>
-          <cell r="C267">
-            <v>1</v>
+            <v>20004</v>
+          </cell>
+          <cell r="C267" t="str">
+            <v>夜魇信物</v>
           </cell>
           <cell r="D267" t="str">
-            <v>老者的指引·上</v>
+            <v>特权</v>
           </cell>
         </row>
         <row r="268">
           <cell r="B268">
-            <v>20007</v>
-          </cell>
-          <cell r="C268">
-            <v>1</v>
+            <v>20005</v>
+          </cell>
+          <cell r="C268" t="str">
+            <v>灵魂战刃</v>
           </cell>
           <cell r="D268" t="str">
-            <v>老者的指引·中</v>
+            <v>特权</v>
           </cell>
         </row>
         <row r="269">
           <cell r="B269">
-            <v>20008</v>
-          </cell>
-        </row>
-        <row r="269">
+            <v>20006</v>
+          </cell>
+          <cell r="C269" t="str">
+            <v>老者的指引</v>
+          </cell>
           <cell r="D269" t="str">
-            <v>老者的指引·下</v>
+            <v>特权</v>
           </cell>
         </row>
         <row r="270">
           <cell r="B270">
-            <v>20009</v>
-          </cell>
-        </row>
-        <row r="270">
+            <v>20007</v>
+          </cell>
+          <cell r="C270" t="str">
+            <v>图鉴大师</v>
+          </cell>
           <cell r="D270" t="str">
-            <v>图鉴大师</v>
+            <v>特权</v>
           </cell>
         </row>
         <row r="271">
           <cell r="B271">
-            <v>20010</v>
-          </cell>
-        </row>
-        <row r="271">
+            <v>20008</v>
+          </cell>
+          <cell r="C271" t="str">
+            <v>不留遗憾之矢</v>
+          </cell>
           <cell r="D271" t="str">
-            <v>不留遗憾之矢·上</v>
+            <v>特权</v>
           </cell>
         </row>
         <row r="272">
           <cell r="B272">
-            <v>20011</v>
-          </cell>
-        </row>
-        <row r="272">
+            <v>20009</v>
+          </cell>
+          <cell r="C272" t="str">
+            <v>命运的骰子</v>
+          </cell>
           <cell r="D272" t="str">
-            <v>不留遗憾之矢·中</v>
+            <v>特权</v>
           </cell>
         </row>
         <row r="273">
           <cell r="B273">
-            <v>20012</v>
-          </cell>
-        </row>
-        <row r="273">
+            <v>20010</v>
+          </cell>
+          <cell r="C273" t="str">
+            <v>元素之地的救赎</v>
+          </cell>
           <cell r="D273" t="str">
-            <v>不留遗憾之矢·下</v>
+            <v>特权</v>
           </cell>
         </row>
         <row r="274">
           <cell r="B274">
-            <v>20013</v>
-          </cell>
-        </row>
-        <row r="274">
+            <v>20101</v>
+          </cell>
+          <cell r="C274" t="str">
+            <v>终结者</v>
+          </cell>
           <cell r="D274" t="str">
-            <v>命运的骰子</v>
+            <v>称号</v>
           </cell>
         </row>
         <row r="275">
           <cell r="B275">
-            <v>20014</v>
-          </cell>
-        </row>
-        <row r="275">
+            <v>20102</v>
+          </cell>
+          <cell r="C275" t="str">
+            <v>领袖</v>
+          </cell>
           <cell r="D275" t="str">
-            <v>元素之地的救赎</v>
+            <v>称号</v>
           </cell>
         </row>
         <row r="276">
           <cell r="B276">
-            <v>20015</v>
-          </cell>
-        </row>
-        <row r="276">
+            <v>20103</v>
+          </cell>
+          <cell r="C276" t="str">
+            <v>圣坛使者</v>
+          </cell>
           <cell r="D276" t="str">
-            <v>超越极限·上</v>
+            <v>称号</v>
           </cell>
         </row>
         <row r="277">
           <cell r="B277">
-            <v>20016</v>
-          </cell>
-        </row>
-        <row r="277">
+            <v>20104</v>
+          </cell>
+          <cell r="C277" t="str">
+            <v>元素大陆征服者</v>
+          </cell>
           <cell r="D277" t="str">
-            <v>超越极限·中</v>
+            <v>称号</v>
           </cell>
         </row>
         <row r="278">
           <cell r="B278">
-            <v>20017</v>
-          </cell>
-        </row>
-        <row r="278">
+            <v>20105</v>
+          </cell>
+          <cell r="C278" t="str">
+            <v>图鉴领悟者</v>
+          </cell>
           <cell r="D278" t="str">
-            <v>超越极限·下</v>
+            <v>称号</v>
           </cell>
         </row>
         <row r="279">
           <cell r="B279">
-            <v>20018</v>
-          </cell>
-        </row>
-        <row r="279">
+            <v>20106</v>
+          </cell>
+          <cell r="C279" t="str">
+            <v>忠实粉丝</v>
+          </cell>
           <cell r="D279" t="str">
-            <v>消费大师·上</v>
+            <v>称号</v>
           </cell>
         </row>
         <row r="280">
           <cell r="B280">
-            <v>20019</v>
-          </cell>
-        </row>
-        <row r="280">
+            <v>20107</v>
+          </cell>
+          <cell r="C280" t="str">
+            <v>魂石掌控者</v>
+          </cell>
           <cell r="D280" t="str">
-            <v>消费大师·中</v>
+            <v>称号</v>
           </cell>
         </row>
         <row r="281">
           <cell r="B281">
-            <v>20020</v>
-          </cell>
-        </row>
-        <row r="281">
+            <v>20108</v>
+          </cell>
+          <cell r="C281" t="str">
+            <v>风神</v>
+          </cell>
           <cell r="D281" t="str">
-            <v>消费大师·下</v>
+            <v>称号</v>
           </cell>
         </row>
         <row r="282">
           <cell r="B282">
-            <v>20021</v>
-          </cell>
-        </row>
-        <row r="282">
+            <v>20109</v>
+          </cell>
+          <cell r="C282" t="str">
+            <v>炼狱之王</v>
+          </cell>
           <cell r="D282" t="str">
-            <v>符文大师·上</v>
+            <v>称号</v>
           </cell>
         </row>
         <row r="283">
           <cell r="B283">
-            <v>20022</v>
-          </cell>
-        </row>
-        <row r="283">
+            <v>20110</v>
+          </cell>
+          <cell r="C283" t="str">
+            <v>冰宫之主</v>
+          </cell>
           <cell r="D283" t="str">
-            <v>符文大师·中</v>
+            <v>称号</v>
           </cell>
         </row>
         <row r="284">
           <cell r="B284">
-            <v>20023</v>
-          </cell>
-        </row>
-        <row r="284">
+            <v>20111</v>
+          </cell>
+          <cell r="C284" t="str">
+            <v>雷神</v>
+          </cell>
           <cell r="D284" t="str">
-            <v>符文大师·下</v>
+            <v>称号</v>
           </cell>
         </row>
         <row r="285">
           <cell r="B285">
-            <v>20101</v>
-          </cell>
-          <cell r="C285">
-            <v>1</v>
+            <v>20201</v>
+          </cell>
+          <cell r="C285" t="str">
+            <v>元素大陆征服者（成长礼）</v>
           </cell>
           <cell r="D285" t="str">
-            <v>终结者</v>
+            <v>进阶成长礼</v>
           </cell>
         </row>
         <row r="286">
           <cell r="B286">
-            <v>20102</v>
-          </cell>
-          <cell r="C286">
-            <v>1</v>
+            <v>20202</v>
+          </cell>
+          <cell r="C286" t="str">
+            <v>元素大陆首通点</v>
           </cell>
           <cell r="D286" t="str">
-            <v>领袖</v>
+            <v>元素大陆成长礼的首通点</v>
           </cell>
         </row>
         <row r="287">
           <cell r="B287">
-            <v>20103</v>
-          </cell>
-          <cell r="C287">
-            <v>1</v>
+            <v>20203</v>
+          </cell>
+          <cell r="C287" t="str">
+            <v>熔火炼狱征服者（成长礼）</v>
           </cell>
           <cell r="D287" t="str">
-            <v>圣坛使者</v>
+            <v>进阶成长礼</v>
           </cell>
         </row>
         <row r="288">
           <cell r="B288">
-            <v>20104</v>
-          </cell>
-          <cell r="C288">
-            <v>1</v>
+            <v>20204</v>
+          </cell>
+          <cell r="C288" t="str">
+            <v>熔火炼狱首通点</v>
           </cell>
           <cell r="D288" t="str">
-            <v>元素大陆征服者</v>
+            <v>熔火炼狱成长礼的首通点</v>
           </cell>
         </row>
         <row r="289">
           <cell r="B289">
-            <v>20105</v>
-          </cell>
-          <cell r="C289">
-            <v>1</v>
+            <v>20205</v>
+          </cell>
+          <cell r="C289" t="str">
+            <v>极北之地征服者（成长礼）</v>
           </cell>
           <cell r="D289" t="str">
-            <v>图鉴领悟者</v>
+            <v>进阶成长礼</v>
           </cell>
         </row>
         <row r="290">
           <cell r="B290">
-            <v>20106</v>
-          </cell>
-          <cell r="C290">
-            <v>1</v>
+            <v>20206</v>
+          </cell>
+          <cell r="C290" t="str">
+            <v>极北之地首通点</v>
           </cell>
           <cell r="D290" t="str">
-            <v>忠实粉丝</v>
+            <v>极北之地成长礼的首通点</v>
           </cell>
         </row>
         <row r="291">
           <cell r="B291">
-            <v>20107</v>
-          </cell>
-          <cell r="C291">
-            <v>1</v>
+            <v>20207</v>
+          </cell>
+          <cell r="C291" t="str">
+            <v>雷霆之地征服者（成长礼）</v>
           </cell>
           <cell r="D291" t="str">
-            <v>魂石掌控者</v>
+            <v>进阶成长礼</v>
           </cell>
         </row>
         <row r="292">
           <cell r="B292">
-            <v>20108</v>
-          </cell>
-          <cell r="C292">
-            <v>1</v>
+            <v>20208</v>
+          </cell>
+          <cell r="C292" t="str">
+            <v>雷霆之地首通点</v>
           </cell>
           <cell r="D292" t="str">
-            <v>风神</v>
+            <v>雷霆之地成长礼的首通点</v>
           </cell>
         </row>
         <row r="293">
           <cell r="B293">
-            <v>20109</v>
-          </cell>
-          <cell r="C293">
-            <v>1</v>
+            <v>20209</v>
+          </cell>
+          <cell r="C293" t="str">
+            <v>狂风沙漠征服者（成长礼）</v>
           </cell>
           <cell r="D293" t="str">
-            <v>炼狱之王</v>
+            <v>进阶成长礼</v>
           </cell>
         </row>
         <row r="294">
           <cell r="B294">
-            <v>20110</v>
-          </cell>
-          <cell r="C294">
-            <v>1</v>
+            <v>20210</v>
+          </cell>
+          <cell r="C294" t="str">
+            <v>狂风沙漠首通点</v>
           </cell>
           <cell r="D294" t="str">
-            <v>冰宫之主</v>
+            <v>狂风沙漠成长礼的首通点</v>
           </cell>
         </row>
         <row r="295">
           <cell r="B295">
-            <v>20111</v>
-          </cell>
-          <cell r="C295">
-            <v>1</v>
+            <v>21001</v>
+          </cell>
+          <cell r="C295" t="str">
+            <v>急速元素</v>
           </cell>
           <cell r="D295" t="str">
-            <v>雷神</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="296">
           <cell r="B296">
-            <v>20201</v>
-          </cell>
-          <cell r="C296">
-            <v>1</v>
+            <v>21002</v>
+          </cell>
+          <cell r="C296" t="str">
+            <v>攻击元素</v>
           </cell>
           <cell r="D296" t="str">
-            <v>元素大陆征服者（成长礼）</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="297">
           <cell r="B297">
-            <v>20202</v>
-          </cell>
-          <cell r="C297">
-            <v>1</v>
+            <v>21003</v>
+          </cell>
+          <cell r="C297" t="str">
+            <v>火元素</v>
           </cell>
           <cell r="D297" t="str">
-            <v>元素大陆首通点</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="298">
           <cell r="B298">
-            <v>20203</v>
-          </cell>
-          <cell r="C298">
-            <v>1</v>
+            <v>21004</v>
+          </cell>
+          <cell r="C298" t="str">
+            <v>冰元素</v>
           </cell>
           <cell r="D298" t="str">
-            <v>熔火炼狱征服者（成长礼）</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="299">
           <cell r="B299">
-            <v>20204</v>
-          </cell>
-          <cell r="C299">
-            <v>1</v>
+            <v>21005</v>
+          </cell>
+          <cell r="C299" t="str">
+            <v>雷元素</v>
           </cell>
           <cell r="D299" t="str">
-            <v>熔火炼狱首通点</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="300">
           <cell r="B300">
-            <v>20205</v>
-          </cell>
-          <cell r="C300">
-            <v>1</v>
+            <v>21006</v>
+          </cell>
+          <cell r="C300" t="str">
+            <v>风元素</v>
           </cell>
           <cell r="D300" t="str">
-            <v>极北之地征服者（成长礼）</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="301">
           <cell r="B301">
-            <v>20206</v>
-          </cell>
-          <cell r="C301">
-            <v>1</v>
+            <v>21007</v>
+          </cell>
+          <cell r="C301" t="str">
+            <v>攻速元素</v>
           </cell>
           <cell r="D301" t="str">
-            <v>极北之地首通点</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="302">
           <cell r="B302">
-            <v>20207</v>
-          </cell>
-          <cell r="C302">
-            <v>1</v>
+            <v>21008</v>
+          </cell>
+          <cell r="C302" t="str">
+            <v>暴击元素</v>
           </cell>
           <cell r="D302" t="str">
-            <v>雷霆之地征服者（成长礼）</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="303">
           <cell r="B303">
-            <v>20208</v>
-          </cell>
-          <cell r="C303">
-            <v>1</v>
+            <v>21009</v>
+          </cell>
+          <cell r="C303" t="str">
+            <v>爆伤元素</v>
           </cell>
           <cell r="D303" t="str">
-            <v>雷霆之地首通点</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="304">
           <cell r="B304">
-            <v>20209</v>
-          </cell>
-          <cell r="C304">
-            <v>1</v>
+            <v>21010</v>
+          </cell>
+          <cell r="C304" t="str">
+            <v>生命元素</v>
           </cell>
           <cell r="D304" t="str">
-            <v>狂风沙漠征服者（成长礼）</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="305">
           <cell r="B305">
-            <v>20210</v>
-          </cell>
-          <cell r="C305">
-            <v>1</v>
+            <v>21011</v>
+          </cell>
+          <cell r="C305" t="str">
+            <v>蓝量元素</v>
           </cell>
           <cell r="D305" t="str">
-            <v>狂风沙漠首通点</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="306">
           <cell r="B306">
-            <v>20211</v>
-          </cell>
-          <cell r="C306">
-            <v>1</v>
+            <v>21012</v>
+          </cell>
+          <cell r="C306" t="str">
+            <v>移速元素</v>
           </cell>
           <cell r="D306" t="str">
-            <v>游戏成长礼</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="307">
           <cell r="B307">
-            <v>100001</v>
-          </cell>
-          <cell r="C307">
-            <v>1</v>
+            <v>21013</v>
+          </cell>
+          <cell r="C307" t="str">
+            <v>伤害元素</v>
           </cell>
           <cell r="D307" t="str">
-            <v>怪物图鉴卡</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="308">
           <cell r="B308">
-            <v>40000</v>
-          </cell>
-          <cell r="C308">
-            <v>1</v>
+            <v>21014</v>
+          </cell>
+          <cell r="C308" t="str">
+            <v>固伤元素</v>
           </cell>
           <cell r="D308" t="str">
-            <v>祈福礼包</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="309">
           <cell r="B309">
-            <v>40001</v>
-          </cell>
-          <cell r="C309">
-            <v>1</v>
+            <v>21015</v>
+          </cell>
+          <cell r="C309" t="str">
+            <v>固免元素</v>
           </cell>
           <cell r="D309" t="str">
-            <v>图鉴箱礼包·小</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="310">
           <cell r="B310">
-            <v>40002</v>
-          </cell>
-          <cell r="C310">
-            <v>1</v>
+            <v>21016</v>
+          </cell>
+          <cell r="C310" t="str">
+            <v>暴击抵抗元素</v>
           </cell>
           <cell r="D310" t="str">
-            <v>图鉴箱礼包·中</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="311">
           <cell r="B311">
-            <v>40003</v>
-          </cell>
-          <cell r="C311">
-            <v>1</v>
+            <v>21017</v>
+          </cell>
+          <cell r="C311" t="str">
+            <v>爆伤抵抗元素</v>
           </cell>
           <cell r="D311" t="str">
-            <v>图鉴礼包箱·大</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="312">
           <cell r="B312">
-            <v>40004</v>
-          </cell>
-          <cell r="C312">
-            <v>1</v>
+            <v>21018</v>
+          </cell>
+          <cell r="C312" t="str">
+            <v>元素抗性</v>
           </cell>
           <cell r="D312" t="str">
-            <v>每日祈福礼包</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="313">
           <cell r="B313">
-            <v>40005</v>
-          </cell>
-          <cell r="C313">
-            <v>1</v>
+            <v>21019</v>
+          </cell>
+          <cell r="C313" t="str">
+            <v>护甲元素</v>
           </cell>
           <cell r="D313" t="str">
-            <v>每日魂石礼包</v>
+            <v>元素供养属性道具</v>
           </cell>
         </row>
         <row r="314">
           <cell r="B314">
-            <v>40006</v>
-          </cell>
-          <cell r="C314">
-            <v>1</v>
+            <v>100001</v>
+          </cell>
+          <cell r="C314" t="str">
+            <v>怪物图鉴卡</v>
           </cell>
           <cell r="D314" t="str">
-            <v>每日登录礼包</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="B315">
-            <v>40007</v>
-          </cell>
-          <cell r="C315">
-            <v>1</v>
-          </cell>
-          <cell r="D315" t="str">
-            <v>每日月卡礼包</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="B316">
-            <v>40008</v>
-          </cell>
-          <cell r="C316">
-            <v>1</v>
-          </cell>
-          <cell r="D316" t="str">
-            <v>每日终身卡礼包</v>
+            <v>击杀怪物有概率获得该怪物的图鉴卡</v>
           </cell>
         </row>
       </sheetData>
@@ -5233,12 +4809,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L70" sqref="L70"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5265,7 +4841,7 @@
     <col min="22" max="22" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:22">
+    <row r="1" ht="47" customHeight="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5438,8 +5014,8 @@
         <v>1003</v>
       </c>
       <c r="D5" s="16" t="str">
-        <f>VLOOKUP(C5,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E5</f>
-        <v>金币*500</v>
+        <f>VLOOKUP(C5,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E5</f>
+        <v>银币*500</v>
       </c>
       <c r="E5" s="11">
         <v>500</v>
@@ -5455,15 +5031,15 @@
       </c>
       <c r="I5" s="26">
         <f>SUMIFS(H:H,G:G,G5)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J5" s="11" t="str">
         <f>"占总概率为"&amp;ROUND((H5/I5*100),6)&amp;"%"</f>
-        <v>占总概率为12.275189%</v>
+        <v>占总概率为15.944604%</v>
       </c>
       <c r="K5" s="27" t="str">
         <f>"配置【"&amp;VLOOKUP(F5,L:M,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F5,G:G,G5)/I5*100),6)&amp;"%"</f>
-        <v>配置【R】比重17.140372%</v>
+        <v>配置【C】比重15.944604%</v>
       </c>
       <c r="L5" s="28">
         <v>1</v>
@@ -5490,8 +5066,8 @@
         <v>1003</v>
       </c>
       <c r="D6" s="16" t="str">
-        <f>VLOOKUP(C6,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E6</f>
-        <v>金币*1000</v>
+        <f>VLOOKUP(C6,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E6</f>
+        <v>银币*1000</v>
       </c>
       <c r="E6" s="11">
         <v>1000</v>
@@ -5507,15 +5083,15 @@
       </c>
       <c r="I6" s="26">
         <f t="shared" ref="I6:I14" si="0">SUMIFS(H:H,G:G,G6)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J6" s="11" t="str">
-        <f t="shared" ref="J6:J30" si="1">"占总概率为"&amp;ROUND((H6/I6*100),6)&amp;"%"</f>
-        <v>占总概率为10.52159%</v>
+        <f t="shared" ref="J6:J34" si="1">"占总概率为"&amp;ROUND((H6/I6*100),6)&amp;"%"</f>
+        <v>占总概率为13.666803%</v>
       </c>
       <c r="K6" s="27" t="str">
         <f t="shared" ref="K6:K30" si="2">"配置【"&amp;VLOOKUP(F6,L:M,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F6,G:G,G6)/I6*100),6)&amp;"%"</f>
-        <v>配置【SR】比重13.723661%</v>
+        <v>配置【B】比重15.033484%</v>
       </c>
       <c r="L6" s="28">
         <v>2</v>
@@ -5542,8 +5118,8 @@
         <v>1003</v>
       </c>
       <c r="D7" s="16" t="str">
-        <f>VLOOKUP(C7,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E7</f>
-        <v>金币*5000</v>
+        <f>VLOOKUP(C7,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E7</f>
+        <v>银币*5000</v>
       </c>
       <c r="E7" s="11">
         <v>5000</v>
@@ -5559,15 +5135,15 @@
       </c>
       <c r="I7" s="26">
         <f t="shared" si="0"/>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J7" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为7.014394%</v>
+        <v>占总概率为9.111202%</v>
       </c>
       <c r="K7" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重41.431918%</v>
+        <v>配置【A】比重51.022732%</v>
       </c>
       <c r="L7" s="28">
         <v>3</v>
@@ -5594,8 +5170,8 @@
         <v>1003</v>
       </c>
       <c r="D8" s="16" t="str">
-        <f>VLOOKUP(C8,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E8</f>
-        <v>金币*15000</v>
+        <f>VLOOKUP(C8,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E8</f>
+        <v>银币*15000</v>
       </c>
       <c r="E8" s="11">
         <v>15000</v>
@@ -5611,15 +5187,15 @@
       </c>
       <c r="I8" s="26">
         <f t="shared" si="0"/>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J8" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为3.507197%</v>
+        <v>占总概率为4.555601%</v>
       </c>
       <c r="K8" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【UR】比重15.521099%</v>
+        <v>配置【S】比重10.477883%</v>
       </c>
       <c r="L8" s="28">
         <v>4</v>
@@ -5646,8 +5222,8 @@
         <v>1003</v>
       </c>
       <c r="D9" s="16" t="str">
-        <f>VLOOKUP(C9,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E9</f>
-        <v>金币*66666</v>
+        <f>VLOOKUP(C9,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E9</f>
+        <v>银币*66666</v>
       </c>
       <c r="E9" s="11">
         <v>66666</v>
@@ -5663,15 +5239,15 @@
       </c>
       <c r="I9" s="26">
         <f t="shared" si="0"/>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J9" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为0.52608%</v>
+        <v>占总概率为0.68334%</v>
       </c>
       <c r="K9" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SP】比重12.182949%</v>
+        <v>配置【SS】比重7.521297%</v>
       </c>
       <c r="L9" s="28">
         <v>5</v>
@@ -5698,7 +5274,7 @@
         <v>3501</v>
       </c>
       <c r="D10" s="16" t="str">
-        <f>VLOOKUP(C10,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E10</f>
+        <f>VLOOKUP(C10,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E10</f>
         <v>精良图鉴箱*1</v>
       </c>
       <c r="E10" s="11">
@@ -5715,18 +5291,22 @@
       </c>
       <c r="I10" s="26">
         <f t="shared" si="0"/>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J10" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为1.052159%</v>
+        <v>占总概率为1.36668%</v>
       </c>
       <c r="K10" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SR】比重13.723661%</v>
-      </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="14"/>
+        <v>配置【B】比重15.033484%</v>
+      </c>
+      <c r="L10" s="32">
+        <v>6</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="N10" s="32"/>
       <c r="O10" s="33"/>
       <c r="P10" s="14"/>
@@ -5746,7 +5326,7 @@
         <v>3502</v>
       </c>
       <c r="D11" s="16" t="str">
-        <f>VLOOKUP(C11,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E11</f>
+        <f>VLOOKUP(C11,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E11</f>
         <v>史诗图鉴箱*1</v>
       </c>
       <c r="E11" s="11">
@@ -5763,15 +5343,15 @@
       </c>
       <c r="I11" s="26">
         <f t="shared" si="0"/>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J11" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为1.052159%</v>
+        <v>占总概率为1.36668%</v>
       </c>
       <c r="K11" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重41.431918%</v>
+        <v>配置【A】比重51.022732%</v>
       </c>
       <c r="L11" s="28"/>
       <c r="M11" s="11"/>
@@ -5794,7 +5374,7 @@
         <v>3503</v>
       </c>
       <c r="D12" s="16" t="str">
-        <f>VLOOKUP(C12,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E12</f>
+        <f>VLOOKUP(C12,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E12</f>
         <v>传说图鉴箱*1</v>
       </c>
       <c r="E12" s="11">
@@ -5811,15 +5391,15 @@
       </c>
       <c r="I12" s="26">
         <f t="shared" si="0"/>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J12" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为0.701439%</v>
+        <v>占总概率为0.91112%</v>
       </c>
       <c r="K12" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【UR】比重15.521099%</v>
+        <v>配置【S】比重10.477883%</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="14"/>
@@ -5842,7 +5422,7 @@
         <v>3504</v>
       </c>
       <c r="D13" s="16" t="str">
-        <f>VLOOKUP(C13,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E13</f>
+        <f>VLOOKUP(C13,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E13</f>
         <v>元素大陆的图鉴箱*1</v>
       </c>
       <c r="E13" s="11">
@@ -5859,15 +5439,15 @@
       </c>
       <c r="I13" s="26">
         <f t="shared" si="0"/>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J13" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为0.701439%</v>
+        <v>占总概率为0.91112%</v>
       </c>
       <c r="K13" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重41.431918%</v>
+        <v>配置【A】比重51.022732%</v>
       </c>
       <c r="L13" s="28"/>
       <c r="M13" s="11"/>
@@ -5890,7 +5470,7 @@
         <v>3505</v>
       </c>
       <c r="D14" s="16" t="str">
-        <f>VLOOKUP(C14,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E14</f>
+        <f>VLOOKUP(C14,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E14</f>
         <v>熔火炼狱的图鉴箱*1</v>
       </c>
       <c r="E14" s="11">
@@ -5907,15 +5487,15 @@
       </c>
       <c r="I14" s="26">
         <f t="shared" si="0"/>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J14" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为0.701439%</v>
+        <v>占总概率为0.91112%</v>
       </c>
       <c r="K14" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重41.431918%</v>
+        <v>配置【A】比重51.022732%</v>
       </c>
       <c r="L14" s="32"/>
       <c r="M14" s="14"/>
@@ -5938,7 +5518,7 @@
         <v>3506</v>
       </c>
       <c r="D15" s="16" t="str">
-        <f>VLOOKUP(C15,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E15</f>
+        <f>VLOOKUP(C15,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E15</f>
         <v>极北之地的图鉴箱*1</v>
       </c>
       <c r="E15" s="11">
@@ -5955,15 +5535,15 @@
       </c>
       <c r="I15" s="26">
         <f>SUMIFS(H:H,G:G,G15)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J15" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为0.701439%</v>
+        <v>占总概率为0.91112%</v>
       </c>
       <c r="K15" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重41.431918%</v>
+        <v>配置【A】比重51.022732%</v>
       </c>
       <c r="L15" s="32"/>
       <c r="M15" s="14"/>
@@ -5986,7 +5566,7 @@
         <v>3507</v>
       </c>
       <c r="D16" s="16" t="str">
-        <f>VLOOKUP(C16,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E16</f>
+        <f>VLOOKUP(C16,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E16</f>
         <v>狂风沙漠的图鉴箱*1</v>
       </c>
       <c r="E16" s="11">
@@ -6003,15 +5583,15 @@
       </c>
       <c r="I16" s="26">
         <f>SUMIFS(H:H,G:G,G16)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J16" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为0.52608%</v>
+        <v>占总概率为0.68334%</v>
       </c>
       <c r="K16" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重41.431918%</v>
+        <v>配置【A】比重51.022732%</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="11"/>
@@ -6034,7 +5614,7 @@
         <v>3508</v>
       </c>
       <c r="D17" s="16" t="str">
-        <f>VLOOKUP(C17,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E17</f>
+        <f>VLOOKUP(C17,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E17</f>
         <v>雷霆之地的图鉴箱*1</v>
       </c>
       <c r="E17" s="11">
@@ -6051,15 +5631,15 @@
       </c>
       <c r="I17" s="26">
         <f>SUMIFS(H:H,G:G,G17)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J17" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为0.52608%</v>
+        <v>占总概率为0.68334%</v>
       </c>
       <c r="K17" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重41.431918%</v>
+        <v>配置【A】比重51.022732%</v>
       </c>
       <c r="L17" s="32"/>
       <c r="M17" s="14"/>
@@ -6082,7 +5662,7 @@
         <v>3509</v>
       </c>
       <c r="D18" s="16" t="str">
-        <f>VLOOKUP(C18,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E18</f>
+        <f>VLOOKUP(C18,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E18</f>
         <v>熔火炼狱的史诗图鉴图鉴箱*1</v>
       </c>
       <c r="E18" s="11">
@@ -6099,15 +5679,15 @@
       </c>
       <c r="I18" s="26">
         <f>SUMIFS(H:H,G:G,G18)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J18" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为7.014394%</v>
+        <v>占总概率为9.111202%</v>
       </c>
       <c r="K18" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重41.431918%</v>
+        <v>配置【A】比重51.022732%</v>
       </c>
       <c r="L18" s="28"/>
       <c r="M18" s="11"/>
@@ -6130,7 +5710,7 @@
         <v>3510</v>
       </c>
       <c r="D19" s="16" t="str">
-        <f>VLOOKUP(C19,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E19</f>
+        <f>VLOOKUP(C19,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E19</f>
         <v>极北之地的史诗图鉴图鉴箱*1</v>
       </c>
       <c r="E19" s="11">
@@ -6147,15 +5727,15 @@
       </c>
       <c r="I19" s="26">
         <f>SUMIFS(H:H,G:G,G19)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J19" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为7.014394%</v>
+        <v>占总概率为9.111202%</v>
       </c>
       <c r="K19" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重41.431918%</v>
+        <v>配置【A】比重51.022732%</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="14"/>
@@ -6178,7 +5758,7 @@
         <v>3511</v>
       </c>
       <c r="D20" s="16" t="str">
-        <f>VLOOKUP(C20,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E20</f>
+        <f>VLOOKUP(C20,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E20</f>
         <v>狂风沙漠的史诗图鉴图鉴箱*1</v>
       </c>
       <c r="E20" s="11">
@@ -6195,15 +5775,15 @@
       </c>
       <c r="I20" s="26">
         <f>SUMIFS(H:H,G:G,G20)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J20" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为7.014394%</v>
+        <v>占总概率为9.111202%</v>
       </c>
       <c r="K20" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重41.431918%</v>
+        <v>配置【A】比重51.022732%</v>
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="11"/>
@@ -6226,7 +5806,7 @@
         <v>3512</v>
       </c>
       <c r="D21" s="16" t="str">
-        <f>VLOOKUP(C21,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E21</f>
+        <f>VLOOKUP(C21,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E21</f>
         <v>雷霆之地的史诗图鉴图鉴箱*1</v>
       </c>
       <c r="E21" s="11">
@@ -6243,15 +5823,15 @@
       </c>
       <c r="I21" s="26">
         <f>SUMIFS(H:H,G:G,G21)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J21" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为7.014394%</v>
+        <v>占总概率为9.111202%</v>
       </c>
       <c r="K21" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SSR】比重41.431918%</v>
+        <v>配置【A】比重51.022732%</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="14"/>
@@ -6274,7 +5854,7 @@
         <v>3513</v>
       </c>
       <c r="D22" s="16" t="str">
-        <f>VLOOKUP(C22,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E22</f>
+        <f>VLOOKUP(C22,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E22</f>
         <v>熔火炼狱的传说图鉴图鉴箱*1</v>
       </c>
       <c r="E22" s="11">
@@ -6291,15 +5871,15 @@
       </c>
       <c r="I22" s="26">
         <f>SUMIFS(H:H,G:G,G22)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J22" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为1.052159%</v>
+        <v>占总概率为1.36668%</v>
       </c>
       <c r="K22" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【UR】比重15.521099%</v>
+        <v>配置【S】比重10.477883%</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="11"/>
@@ -6322,7 +5902,7 @@
         <v>3514</v>
       </c>
       <c r="D23" s="16" t="str">
-        <f>VLOOKUP(C23,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E23</f>
+        <f>VLOOKUP(C23,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E23</f>
         <v>极北之地的传说图鉴图鉴箱*1</v>
       </c>
       <c r="E23" s="11">
@@ -6339,15 +5919,15 @@
       </c>
       <c r="I23" s="26">
         <f>SUMIFS(H:H,G:G,G23)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J23" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为1.052159%</v>
+        <v>占总概率为1.36668%</v>
       </c>
       <c r="K23" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【UR】比重15.521099%</v>
+        <v>配置【S】比重10.477883%</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="14"/>
@@ -6370,7 +5950,7 @@
         <v>3515</v>
       </c>
       <c r="D24" s="16" t="str">
-        <f>VLOOKUP(C24,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E24</f>
+        <f>VLOOKUP(C24,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E24</f>
         <v>狂风沙漠的传说图鉴图鉴箱*1</v>
       </c>
       <c r="E24" s="11">
@@ -6387,15 +5967,15 @@
       </c>
       <c r="I24" s="26">
         <f>SUMIFS(H:H,G:G,G24)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J24" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为1.052159%</v>
+        <v>占总概率为1.36668%</v>
       </c>
       <c r="K24" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【UR】比重15.521099%</v>
+        <v>配置【S】比重10.477883%</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="11"/>
@@ -6418,7 +5998,7 @@
         <v>3516</v>
       </c>
       <c r="D25" s="16" t="str">
-        <f>VLOOKUP(C25,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E25</f>
+        <f>VLOOKUP(C25,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E25</f>
         <v>雷霆之地的传说图鉴图鉴箱*1</v>
       </c>
       <c r="E25" s="11">
@@ -6435,15 +6015,15 @@
       </c>
       <c r="I25" s="26">
         <f>SUMIFS(H:H,G:G,G25)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J25" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为0.701439%</v>
+        <v>占总概率为0.91112%</v>
       </c>
       <c r="K25" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【UR】比重15.521099%</v>
+        <v>配置【S】比重10.477883%</v>
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="14"/>
@@ -6466,7 +6046,7 @@
         <v>3517</v>
       </c>
       <c r="D26" s="16" t="str">
-        <f>VLOOKUP(C26,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E26</f>
+        <f>VLOOKUP(C26,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E26</f>
         <v>精良图鉴箱（自选）*1</v>
       </c>
       <c r="E26" s="11">
@@ -6483,15 +6063,15 @@
       </c>
       <c r="I26" s="26">
         <f>SUMIFS(H:H,G:G,G26)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J26" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为0.701439%</v>
+        <v>占总概率为0.91112%</v>
       </c>
       <c r="K26" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SP】比重12.182949%</v>
+        <v>配置【SS】比重7.521297%</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="11"/>
@@ -6514,7 +6094,7 @@
         <v>3518</v>
       </c>
       <c r="D27" s="16" t="str">
-        <f>VLOOKUP(C27,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E27</f>
+        <f>VLOOKUP(C27,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E27</f>
         <v>史诗图鉴箱（自选）*1</v>
       </c>
       <c r="E27" s="11">
@@ -6531,15 +6111,15 @@
       </c>
       <c r="I27" s="26">
         <f>SUMIFS(H:H,G:G,G27)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J27" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为0.701439%</v>
+        <v>占总概率为0.91112%</v>
       </c>
       <c r="K27" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SP】比重12.182949%</v>
+        <v>配置【SS】比重7.521297%</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="14"/>
@@ -6562,7 +6142,7 @@
         <v>3519</v>
       </c>
       <c r="D28" s="16" t="str">
-        <f>VLOOKUP(C28,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E28</f>
+        <f>VLOOKUP(C28,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E28</f>
         <v>传说图鉴箱（自选）*1</v>
       </c>
       <c r="E28" s="11">
@@ -6579,15 +6159,15 @@
       </c>
       <c r="I28" s="26">
         <f>SUMIFS(H:H,G:G,G28)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J28" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为0.701439%</v>
+        <v>占总概率为0.91112%</v>
       </c>
       <c r="K28" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SP】比重12.182949%</v>
+        <v>配置【SS】比重7.521297%</v>
       </c>
       <c r="L28" s="17"/>
       <c r="M28" s="14"/>
@@ -6610,7 +6190,7 @@
         <v>3520</v>
       </c>
       <c r="D29" s="16" t="str">
-        <f>VLOOKUP(C29,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E29</f>
+        <f>VLOOKUP(C29,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E29</f>
         <v>不朽图鉴箱（自选）*1</v>
       </c>
       <c r="E29" s="11">
@@ -6627,15 +6207,15 @@
       </c>
       <c r="I29" s="26">
         <f>SUMIFS(H:H,G:G,G29)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J29" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为0.52608%</v>
+        <v>占总概率为0.68334%</v>
       </c>
       <c r="K29" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SP】比重12.182949%</v>
+        <v>配置【SS】比重7.521297%</v>
       </c>
       <c r="L29" s="17"/>
       <c r="M29" s="11"/>
@@ -6658,7 +6238,7 @@
         <v>3521</v>
       </c>
       <c r="D30" s="16" t="str">
-        <f>VLOOKUP(C30,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E30</f>
+        <f>VLOOKUP(C30,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E30</f>
         <v>熔火炼狱的图鉴箱（自选）*1</v>
       </c>
       <c r="E30" s="11">
@@ -6675,15 +6255,15 @@
       </c>
       <c r="I30" s="26">
         <f>SUMIFS(H:H,G:G,G30)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J30" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>占总概率为0.52608%</v>
+        <v>占总概率为0.68334%</v>
       </c>
       <c r="K30" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>配置【SP】比重12.182949%</v>
+        <v>配置【SS】比重7.521297%</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="14"/>
@@ -6706,7 +6286,7 @@
         <v>3522</v>
       </c>
       <c r="D31" s="16" t="str">
-        <f>VLOOKUP(C31,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E31</f>
+        <f>VLOOKUP(C31,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E31</f>
         <v>极北之地的图鉴箱（自选）*1</v>
       </c>
       <c r="E31" s="11">
@@ -6723,15 +6303,15 @@
       </c>
       <c r="I31" s="26">
         <f>SUMIFS(H:H,G:G,G31)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J31" s="11" t="str">
-        <f>"占总概率为"&amp;ROUND((H31/I31*100),6)&amp;"%"</f>
-        <v>占总概率为0.52643%</v>
+        <f t="shared" si="1"/>
+        <v>占总概率为0.683796%</v>
       </c>
       <c r="K31" s="27" t="str">
         <f>"配置【"&amp;VLOOKUP(F31,L:M,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F31,G:G,G31)/I31*100),6)&amp;"%"</f>
-        <v>配置【SP】比重12.182949%</v>
+        <v>配置【SS】比重7.521297%</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="14"/>
@@ -6754,7 +6334,7 @@
         <v>3523</v>
       </c>
       <c r="D32" s="16" t="str">
-        <f>VLOOKUP(C32,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E32</f>
+        <f>VLOOKUP(C32,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E32</f>
         <v>狂风沙漠的图鉴箱（自选）*1</v>
       </c>
       <c r="E32" s="11">
@@ -6771,15 +6351,15 @@
       </c>
       <c r="I32" s="26">
         <f>SUMIFS(H:H,G:G,G32)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J32" s="11" t="str">
-        <f>"占总概率为"&amp;ROUND((H32/I32*100),6)&amp;"%"</f>
-        <v>占总概率为0.526781%</v>
+        <f t="shared" si="1"/>
+        <v>占总概率为0.684251%</v>
       </c>
       <c r="K32" s="27" t="str">
         <f>"配置【"&amp;VLOOKUP(F32,L:M,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F32,G:G,G32)/I32*100),6)&amp;"%"</f>
-        <v>配置【SP】比重12.182949%</v>
+        <v>配置【SS】比重7.521297%</v>
       </c>
       <c r="L32" s="17"/>
       <c r="M32" s="14"/>
@@ -6802,7 +6382,7 @@
         <v>3524</v>
       </c>
       <c r="D33" s="16" t="str">
-        <f>VLOOKUP(C33,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E33</f>
+        <f>VLOOKUP(C33,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E33</f>
         <v>雷霆之地的图鉴箱（自选）*1</v>
       </c>
       <c r="E33" s="11">
@@ -6819,15 +6399,15 @@
       </c>
       <c r="I33" s="26">
         <f>SUMIFS(H:H,G:G,G33)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J33" s="11" t="str">
-        <f>"占总概率为"&amp;ROUND((H33/I33*100),6)&amp;"%"</f>
-        <v>占总概率为0.527132%</v>
+        <f t="shared" si="1"/>
+        <v>占总概率为0.684707%</v>
       </c>
       <c r="K33" s="27" t="str">
         <f>"配置【"&amp;VLOOKUP(F33,L:M,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F33,G:G,G33)/I33*100),6)&amp;"%"</f>
-        <v>配置【SP】比重12.182949%</v>
+        <v>配置【SS】比重7.521297%</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="14"/>
@@ -6850,7 +6430,7 @@
         <v>3525</v>
       </c>
       <c r="D34" s="16" t="str">
-        <f>VLOOKUP(C34,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E34</f>
+        <f>VLOOKUP(C34,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E34</f>
         <v>元素大陆图的鉴箱（自选）*1</v>
       </c>
       <c r="E34" s="11">
@@ -6867,15 +6447,15 @@
       </c>
       <c r="I34" s="26">
         <f>SUMIFS(H:H,G:G,G34)</f>
-        <v>285128</v>
+        <v>219510</v>
       </c>
       <c r="J34" s="11" t="str">
-        <f>"占总概率为"&amp;ROUND((H34/I34*100),6)&amp;"%"</f>
-        <v>占总概率为0.527482%</v>
+        <f t="shared" si="1"/>
+        <v>占总概率为0.685162%</v>
       </c>
       <c r="K34" s="27" t="str">
         <f>"配置【"&amp;VLOOKUP(F34,L:M,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F34,G:G,G34)/I34*100),6)&amp;"%"</f>
-        <v>配置【SP】比重12.182949%</v>
+        <v>配置【SS】比重7.521297%</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="14"/>
@@ -6888,2056 +6468,6 @@
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
       <c r="V34" s="37"/>
-    </row>
-    <row r="35" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A35" s="13"/>
-      <c r="B35" s="11">
-        <v>31</v>
-      </c>
-      <c r="C35" s="17">
-        <v>20006</v>
-      </c>
-      <c r="D35" s="16" t="str">
-        <f>VLOOKUP(C35,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E35</f>
-        <v>老者的指引·上*1</v>
-      </c>
-      <c r="E35" s="11">
-        <v>1</v>
-      </c>
-      <c r="F35" s="14">
-        <v>4</v>
-      </c>
-      <c r="G35" s="14">
-        <v>1</v>
-      </c>
-      <c r="H35" s="12">
-        <v>1505</v>
-      </c>
-      <c r="I35" s="26">
-        <f t="shared" ref="I35:I67" si="3">SUMIFS(H:H,G:G,G35)</f>
-        <v>285128</v>
-      </c>
-      <c r="J35" s="11" t="str">
-        <f t="shared" ref="J35:J67" si="4">"占总概率为"&amp;ROUND((H35/I35*100),6)&amp;"%"</f>
-        <v>占总概率为0.527833%</v>
-      </c>
-      <c r="K35" s="27" t="str">
-        <f t="shared" ref="K35:K67" si="5">"配置【"&amp;VLOOKUP(F35,L:M,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F35,G:G,G35)/I35*100),6)&amp;"%"</f>
-        <v>配置【UR】比重15.521099%</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="37"/>
-    </row>
-    <row r="36" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11">
-        <v>32</v>
-      </c>
-      <c r="C36" s="17">
-        <v>20007</v>
-      </c>
-      <c r="D36" s="16" t="str">
-        <f>VLOOKUP(C36,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E36</f>
-        <v>老者的指引·中*1</v>
-      </c>
-      <c r="E36" s="11">
-        <v>1</v>
-      </c>
-      <c r="F36" s="14">
-        <v>4</v>
-      </c>
-      <c r="G36" s="14">
-        <v>1</v>
-      </c>
-      <c r="H36" s="12">
-        <v>1506</v>
-      </c>
-      <c r="I36" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J36" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.528184%</v>
-      </c>
-      <c r="K36" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【UR】比重15.521099%</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="37"/>
-    </row>
-    <row r="37" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A37" s="13"/>
-      <c r="B37" s="11">
-        <v>33</v>
-      </c>
-      <c r="C37" s="17">
-        <v>20008</v>
-      </c>
-      <c r="D37" s="16" t="str">
-        <f>VLOOKUP(C37,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E37</f>
-        <v>老者的指引·下*1</v>
-      </c>
-      <c r="E37" s="11">
-        <v>1</v>
-      </c>
-      <c r="F37" s="14">
-        <v>5</v>
-      </c>
-      <c r="G37" s="14">
-        <v>1</v>
-      </c>
-      <c r="H37" s="12">
-        <v>1507</v>
-      </c>
-      <c r="I37" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J37" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.528535%</v>
-      </c>
-      <c r="K37" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SP】比重12.182949%</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="37"/>
-    </row>
-    <row r="38" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A38" s="13"/>
-      <c r="B38" s="11">
-        <v>34</v>
-      </c>
-      <c r="C38" s="17">
-        <v>20010</v>
-      </c>
-      <c r="D38" s="16" t="str">
-        <f>VLOOKUP(C38,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E38</f>
-        <v>不留遗憾之矢·上*1</v>
-      </c>
-      <c r="E38" s="11">
-        <v>1</v>
-      </c>
-      <c r="F38" s="14">
-        <v>4</v>
-      </c>
-      <c r="G38" s="14">
-        <v>1</v>
-      </c>
-      <c r="H38" s="12">
-        <v>1508</v>
-      </c>
-      <c r="I38" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J38" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.528885%</v>
-      </c>
-      <c r="K38" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【UR】比重15.521099%</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="37"/>
-    </row>
-    <row r="39" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A39" s="13"/>
-      <c r="B39" s="11">
-        <v>35</v>
-      </c>
-      <c r="C39" s="17">
-        <v>20011</v>
-      </c>
-      <c r="D39" s="16" t="str">
-        <f>VLOOKUP(C39,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E39</f>
-        <v>不留遗憾之矢·中*1</v>
-      </c>
-      <c r="E39" s="11">
-        <v>1</v>
-      </c>
-      <c r="F39" s="14">
-        <v>4</v>
-      </c>
-      <c r="G39" s="14">
-        <v>1</v>
-      </c>
-      <c r="H39" s="12">
-        <v>1509</v>
-      </c>
-      <c r="I39" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J39" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.529236%</v>
-      </c>
-      <c r="K39" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【UR】比重15.521099%</v>
-      </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="37"/>
-    </row>
-    <row r="40" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A40" s="13"/>
-      <c r="B40" s="11">
-        <v>36</v>
-      </c>
-      <c r="C40" s="17">
-        <v>20012</v>
-      </c>
-      <c r="D40" s="16" t="str">
-        <f>VLOOKUP(C40,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E40</f>
-        <v>不留遗憾之矢·下*1</v>
-      </c>
-      <c r="E40" s="11">
-        <v>1</v>
-      </c>
-      <c r="F40" s="14">
-        <v>5</v>
-      </c>
-      <c r="G40" s="14">
-        <v>1</v>
-      </c>
-      <c r="H40" s="12">
-        <v>1510</v>
-      </c>
-      <c r="I40" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J40" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.529587%</v>
-      </c>
-      <c r="K40" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SP】比重12.182949%</v>
-      </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="37"/>
-    </row>
-    <row r="41" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A41" s="13"/>
-      <c r="B41" s="11">
-        <v>37</v>
-      </c>
-      <c r="C41" s="17">
-        <v>20015</v>
-      </c>
-      <c r="D41" s="16" t="str">
-        <f>VLOOKUP(C41,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E41</f>
-        <v>超越极限·上*1</v>
-      </c>
-      <c r="E41" s="11">
-        <v>1</v>
-      </c>
-      <c r="F41" s="14">
-        <v>4</v>
-      </c>
-      <c r="G41" s="14">
-        <v>1</v>
-      </c>
-      <c r="H41" s="12">
-        <v>1511</v>
-      </c>
-      <c r="I41" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J41" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.529937%</v>
-      </c>
-      <c r="K41" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【UR】比重15.521099%</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="37"/>
-    </row>
-    <row r="42" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A42" s="13"/>
-      <c r="B42" s="11">
-        <v>38</v>
-      </c>
-      <c r="C42" s="17">
-        <v>20016</v>
-      </c>
-      <c r="D42" s="16" t="str">
-        <f>VLOOKUP(C42,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E42</f>
-        <v>超越极限·中*1</v>
-      </c>
-      <c r="E42" s="11">
-        <v>1</v>
-      </c>
-      <c r="F42" s="14">
-        <v>4</v>
-      </c>
-      <c r="G42" s="14">
-        <v>1</v>
-      </c>
-      <c r="H42" s="12">
-        <v>1512</v>
-      </c>
-      <c r="I42" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J42" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.530288%</v>
-      </c>
-      <c r="K42" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【UR】比重15.521099%</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="37"/>
-    </row>
-    <row r="43" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A43" s="13"/>
-      <c r="B43" s="11">
-        <v>39</v>
-      </c>
-      <c r="C43" s="17">
-        <v>20017</v>
-      </c>
-      <c r="D43" s="16" t="str">
-        <f>VLOOKUP(C43,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E43</f>
-        <v>超越极限·下*1</v>
-      </c>
-      <c r="E43" s="11">
-        <v>1</v>
-      </c>
-      <c r="F43" s="14">
-        <v>5</v>
-      </c>
-      <c r="G43" s="14">
-        <v>1</v>
-      </c>
-      <c r="H43" s="12">
-        <v>1513</v>
-      </c>
-      <c r="I43" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J43" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.530639%</v>
-      </c>
-      <c r="K43" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SP】比重12.182949%</v>
-      </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="37"/>
-    </row>
-    <row r="44" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A44" s="13"/>
-      <c r="B44" s="11">
-        <v>40</v>
-      </c>
-      <c r="C44" s="17">
-        <v>20018</v>
-      </c>
-      <c r="D44" s="16" t="str">
-        <f>VLOOKUP(C44,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E44</f>
-        <v>消费大师·上*1</v>
-      </c>
-      <c r="E44" s="11">
-        <v>1</v>
-      </c>
-      <c r="F44" s="14">
-        <v>4</v>
-      </c>
-      <c r="G44" s="14">
-        <v>1</v>
-      </c>
-      <c r="H44" s="12">
-        <v>1514</v>
-      </c>
-      <c r="I44" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J44" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.53099%</v>
-      </c>
-      <c r="K44" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【UR】比重15.521099%</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="37"/>
-    </row>
-    <row r="45" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A45" s="13"/>
-      <c r="B45" s="11">
-        <v>41</v>
-      </c>
-      <c r="C45" s="17">
-        <v>20019</v>
-      </c>
-      <c r="D45" s="16" t="str">
-        <f>VLOOKUP(C45,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E45</f>
-        <v>消费大师·中*1</v>
-      </c>
-      <c r="E45" s="11">
-        <v>1</v>
-      </c>
-      <c r="F45" s="14">
-        <v>5</v>
-      </c>
-      <c r="G45" s="14">
-        <v>1</v>
-      </c>
-      <c r="H45" s="12">
-        <v>1515</v>
-      </c>
-      <c r="I45" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J45" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.53134%</v>
-      </c>
-      <c r="K45" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SP】比重12.182949%</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="37"/>
-    </row>
-    <row r="46" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A46" s="13"/>
-      <c r="B46" s="11">
-        <v>42</v>
-      </c>
-      <c r="C46" s="17">
-        <v>20020</v>
-      </c>
-      <c r="D46" s="16" t="str">
-        <f>VLOOKUP(C46,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E46</f>
-        <v>消费大师·下*1</v>
-      </c>
-      <c r="E46" s="11">
-        <v>1</v>
-      </c>
-      <c r="F46" s="14">
-        <v>4</v>
-      </c>
-      <c r="G46" s="14">
-        <v>1</v>
-      </c>
-      <c r="H46" s="12">
-        <v>1516</v>
-      </c>
-      <c r="I46" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J46" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.531691%</v>
-      </c>
-      <c r="K46" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【UR】比重15.521099%</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="37"/>
-    </row>
-    <row r="47" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A47" s="13"/>
-      <c r="B47" s="11">
-        <v>43</v>
-      </c>
-      <c r="C47" s="17">
-        <v>20021</v>
-      </c>
-      <c r="D47" s="16" t="str">
-        <f>VLOOKUP(C47,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E47</f>
-        <v>符文大师·上*1</v>
-      </c>
-      <c r="E47" s="11">
-        <v>1</v>
-      </c>
-      <c r="F47" s="14">
-        <v>4</v>
-      </c>
-      <c r="G47" s="14">
-        <v>1</v>
-      </c>
-      <c r="H47" s="12">
-        <v>1517</v>
-      </c>
-      <c r="I47" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J47" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.532042%</v>
-      </c>
-      <c r="K47" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【UR】比重15.521099%</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="37"/>
-    </row>
-    <row r="48" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A48" s="13"/>
-      <c r="B48" s="11">
-        <v>44</v>
-      </c>
-      <c r="C48" s="17">
-        <v>20022</v>
-      </c>
-      <c r="D48" s="16" t="str">
-        <f>VLOOKUP(C48,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E48</f>
-        <v>符文大师·中*1</v>
-      </c>
-      <c r="E48" s="11">
-        <v>1</v>
-      </c>
-      <c r="F48" s="14">
-        <v>5</v>
-      </c>
-      <c r="G48" s="14">
-        <v>1</v>
-      </c>
-      <c r="H48" s="12">
-        <v>1518</v>
-      </c>
-      <c r="I48" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J48" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.532392%</v>
-      </c>
-      <c r="K48" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SP】比重12.182949%</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="37"/>
-    </row>
-    <row r="49" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A49" s="13"/>
-      <c r="B49" s="11">
-        <v>45</v>
-      </c>
-      <c r="C49" s="17">
-        <v>20023</v>
-      </c>
-      <c r="D49" s="16" t="str">
-        <f>VLOOKUP(C49,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E49</f>
-        <v>符文大师·下*1</v>
-      </c>
-      <c r="E49" s="11">
-        <v>1</v>
-      </c>
-      <c r="F49" s="14">
-        <v>4</v>
-      </c>
-      <c r="G49" s="14">
-        <v>1</v>
-      </c>
-      <c r="H49" s="12">
-        <v>1519</v>
-      </c>
-      <c r="I49" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J49" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.532743%</v>
-      </c>
-      <c r="K49" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【UR】比重15.521099%</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="37"/>
-    </row>
-    <row r="50" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A50" s="13"/>
-      <c r="B50" s="11">
-        <v>46</v>
-      </c>
-      <c r="C50" s="17">
-        <v>20101</v>
-      </c>
-      <c r="D50" s="16" t="str">
-        <f>VLOOKUP(C50,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E50</f>
-        <v>终结者*1</v>
-      </c>
-      <c r="E50" s="11">
-        <v>1</v>
-      </c>
-      <c r="F50" s="14">
-        <v>5</v>
-      </c>
-      <c r="G50" s="14">
-        <v>1</v>
-      </c>
-      <c r="H50" s="12">
-        <v>1520</v>
-      </c>
-      <c r="I50" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J50" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.533094%</v>
-      </c>
-      <c r="K50" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SP】比重12.182949%</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
-      <c r="T50" s="14"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="37"/>
-    </row>
-    <row r="51" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A51" s="13"/>
-      <c r="B51" s="11">
-        <v>47</v>
-      </c>
-      <c r="C51" s="17">
-        <v>20102</v>
-      </c>
-      <c r="D51" s="16" t="str">
-        <f>VLOOKUP(C51,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E51</f>
-        <v>领袖*1</v>
-      </c>
-      <c r="E51" s="11">
-        <v>1</v>
-      </c>
-      <c r="F51" s="14">
-        <v>5</v>
-      </c>
-      <c r="G51" s="14">
-        <v>1</v>
-      </c>
-      <c r="H51" s="12">
-        <v>1521</v>
-      </c>
-      <c r="I51" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J51" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.533445%</v>
-      </c>
-      <c r="K51" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SP】比重12.182949%</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="37"/>
-    </row>
-    <row r="52" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A52" s="13"/>
-      <c r="B52" s="11">
-        <v>48</v>
-      </c>
-      <c r="C52" s="17">
-        <v>20103</v>
-      </c>
-      <c r="D52" s="16" t="str">
-        <f>VLOOKUP(C52,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E52</f>
-        <v>圣坛使者*1</v>
-      </c>
-      <c r="E52" s="11">
-        <v>1</v>
-      </c>
-      <c r="F52" s="14">
-        <v>5</v>
-      </c>
-      <c r="G52" s="14">
-        <v>1</v>
-      </c>
-      <c r="H52" s="12">
-        <v>1522</v>
-      </c>
-      <c r="I52" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J52" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.533795%</v>
-      </c>
-      <c r="K52" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SP】比重12.182949%</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="37"/>
-    </row>
-    <row r="53" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A53" s="13"/>
-      <c r="B53" s="11">
-        <v>49</v>
-      </c>
-      <c r="C53" s="17">
-        <v>20105</v>
-      </c>
-      <c r="D53" s="16" t="str">
-        <f>VLOOKUP(C53,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E53</f>
-        <v>图鉴领悟者*1</v>
-      </c>
-      <c r="E53" s="11">
-        <v>1</v>
-      </c>
-      <c r="F53" s="14">
-        <v>5</v>
-      </c>
-      <c r="G53" s="14">
-        <v>1</v>
-      </c>
-      <c r="H53" s="12">
-        <v>1523</v>
-      </c>
-      <c r="I53" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J53" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.534146%</v>
-      </c>
-      <c r="K53" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SP】比重12.182949%</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="37"/>
-    </row>
-    <row r="54" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A54" s="13"/>
-      <c r="B54" s="11">
-        <v>50</v>
-      </c>
-      <c r="C54" s="17">
-        <v>20106</v>
-      </c>
-      <c r="D54" s="16" t="str">
-        <f>VLOOKUP(C54,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E54</f>
-        <v>忠实粉丝*1</v>
-      </c>
-      <c r="E54" s="11">
-        <v>1</v>
-      </c>
-      <c r="F54" s="14">
-        <v>5</v>
-      </c>
-      <c r="G54" s="14">
-        <v>1</v>
-      </c>
-      <c r="H54" s="12">
-        <v>1524</v>
-      </c>
-      <c r="I54" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J54" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.534497%</v>
-      </c>
-      <c r="K54" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SP】比重12.182949%</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="37"/>
-    </row>
-    <row r="55" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A55" s="13"/>
-      <c r="B55" s="11">
-        <v>51</v>
-      </c>
-      <c r="C55" s="17">
-        <v>20107</v>
-      </c>
-      <c r="D55" s="16" t="str">
-        <f>VLOOKUP(C55,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E55</f>
-        <v>魂石掌控者*1</v>
-      </c>
-      <c r="E55" s="11">
-        <v>1</v>
-      </c>
-      <c r="F55" s="14">
-        <v>5</v>
-      </c>
-      <c r="G55" s="14">
-        <v>1</v>
-      </c>
-      <c r="H55" s="12">
-        <v>1525</v>
-      </c>
-      <c r="I55" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J55" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.534848%</v>
-      </c>
-      <c r="K55" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SP】比重12.182949%</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="37"/>
-    </row>
-    <row r="56" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A56" s="13"/>
-      <c r="B56" s="11">
-        <v>52</v>
-      </c>
-      <c r="C56" s="17">
-        <v>1294</v>
-      </c>
-      <c r="D56" s="16" t="str">
-        <f>VLOOKUP(C56,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E56</f>
-        <v>万能精通经验*1000</v>
-      </c>
-      <c r="E56" s="11">
-        <v>1000</v>
-      </c>
-      <c r="F56" s="14">
-        <v>2</v>
-      </c>
-      <c r="G56" s="14">
-        <v>1</v>
-      </c>
-      <c r="H56" s="12">
-        <v>1526</v>
-      </c>
-      <c r="I56" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J56" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.535198%</v>
-      </c>
-      <c r="K56" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SR】比重13.723661%</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="37"/>
-    </row>
-    <row r="57" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A57" s="13"/>
-      <c r="B57" s="11">
-        <v>53</v>
-      </c>
-      <c r="C57" s="17">
-        <v>1294</v>
-      </c>
-      <c r="D57" s="16" t="str">
-        <f>VLOOKUP(C57,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E57</f>
-        <v>万能精通经验*3000</v>
-      </c>
-      <c r="E57" s="11">
-        <v>3000</v>
-      </c>
-      <c r="F57" s="14">
-        <v>3</v>
-      </c>
-      <c r="G57" s="14">
-        <v>1</v>
-      </c>
-      <c r="H57" s="12">
-        <v>1527</v>
-      </c>
-      <c r="I57" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J57" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.535549%</v>
-      </c>
-      <c r="K57" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SSR】比重41.431918%</v>
-      </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="14"/>
-      <c r="V57" s="37"/>
-    </row>
-    <row r="58" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A58" s="13"/>
-      <c r="B58" s="11">
-        <v>54</v>
-      </c>
-      <c r="C58" s="17">
-        <v>1294</v>
-      </c>
-      <c r="D58" s="16" t="str">
-        <f>VLOOKUP(C58,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E58</f>
-        <v>万能精通经验*5000</v>
-      </c>
-      <c r="E58" s="11">
-        <v>5000</v>
-      </c>
-      <c r="F58" s="14">
-        <v>4</v>
-      </c>
-      <c r="G58" s="14">
-        <v>1</v>
-      </c>
-      <c r="H58" s="12">
-        <v>1528</v>
-      </c>
-      <c r="I58" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J58" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.5359%</v>
-      </c>
-      <c r="K58" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【UR】比重15.521099%</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="14"/>
-      <c r="U58" s="14"/>
-      <c r="V58" s="37"/>
-    </row>
-    <row r="59" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A59" s="13"/>
-      <c r="B59" s="11">
-        <v>55</v>
-      </c>
-      <c r="C59" s="17">
-        <v>1294</v>
-      </c>
-      <c r="D59" s="16" t="str">
-        <f>VLOOKUP(C59,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E59</f>
-        <v>万能精通经验*20000</v>
-      </c>
-      <c r="E59" s="11">
-        <v>20000</v>
-      </c>
-      <c r="F59" s="14">
-        <v>5</v>
-      </c>
-      <c r="G59" s="14">
-        <v>1</v>
-      </c>
-      <c r="H59" s="12">
-        <v>1529</v>
-      </c>
-      <c r="I59" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J59" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.53625%</v>
-      </c>
-      <c r="K59" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SP】比重12.182949%</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="37"/>
-    </row>
-    <row r="60" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A60" s="13"/>
-      <c r="B60" s="11">
-        <v>56</v>
-      </c>
-      <c r="C60" s="17">
-        <v>1287</v>
-      </c>
-      <c r="D60" s="16" t="str">
-        <f>VLOOKUP(C60,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E60</f>
-        <v>1级魂石自选箱*1</v>
-      </c>
-      <c r="E60" s="11">
-        <v>1</v>
-      </c>
-      <c r="F60" s="14">
-        <v>1</v>
-      </c>
-      <c r="G60" s="14">
-        <v>1</v>
-      </c>
-      <c r="H60" s="12">
-        <v>1530</v>
-      </c>
-      <c r="I60" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J60" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.536601%</v>
-      </c>
-      <c r="K60" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【R】比重17.140372%</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="14"/>
-      <c r="V60" s="37"/>
-    </row>
-    <row r="61" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A61" s="13"/>
-      <c r="B61" s="11">
-        <v>57</v>
-      </c>
-      <c r="C61" s="17">
-        <v>1288</v>
-      </c>
-      <c r="D61" s="16" t="str">
-        <f>VLOOKUP(C61,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E61</f>
-        <v>2级魂石自选箱*1</v>
-      </c>
-      <c r="E61" s="11">
-        <v>1</v>
-      </c>
-      <c r="F61" s="14">
-        <v>2</v>
-      </c>
-      <c r="G61" s="14">
-        <v>1</v>
-      </c>
-      <c r="H61" s="12">
-        <v>1531</v>
-      </c>
-      <c r="I61" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J61" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.536952%</v>
-      </c>
-      <c r="K61" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SR】比重13.723661%</v>
-      </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="14"/>
-      <c r="V61" s="37"/>
-    </row>
-    <row r="62" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A62" s="13"/>
-      <c r="B62" s="11">
-        <v>58</v>
-      </c>
-      <c r="C62" s="17">
-        <v>1289</v>
-      </c>
-      <c r="D62" s="16" t="str">
-        <f>VLOOKUP(C62,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E62</f>
-        <v>3级魂石自选箱*1</v>
-      </c>
-      <c r="E62" s="11">
-        <v>1</v>
-      </c>
-      <c r="F62" s="14">
-        <v>3</v>
-      </c>
-      <c r="G62" s="14">
-        <v>1</v>
-      </c>
-      <c r="H62" s="12">
-        <v>1532</v>
-      </c>
-      <c r="I62" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J62" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.537303%</v>
-      </c>
-      <c r="K62" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SSR】比重41.431918%</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
-      <c r="T62" s="14"/>
-      <c r="U62" s="14"/>
-      <c r="V62" s="37"/>
-    </row>
-    <row r="63" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A63" s="13"/>
-      <c r="B63" s="11">
-        <v>59</v>
-      </c>
-      <c r="C63" s="17">
-        <v>1290</v>
-      </c>
-      <c r="D63" s="16" t="str">
-        <f>VLOOKUP(C63,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E63</f>
-        <v>4级魂石自选箱*1</v>
-      </c>
-      <c r="E63" s="11">
-        <v>1</v>
-      </c>
-      <c r="F63" s="14">
-        <v>4</v>
-      </c>
-      <c r="G63" s="14">
-        <v>1</v>
-      </c>
-      <c r="H63" s="12">
-        <v>1533</v>
-      </c>
-      <c r="I63" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J63" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.537653%</v>
-      </c>
-      <c r="K63" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【UR】比重15.521099%</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
-      <c r="T63" s="14"/>
-      <c r="U63" s="14"/>
-      <c r="V63" s="37"/>
-    </row>
-    <row r="64" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A64" s="13"/>
-      <c r="B64" s="11">
-        <v>60</v>
-      </c>
-      <c r="C64" s="17">
-        <v>1279</v>
-      </c>
-      <c r="D64" s="16" t="str">
-        <f>VLOOKUP(C64,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E64</f>
-        <v>1级魂石降级卷*1</v>
-      </c>
-      <c r="E64" s="11">
-        <v>1</v>
-      </c>
-      <c r="F64" s="14">
-        <v>1</v>
-      </c>
-      <c r="G64" s="14">
-        <v>1</v>
-      </c>
-      <c r="H64" s="12">
-        <v>1534</v>
-      </c>
-      <c r="I64" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J64" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.538004%</v>
-      </c>
-      <c r="K64" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【R】比重17.140372%</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="14"/>
-      <c r="V64" s="37"/>
-    </row>
-    <row r="65" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A65" s="13"/>
-      <c r="B65" s="11">
-        <v>61</v>
-      </c>
-      <c r="C65" s="17">
-        <v>1280</v>
-      </c>
-      <c r="D65" s="16" t="str">
-        <f>VLOOKUP(C65,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E65</f>
-        <v>2级魂石降级卷*1</v>
-      </c>
-      <c r="E65" s="11">
-        <v>1</v>
-      </c>
-      <c r="F65" s="14">
-        <v>2</v>
-      </c>
-      <c r="G65" s="14">
-        <v>1</v>
-      </c>
-      <c r="H65" s="12">
-        <v>1535</v>
-      </c>
-      <c r="I65" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J65" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.538355%</v>
-      </c>
-      <c r="K65" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SR】比重13.723661%</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="14"/>
-      <c r="R65" s="14"/>
-      <c r="S65" s="14"/>
-      <c r="T65" s="14"/>
-      <c r="U65" s="14"/>
-      <c r="V65" s="37"/>
-    </row>
-    <row r="66" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A66" s="13"/>
-      <c r="B66" s="11">
-        <v>62</v>
-      </c>
-      <c r="C66" s="17">
-        <v>1281</v>
-      </c>
-      <c r="D66" s="16" t="str">
-        <f>VLOOKUP(C66,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E66</f>
-        <v>3级魂石降级卷*1</v>
-      </c>
-      <c r="E66" s="11">
-        <v>1</v>
-      </c>
-      <c r="F66" s="14">
-        <v>3</v>
-      </c>
-      <c r="G66" s="14">
-        <v>1</v>
-      </c>
-      <c r="H66" s="12">
-        <v>1536</v>
-      </c>
-      <c r="I66" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J66" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.538705%</v>
-      </c>
-      <c r="K66" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【SSR】比重41.431918%</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="33"/>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="14"/>
-      <c r="R66" s="14"/>
-      <c r="S66" s="14"/>
-      <c r="T66" s="14"/>
-      <c r="U66" s="14"/>
-      <c r="V66" s="37"/>
-    </row>
-    <row r="67" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A67" s="13"/>
-      <c r="B67" s="11">
-        <v>63</v>
-      </c>
-      <c r="C67" s="17">
-        <v>1282</v>
-      </c>
-      <c r="D67" s="16" t="str">
-        <f>VLOOKUP(C67,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E67</f>
-        <v>4级魂石降级卷*1</v>
-      </c>
-      <c r="E67" s="11">
-        <v>1</v>
-      </c>
-      <c r="F67" s="14">
-        <v>4</v>
-      </c>
-      <c r="G67" s="14">
-        <v>1</v>
-      </c>
-      <c r="H67" s="12">
-        <v>1537</v>
-      </c>
-      <c r="I67" s="26">
-        <f t="shared" si="3"/>
-        <v>285128</v>
-      </c>
-      <c r="J67" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>占总概率为0.539056%</v>
-      </c>
-      <c r="K67" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>配置【UR】比重15.521099%</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="32"/>
-      <c r="O67" s="33"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="14"/>
-      <c r="T67" s="14"/>
-      <c r="U67" s="14"/>
-      <c r="V67" s="37"/>
-    </row>
-    <row r="68" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A68" s="13"/>
-      <c r="B68" s="11">
-        <v>64</v>
-      </c>
-      <c r="C68" s="17">
-        <v>1283</v>
-      </c>
-      <c r="D68" s="16" t="str">
-        <f>VLOOKUP(C68,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E68</f>
-        <v>低级魂石升级保护卷*1</v>
-      </c>
-      <c r="E68" s="11">
-        <v>1</v>
-      </c>
-      <c r="F68" s="14">
-        <v>2</v>
-      </c>
-      <c r="G68" s="14">
-        <v>1</v>
-      </c>
-      <c r="H68" s="12">
-        <v>1538</v>
-      </c>
-      <c r="I68" s="26">
-        <f t="shared" ref="I68:I77" si="6">SUMIFS(H:H,G:G,G68)</f>
-        <v>285128</v>
-      </c>
-      <c r="J68" s="11" t="str">
-        <f t="shared" ref="J68:J77" si="7">"占总概率为"&amp;ROUND((H68/I68*100),6)&amp;"%"</f>
-        <v>占总概率为0.539407%</v>
-      </c>
-      <c r="K68" s="27" t="str">
-        <f t="shared" ref="K68:K77" si="8">"配置【"&amp;VLOOKUP(F68,L:M,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F68,G:G,G68)/I68*100),6)&amp;"%"</f>
-        <v>配置【SR】比重13.723661%</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="32"/>
-      <c r="O68" s="33"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
-      <c r="R68" s="14"/>
-      <c r="S68" s="14"/>
-      <c r="T68" s="14"/>
-      <c r="U68" s="14"/>
-      <c r="V68" s="37"/>
-    </row>
-    <row r="69" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A69" s="13"/>
-      <c r="B69" s="11">
-        <v>65</v>
-      </c>
-      <c r="C69" s="17">
-        <v>1284</v>
-      </c>
-      <c r="D69" s="16" t="str">
-        <f>VLOOKUP(C69,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E69</f>
-        <v>中级魂石升级保护卷*1</v>
-      </c>
-      <c r="E69" s="11">
-        <v>1</v>
-      </c>
-      <c r="F69" s="14">
-        <v>3</v>
-      </c>
-      <c r="G69" s="14">
-        <v>1</v>
-      </c>
-      <c r="H69" s="12">
-        <v>1539</v>
-      </c>
-      <c r="I69" s="26">
-        <f t="shared" si="6"/>
-        <v>285128</v>
-      </c>
-      <c r="J69" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>占总概率为0.539758%</v>
-      </c>
-      <c r="K69" s="27" t="str">
-        <f t="shared" si="8"/>
-        <v>配置【SSR】比重41.431918%</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="14"/>
-      <c r="T69" s="14"/>
-      <c r="U69" s="14"/>
-      <c r="V69" s="37"/>
-    </row>
-    <row r="70" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A70" s="13"/>
-      <c r="B70" s="11">
-        <v>66</v>
-      </c>
-      <c r="C70" s="17">
-        <v>1285</v>
-      </c>
-      <c r="D70" s="16" t="str">
-        <f>VLOOKUP(C70,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E70</f>
-        <v>高级魂石升级保护卷*1</v>
-      </c>
-      <c r="E70" s="11">
-        <v>1</v>
-      </c>
-      <c r="F70" s="14">
-        <v>4</v>
-      </c>
-      <c r="G70" s="14">
-        <v>1</v>
-      </c>
-      <c r="H70" s="12">
-        <v>1540</v>
-      </c>
-      <c r="I70" s="26">
-        <f t="shared" si="6"/>
-        <v>285128</v>
-      </c>
-      <c r="J70" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>占总概率为0.540108%</v>
-      </c>
-      <c r="K70" s="27" t="str">
-        <f t="shared" si="8"/>
-        <v>配置【UR】比重15.521099%</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="33"/>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
-      <c r="T70" s="14"/>
-      <c r="U70" s="14"/>
-      <c r="V70" s="37"/>
-    </row>
-    <row r="71" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A71" s="13"/>
-      <c r="B71" s="11">
-        <v>67</v>
-      </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="16" t="e">
-        <f>VLOOKUP(C71,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E71</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E71" s="11">
-        <v>1</v>
-      </c>
-      <c r="F71" s="14">
-        <v>1</v>
-      </c>
-      <c r="G71" s="14">
-        <v>1</v>
-      </c>
-      <c r="H71" s="12">
-        <v>1541</v>
-      </c>
-      <c r="I71" s="26">
-        <f t="shared" si="6"/>
-        <v>285128</v>
-      </c>
-      <c r="J71" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>占总概率为0.540459%</v>
-      </c>
-      <c r="K71" s="27" t="str">
-        <f t="shared" si="8"/>
-        <v>配置【R】比重17.140372%</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="33"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
-      <c r="T71" s="14"/>
-      <c r="U71" s="14"/>
-      <c r="V71" s="37"/>
-    </row>
-    <row r="72" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A72" s="13"/>
-      <c r="B72" s="11">
-        <v>68</v>
-      </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="16" t="e">
-        <f>VLOOKUP(C72,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E72</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E72" s="11">
-        <v>1</v>
-      </c>
-      <c r="F72" s="14">
-        <v>1</v>
-      </c>
-      <c r="G72" s="14">
-        <v>1</v>
-      </c>
-      <c r="H72" s="12">
-        <v>1542</v>
-      </c>
-      <c r="I72" s="26">
-        <f t="shared" si="6"/>
-        <v>285128</v>
-      </c>
-      <c r="J72" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>占总概率为0.54081%</v>
-      </c>
-      <c r="K72" s="27" t="str">
-        <f t="shared" si="8"/>
-        <v>配置【R】比重17.140372%</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="33"/>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="14"/>
-      <c r="R72" s="14"/>
-      <c r="S72" s="14"/>
-      <c r="T72" s="14"/>
-      <c r="U72" s="14"/>
-      <c r="V72" s="37"/>
-    </row>
-    <row r="73" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A73" s="13"/>
-      <c r="B73" s="11">
-        <v>69</v>
-      </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="16" t="e">
-        <f>VLOOKUP(C73,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E73</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E73" s="11">
-        <v>1</v>
-      </c>
-      <c r="F73" s="14">
-        <v>1</v>
-      </c>
-      <c r="G73" s="14">
-        <v>1</v>
-      </c>
-      <c r="H73" s="12">
-        <v>1543</v>
-      </c>
-      <c r="I73" s="26">
-        <f t="shared" si="6"/>
-        <v>285128</v>
-      </c>
-      <c r="J73" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>占总概率为0.54116%</v>
-      </c>
-      <c r="K73" s="27" t="str">
-        <f t="shared" si="8"/>
-        <v>配置【R】比重17.140372%</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="32"/>
-      <c r="O73" s="33"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
-      <c r="T73" s="14"/>
-      <c r="U73" s="14"/>
-      <c r="V73" s="37"/>
-    </row>
-    <row r="74" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A74" s="13"/>
-      <c r="B74" s="11">
-        <v>70</v>
-      </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="16" t="e">
-        <f>VLOOKUP(C74,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E74</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E74" s="11">
-        <v>1</v>
-      </c>
-      <c r="F74" s="14">
-        <v>1</v>
-      </c>
-      <c r="G74" s="14">
-        <v>1</v>
-      </c>
-      <c r="H74" s="12">
-        <v>1544</v>
-      </c>
-      <c r="I74" s="26">
-        <f t="shared" si="6"/>
-        <v>285128</v>
-      </c>
-      <c r="J74" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>占总概率为0.541511%</v>
-      </c>
-      <c r="K74" s="27" t="str">
-        <f t="shared" si="8"/>
-        <v>配置【R】比重17.140372%</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="32"/>
-      <c r="O74" s="33"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="14"/>
-      <c r="T74" s="14"/>
-      <c r="U74" s="14"/>
-      <c r="V74" s="37"/>
-    </row>
-    <row r="75" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A75" s="13"/>
-      <c r="B75" s="11">
-        <v>71</v>
-      </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="16" t="e">
-        <f>VLOOKUP(C75,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E75</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E75" s="11">
-        <v>1</v>
-      </c>
-      <c r="F75" s="14">
-        <v>1</v>
-      </c>
-      <c r="G75" s="14">
-        <v>1</v>
-      </c>
-      <c r="H75" s="12">
-        <v>1545</v>
-      </c>
-      <c r="I75" s="26">
-        <f t="shared" si="6"/>
-        <v>285128</v>
-      </c>
-      <c r="J75" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>占总概率为0.541862%</v>
-      </c>
-      <c r="K75" s="27" t="str">
-        <f t="shared" si="8"/>
-        <v>配置【R】比重17.140372%</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="32"/>
-      <c r="O75" s="33"/>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="14"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
-      <c r="T75" s="14"/>
-      <c r="U75" s="14"/>
-      <c r="V75" s="37"/>
-    </row>
-    <row r="76" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A76" s="13"/>
-      <c r="B76" s="11">
-        <v>72</v>
-      </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="16" t="e">
-        <f>VLOOKUP(C76,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E76</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E76" s="11">
-        <v>1</v>
-      </c>
-      <c r="F76" s="14">
-        <v>1</v>
-      </c>
-      <c r="G76" s="14">
-        <v>1</v>
-      </c>
-      <c r="H76" s="12">
-        <v>1546</v>
-      </c>
-      <c r="I76" s="26">
-        <f t="shared" si="6"/>
-        <v>285128</v>
-      </c>
-      <c r="J76" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>占总概率为0.542213%</v>
-      </c>
-      <c r="K76" s="27" t="str">
-        <f t="shared" si="8"/>
-        <v>配置【R】比重17.140372%</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="32"/>
-      <c r="O76" s="33"/>
-      <c r="P76" s="14"/>
-      <c r="Q76" s="14"/>
-      <c r="R76" s="14"/>
-      <c r="S76" s="14"/>
-      <c r="T76" s="14"/>
-      <c r="U76" s="14"/>
-      <c r="V76" s="37"/>
-    </row>
-    <row r="77" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A77" s="13"/>
-      <c r="B77" s="11">
-        <v>73</v>
-      </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="16" t="e">
-        <f>VLOOKUP(C77,[1]Sheet1!$B:$D,3)&amp;"*"&amp;E77</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E77" s="11">
-        <v>1</v>
-      </c>
-      <c r="F77" s="14">
-        <v>1</v>
-      </c>
-      <c r="G77" s="14">
-        <v>1</v>
-      </c>
-      <c r="H77" s="12">
-        <v>1547</v>
-      </c>
-      <c r="I77" s="26">
-        <f t="shared" si="6"/>
-        <v>285128</v>
-      </c>
-      <c r="J77" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v>占总概率为0.542563%</v>
-      </c>
-      <c r="K77" s="27" t="str">
-        <f t="shared" si="8"/>
-        <v>配置【R】比重17.140372%</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="32"/>
-      <c r="O77" s="33"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="14"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="14"/>
-      <c r="T77" s="14"/>
-      <c r="U77" s="14"/>
-      <c r="V77" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/doc_new/4.服务器配置文档/抽奖配置.xlsx
+++ b/doc_new/4.服务器配置文档/抽奖配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="普通抽奖(template_draw_lottery)" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
   <si>
     <t>字段名称</t>
   </si>
@@ -1118,7 +1118,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1182,9 +1182,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1192,9 +1189,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1212,9 +1206,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1222,9 +1213,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1643,30 +1631,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{B2C55B24-3DEC-43EF-B9EC-493B8ED2CF8E}">
+    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{12417568-DE04-4F62-82B9-3C85C829196E}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstColumn" dxfId="1"/>
       <tableStyleElement type="firstRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{DA65B5E8-DC14-44BB-BD9F-DCFA8F8F91F6}">
+    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{1882BD52-1F66-4E06-897B-AA8A63EC439C}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
       <tableStyleElement type="secondColumnStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{D82255F6-D429-4233-B38C-33132E6AF7B1}">
+    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{C375EA45-E860-44D6-B693-FE5284952120}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{702F0E81-B3AD-4F01-A402-36B556B44BC0}">
+    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{974B240C-0410-4E73-9D67-AE2DCF0B2366}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumnStripe" dxfId="12"/>
       <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3BFACD04-A6F1-4FD9-A09C-86C473B5414C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C7549DA2-00A3-4AAF-9EF5-58B08FD4A84A}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
@@ -5340,9 +5328,9 @@
   <dimension ref="A1:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5395,13 +5383,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="10"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
       <c r="N1" s="10"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
@@ -5433,33 +5421,33 @@
       <c r="H2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="24" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="26" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="29"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
-      <c r="W2" s="41"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:23">
       <c r="A3" s="15" t="s">
@@ -5484,21 +5472,21 @@
       <c r="H3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="33"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="34"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="31"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="42"/>
+      <c r="W3" s="38"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:23">
       <c r="A4" s="17" t="s">
@@ -5523,21 +5511,21 @@
       <c r="H4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="34"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="39"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="35"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
-      <c r="W4" s="43"/>
+      <c r="W4" s="39"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:23">
       <c r="A5" s="15"/>
@@ -5563,11 +5551,11 @@
       <c r="H5" s="16">
         <v>35000</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="28">
         <f>SUMIFS(H:H,G:G,G5)</f>
         <v>1025500</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="28">
         <f>INT(1/ROUND((H5/I5*100),6)*100)</f>
         <v>29</v>
       </c>
@@ -5575,25 +5563,25 @@
         <f>"占总概率为"&amp;ROUND((H5/I5*100),6)&amp;"%"</f>
         <v>占总概率为3.412969%</v>
       </c>
-      <c r="L5" s="32" t="str">
+      <c r="L5" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F5,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F5,G:G,G5)/I5*100),6)&amp;"%"</f>
         <v>配置【B】比重19.405168%</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="30">
         <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="40"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="36"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="42"/>
+      <c r="W5" s="38"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:23">
       <c r="A6" s="17"/>
@@ -5619,11 +5607,11 @@
       <c r="H6" s="16">
         <v>30000</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="28">
         <f>SUMIFS(H:H,G:G,G6)</f>
         <v>1025500</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="28">
         <f t="shared" ref="J6:J37" si="0">INT(1/ROUND((H6/I6*100),6)*100)</f>
         <v>34</v>
       </c>
@@ -5631,25 +5619,25 @@
         <f t="shared" ref="K6:K34" si="1">"占总概率为"&amp;ROUND((H6/I6*100),6)&amp;"%"</f>
         <v>占总概率为2.925402%</v>
       </c>
-      <c r="L6" s="32" t="str">
+      <c r="L6" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F6,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F6,G:G,G6)/I6*100),6)&amp;"%"</f>
         <v>配置【B】比重19.405168%</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="30">
         <v>2</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="39"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="35"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="43"/>
+      <c r="W6" s="39"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:23">
       <c r="A7" s="15"/>
@@ -5675,11 +5663,11 @@
       <c r="H7" s="16">
         <v>20000</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="28">
         <f>SUMIFS(H:H,G:G,G7)</f>
         <v>1025500</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="28">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -5687,25 +5675,25 @@
         <f t="shared" si="1"/>
         <v>占总概率为1.950268%</v>
       </c>
-      <c r="L7" s="32" t="str">
+      <c r="L7" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F7,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F7,G:G,G7)/I7*100),6)&amp;"%"</f>
         <v>配置【A】比重47.684057%</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="30">
         <v>3</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="34"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="31"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="42"/>
+      <c r="W7" s="38"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:23">
       <c r="A8" s="17"/>
@@ -5731,11 +5719,11 @@
       <c r="H8" s="16">
         <v>10000</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="28">
         <f>SUMIFS(H:H,G:G,G8)</f>
         <v>1025500</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="28">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
@@ -5743,25 +5731,25 @@
         <f t="shared" si="1"/>
         <v>占总概率为0.975134%</v>
       </c>
-      <c r="L8" s="32" t="str">
+      <c r="L8" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F8,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F8,G:G,G8)/I8*100),6)&amp;"%"</f>
         <v>配置【S】比重23.598245%</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="30">
         <v>4</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="39"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="35"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="43"/>
+      <c r="W8" s="39"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:23">
       <c r="A9" s="15"/>
@@ -5787,11 +5775,11 @@
       <c r="H9" s="16">
         <v>1500</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="28">
         <f>SUMIFS(H:H,G:G,G9)</f>
         <v>1025500</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="28">
         <f t="shared" si="0"/>
         <v>683</v>
       </c>
@@ -5799,25 +5787,25 @@
         <f t="shared" si="1"/>
         <v>占总概率为0.14627%</v>
       </c>
-      <c r="L9" s="32" t="str">
+      <c r="L9" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F9,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F9,G:G,G9)/I9*100),6)&amp;"%"</f>
         <v>配置【SSS】比重1.803998%</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="30">
         <v>5</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="34"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="31"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="42"/>
+      <c r="W9" s="38"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:23">
       <c r="A10" s="17"/>
@@ -5843,11 +5831,11 @@
       <c r="H10" s="16">
         <v>30000</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="28">
         <f>SUMIFS(H:H,G:G,G10)</f>
         <v>1025500</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="28">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -5855,25 +5843,25 @@
         <f t="shared" si="1"/>
         <v>占总概率为2.925402%</v>
       </c>
-      <c r="L10" s="32" t="str">
+      <c r="L10" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F10,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F10,G:G,G10)/I10*100),6)&amp;"%"</f>
         <v>配置【B】比重19.405168%</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10" s="34">
         <v>6</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="39"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="35"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="43"/>
+      <c r="W10" s="39"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:23">
       <c r="A11" s="15"/>
@@ -5899,11 +5887,11 @@
       <c r="H11" s="16">
         <v>15000</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="28">
         <f>SUMIFS(H:H,G:G,G11)</f>
         <v>1025500</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="28">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
@@ -5911,21 +5899,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为1.462701%</v>
       </c>
-      <c r="L11" s="32" t="str">
+      <c r="L11" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F11,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F11,G:G,G11)/I11*100),6)&amp;"%"</f>
         <v>配置【A】比重47.684057%</v>
       </c>
-      <c r="M11" s="33"/>
+      <c r="M11" s="30"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="34"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="31"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="42"/>
+      <c r="W11" s="38"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:23">
       <c r="A12" s="17"/>
@@ -5951,11 +5939,11 @@
       <c r="H12" s="16">
         <v>5000</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="28">
         <f>SUMIFS(H:H,G:G,G12)</f>
         <v>1025500</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="28">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
@@ -5963,21 +5951,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为0.487567%</v>
       </c>
-      <c r="L12" s="32" t="str">
+      <c r="L12" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F12,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F12,G:G,G12)/I12*100),6)&amp;"%"</f>
         <v>配置【S】比重23.598245%</v>
       </c>
-      <c r="M12" s="38"/>
+      <c r="M12" s="34"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="39"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="35"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="43"/>
+      <c r="W12" s="39"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:23">
       <c r="A13" s="15"/>
@@ -6003,11 +5991,11 @@
       <c r="H13" s="16">
         <v>20000</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="28">
         <f>SUMIFS(H:H,G:G,G13)</f>
         <v>1025500</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="28">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -6015,21 +6003,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为1.950268%</v>
       </c>
-      <c r="L13" s="32" t="str">
+      <c r="L13" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F13,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F13,G:G,G13)/I13*100),6)&amp;"%"</f>
         <v>配置【A】比重47.684057%</v>
       </c>
-      <c r="M13" s="33"/>
+      <c r="M13" s="30"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="34"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="31"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="42"/>
+      <c r="W13" s="38"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:23">
       <c r="A14" s="17"/>
@@ -6055,11 +6043,11 @@
       <c r="H14" s="16">
         <v>20000</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="28">
         <f>SUMIFS(H:H,G:G,G14)</f>
         <v>1025500</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="28">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -6067,21 +6055,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为1.950268%</v>
       </c>
-      <c r="L14" s="32" t="str">
+      <c r="L14" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F14,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F14,G:G,G14)/I14*100),6)&amp;"%"</f>
         <v>配置【A】比重47.684057%</v>
       </c>
-      <c r="M14" s="38"/>
+      <c r="M14" s="34"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="39"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="35"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="43"/>
+      <c r="W14" s="39"/>
     </row>
     <row r="15" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A15" s="17"/>
@@ -6107,11 +6095,11 @@
       <c r="H15" s="16">
         <v>20000</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="28">
         <f>SUMIFS(H:H,G:G,G15)</f>
         <v>1025500</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="28">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -6119,21 +6107,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为1.950268%</v>
       </c>
-      <c r="L15" s="32" t="str">
+      <c r="L15" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F15,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F15,G:G,G15)/I15*100),6)&amp;"%"</f>
         <v>配置【A】比重47.684057%</v>
       </c>
-      <c r="M15" s="38"/>
+      <c r="M15" s="34"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="39"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="35"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="43"/>
+      <c r="W15" s="39"/>
     </row>
     <row r="16" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A16" s="15"/>
@@ -6159,11 +6147,11 @@
       <c r="H16" s="16">
         <v>20000</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="28">
         <f>SUMIFS(H:H,G:G,G16)</f>
         <v>1025500</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="28">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -6171,21 +6159,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为1.950268%</v>
       </c>
-      <c r="L16" s="32" t="str">
+      <c r="L16" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F16,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F16,G:G,G16)/I16*100),6)&amp;"%"</f>
         <v>配置【A】比重47.684057%</v>
       </c>
-      <c r="M16" s="33"/>
+      <c r="M16" s="30"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="34"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="31"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="42"/>
+      <c r="W16" s="38"/>
     </row>
     <row r="17" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A17" s="17"/>
@@ -6211,11 +6199,11 @@
       <c r="H17" s="16">
         <v>20000</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="28">
         <f>SUMIFS(H:H,G:G,G17)</f>
         <v>1025500</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="28">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -6223,21 +6211,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为1.950268%</v>
       </c>
-      <c r="L17" s="32" t="str">
+      <c r="L17" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F17,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F17,G:G,G17)/I17*100),6)&amp;"%"</f>
         <v>配置【A】比重47.684057%</v>
       </c>
-      <c r="M17" s="38"/>
+      <c r="M17" s="34"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="39"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="35"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="43"/>
+      <c r="W17" s="39"/>
     </row>
     <row r="18" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A18" s="15"/>
@@ -6263,11 +6251,11 @@
       <c r="H18" s="16">
         <v>15000</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="28">
         <f>SUMIFS(H:H,G:G,G18)</f>
         <v>1025500</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="28">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
@@ -6275,21 +6263,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为1.462701%</v>
       </c>
-      <c r="L18" s="32" t="str">
+      <c r="L18" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F18,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F18,G:G,G18)/I18*100),6)&amp;"%"</f>
         <v>配置【S】比重23.598245%</v>
       </c>
-      <c r="M18" s="33"/>
+      <c r="M18" s="30"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="40"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="36"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="42"/>
+      <c r="W18" s="38"/>
     </row>
     <row r="19" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A19" s="17"/>
@@ -6315,11 +6303,11 @@
       <c r="H19" s="16">
         <v>15000</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="28">
         <f>SUMIFS(H:H,G:G,G19)</f>
         <v>1025500</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="28">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
@@ -6327,21 +6315,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为1.462701%</v>
       </c>
-      <c r="L19" s="32" t="str">
+      <c r="L19" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F19,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F19,G:G,G19)/I19*100),6)&amp;"%"</f>
         <v>配置【S】比重23.598245%</v>
       </c>
-      <c r="M19" s="38"/>
+      <c r="M19" s="34"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="39"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="35"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="43"/>
+      <c r="W19" s="39"/>
     </row>
     <row r="20" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A20" s="15"/>
@@ -6367,11 +6355,11 @@
       <c r="H20" s="16">
         <v>15000</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="28">
         <f>SUMIFS(H:H,G:G,G20)</f>
         <v>1025500</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="28">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
@@ -6379,21 +6367,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为1.462701%</v>
       </c>
-      <c r="L20" s="32" t="str">
+      <c r="L20" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F20,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F20,G:G,G20)/I20*100),6)&amp;"%"</f>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="34"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="42"/>
+      <c r="W20" s="38"/>
     </row>
     <row r="21" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A21" s="17"/>
@@ -6419,11 +6407,11 @@
       <c r="H21" s="16">
         <v>15000</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="28">
         <f>SUMIFS(H:H,G:G,G21)</f>
         <v>1025500</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="28">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
@@ -6431,21 +6419,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为1.462701%</v>
       </c>
-      <c r="L21" s="32" t="str">
+      <c r="L21" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F21,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F21,G:G,G21)/I21*100),6)&amp;"%"</f>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="39"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="35"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-      <c r="W21" s="43"/>
+      <c r="W21" s="39"/>
     </row>
     <row r="22" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A22" s="15"/>
@@ -6471,11 +6459,11 @@
       <c r="H22" s="16">
         <v>5000</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="28">
         <f>SUMIFS(H:H,G:G,G22)</f>
         <v>1025500</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="28">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
@@ -6483,21 +6471,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为0.487567%</v>
       </c>
-      <c r="L22" s="32" t="str">
+      <c r="L22" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F22,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F22,G:G,G22)/I22*100),6)&amp;"%"</f>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="34"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="31"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="42"/>
+      <c r="W22" s="38"/>
     </row>
     <row r="23" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A23" s="17"/>
@@ -6523,11 +6511,11 @@
       <c r="H23" s="16">
         <v>5000</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="28">
         <f>SUMIFS(H:H,G:G,G23)</f>
         <v>1025500</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="28">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
@@ -6535,21 +6523,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为0.487567%</v>
       </c>
-      <c r="L23" s="32" t="str">
+      <c r="L23" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F23,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F23,G:G,G23)/I23*100),6)&amp;"%"</f>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="39"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="35"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="43"/>
+      <c r="W23" s="39"/>
     </row>
     <row r="24" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A24" s="15"/>
@@ -6575,11 +6563,11 @@
       <c r="H24" s="16">
         <v>5000</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="28">
         <f>SUMIFS(H:H,G:G,G24)</f>
         <v>1025500</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="28">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
@@ -6587,21 +6575,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为0.487567%</v>
       </c>
-      <c r="L24" s="32" t="str">
+      <c r="L24" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F24,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F24,G:G,G24)/I24*100),6)&amp;"%"</f>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="34"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="31"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="42"/>
+      <c r="W24" s="38"/>
     </row>
     <row r="25" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A25" s="17"/>
@@ -6627,11 +6615,11 @@
       <c r="H25" s="16">
         <v>5000</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="28">
         <f>SUMIFS(H:H,G:G,G25)</f>
         <v>1025500</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="28">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
@@ -6639,21 +6627,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为0.487567%</v>
       </c>
-      <c r="L25" s="32" t="str">
+      <c r="L25" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F25,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F25,G:G,G25)/I25*100),6)&amp;"%"</f>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="39"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="35"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="43"/>
+      <c r="W25" s="39"/>
     </row>
     <row r="26" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A26" s="15"/>
@@ -6679,11 +6667,11 @@
       <c r="H26" s="16">
         <v>3000</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="28">
         <f>SUMIFS(H:H,G:G,G26)</f>
         <v>1025500</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="28">
         <f t="shared" si="0"/>
         <v>341</v>
       </c>
@@ -6691,21 +6679,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L26" s="32" t="str">
+      <c r="L26" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F26,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F26,G:G,G26)/I26*100),6)&amp;"%"</f>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="34"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="31"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="42"/>
+      <c r="W26" s="38"/>
     </row>
     <row r="27" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A27" s="17"/>
@@ -6731,11 +6719,11 @@
       <c r="H27" s="16">
         <v>2000</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="28">
         <f>SUMIFS(H:H,G:G,G27)</f>
         <v>1025500</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="28">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
@@ -6743,21 +6731,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为0.195027%</v>
       </c>
-      <c r="L27" s="32" t="str">
+      <c r="L27" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F27,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F27,G:G,G27)/I27*100),6)&amp;"%"</f>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="39"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="35"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="43"/>
+      <c r="W27" s="39"/>
     </row>
     <row r="28" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A28" s="17"/>
@@ -6783,11 +6771,11 @@
       <c r="H28" s="16">
         <v>2000</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="28">
         <f>SUMIFS(H:H,G:G,G28)</f>
         <v>1025500</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="28">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
@@ -6795,21 +6783,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为0.195027%</v>
       </c>
-      <c r="L28" s="32" t="str">
+      <c r="L28" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F28,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F28,G:G,G28)/I28*100),6)&amp;"%"</f>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="39"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="35"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="43"/>
+      <c r="W28" s="39"/>
     </row>
     <row r="29" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A29" s="15"/>
@@ -6835,11 +6823,11 @@
       <c r="H29" s="16">
         <v>1000</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="28">
         <f>SUMIFS(H:H,G:G,G29)</f>
         <v>1025500</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="28">
         <f t="shared" si="0"/>
         <v>1025</v>
       </c>
@@ -6847,21 +6835,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为0.097513%</v>
       </c>
-      <c r="L29" s="32" t="str">
+      <c r="L29" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F29,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F29,G:G,G29)/I29*100),6)&amp;"%"</f>
         <v>配置【SSS】比重1.803998%</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="34"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="31"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="42"/>
+      <c r="W29" s="38"/>
     </row>
     <row r="30" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A30" s="17"/>
@@ -6887,11 +6875,11 @@
       <c r="H30" s="16">
         <v>1000</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="28">
         <f>SUMIFS(H:H,G:G,G30)</f>
         <v>1025500</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="28">
         <f t="shared" si="0"/>
         <v>1025</v>
       </c>
@@ -6899,21 +6887,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为0.097513%</v>
       </c>
-      <c r="L30" s="32" t="str">
+      <c r="L30" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F30,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F30,G:G,G30)/I30*100),6)&amp;"%"</f>
         <v>配置【SSS】比重1.803998%</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="39"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="35"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="43"/>
+      <c r="W30" s="39"/>
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:23">
       <c r="A31" s="17"/>
@@ -6939,11 +6927,11 @@
       <c r="H31" s="16">
         <v>1000</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="28">
         <f>SUMIFS(H:H,G:G,G31)</f>
         <v>1025500</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="28">
         <f t="shared" si="0"/>
         <v>1025</v>
       </c>
@@ -6951,21 +6939,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为0.097513%</v>
       </c>
-      <c r="L31" s="32" t="str">
+      <c r="L31" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F31,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F31,G:G,G31)/I31*100),6)&amp;"%"</f>
         <v>配置【SSS】比重1.803998%</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="39"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="35"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="43"/>
+      <c r="W31" s="39"/>
     </row>
     <row r="32" ht="22.5" customHeight="1" spans="1:23">
       <c r="A32" s="17"/>
@@ -6991,11 +6979,11 @@
       <c r="H32" s="16">
         <v>1000</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="28">
         <f>SUMIFS(H:H,G:G,G32)</f>
         <v>1025500</v>
       </c>
-      <c r="J32" s="31">
+      <c r="J32" s="28">
         <f t="shared" si="0"/>
         <v>1025</v>
       </c>
@@ -7003,21 +6991,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为0.097513%</v>
       </c>
-      <c r="L32" s="32" t="str">
+      <c r="L32" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F32,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F32,G:G,G32)/I32*100),6)&amp;"%"</f>
         <v>配置【SSS】比重1.803998%</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="39"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="35"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="43"/>
+      <c r="W32" s="39"/>
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:23">
       <c r="A33" s="17"/>
@@ -7043,11 +7031,11 @@
       <c r="H33" s="16">
         <v>1000</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="28">
         <f>SUMIFS(H:H,G:G,G33)</f>
         <v>1025500</v>
       </c>
-      <c r="J33" s="31">
+      <c r="J33" s="28">
         <f t="shared" si="0"/>
         <v>1025</v>
       </c>
@@ -7055,21 +7043,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为0.097513%</v>
       </c>
-      <c r="L33" s="32" t="str">
+      <c r="L33" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F33,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F33,G:G,G33)/I33*100),6)&amp;"%"</f>
         <v>配置【SSS】比重1.803998%</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="39"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="35"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="43"/>
+      <c r="W33" s="39"/>
     </row>
     <row r="34" ht="22.5" customHeight="1" spans="1:23">
       <c r="A34" s="17"/>
@@ -7095,11 +7083,11 @@
       <c r="H34" s="16">
         <v>1000</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="28">
         <f>SUMIFS(H:H,G:G,G34)</f>
         <v>1025500</v>
       </c>
-      <c r="J34" s="31">
+      <c r="J34" s="28">
         <f t="shared" si="0"/>
         <v>1025</v>
       </c>
@@ -7107,21 +7095,21 @@
         <f t="shared" si="1"/>
         <v>占总概率为0.097513%</v>
       </c>
-      <c r="L34" s="32" t="str">
+      <c r="L34" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F34,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F34,G:G,G34)/I34*100),6)&amp;"%"</f>
         <v>配置【SSS】比重1.803998%</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="39"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="35"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="43"/>
+      <c r="W34" s="39"/>
     </row>
     <row r="35" ht="22.5" customHeight="1" spans="1:23">
       <c r="A35" s="17"/>
@@ -7146,11 +7134,11 @@
       <c r="H35">
         <v>3000</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="28">
         <f t="shared" ref="I35:I66" si="2">SUMIFS(H:H,G:G,G35)</f>
         <v>1025500</v>
       </c>
-      <c r="J35" s="31">
+      <c r="J35" s="28">
         <f t="shared" si="0"/>
         <v>341</v>
       </c>
@@ -7158,21 +7146,21 @@
         <f t="shared" ref="K35:K66" si="3">"占总概率为"&amp;ROUND((H35/I35*100),6)&amp;"%"</f>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L35" s="32" t="str">
+      <c r="L35" s="29" t="str">
         <f t="shared" ref="L35:L66" si="4">"配置【"&amp;VLOOKUP(F35,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F35,G:G,G35)/I35*100),6)&amp;"%"</f>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="39"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="35"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="43"/>
+      <c r="W35" s="39"/>
     </row>
     <row r="36" ht="22.5" customHeight="1" spans="1:23">
       <c r="A36" s="17"/>
@@ -7197,11 +7185,11 @@
       <c r="H36">
         <v>3000</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J36" s="31">
+      <c r="J36" s="28">
         <f t="shared" si="0"/>
         <v>341</v>
       </c>
@@ -7209,21 +7197,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L36" s="32" t="str">
+      <c r="L36" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="39"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="35"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="43"/>
+      <c r="W36" s="39"/>
     </row>
     <row r="37" ht="22.5" customHeight="1" spans="1:23">
       <c r="A37" s="17"/>
@@ -7248,11 +7236,11 @@
       <c r="H37">
         <v>3000</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J37" s="31">
+      <c r="J37" s="28">
         <f t="shared" si="0"/>
         <v>341</v>
       </c>
@@ -7260,21 +7248,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L37" s="32" t="str">
+      <c r="L37" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="39"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="35"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="43"/>
+      <c r="W37" s="39"/>
     </row>
     <row r="38" ht="22.5" customHeight="1" spans="1:23">
       <c r="A38" s="17"/>
@@ -7299,11 +7287,11 @@
       <c r="H38">
         <v>3000</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J38" s="31">
+      <c r="J38" s="28">
         <f t="shared" ref="J38:J69" si="5">INT(1/ROUND((H38/I38*100),6)*100)</f>
         <v>341</v>
       </c>
@@ -7311,21 +7299,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L38" s="32" t="str">
+      <c r="L38" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="39"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="35"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="43"/>
+      <c r="W38" s="39"/>
     </row>
     <row r="39" ht="22.5" customHeight="1" spans="1:23">
       <c r="A39" s="17"/>
@@ -7350,11 +7338,11 @@
       <c r="H39">
         <v>3000</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J39" s="31">
+      <c r="J39" s="28">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
@@ -7362,21 +7350,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L39" s="32" t="str">
+      <c r="L39" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="39"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="35"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-      <c r="W39" s="43"/>
+      <c r="W39" s="39"/>
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:23">
       <c r="A40" s="17"/>
@@ -7401,11 +7389,11 @@
       <c r="H40">
         <v>3000</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J40" s="31">
+      <c r="J40" s="28">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
@@ -7413,21 +7401,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L40" s="32" t="str">
+      <c r="L40" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="39"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="35"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-      <c r="W40" s="43"/>
+      <c r="W40" s="39"/>
     </row>
     <row r="41" ht="22.5" customHeight="1" spans="1:23">
       <c r="A41" s="17"/>
@@ -7452,11 +7440,11 @@
       <c r="H41">
         <v>3000</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J41" s="31">
+      <c r="J41" s="28">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
@@ -7464,21 +7452,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L41" s="32" t="str">
+      <c r="L41" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="39"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="35"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
-      <c r="W41" s="43"/>
+      <c r="W41" s="39"/>
     </row>
     <row r="42" ht="22.5" customHeight="1" spans="1:23">
       <c r="A42" s="17"/>
@@ -7503,11 +7491,11 @@
       <c r="H42">
         <v>3000</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J42" s="31">
+      <c r="J42" s="28">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
@@ -7515,21 +7503,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L42" s="32" t="str">
+      <c r="L42" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="39"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="35"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
-      <c r="W42" s="43"/>
+      <c r="W42" s="39"/>
     </row>
     <row r="43" ht="22.5" customHeight="1" spans="1:23">
       <c r="A43" s="17"/>
@@ -7554,11 +7542,11 @@
       <c r="H43">
         <v>3000</v>
       </c>
-      <c r="I43" s="30">
+      <c r="I43" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J43" s="31">
+      <c r="J43" s="28">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
@@ -7566,21 +7554,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L43" s="32" t="str">
+      <c r="L43" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="39"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="35"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
-      <c r="W43" s="43"/>
+      <c r="W43" s="39"/>
     </row>
     <row r="44" ht="22.5" customHeight="1" spans="1:23">
       <c r="A44" s="17"/>
@@ -7605,11 +7593,11 @@
       <c r="H44">
         <v>3000</v>
       </c>
-      <c r="I44" s="30">
+      <c r="I44" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J44" s="31">
+      <c r="J44" s="28">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
@@ -7617,21 +7605,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L44" s="32" t="str">
+      <c r="L44" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="39"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="35"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
-      <c r="W44" s="43"/>
+      <c r="W44" s="39"/>
     </row>
     <row r="45" ht="22.5" customHeight="1" spans="1:23">
       <c r="A45" s="17"/>
@@ -7656,11 +7644,11 @@
       <c r="H45">
         <v>3000</v>
       </c>
-      <c r="I45" s="30">
+      <c r="I45" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J45" s="31">
+      <c r="J45" s="28">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
@@ -7668,21 +7656,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L45" s="32" t="str">
+      <c r="L45" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="39"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="35"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
-      <c r="W45" s="43"/>
+      <c r="W45" s="39"/>
     </row>
     <row r="46" ht="22.5" customHeight="1" spans="1:23">
       <c r="A46" s="17"/>
@@ -7707,11 +7695,11 @@
       <c r="H46">
         <v>3000</v>
       </c>
-      <c r="I46" s="30">
+      <c r="I46" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J46" s="31">
+      <c r="J46" s="28">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
@@ -7719,21 +7707,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L46" s="32" t="str">
+      <c r="L46" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="39"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="35"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
-      <c r="W46" s="43"/>
+      <c r="W46" s="39"/>
     </row>
     <row r="47" ht="22.5" customHeight="1" spans="1:23">
       <c r="A47" s="17"/>
@@ -7758,11 +7746,11 @@
       <c r="H47">
         <v>3000</v>
       </c>
-      <c r="I47" s="30">
+      <c r="I47" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J47" s="31">
+      <c r="J47" s="28">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
@@ -7770,21 +7758,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L47" s="32" t="str">
+      <c r="L47" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="39"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="35"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
-      <c r="W47" s="43"/>
+      <c r="W47" s="39"/>
     </row>
     <row r="48" ht="22.5" customHeight="1" spans="1:23">
       <c r="A48" s="17"/>
@@ -7809,11 +7797,11 @@
       <c r="H48">
         <v>3000</v>
       </c>
-      <c r="I48" s="30">
+      <c r="I48" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J48" s="31">
+      <c r="J48" s="28">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
@@ -7821,21 +7809,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L48" s="32" t="str">
+      <c r="L48" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="39"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="35"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
-      <c r="W48" s="43"/>
+      <c r="W48" s="39"/>
     </row>
     <row r="49" ht="22.5" customHeight="1" spans="1:23">
       <c r="A49" s="17"/>
@@ -7860,11 +7848,11 @@
       <c r="H49">
         <v>3000</v>
       </c>
-      <c r="I49" s="30">
+      <c r="I49" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J49" s="31">
+      <c r="J49" s="28">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
@@ -7872,21 +7860,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L49" s="32" t="str">
+      <c r="L49" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="39"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="35"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
-      <c r="W49" s="43"/>
+      <c r="W49" s="39"/>
     </row>
     <row r="50" ht="22.5" customHeight="1" spans="1:23">
       <c r="A50" s="17"/>
@@ -7911,11 +7899,11 @@
       <c r="H50">
         <v>3000</v>
       </c>
-      <c r="I50" s="30">
+      <c r="I50" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J50" s="31">
+      <c r="J50" s="28">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
@@ -7923,21 +7911,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L50" s="32" t="str">
+      <c r="L50" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="39"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="35"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
-      <c r="W50" s="43"/>
+      <c r="W50" s="39"/>
     </row>
     <row r="51" ht="22.5" customHeight="1" spans="1:23">
       <c r="A51" s="17"/>
@@ -7962,11 +7950,11 @@
       <c r="H51">
         <v>4000</v>
       </c>
-      <c r="I51" s="30">
+      <c r="I51" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J51" s="31">
+      <c r="J51" s="28">
         <f t="shared" si="5"/>
         <v>256</v>
       </c>
@@ -7974,21 +7962,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.390054%</v>
       </c>
-      <c r="L51" s="32" t="str">
+      <c r="L51" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="39"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="35"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
-      <c r="W51" s="43"/>
+      <c r="W51" s="39"/>
     </row>
     <row r="52" ht="22.5" customHeight="1" spans="1:23">
       <c r="A52" s="17"/>
@@ -8013,11 +8001,11 @@
       <c r="H52">
         <v>4000</v>
       </c>
-      <c r="I52" s="30">
+      <c r="I52" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J52" s="31">
+      <c r="J52" s="28">
         <f t="shared" si="5"/>
         <v>256</v>
       </c>
@@ -8025,21 +8013,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.390054%</v>
       </c>
-      <c r="L52" s="32" t="str">
+      <c r="L52" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="39"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="35"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-      <c r="W52" s="43"/>
+      <c r="W52" s="39"/>
     </row>
     <row r="53" ht="22.5" customHeight="1" spans="1:23">
       <c r="A53" s="17"/>
@@ -8064,11 +8052,11 @@
       <c r="H53">
         <v>4000</v>
       </c>
-      <c r="I53" s="30">
+      <c r="I53" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J53" s="31">
+      <c r="J53" s="28">
         <f t="shared" si="5"/>
         <v>256</v>
       </c>
@@ -8076,21 +8064,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.390054%</v>
       </c>
-      <c r="L53" s="32" t="str">
+      <c r="L53" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="39"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="35"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
-      <c r="W53" s="43"/>
+      <c r="W53" s="39"/>
     </row>
     <row r="54" ht="22.5" customHeight="1" spans="1:23">
       <c r="A54" s="17"/>
@@ -8115,11 +8103,11 @@
       <c r="H54">
         <v>4000</v>
       </c>
-      <c r="I54" s="30">
+      <c r="I54" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J54" s="31">
+      <c r="J54" s="28">
         <f t="shared" si="5"/>
         <v>256</v>
       </c>
@@ -8127,21 +8115,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.390054%</v>
       </c>
-      <c r="L54" s="32" t="str">
+      <c r="L54" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="3"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="39"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="35"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
-      <c r="W54" s="43"/>
+      <c r="W54" s="39"/>
     </row>
     <row r="55" ht="22.5" customHeight="1" spans="1:23">
       <c r="A55" s="17"/>
@@ -8166,11 +8154,11 @@
       <c r="H55">
         <v>4000</v>
       </c>
-      <c r="I55" s="30">
+      <c r="I55" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J55" s="31">
+      <c r="J55" s="28">
         <f t="shared" si="5"/>
         <v>256</v>
       </c>
@@ -8178,21 +8166,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.390054%</v>
       </c>
-      <c r="L55" s="32" t="str">
+      <c r="L55" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="3"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="39"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="35"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-      <c r="W55" s="43"/>
+      <c r="W55" s="39"/>
     </row>
     <row r="56" ht="22.5" customHeight="1" spans="1:23">
       <c r="A56" s="17"/>
@@ -8217,11 +8205,11 @@
       <c r="H56">
         <v>4000</v>
       </c>
-      <c r="I56" s="30">
+      <c r="I56" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J56" s="31">
+      <c r="J56" s="28">
         <f t="shared" si="5"/>
         <v>256</v>
       </c>
@@ -8229,21 +8217,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.390054%</v>
       </c>
-      <c r="L56" s="32" t="str">
+      <c r="L56" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="3"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="39"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="35"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-      <c r="W56" s="43"/>
+      <c r="W56" s="39"/>
     </row>
     <row r="57" ht="22.5" customHeight="1" spans="1:23">
       <c r="A57" s="17"/>
@@ -8268,11 +8256,11 @@
       <c r="H57">
         <v>4000</v>
       </c>
-      <c r="I57" s="30">
+      <c r="I57" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J57" s="31">
+      <c r="J57" s="28">
         <f t="shared" si="5"/>
         <v>256</v>
       </c>
@@ -8280,21 +8268,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.390054%</v>
       </c>
-      <c r="L57" s="32" t="str">
+      <c r="L57" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="3"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="39"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="35"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
-      <c r="W57" s="43"/>
+      <c r="W57" s="39"/>
     </row>
     <row r="58" ht="22.5" customHeight="1" spans="1:23">
       <c r="A58" s="17"/>
@@ -8319,11 +8307,11 @@
       <c r="H58">
         <v>10000</v>
       </c>
-      <c r="I58" s="30">
+      <c r="I58" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J58" s="31">
+      <c r="J58" s="28">
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
@@ -8331,21 +8319,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.975134%</v>
       </c>
-      <c r="L58" s="32" t="str">
+      <c r="L58" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【B】比重19.405168%</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="3"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="39"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="35"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
-      <c r="W58" s="43"/>
+      <c r="W58" s="39"/>
     </row>
     <row r="59" ht="22.5" customHeight="1" spans="1:23">
       <c r="A59" s="17"/>
@@ -8370,11 +8358,11 @@
       <c r="H59">
         <v>8000</v>
       </c>
-      <c r="I59" s="30">
+      <c r="I59" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J59" s="31">
+      <c r="J59" s="28">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
@@ -8382,21 +8370,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.780107%</v>
       </c>
-      <c r="L59" s="32" t="str">
+      <c r="L59" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【B】比重19.405168%</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="3"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="39"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="35"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
-      <c r="W59" s="43"/>
+      <c r="W59" s="39"/>
     </row>
     <row r="60" ht="22.5" customHeight="1" spans="1:23">
       <c r="A60" s="17"/>
@@ -8421,11 +8409,11 @@
       <c r="H60">
         <v>4000</v>
       </c>
-      <c r="I60" s="30">
+      <c r="I60" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J60" s="31">
+      <c r="J60" s="28">
         <f t="shared" si="5"/>
         <v>256</v>
       </c>
@@ -8433,21 +8421,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.390054%</v>
       </c>
-      <c r="L60" s="32" t="str">
+      <c r="L60" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【A】比重47.684057%</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="3"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="39"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="35"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
-      <c r="W60" s="43"/>
+      <c r="W60" s="39"/>
     </row>
     <row r="61" ht="22.5" customHeight="1" spans="1:23">
       <c r="A61" s="17"/>
@@ -8472,11 +8460,11 @@
       <c r="H61">
         <v>3000</v>
       </c>
-      <c r="I61" s="30">
+      <c r="I61" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J61" s="31">
+      <c r="J61" s="28">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
@@ -8484,21 +8472,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L61" s="32" t="str">
+      <c r="L61" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="3"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="39"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="35"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
-      <c r="W61" s="43"/>
+      <c r="W61" s="39"/>
     </row>
     <row r="62" ht="22.5" customHeight="1" spans="1:23">
       <c r="A62" s="17"/>
@@ -8523,11 +8511,11 @@
       <c r="H62">
         <v>25000</v>
       </c>
-      <c r="I62" s="30">
+      <c r="I62" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J62" s="31">
+      <c r="J62" s="28">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
@@ -8535,21 +8523,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为2.437835%</v>
       </c>
-      <c r="L62" s="32" t="str">
+      <c r="L62" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【B】比重19.405168%</v>
       </c>
       <c r="M62" s="5"/>
       <c r="N62" s="3"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="39"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="35"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
-      <c r="W62" s="43"/>
+      <c r="W62" s="39"/>
     </row>
     <row r="63" ht="22.5" customHeight="1" spans="1:23">
       <c r="A63" s="17"/>
@@ -8574,11 +8562,11 @@
       <c r="H63">
         <v>18000</v>
       </c>
-      <c r="I63" s="30">
+      <c r="I63" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J63" s="31">
+      <c r="J63" s="28">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
@@ -8586,21 +8574,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为1.755241%</v>
       </c>
-      <c r="L63" s="32" t="str">
+      <c r="L63" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【B】比重19.405168%</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="3"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="39"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="35"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
-      <c r="W63" s="43"/>
+      <c r="W63" s="39"/>
     </row>
     <row r="64" ht="22.5" customHeight="1" spans="1:23">
       <c r="A64" s="17"/>
@@ -8625,11 +8613,11 @@
       <c r="H64">
         <v>10000</v>
       </c>
-      <c r="I64" s="30">
+      <c r="I64" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J64" s="31">
+      <c r="J64" s="28">
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
@@ -8637,21 +8625,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.975134%</v>
       </c>
-      <c r="L64" s="32" t="str">
+      <c r="L64" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【A】比重47.684057%</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="39"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="35"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
-      <c r="W64" s="43"/>
+      <c r="W64" s="39"/>
     </row>
     <row r="65" ht="22.5" customHeight="1" spans="1:23">
       <c r="A65" s="17"/>
@@ -8676,11 +8664,11 @@
       <c r="H65">
         <v>5000</v>
       </c>
-      <c r="I65" s="30">
+      <c r="I65" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J65" s="31">
+      <c r="J65" s="28">
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
@@ -8688,21 +8676,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为0.487567%</v>
       </c>
-      <c r="L65" s="32" t="str">
+      <c r="L65" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="3"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="39"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="35"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
-      <c r="W65" s="43"/>
+      <c r="W65" s="39"/>
     </row>
     <row r="66" ht="22.5" customHeight="1" spans="1:23">
       <c r="A66" s="17"/>
@@ -8727,11 +8715,11 @@
       <c r="H66">
         <v>25000</v>
       </c>
-      <c r="I66" s="30">
+      <c r="I66" s="28">
         <f t="shared" si="2"/>
         <v>1025500</v>
       </c>
-      <c r="J66" s="31">
+      <c r="J66" s="28">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
@@ -8739,21 +8727,21 @@
         <f t="shared" si="3"/>
         <v>占总概率为2.437835%</v>
       </c>
-      <c r="L66" s="32" t="str">
+      <c r="L66" s="29" t="str">
         <f t="shared" si="4"/>
         <v>配置【B】比重19.405168%</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="39"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="35"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
-      <c r="W66" s="43"/>
+      <c r="W66" s="39"/>
     </row>
     <row r="67" ht="22.5" customHeight="1" spans="1:23">
       <c r="A67" s="17"/>
@@ -8778,33 +8766,33 @@
       <c r="H67">
         <v>18000</v>
       </c>
-      <c r="I67" s="30">
+      <c r="I67" s="28">
         <f t="shared" ref="I67:I98" si="6">SUMIFS(H:H,G:G,G67)</f>
         <v>1025500</v>
       </c>
-      <c r="J67" s="31">
+      <c r="J67" s="28">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="K67" s="1" t="str">
-        <f t="shared" ref="K67:K98" si="7">"占总概率为"&amp;ROUND((H67/I67*100),6)&amp;"%"</f>
+        <f t="shared" ref="K67:K102" si="7">"占总概率为"&amp;ROUND((H67/I67*100),6)&amp;"%"</f>
         <v>占总概率为1.755241%</v>
       </c>
-      <c r="L67" s="32" t="str">
+      <c r="L67" s="29" t="str">
         <f t="shared" ref="L67:L98" si="8">"配置【"&amp;VLOOKUP(F67,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F67,G:G,G67)/I67*100),6)&amp;"%"</f>
         <v>配置【B】比重19.405168%</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="3"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="39"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="35"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-      <c r="W67" s="43"/>
+      <c r="W67" s="39"/>
     </row>
     <row r="68" ht="22.5" customHeight="1" spans="1:23">
       <c r="A68" s="17"/>
@@ -8829,11 +8817,11 @@
       <c r="H68">
         <v>10000</v>
       </c>
-      <c r="I68" s="30">
+      <c r="I68" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J68" s="31">
+      <c r="J68" s="28">
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
@@ -8841,21 +8829,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为0.975134%</v>
       </c>
-      <c r="L68" s="32" t="str">
+      <c r="L68" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【A】比重47.684057%</v>
       </c>
       <c r="M68" s="5"/>
       <c r="N68" s="3"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="39"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="35"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
-      <c r="W68" s="43"/>
+      <c r="W68" s="39"/>
     </row>
     <row r="69" ht="22.5" customHeight="1" spans="1:23">
       <c r="A69" s="17"/>
@@ -8880,11 +8868,11 @@
       <c r="H69">
         <v>5000</v>
       </c>
-      <c r="I69" s="30">
+      <c r="I69" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J69" s="31">
+      <c r="J69" s="28">
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
@@ -8892,21 +8880,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为0.487567%</v>
       </c>
-      <c r="L69" s="32" t="str">
+      <c r="L69" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="39"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="35"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
-      <c r="W69" s="43"/>
+      <c r="W69" s="39"/>
     </row>
     <row r="70" ht="22.5" customHeight="1" spans="1:23">
       <c r="A70" s="17"/>
@@ -8931,33 +8919,33 @@
       <c r="H70">
         <v>5000</v>
       </c>
-      <c r="I70" s="30">
+      <c r="I70" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J70" s="31">
-        <f t="shared" ref="J70:J101" si="9">INT(1/ROUND((H70/I70*100),6)*100)</f>
+      <c r="J70" s="28">
+        <f t="shared" ref="J70:J102" si="9">INT(1/ROUND((H70/I70*100),6)*100)</f>
         <v>205</v>
       </c>
       <c r="K70" s="1" t="str">
         <f t="shared" si="7"/>
         <v>占总概率为0.487567%</v>
       </c>
-      <c r="L70" s="32" t="str">
+      <c r="L70" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【SSS】比重1.803998%</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="3"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="39"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="35"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
-      <c r="W70" s="43"/>
+      <c r="W70" s="39"/>
     </row>
     <row r="71" ht="22.5" customHeight="1" spans="1:23">
       <c r="A71" s="17"/>
@@ -8982,11 +8970,11 @@
       <c r="H71">
         <v>5000</v>
       </c>
-      <c r="I71" s="30">
+      <c r="I71" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J71" s="31">
+      <c r="J71" s="28">
         <f t="shared" si="9"/>
         <v>205</v>
       </c>
@@ -8994,21 +8982,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为0.487567%</v>
       </c>
-      <c r="L71" s="32" t="str">
+      <c r="L71" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【SSS】比重1.803998%</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="3"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="39"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="35"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
-      <c r="W71" s="43"/>
+      <c r="W71" s="39"/>
     </row>
     <row r="72" ht="22.5" customHeight="1" spans="1:23">
       <c r="A72" s="17"/>
@@ -9033,11 +9021,11 @@
       <c r="H72">
         <v>15000</v>
       </c>
-      <c r="I72" s="30">
+      <c r="I72" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J72" s="31">
+      <c r="J72" s="28">
         <f t="shared" si="9"/>
         <v>68</v>
       </c>
@@ -9045,21 +9033,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为1.462701%</v>
       </c>
-      <c r="L72" s="32" t="str">
+      <c r="L72" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="3"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="39"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="35"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
-      <c r="W72" s="43"/>
+      <c r="W72" s="39"/>
     </row>
     <row r="73" ht="22.5" customHeight="1" spans="1:23">
       <c r="A73" s="17"/>
@@ -9084,11 +9072,11 @@
       <c r="H73">
         <v>15000</v>
       </c>
-      <c r="I73" s="30">
+      <c r="I73" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J73" s="31">
+      <c r="J73" s="28">
         <f t="shared" si="9"/>
         <v>68</v>
       </c>
@@ -9096,21 +9084,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为1.462701%</v>
       </c>
-      <c r="L73" s="32" t="str">
+      <c r="L73" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="3"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="39"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="35"/>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
       <c r="T73" s="3"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
-      <c r="W73" s="43"/>
+      <c r="W73" s="39"/>
     </row>
     <row r="74" ht="22.5" customHeight="1" spans="1:23">
       <c r="A74" s="17"/>
@@ -9135,11 +9123,11 @@
       <c r="H74">
         <v>15000</v>
       </c>
-      <c r="I74" s="30">
+      <c r="I74" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J74" s="31">
+      <c r="J74" s="28">
         <f t="shared" si="9"/>
         <v>68</v>
       </c>
@@ -9147,21 +9135,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为1.462701%</v>
       </c>
-      <c r="L74" s="32" t="str">
+      <c r="L74" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="3"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="39"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="35"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
-      <c r="W74" s="43"/>
+      <c r="W74" s="39"/>
     </row>
     <row r="75" ht="22.5" customHeight="1" spans="1:23">
       <c r="A75" s="17"/>
@@ -9186,11 +9174,11 @@
       <c r="H75">
         <v>15000</v>
       </c>
-      <c r="I75" s="30">
+      <c r="I75" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J75" s="31">
+      <c r="J75" s="28">
         <f t="shared" si="9"/>
         <v>68</v>
       </c>
@@ -9198,21 +9186,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为1.462701%</v>
       </c>
-      <c r="L75" s="32" t="str">
+      <c r="L75" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="3"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="39"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="35"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
-      <c r="W75" s="43"/>
+      <c r="W75" s="39"/>
     </row>
     <row r="76" ht="22.5" customHeight="1" spans="1:23">
       <c r="A76" s="17"/>
@@ -9237,11 +9225,11 @@
       <c r="H76">
         <v>15000</v>
       </c>
-      <c r="I76" s="30">
+      <c r="I76" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J76" s="31">
+      <c r="J76" s="28">
         <f t="shared" si="9"/>
         <v>68</v>
       </c>
@@ -9249,21 +9237,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为1.462701%</v>
       </c>
-      <c r="L76" s="32" t="str">
+      <c r="L76" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M76" s="5"/>
       <c r="N76" s="3"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="39"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="35"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
-      <c r="W76" s="43"/>
+      <c r="W76" s="39"/>
     </row>
     <row r="77" ht="22.5" customHeight="1" spans="1:23">
       <c r="A77" s="17"/>
@@ -9288,11 +9276,11 @@
       <c r="H77">
         <v>15000</v>
       </c>
-      <c r="I77" s="30">
+      <c r="I77" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J77" s="31">
+      <c r="J77" s="28">
         <f t="shared" si="9"/>
         <v>68</v>
       </c>
@@ -9300,21 +9288,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为1.462701%</v>
       </c>
-      <c r="L77" s="32" t="str">
+      <c r="L77" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="3"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="39"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="35"/>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
-      <c r="W77" s="43"/>
+      <c r="W77" s="39"/>
     </row>
     <row r="78" ht="22.5" customHeight="1" spans="1:23">
       <c r="A78" s="17"/>
@@ -9339,11 +9327,11 @@
       <c r="H78">
         <v>15000</v>
       </c>
-      <c r="I78" s="30">
+      <c r="I78" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J78" s="31">
+      <c r="J78" s="28">
         <f t="shared" si="9"/>
         <v>68</v>
       </c>
@@ -9351,21 +9339,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为1.462701%</v>
       </c>
-      <c r="L78" s="32" t="str">
+      <c r="L78" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="3"/>
-      <c r="O78" s="38"/>
-      <c r="P78" s="39"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="35"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
-      <c r="W78" s="43"/>
+      <c r="W78" s="39"/>
     </row>
     <row r="79" ht="22.5" customHeight="1" spans="1:23">
       <c r="A79" s="17"/>
@@ -9390,11 +9378,11 @@
       <c r="H79">
         <v>25000</v>
       </c>
-      <c r="I79" s="30">
+      <c r="I79" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J79" s="31">
+      <c r="J79" s="28">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
@@ -9402,21 +9390,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为2.437835%</v>
       </c>
-      <c r="L79" s="32" t="str">
+      <c r="L79" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【A】比重47.684057%</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="3"/>
-      <c r="O79" s="38"/>
-      <c r="P79" s="39"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="35"/>
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
       <c r="T79" s="3"/>
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
-      <c r="W79" s="43"/>
+      <c r="W79" s="39"/>
     </row>
     <row r="80" ht="22.5" customHeight="1" spans="1:23">
       <c r="A80" s="17"/>
@@ -9441,11 +9429,11 @@
       <c r="H80">
         <v>25000</v>
       </c>
-      <c r="I80" s="30">
+      <c r="I80" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J80" s="31">
+      <c r="J80" s="28">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
@@ -9453,21 +9441,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为2.437835%</v>
       </c>
-      <c r="L80" s="32" t="str">
+      <c r="L80" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【A】比重47.684057%</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="3"/>
-      <c r="O80" s="38"/>
-      <c r="P80" s="39"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="35"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
-      <c r="W80" s="43"/>
+      <c r="W80" s="39"/>
     </row>
     <row r="81" ht="22.5" customHeight="1" spans="1:23">
       <c r="A81" s="17"/>
@@ -9492,11 +9480,11 @@
       <c r="H81">
         <v>25000</v>
       </c>
-      <c r="I81" s="30">
+      <c r="I81" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J81" s="31">
+      <c r="J81" s="28">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
@@ -9504,21 +9492,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为2.437835%</v>
       </c>
-      <c r="L81" s="32" t="str">
+      <c r="L81" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【A】比重47.684057%</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="3"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="39"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="35"/>
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
       <c r="T81" s="3"/>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
-      <c r="W81" s="43"/>
+      <c r="W81" s="39"/>
     </row>
     <row r="82" ht="22.5" customHeight="1" spans="1:23">
       <c r="A82" s="17"/>
@@ -9543,11 +9531,11 @@
       <c r="H82">
         <v>25000</v>
       </c>
-      <c r="I82" s="30">
+      <c r="I82" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J82" s="31">
+      <c r="J82" s="28">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
@@ -9555,21 +9543,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为2.437835%</v>
       </c>
-      <c r="L82" s="32" t="str">
+      <c r="L82" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【A】比重47.684057%</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="3"/>
-      <c r="O82" s="38"/>
-      <c r="P82" s="39"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="35"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-      <c r="W82" s="43"/>
+      <c r="W82" s="39"/>
     </row>
     <row r="83" ht="22.5" customHeight="1" spans="1:23">
       <c r="A83" s="17"/>
@@ -9594,11 +9582,11 @@
       <c r="H83">
         <v>25000</v>
       </c>
-      <c r="I83" s="30">
+      <c r="I83" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J83" s="31">
+      <c r="J83" s="28">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
@@ -9606,21 +9594,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为2.437835%</v>
       </c>
-      <c r="L83" s="32" t="str">
+      <c r="L83" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【A】比重47.684057%</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="3"/>
-      <c r="O83" s="38"/>
-      <c r="P83" s="39"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="35"/>
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
-      <c r="W83" s="43"/>
+      <c r="W83" s="39"/>
     </row>
     <row r="84" ht="22.5" customHeight="1" spans="1:23">
       <c r="A84" s="17"/>
@@ -9645,11 +9633,11 @@
       <c r="H84">
         <v>25000</v>
       </c>
-      <c r="I84" s="30">
+      <c r="I84" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J84" s="31">
+      <c r="J84" s="28">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
@@ -9657,21 +9645,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为2.437835%</v>
       </c>
-      <c r="L84" s="32" t="str">
+      <c r="L84" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【A】比重47.684057%</v>
       </c>
       <c r="M84" s="5"/>
       <c r="N84" s="3"/>
-      <c r="O84" s="38"/>
-      <c r="P84" s="39"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="35"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
-      <c r="W84" s="43"/>
+      <c r="W84" s="39"/>
     </row>
     <row r="85" ht="22.5" customHeight="1" spans="1:23">
       <c r="A85" s="17"/>
@@ -9696,11 +9684,11 @@
       <c r="H85">
         <v>25000</v>
       </c>
-      <c r="I85" s="30">
+      <c r="I85" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J85" s="31">
+      <c r="J85" s="28">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
@@ -9708,21 +9696,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为2.437835%</v>
       </c>
-      <c r="L85" s="32" t="str">
+      <c r="L85" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【A】比重47.684057%</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="3"/>
-      <c r="O85" s="38"/>
-      <c r="P85" s="39"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="35"/>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
       <c r="T85" s="3"/>
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
-      <c r="W85" s="43"/>
+      <c r="W85" s="39"/>
     </row>
     <row r="86" ht="22.5" customHeight="1" spans="1:23">
       <c r="A86" s="17"/>
@@ -9747,11 +9735,11 @@
       <c r="H86">
         <v>25000</v>
       </c>
-      <c r="I86" s="30">
+      <c r="I86" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J86" s="31">
+      <c r="J86" s="28">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
@@ -9759,21 +9747,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为2.437835%</v>
       </c>
-      <c r="L86" s="32" t="str">
+      <c r="L86" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【A】比重47.684057%</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="3"/>
-      <c r="O86" s="38"/>
-      <c r="P86" s="39"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="35"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
-      <c r="W86" s="43"/>
+      <c r="W86" s="39"/>
     </row>
     <row r="87" ht="22.5" customHeight="1" spans="1:23">
       <c r="A87" s="17"/>
@@ -9798,11 +9786,11 @@
       <c r="H87">
         <v>25000</v>
       </c>
-      <c r="I87" s="30">
+      <c r="I87" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J87" s="31">
+      <c r="J87" s="28">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
@@ -9810,21 +9798,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为2.437835%</v>
       </c>
-      <c r="L87" s="32" t="str">
+      <c r="L87" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【A】比重47.684057%</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="3"/>
-      <c r="O87" s="38"/>
-      <c r="P87" s="39"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="35"/>
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
-      <c r="W87" s="43"/>
+      <c r="W87" s="39"/>
     </row>
     <row r="88" ht="22.5" customHeight="1" spans="1:23">
       <c r="A88" s="17"/>
@@ -9849,11 +9837,11 @@
       <c r="H88">
         <v>25000</v>
       </c>
-      <c r="I88" s="30">
+      <c r="I88" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J88" s="31">
+      <c r="J88" s="28">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
@@ -9861,21 +9849,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为2.437835%</v>
       </c>
-      <c r="L88" s="32" t="str">
+      <c r="L88" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【A】比重47.684057%</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="3"/>
-      <c r="O88" s="38"/>
-      <c r="P88" s="39"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="35"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
       <c r="S88" s="3"/>
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
-      <c r="W88" s="43"/>
+      <c r="W88" s="39"/>
     </row>
     <row r="89" ht="22.5" customHeight="1" spans="1:23">
       <c r="A89" s="17"/>
@@ -9900,11 +9888,11 @@
       <c r="H89">
         <v>25000</v>
       </c>
-      <c r="I89" s="30">
+      <c r="I89" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J89" s="31">
+      <c r="J89" s="28">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
@@ -9912,21 +9900,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为2.437835%</v>
       </c>
-      <c r="L89" s="32" t="str">
+      <c r="L89" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【A】比重47.684057%</v>
       </c>
       <c r="M89" s="5"/>
       <c r="N89" s="3"/>
-      <c r="O89" s="38"/>
-      <c r="P89" s="39"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="35"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
       <c r="T89" s="3"/>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
-      <c r="W89" s="43"/>
+      <c r="W89" s="39"/>
     </row>
     <row r="90" ht="22.5" customHeight="1" spans="1:23">
       <c r="A90" s="17"/>
@@ -9951,11 +9939,11 @@
       <c r="H90">
         <v>25000</v>
       </c>
-      <c r="I90" s="30">
+      <c r="I90" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J90" s="31">
+      <c r="J90" s="28">
         <f t="shared" si="9"/>
         <v>41</v>
       </c>
@@ -9963,21 +9951,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为2.437835%</v>
       </c>
-      <c r="L90" s="32" t="str">
+      <c r="L90" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【A】比重47.684057%</v>
       </c>
       <c r="M90" s="5"/>
       <c r="N90" s="3"/>
-      <c r="O90" s="38"/>
-      <c r="P90" s="39"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="35"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-      <c r="W90" s="43"/>
+      <c r="W90" s="39"/>
     </row>
     <row r="91" ht="22.5" customHeight="1" spans="1:23">
       <c r="A91" s="17"/>
@@ -10002,11 +9990,11 @@
       <c r="H91">
         <v>18000</v>
       </c>
-      <c r="I91" s="30">
+      <c r="I91" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J91" s="31">
+      <c r="J91" s="28">
         <f t="shared" si="9"/>
         <v>56</v>
       </c>
@@ -10014,21 +10002,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为1.755241%</v>
       </c>
-      <c r="L91" s="32" t="str">
+      <c r="L91" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【A】比重47.684057%</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="3"/>
-      <c r="O91" s="38"/>
-      <c r="P91" s="39"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="35"/>
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
       <c r="T91" s="3"/>
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
-      <c r="W91" s="43"/>
+      <c r="W91" s="39"/>
     </row>
     <row r="92" ht="22.5" customHeight="1" spans="1:23">
       <c r="A92" s="17"/>
@@ -10053,11 +10041,11 @@
       <c r="H92">
         <v>12000</v>
       </c>
-      <c r="I92" s="30">
+      <c r="I92" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J92" s="31">
+      <c r="J92" s="28">
         <f t="shared" si="9"/>
         <v>85</v>
       </c>
@@ -10065,21 +10053,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为1.170161%</v>
       </c>
-      <c r="L92" s="32" t="str">
+      <c r="L92" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【A】比重47.684057%</v>
       </c>
       <c r="M92" s="5"/>
       <c r="N92" s="3"/>
-      <c r="O92" s="38"/>
-      <c r="P92" s="39"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="35"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
-      <c r="W92" s="43"/>
+      <c r="W92" s="39"/>
     </row>
     <row r="93" ht="22.5" customHeight="1" spans="1:23">
       <c r="A93" s="17"/>
@@ -10104,11 +10092,11 @@
       <c r="H93">
         <v>6000</v>
       </c>
-      <c r="I93" s="30">
+      <c r="I93" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J93" s="31">
+      <c r="J93" s="28">
         <f t="shared" si="9"/>
         <v>170</v>
       </c>
@@ -10116,21 +10104,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为0.58508%</v>
       </c>
-      <c r="L93" s="32" t="str">
+      <c r="L93" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M93" s="5"/>
       <c r="N93" s="3"/>
-      <c r="O93" s="38"/>
-      <c r="P93" s="39"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="35"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
       <c r="T93" s="3"/>
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
-      <c r="W93" s="43"/>
+      <c r="W93" s="39"/>
     </row>
     <row r="94" ht="22.5" customHeight="1" spans="1:23">
       <c r="A94" s="17"/>
@@ -10155,11 +10143,11 @@
       <c r="H94">
         <v>3000</v>
       </c>
-      <c r="I94" s="30">
+      <c r="I94" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J94" s="31">
+      <c r="J94" s="28">
         <f t="shared" si="9"/>
         <v>341</v>
       </c>
@@ -10167,21 +10155,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L94" s="32" t="str">
+      <c r="L94" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="3"/>
-      <c r="O94" s="38"/>
-      <c r="P94" s="39"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="35"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
-      <c r="W94" s="43"/>
+      <c r="W94" s="39"/>
     </row>
     <row r="95" ht="22.5" customHeight="1" spans="1:23">
       <c r="A95" s="17"/>
@@ -10206,11 +10194,11 @@
       <c r="H95">
         <v>6000</v>
       </c>
-      <c r="I95" s="30">
+      <c r="I95" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J95" s="31">
+      <c r="J95" s="28">
         <f t="shared" si="9"/>
         <v>170</v>
       </c>
@@ -10218,21 +10206,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为0.58508%</v>
       </c>
-      <c r="L95" s="32" t="str">
+      <c r="L95" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="3"/>
-      <c r="O95" s="38"/>
-      <c r="P95" s="39"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="35"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-      <c r="W95" s="43"/>
+      <c r="W95" s="39"/>
     </row>
     <row r="96" ht="22.5" customHeight="1" spans="1:23">
       <c r="A96" s="17"/>
@@ -10257,11 +10245,11 @@
       <c r="H96">
         <v>3000</v>
       </c>
-      <c r="I96" s="30">
+      <c r="I96" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J96" s="31">
+      <c r="J96" s="28">
         <f t="shared" si="9"/>
         <v>341</v>
       </c>
@@ -10269,21 +10257,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为0.29254%</v>
       </c>
-      <c r="L96" s="32" t="str">
+      <c r="L96" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【S】比重23.598245%</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="3"/>
-      <c r="O96" s="38"/>
-      <c r="P96" s="39"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="35"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
-      <c r="W96" s="43"/>
+      <c r="W96" s="39"/>
     </row>
     <row r="97" ht="22.5" customHeight="1" spans="1:23">
       <c r="A97" s="17"/>
@@ -10308,11 +10296,11 @@
       <c r="H97">
         <v>1500</v>
       </c>
-      <c r="I97" s="30">
+      <c r="I97" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J97" s="31">
+      <c r="J97" s="28">
         <f t="shared" si="9"/>
         <v>683</v>
       </c>
@@ -10320,21 +10308,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为0.14627%</v>
       </c>
-      <c r="L97" s="32" t="str">
+      <c r="L97" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="3"/>
-      <c r="O97" s="38"/>
-      <c r="P97" s="39"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="35"/>
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
-      <c r="W97" s="43"/>
+      <c r="W97" s="39"/>
     </row>
     <row r="98" ht="22.5" customHeight="1" spans="1:23">
       <c r="A98" s="17"/>
@@ -10359,11 +10347,11 @@
       <c r="H98">
         <v>1000</v>
       </c>
-      <c r="I98" s="30">
+      <c r="I98" s="28">
         <f t="shared" si="6"/>
         <v>1025500</v>
       </c>
-      <c r="J98" s="31">
+      <c r="J98" s="28">
         <f t="shared" si="9"/>
         <v>1025</v>
       </c>
@@ -10371,21 +10359,21 @@
         <f t="shared" si="7"/>
         <v>占总概率为0.097513%</v>
       </c>
-      <c r="L98" s="32" t="str">
+      <c r="L98" s="29" t="str">
         <f t="shared" si="8"/>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M98" s="5"/>
       <c r="N98" s="3"/>
-      <c r="O98" s="38"/>
-      <c r="P98" s="39"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="35"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
       <c r="S98" s="3"/>
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
-      <c r="W98" s="43"/>
+      <c r="W98" s="39"/>
     </row>
     <row r="99" ht="22.5" customHeight="1" spans="1:23">
       <c r="A99" s="17"/>
@@ -10410,33 +10398,33 @@
       <c r="H99">
         <v>1500</v>
       </c>
-      <c r="I99" s="30">
+      <c r="I99" s="28">
         <f>SUMIFS(H:H,G:G,G99)</f>
         <v>1025500</v>
       </c>
-      <c r="J99" s="31">
+      <c r="J99" s="28">
         <f t="shared" si="9"/>
         <v>683</v>
       </c>
       <c r="K99" s="1" t="str">
-        <f>"占总概率为"&amp;ROUND((H99/I99*100),6)&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>占总概率为0.14627%</v>
       </c>
-      <c r="L99" s="32" t="str">
+      <c r="L99" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F99,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F99,G:G,G99)/I99*100),6)&amp;"%"</f>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M99" s="5"/>
       <c r="N99" s="3"/>
-      <c r="O99" s="38"/>
-      <c r="P99" s="39"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="35"/>
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
-      <c r="W99" s="43"/>
+      <c r="W99" s="39"/>
     </row>
     <row r="100" ht="22.5" customHeight="1" spans="1:23">
       <c r="A100" s="17"/>
@@ -10461,33 +10449,33 @@
       <c r="H100">
         <v>1000</v>
       </c>
-      <c r="I100" s="30">
+      <c r="I100" s="28">
         <f>SUMIFS(H:H,G:G,G100)</f>
         <v>1025500</v>
       </c>
-      <c r="J100" s="31">
+      <c r="J100" s="28">
         <f t="shared" si="9"/>
         <v>1025</v>
       </c>
       <c r="K100" s="1" t="str">
-        <f>"占总概率为"&amp;ROUND((H100/I100*100),6)&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>占总概率为0.097513%</v>
       </c>
-      <c r="L100" s="32" t="str">
+      <c r="L100" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F100,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F100,G:G,G100)/I100*100),6)&amp;"%"</f>
         <v>配置【SS】比重7.508532%</v>
       </c>
       <c r="M100" s="5"/>
       <c r="N100" s="3"/>
-      <c r="O100" s="38"/>
-      <c r="P100" s="39"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="35"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
-      <c r="W100" s="43"/>
+      <c r="W100" s="39"/>
     </row>
     <row r="101" ht="22.5" customHeight="1" spans="1:23">
       <c r="A101" s="17"/>
@@ -10512,33 +10500,33 @@
       <c r="H101">
         <v>500</v>
       </c>
-      <c r="I101" s="30">
+      <c r="I101" s="28">
         <f>SUMIFS(H:H,G:G,G101)</f>
         <v>1025500</v>
       </c>
-      <c r="J101" s="31">
+      <c r="J101" s="28">
         <f t="shared" si="9"/>
         <v>2050</v>
       </c>
       <c r="K101" s="1" t="str">
-        <f>"占总概率为"&amp;ROUND((H101/I101*100),6)&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>占总概率为0.048757%</v>
       </c>
-      <c r="L101" s="32" t="str">
+      <c r="L101" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F101,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F101,G:G,G101)/I101*100),6)&amp;"%"</f>
         <v>配置【SSS】比重1.803998%</v>
       </c>
       <c r="M101" s="5"/>
       <c r="N101" s="3"/>
-      <c r="O101" s="38"/>
-      <c r="P101" s="39"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="35"/>
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
       <c r="T101" s="3"/>
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
-      <c r="W101" s="43"/>
+      <c r="W101" s="39"/>
     </row>
     <row r="102" ht="22.5" customHeight="1" spans="1:23">
       <c r="A102" s="17"/>
@@ -10563,33 +10551,33 @@
       <c r="H102">
         <v>500</v>
       </c>
-      <c r="I102" s="30">
+      <c r="I102" s="28">
         <f>SUMIFS(H:H,G:G,G102)</f>
         <v>1025500</v>
       </c>
-      <c r="J102" s="31">
-        <f>INT(1/ROUND((H102/I102*100),6)*100)</f>
+      <c r="J102" s="28">
+        <f t="shared" si="9"/>
         <v>2050</v>
       </c>
       <c r="K102" s="1" t="str">
-        <f>"占总概率为"&amp;ROUND((H102/I102*100),6)&amp;"%"</f>
+        <f t="shared" si="7"/>
         <v>占总概率为0.048757%</v>
       </c>
-      <c r="L102" s="32" t="str">
+      <c r="L102" s="29" t="str">
         <f>"配置【"&amp;VLOOKUP(F102,M:N,2)&amp;"】比重"&amp;ROUND((SUMIFS(H:H,F:F,F102,G:G,G102)/I102*100),6)&amp;"%"</f>
         <v>配置【SSS】比重1.803998%</v>
       </c>
       <c r="M102" s="5"/>
       <c r="N102" s="3"/>
-      <c r="O102" s="38"/>
-      <c r="P102" s="39"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="35"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
       <c r="T102" s="3"/>
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
-      <c r="W102" s="43"/>
+      <c r="W102" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10600,1578 +10588,558 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G70"/>
+  <dimension ref="A2:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="2" ht="14.25"/>
-    <row r="3" ht="17.25" spans="1:7">
-      <c r="A3" s="1">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2">
-        <v>20007</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" ht="33.75" spans="1:7">
-      <c r="A4" s="1">
-        <v>32</v>
-      </c>
-      <c r="B4" s="4">
-        <v>20011</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" ht="33.75" spans="1:7">
-      <c r="A5" s="1">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4">
-        <v>20012</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" ht="33.75" spans="1:7">
-      <c r="A6" s="1">
-        <v>34</v>
-      </c>
-      <c r="B6" s="4">
-        <v>20013</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" ht="33.75" spans="1:7">
-      <c r="A7" s="1">
-        <v>35</v>
-      </c>
-      <c r="B7" s="4">
-        <v>20017</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" ht="33.75" spans="1:7">
-      <c r="A8" s="1">
-        <v>36</v>
-      </c>
-      <c r="B8" s="4">
-        <v>20018</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" ht="33.75" spans="1:7">
-      <c r="A9" s="1">
-        <v>37</v>
-      </c>
-      <c r="B9" s="4">
-        <v>20019</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" ht="33.75" spans="1:7">
-      <c r="A10" s="1">
-        <v>38</v>
-      </c>
-      <c r="B10" s="4">
-        <v>20020</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="11" ht="33.75" spans="1:7">
-      <c r="A11" s="1">
-        <v>39</v>
-      </c>
-      <c r="B11" s="4">
-        <v>20021</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="12" ht="33.75" spans="1:7">
-      <c r="A12" s="1">
-        <v>40</v>
-      </c>
-      <c r="B12" s="4">
-        <v>20022</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" ht="33.75" spans="1:7">
-      <c r="A13" s="1">
-        <v>41</v>
-      </c>
-      <c r="B13" s="4">
-        <v>20023</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="14" ht="33.75" spans="1:7">
-      <c r="A14" s="1">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4">
-        <v>20024</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="15" ht="33.75" spans="1:7">
-      <c r="A15" s="1">
-        <v>43</v>
-      </c>
-      <c r="B15" s="4">
-        <v>20025</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" ht="33.75" spans="1:7">
-      <c r="A16" s="1">
-        <v>44</v>
-      </c>
-      <c r="B16" s="4">
-        <v>20026</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="17" ht="33.75" spans="1:7">
-      <c r="A17" s="1">
-        <v>45</v>
-      </c>
-      <c r="B17" s="4">
-        <v>20027</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="18" ht="33.75" spans="1:7">
-      <c r="A18" s="1">
-        <v>46</v>
-      </c>
-      <c r="B18" s="4">
-        <v>20028</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" ht="17.25" spans="1:7">
-      <c r="A19" s="1">
-        <v>47</v>
-      </c>
-      <c r="B19" s="2">
-        <v>20029</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="20" ht="17.25" spans="1:7">
-      <c r="A20" s="1">
-        <v>48</v>
-      </c>
-      <c r="B20" s="2">
-        <v>20101</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="21" ht="17.25" spans="1:7">
-      <c r="A21" s="1">
-        <v>49</v>
-      </c>
-      <c r="B21" s="4">
-        <v>20102</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="22" ht="17.25" spans="1:7">
-      <c r="A22" s="1">
-        <v>50</v>
-      </c>
-      <c r="B22" s="2">
-        <v>20103</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="23" ht="17.25" spans="1:7">
-      <c r="A23" s="1">
-        <v>51</v>
-      </c>
-      <c r="B23" s="2">
-        <v>20105</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="24" ht="17.25" spans="1:7">
-      <c r="A24" s="1">
-        <v>52</v>
-      </c>
-      <c r="B24" s="4">
-        <v>20106</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="25" ht="17.25" spans="1:7">
-      <c r="A25" s="1">
-        <v>53</v>
-      </c>
-      <c r="B25" s="2">
-        <v>20107</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="26" ht="33.75" spans="1:7">
-      <c r="A26" s="1">
-        <v>54</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1295</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="27" ht="33.75" spans="1:7">
-      <c r="A27" s="1">
-        <v>55</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1296</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="28" ht="33.75" spans="1:7">
-      <c r="A28" s="1">
-        <v>56</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1297</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="29" ht="33.75" spans="1:7">
-      <c r="A29" s="1">
-        <v>57</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1298</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="30" ht="33.75" spans="1:7">
-      <c r="A30" s="1">
-        <v>58</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1287</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="31" ht="33.75" spans="1:7">
-      <c r="A31" s="1">
-        <v>59</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1288</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="32" ht="33.75" spans="1:7">
-      <c r="A32" s="1">
-        <v>60</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1289</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="33" ht="33.75" spans="1:7">
-      <c r="A33" s="1">
-        <v>61</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1290</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="34" ht="33.75" spans="1:7">
-      <c r="A34" s="1">
-        <v>62</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1279</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="35" ht="33.75" spans="1:7">
-      <c r="A35" s="1">
-        <v>63</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1280</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="36" ht="33.75" spans="1:7">
-      <c r="A36" s="1">
-        <v>64</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1281</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="37" ht="33.75" spans="1:7">
-      <c r="A37" s="1">
-        <v>65</v>
-      </c>
-      <c r="B37" s="4">
-        <v>1282</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="38" ht="17.25" spans="1:7">
-      <c r="A38" s="1">
-        <v>66</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1300</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38">
-        <v>10</v>
-      </c>
-      <c r="E38">
-        <v>6</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="39" ht="17.25" spans="1:7">
-      <c r="A39" s="1">
-        <v>67</v>
-      </c>
-      <c r="B39" s="4">
-        <v>1302</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39">
-        <v>10</v>
-      </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="40" ht="17.25" spans="1:7">
-      <c r="A40" s="1">
-        <v>68</v>
-      </c>
-      <c r="B40" s="4">
-        <v>21001</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="41" ht="17.25" spans="1:7">
-      <c r="A41" s="1">
-        <v>69</v>
-      </c>
-      <c r="B41" s="2">
-        <v>21002</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="42" ht="17.25" spans="1:7">
-      <c r="A42" s="1">
-        <v>70</v>
-      </c>
-      <c r="B42" s="4">
-        <v>21003</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="43" ht="17.25" spans="1:7">
-      <c r="A43" s="1">
-        <v>71</v>
-      </c>
-      <c r="B43" s="2">
-        <v>21004</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="44" ht="17.25" spans="1:7">
-      <c r="A44" s="1">
-        <v>72</v>
-      </c>
-      <c r="B44" s="4">
-        <v>21005</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="45" ht="17.25" spans="1:7">
-      <c r="A45" s="1">
-        <v>73</v>
-      </c>
-      <c r="B45" s="2">
-        <v>21006</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="46" ht="17.25" spans="1:7">
-      <c r="A46" s="1">
-        <v>74</v>
-      </c>
-      <c r="B46" s="4">
-        <v>21007</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="47" ht="17.25" spans="1:7">
-      <c r="A47" s="1">
-        <v>75</v>
-      </c>
-      <c r="B47" s="2">
-        <v>21101</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="48" ht="17.25" spans="1:7">
-      <c r="A48" s="1">
-        <v>76</v>
-      </c>
-      <c r="B48" s="2">
-        <v>21102</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="49" ht="17.25" spans="1:7">
-      <c r="A49" s="1">
-        <v>77</v>
-      </c>
-      <c r="B49" s="2">
-        <v>21103</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="50" ht="17.25" spans="1:7">
-      <c r="A50" s="1">
-        <v>78</v>
-      </c>
-      <c r="B50" s="2">
-        <v>21104</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>3</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="51" ht="17.25" spans="1:7">
-      <c r="A51" s="1">
-        <v>79</v>
-      </c>
-      <c r="B51" s="2">
-        <v>21105</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>3</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="52" ht="17.25" spans="1:7">
-      <c r="A52" s="1">
-        <v>80</v>
-      </c>
-      <c r="B52" s="2">
-        <v>21106</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="53" ht="17.25" spans="1:7">
-      <c r="A53" s="1">
-        <v>81</v>
-      </c>
-      <c r="B53" s="2">
-        <v>21107</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>3</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="54" ht="17.25" spans="1:7">
-      <c r="A54" s="1">
-        <v>82</v>
-      </c>
-      <c r="B54" s="2">
-        <v>21108</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="55" ht="33.75" spans="1:7">
-      <c r="A55" s="1">
-        <v>83</v>
-      </c>
-      <c r="B55" s="2">
-        <v>21109</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>3</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="56" ht="33.75" spans="1:7">
-      <c r="A56" s="1">
-        <v>84</v>
-      </c>
-      <c r="B56" s="2">
-        <v>21110</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>3</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="57" ht="17.25" spans="1:7">
-      <c r="A57" s="1">
-        <v>85</v>
-      </c>
-      <c r="B57" s="2">
-        <v>21111</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="58" ht="17.25" spans="1:7">
-      <c r="A58" s="1">
-        <v>86</v>
-      </c>
-      <c r="B58" s="2">
-        <v>21112</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="59" ht="33.75" spans="1:7">
-      <c r="A59" s="1">
-        <v>87</v>
-      </c>
-      <c r="B59" s="2">
-        <v>1287</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59">
-        <v>10</v>
-      </c>
-      <c r="E59">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="60" ht="33.75" spans="1:7">
-      <c r="A60" s="1">
-        <v>88</v>
-      </c>
-      <c r="B60" s="4">
-        <v>1288</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60">
-        <v>10</v>
-      </c>
-      <c r="E60">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="61" ht="33.75" spans="1:7">
-      <c r="A61" s="1">
-        <v>89</v>
-      </c>
-      <c r="B61" s="2">
-        <v>1289</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D61">
-        <v>10</v>
-      </c>
-      <c r="E61">
-        <v>4</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="62" ht="33.75" spans="1:7">
-      <c r="A62" s="1">
-        <v>90</v>
-      </c>
-      <c r="B62" s="4">
-        <v>1290</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62">
-        <v>10</v>
-      </c>
-      <c r="E62">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="63" ht="33.75" spans="1:7">
-      <c r="A63" s="1">
-        <v>91</v>
-      </c>
-      <c r="B63" s="2">
-        <v>1287</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63">
-        <v>50</v>
-      </c>
-      <c r="E63">
-        <v>4</v>
-      </c>
-      <c r="F63" s="3">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="64" ht="33.75" spans="1:7">
-      <c r="A64" s="1">
-        <v>92</v>
-      </c>
-      <c r="B64" s="4">
-        <v>1288</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64">
-        <v>50</v>
-      </c>
-      <c r="E64">
-        <v>4</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="65" ht="33.75" spans="1:7">
-      <c r="A65" s="1">
-        <v>93</v>
-      </c>
-      <c r="B65" s="2">
-        <v>1289</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65">
-        <v>50</v>
-      </c>
-      <c r="E65">
-        <v>5</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="66" ht="33.75" spans="1:7">
-      <c r="A66" s="1">
-        <v>94</v>
-      </c>
-      <c r="B66" s="4">
-        <v>1290</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66">
-        <v>50</v>
-      </c>
-      <c r="E66">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="67" ht="33.75" spans="1:7">
-      <c r="A67" s="1">
-        <v>95</v>
-      </c>
-      <c r="B67" s="2">
-        <v>1287</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67">
-        <v>100</v>
-      </c>
-      <c r="E67">
-        <v>5</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="68" ht="33.75" spans="1:7">
-      <c r="A68" s="1">
-        <v>96</v>
-      </c>
-      <c r="B68" s="4">
-        <v>1288</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68">
-        <v>100</v>
-      </c>
-      <c r="E68">
-        <v>5</v>
-      </c>
-      <c r="F68" s="3">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="69" ht="33.75" spans="1:7">
-      <c r="A69" s="1">
-        <v>97</v>
-      </c>
-      <c r="B69" s="2">
-        <v>1289</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D69">
-        <v>100</v>
-      </c>
-      <c r="E69">
-        <v>6</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="70" ht="33.75" spans="1:7">
-      <c r="A70" s="1">
-        <v>98</v>
-      </c>
-      <c r="B70" s="4">
-        <v>1290</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D70">
-        <v>100</v>
-      </c>
-      <c r="E70">
-        <v>6</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>500</v>
-      </c>
+    <row r="3" ht="17.25" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" ht="17.25" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:6">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" ht="17.25" spans="1:6">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" ht="17.25" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" ht="17.25" spans="1:6">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" ht="17.25" spans="1:6">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" ht="17.25" spans="1:6">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" ht="17.25" spans="1:6">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" ht="17.25" spans="1:6">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" ht="17.25" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" ht="17.25" spans="1:6">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" ht="17.25" spans="1:6">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" ht="17.25" spans="1:6">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" ht="17.25" spans="1:6">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" ht="17.25" spans="1:6">
+      <c r="A26" s="1"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="2"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" ht="17.25" spans="1:6">
+      <c r="A27" s="1"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="2"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" ht="17.25" spans="1:6">
+      <c r="A28" s="1"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="2"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" ht="17.25" spans="1:6">
+      <c r="A29" s="1"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="2"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" ht="17.25" spans="1:6">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" ht="17.25" spans="1:6">
+      <c r="A31" s="1"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" ht="17.25" spans="1:6">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" ht="17.25" spans="1:6">
+      <c r="A33" s="1"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" ht="17.25" spans="1:6">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" ht="17.25" spans="1:6">
+      <c r="A35" s="1"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" ht="17.25" spans="1:6">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" ht="17.25" spans="1:6">
+      <c r="A37" s="1"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" ht="17.25" spans="1:6">
+      <c r="A38" s="1"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="2"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" ht="17.25" spans="1:6">
+      <c r="A39" s="1"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="2"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" ht="17.25" spans="1:6">
+      <c r="A40" s="1"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" ht="17.25" spans="1:6">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" ht="17.25" spans="1:6">
+      <c r="A42" s="1"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" ht="17.25" spans="1:6">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" ht="17.25" spans="1:6">
+      <c r="A44" s="1"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" ht="17.25" spans="1:6">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" ht="17.25" spans="1:6">
+      <c r="A46" s="1"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" ht="17.25" spans="1:6">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" ht="17.25" spans="1:6">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="4"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" ht="17.25" spans="1:6">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" ht="17.25" spans="1:6">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="4"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" ht="17.25" spans="1:6">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" ht="17.25" spans="1:6">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="4"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" ht="17.25" spans="1:6">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" ht="17.25" spans="1:6">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="4"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" ht="17.25" spans="1:6">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" ht="17.25" spans="1:6">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="4"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" ht="17.25" spans="1:6">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" ht="17.25" spans="1:6">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="4"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" ht="17.25" spans="1:6">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" ht="17.25" spans="1:6">
+      <c r="A60" s="1"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" ht="17.25" spans="1:6">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" ht="17.25" spans="1:6">
+      <c r="A62" s="1"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" ht="17.25" spans="1:6">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" ht="17.25" spans="1:6">
+      <c r="A64" s="1"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" ht="17.25" spans="1:6">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" ht="17.25" spans="1:6">
+      <c r="A66" s="1"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" ht="17.25" spans="1:6">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" ht="17.25" spans="1:6">
+      <c r="A68" s="1"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" ht="17.25" spans="1:6">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" ht="17.25" spans="1:6">
+      <c r="A70" s="1"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/doc_new/4.服务器配置文档/抽奖配置.xlsx
+++ b/doc_new/4.服务器配置文档/抽奖配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11805"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="普通抽奖(template_draw_lottery)" sheetId="2" r:id="rId1"/>
@@ -1631,30 +1631,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{12417568-DE04-4F62-82B9-3C85C829196E}">
+    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{58E119E8-44C0-438A-915D-741EFDAD8633}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstColumn" dxfId="1"/>
       <tableStyleElement type="firstRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{1882BD52-1F66-4E06-897B-AA8A63EC439C}">
+    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{B38145FD-7BB2-4B17-8066-C291427C5A5E}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
       <tableStyleElement type="secondColumnStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{C375EA45-E860-44D6-B693-FE5284952120}">
+    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{964430AB-F166-4779-A412-1417197AEDF9}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{974B240C-0410-4E73-9D67-AE2DCF0B2366}">
+    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{6EA49A99-33E1-4BEF-A500-78E5D5D1E1E2}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumnStripe" dxfId="12"/>
       <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C7549DA2-00A3-4AAF-9EF5-58B08FD4A84A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{37367782-43BF-4932-AE49-019C8D1C6B98}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
@@ -1732,7 +1732,7 @@
             <v>1001</v>
           </cell>
           <cell r="C5" t="str">
-            <v>黄金</v>
+            <v>铂金</v>
           </cell>
           <cell r="D5" t="str">
             <v>充值货币</v>
@@ -1757,7 +1757,7 @@
             <v>银币</v>
           </cell>
           <cell r="D7" t="str">
-            <v>存档货币</v>
+            <v>存档货币，作用于魂石升级和图鉴合成消耗，很贵重的啦！</v>
           </cell>
         </row>
         <row r="8">
@@ -1779,7 +1779,7 @@
             <v>钻石</v>
           </cell>
           <cell r="D9" t="str">
-            <v>充值赠送</v>
+            <v>货真价实的钻石！存档货币的一种，可以购买好多好东西哦！</v>
           </cell>
         </row>
         <row r="10">
@@ -1874,7 +1874,7 @@
             <v>祈福卷轴</v>
           </cell>
           <cell r="D19" t="str">
-            <v>抽奖道具</v>
+            <v>元素祈福的卷轴，是最重要的材料之一！抽奖专用！</v>
           </cell>
         </row>
         <row r="20">
@@ -1885,7 +1885,7 @@
             <v>1级魂石降级卷</v>
           </cell>
           <cell r="D20" t="str">
-            <v>降低魂石等级的卷轴</v>
+            <v>用于降低1级魂石等级的卷轴</v>
           </cell>
         </row>
         <row r="21">
@@ -1896,7 +1896,7 @@
             <v>2级魂石降级卷</v>
           </cell>
           <cell r="D21" t="str">
-            <v>降低魂石等级的卷轴</v>
+            <v>用于降低2级魂石等级的卷轴</v>
           </cell>
         </row>
         <row r="22">
@@ -1907,7 +1907,7 @@
             <v>3级魂石降级卷</v>
           </cell>
           <cell r="D22" t="str">
-            <v>降低魂石等级的卷轴</v>
+            <v>用于降低3级魂石等级的卷轴</v>
           </cell>
         </row>
         <row r="23">
@@ -1918,7 +1918,7 @@
             <v>4级魂石降级卷</v>
           </cell>
           <cell r="D23" t="str">
-            <v>降低魂石等级的卷轴</v>
+            <v>用于降低4级魂石等级的卷轴</v>
           </cell>
         </row>
         <row r="24">
@@ -1929,7 +1929,7 @@
             <v>低级魂石升级保护卷</v>
           </cell>
           <cell r="D24" t="str">
-            <v>提高魂石升级概率的卷轴</v>
+            <v>在升级魂石时添加使用，可以增加魂石升级5%的概率</v>
           </cell>
         </row>
         <row r="25">
@@ -1940,7 +1940,7 @@
             <v>中级魂石升级保护卷</v>
           </cell>
           <cell r="D25" t="str">
-            <v>提高魂石升级概率的卷轴</v>
+            <v>在升级魂石时添加使用，可以增加魂石升级10%的概率</v>
           </cell>
         </row>
         <row r="26">
@@ -1951,7 +1951,7 @@
             <v>高级魂石升级保护卷</v>
           </cell>
           <cell r="D26" t="str">
-            <v>提高魂石升级概率的卷轴</v>
+            <v>在升级魂石时添加使用，可以增加魂石升级15%的概率</v>
           </cell>
         </row>
         <row r="27">
@@ -1970,7 +1970,10 @@
             <v>1287</v>
           </cell>
           <cell r="C28" t="str">
-            <v>1级魂石自选箱</v>
+            <v>1级魂石兑换券</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>可以去商城【魂石兑换】里面兑换任意的1级魂石</v>
           </cell>
         </row>
         <row r="29">
@@ -1978,7 +1981,10 @@
             <v>1288</v>
           </cell>
           <cell r="C29" t="str">
-            <v>2级魂石自选箱</v>
+            <v>2级魂石兑换券</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>可以去商城【魂石兑换】里面兑换任意的2级魂石</v>
           </cell>
         </row>
         <row r="30">
@@ -1986,7 +1992,10 @@
             <v>1289</v>
           </cell>
           <cell r="C30" t="str">
-            <v>3级魂石自选箱</v>
+            <v>3级魂石兑换券</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>可以去商城【魂石兑换】里面兑换任意的3级魂石</v>
           </cell>
         </row>
         <row r="31">
@@ -1994,7 +2003,10 @@
             <v>1290</v>
           </cell>
           <cell r="C31" t="str">
-            <v>4级魂石自选箱</v>
+            <v>4级魂石兑换券</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>可以去商城【魂石兑换】里面兑换任意的4级魂石</v>
           </cell>
         </row>
         <row r="32">
@@ -2038,7 +2050,7 @@
             <v>万能精通经验</v>
           </cell>
           <cell r="D35" t="str">
-            <v>使用后获得 技能精通经验</v>
+            <v>对某一个技能类型精通进行经验灌注，可以直接提高对应技能精通的经验值，万能的哦！</v>
           </cell>
         </row>
         <row r="36">
@@ -2049,7 +2061,7 @@
             <v>1级魂石挑战券</v>
           </cell>
           <cell r="D36" t="str">
-            <v>通关后使用挑战魂石boss获得魂石奖励</v>
+            <v>通关后使用，开启魂石挑战，挑战魂石boss获得魂石奖励</v>
           </cell>
         </row>
         <row r="37">
@@ -2060,7 +2072,7 @@
             <v>2级魂石挑战券</v>
           </cell>
           <cell r="D37" t="str">
-            <v>通关后使用挑战魂石boss获得魂石奖励</v>
+            <v>通关后使用，开启魂石挑战，挑战魂石boss获得魂石奖励</v>
           </cell>
         </row>
         <row r="38">
@@ -2071,7 +2083,7 @@
             <v>3级魂石挑战券</v>
           </cell>
           <cell r="D38" t="str">
-            <v>通关后使用挑战魂石boss获得魂石奖励</v>
+            <v>通关后使用，开启魂石挑战，挑战魂石boss获得魂石奖励</v>
           </cell>
         </row>
         <row r="39">
@@ -2082,7 +2094,7 @@
             <v>4级魂石挑战券</v>
           </cell>
           <cell r="D39" t="str">
-            <v>通关后使用挑战魂石boss获得魂石奖励</v>
+            <v>通关后使用，开启魂石挑战，挑战魂石boss获得魂石奖励</v>
           </cell>
         </row>
         <row r="40">
@@ -2136,6 +2148,9 @@
           <cell r="C44" t="str">
             <v>炼狱熊怪</v>
           </cell>
+          <cell r="D44" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="45">
           <cell r="B45">
@@ -2144,6 +2159,9 @@
           <cell r="C45" t="str">
             <v>炼狱羚羊</v>
           </cell>
+          <cell r="D45" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="46">
           <cell r="B46">
@@ -2152,6 +2170,9 @@
           <cell r="C46" t="str">
             <v>疾行火熊</v>
           </cell>
+          <cell r="D46" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="47">
           <cell r="B47">
@@ -2160,6 +2181,9 @@
           <cell r="C47" t="str">
             <v>炼狱亡魂</v>
           </cell>
+          <cell r="D47" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="48">
           <cell r="B48">
@@ -2168,6 +2192,9 @@
           <cell r="C48" t="str">
             <v>夜魇近战兵</v>
           </cell>
+          <cell r="D48" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="49">
           <cell r="B49">
@@ -2176,6 +2203,9 @@
           <cell r="C49" t="str">
             <v>炽甲虫战士</v>
           </cell>
+          <cell r="D49" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="50">
           <cell r="B50">
@@ -2184,6 +2214,9 @@
           <cell r="C50" t="str">
             <v>远古炼狱巨人</v>
           </cell>
+          <cell r="D50" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="51">
           <cell r="B51">
@@ -2192,6 +2225,9 @@
           <cell r="C51" t="str">
             <v>骷髅勇士</v>
           </cell>
+          <cell r="D51" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="52">
           <cell r="B52">
@@ -2200,6 +2236,9 @@
           <cell r="C52" t="str">
             <v>炼狱火</v>
           </cell>
+          <cell r="D52" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="53">
           <cell r="B53">
@@ -2208,6 +2247,9 @@
           <cell r="C53" t="str">
             <v>冥火剑圣</v>
           </cell>
+          <cell r="D53" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="54">
           <cell r="B54">
@@ -2216,6 +2258,9 @@
           <cell r="C54" t="str">
             <v>小狗头人</v>
           </cell>
+          <cell r="D54" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="55">
           <cell r="B55">
@@ -2224,6 +2269,9 @@
           <cell r="C55" t="str">
             <v>雷电之魂</v>
           </cell>
+          <cell r="D55" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="56">
           <cell r="B56">
@@ -2232,6 +2280,9 @@
           <cell r="C56" t="str">
             <v>萨特窃神者</v>
           </cell>
+          <cell r="D56" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="57">
           <cell r="B57">
@@ -2240,6 +2291,9 @@
           <cell r="C57" t="str">
             <v>远古岚肤兽</v>
           </cell>
+          <cell r="D57" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="58">
           <cell r="B58">
@@ -2248,6 +2302,9 @@
           <cell r="C58" t="str">
             <v>雷树精兽</v>
           </cell>
+          <cell r="D58" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="59">
           <cell r="B59">
@@ -2256,6 +2313,9 @@
           <cell r="C59" t="str">
             <v>雷角兽</v>
           </cell>
+          <cell r="D59" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="60">
           <cell r="B60">
@@ -2264,6 +2324,9 @@
           <cell r="C60" t="str">
             <v>霹雳怪手</v>
           </cell>
+          <cell r="D60" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="61">
           <cell r="B61">
@@ -2272,6 +2335,9 @@
           <cell r="C61" t="str">
             <v>雷羽鹫</v>
           </cell>
+          <cell r="D61" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="62">
           <cell r="B62">
@@ -2280,6 +2346,9 @@
           <cell r="C62" t="str">
             <v>雷山鹫</v>
           </cell>
+          <cell r="D62" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="63">
           <cell r="B63">
@@ -2288,6 +2357,9 @@
           <cell r="C63" t="str">
             <v>雷翼鹫</v>
           </cell>
+          <cell r="D63" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="64">
           <cell r="B64">
@@ -2296,6 +2368,9 @@
           <cell r="C64" t="str">
             <v>冰川鬼魂</v>
           </cell>
+          <cell r="D64" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="65">
           <cell r="B65">
@@ -2304,6 +2379,9 @@
           <cell r="C65" t="str">
             <v>极寒精灵</v>
           </cell>
+          <cell r="D65" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="66">
           <cell r="B66">
@@ -2312,6 +2390,9 @@
           <cell r="C66" t="str">
             <v>极寒冰狐</v>
           </cell>
+          <cell r="D66" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="67">
           <cell r="B67">
@@ -2320,6 +2401,9 @@
           <cell r="C67" t="str">
             <v>极地少女</v>
           </cell>
+          <cell r="D67" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="68">
           <cell r="B68">
@@ -2328,6 +2412,9 @@
           <cell r="C68" t="str">
             <v>冰原行者</v>
           </cell>
+          <cell r="D68" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="69">
           <cell r="B69">
@@ -2336,6 +2423,9 @@
           <cell r="C69" t="str">
             <v>极地虎</v>
           </cell>
+          <cell r="D69" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="70">
           <cell r="B70">
@@ -2344,6 +2434,9 @@
           <cell r="C70" t="str">
             <v>极地小冰龙</v>
           </cell>
+          <cell r="D70" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="71">
           <cell r="B71">
@@ -2352,6 +2445,9 @@
           <cell r="C71" t="str">
             <v>极地小飞龙</v>
           </cell>
+          <cell r="D71" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="72">
           <cell r="B72">
@@ -2360,6 +2456,9 @@
           <cell r="C72" t="str">
             <v>冰晶小海马</v>
           </cell>
+          <cell r="D72" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="73">
           <cell r="B73">
@@ -2368,6 +2467,9 @@
           <cell r="C73" t="str">
             <v>冰原狐</v>
           </cell>
+          <cell r="D73" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="74">
           <cell r="B74">
@@ -2376,6 +2478,9 @@
           <cell r="C74" t="str">
             <v>冰宫守卫</v>
           </cell>
+          <cell r="D74" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="75">
           <cell r="B75">
@@ -2384,6 +2489,9 @@
           <cell r="C75" t="str">
             <v>冰宫奴仆</v>
           </cell>
+          <cell r="D75" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="76">
           <cell r="B76">
@@ -2392,6 +2500,9 @@
           <cell r="C76" t="str">
             <v>绿洲鬼魂</v>
           </cell>
+          <cell r="D76" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="77">
           <cell r="B77">
@@ -2400,6 +2511,9 @@
           <cell r="C77" t="str">
             <v>绿洲丧尸</v>
           </cell>
+          <cell r="D77" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="78">
           <cell r="B78">
@@ -2408,6 +2522,9 @@
           <cell r="C78" t="str">
             <v>幼年沙龙</v>
           </cell>
+          <cell r="D78" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="79">
           <cell r="B79">
@@ -2416,6 +2533,9 @@
           <cell r="C79" t="str">
             <v>绿洲精灵幼龙</v>
           </cell>
+          <cell r="D79" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="80">
           <cell r="B80">
@@ -2424,6 +2544,9 @@
           <cell r="C80" t="str">
             <v>绿洲跳跳蛙</v>
           </cell>
+          <cell r="D80" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="81">
           <cell r="B81">
@@ -2432,6 +2555,9 @@
           <cell r="C81" t="str">
             <v>绿洲剧毒蛇</v>
           </cell>
+          <cell r="D81" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="82">
           <cell r="B82">
@@ -2440,6 +2566,9 @@
           <cell r="C82" t="str">
             <v>狂沙怪手</v>
           </cell>
+          <cell r="D82" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="83">
           <cell r="B83">
@@ -2448,6 +2577,9 @@
           <cell r="C83" t="str">
             <v>绿洲精灵马</v>
           </cell>
+          <cell r="D83" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="84">
           <cell r="B84">
@@ -2456,6 +2588,9 @@
           <cell r="C84" t="str">
             <v>绿洲小精灵</v>
           </cell>
+          <cell r="D84" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="85">
           <cell r="B85">
@@ -2464,6 +2599,9 @@
           <cell r="C85" t="str">
             <v>沙漠金龟</v>
           </cell>
+          <cell r="D85" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="86">
           <cell r="B86">
@@ -2472,6 +2610,9 @@
           <cell r="C86" t="str">
             <v>天辉高级战士</v>
           </cell>
+          <cell r="D86" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="87">
           <cell r="B87">
@@ -2480,6 +2621,9 @@
           <cell r="C87" t="str">
             <v>高级精灵战士</v>
           </cell>
+          <cell r="D87" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="88">
           <cell r="B88">
@@ -2488,6 +2632,9 @@
           <cell r="C88" t="str">
             <v>炼狱狼</v>
           </cell>
+          <cell r="D88" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="89">
           <cell r="B89">
@@ -2496,6 +2643,9 @@
           <cell r="C89" t="str">
             <v>夜魇远程兵</v>
           </cell>
+          <cell r="D89" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="90">
           <cell r="B90">
@@ -2504,6 +2654,9 @@
           <cell r="C90" t="str">
             <v>炼狱小双头犬</v>
           </cell>
+          <cell r="D90" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="91">
           <cell r="B91">
@@ -2512,6 +2665,9 @@
           <cell r="C91" t="str">
             <v>炽甲虫战车</v>
           </cell>
+          <cell r="D91" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="92">
           <cell r="B92">
@@ -2520,6 +2676,9 @@
           <cell r="C92" t="str">
             <v>炼狱石甲虫</v>
           </cell>
+          <cell r="D92" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="93">
           <cell r="B93">
@@ -2528,6 +2687,9 @@
           <cell r="C93" t="str">
             <v>炼狱战熊</v>
           </cell>
+          <cell r="D93" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="94">
           <cell r="B94">
@@ -2536,6 +2698,9 @@
           <cell r="C94" t="str">
             <v>炼狱界弓</v>
           </cell>
+          <cell r="D94" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="95">
           <cell r="B95">
@@ -2544,6 +2709,9 @@
           <cell r="C95" t="str">
             <v>烈焰战龟</v>
           </cell>
+          <cell r="D95" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="96">
           <cell r="B96">
@@ -2552,6 +2720,9 @@
           <cell r="C96" t="str">
             <v>炼狱蜘蛛</v>
           </cell>
+          <cell r="D96" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="97">
           <cell r="B97">
@@ -2560,6 +2731,9 @@
           <cell r="C97" t="str">
             <v>炼狱猎蜥</v>
           </cell>
+          <cell r="D97" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="98">
           <cell r="B98">
@@ -2568,6 +2742,9 @@
           <cell r="C98" t="str">
             <v>炼狱火精灵</v>
           </cell>
+          <cell r="D98" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="99">
           <cell r="B99">
@@ -2576,6 +2753,9 @@
           <cell r="C99" t="str">
             <v>熔岩飞翼兽</v>
           </cell>
+          <cell r="D99" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="100">
           <cell r="B100">
@@ -2584,6 +2764,9 @@
           <cell r="C100" t="str">
             <v>双斧狂战</v>
           </cell>
+          <cell r="D100" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="101">
           <cell r="B101">
@@ -2592,6 +2775,9 @@
           <cell r="C101" t="str">
             <v>熔岩卫兵</v>
           </cell>
+          <cell r="D101" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="102">
           <cell r="B102">
@@ -2600,6 +2786,9 @@
           <cell r="C102" t="str">
             <v>雷须兽</v>
           </cell>
+          <cell r="D102" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="103">
           <cell r="B103">
@@ -2608,6 +2797,9 @@
           <cell r="C103" t="str">
             <v>雷霆晶龟</v>
           </cell>
+          <cell r="D103" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="104">
           <cell r="B104">
@@ -2616,6 +2808,9 @@
           <cell r="C104" t="str">
             <v>霹雳怪虫</v>
           </cell>
+          <cell r="D104" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="105">
           <cell r="B105">
@@ -2624,6 +2819,9 @@
           <cell r="C105" t="str">
             <v>独角雷兽</v>
           </cell>
+          <cell r="D105" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="106">
           <cell r="B106">
@@ -2632,6 +2830,9 @@
           <cell r="C106" t="str">
             <v>雷电见习者</v>
           </cell>
+          <cell r="D106" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="107">
           <cell r="B107">
@@ -2640,6 +2841,9 @@
           <cell r="C107" t="str">
             <v>雷霆拍熊</v>
           </cell>
+          <cell r="D107" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="108">
           <cell r="B108">
@@ -2648,6 +2852,9 @@
           <cell r="C108" t="str">
             <v>雷翼飞狐</v>
           </cell>
+          <cell r="D108" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="109">
           <cell r="B109">
@@ -2656,6 +2863,9 @@
           <cell r="C109" t="str">
             <v>远古黑龙</v>
           </cell>
+          <cell r="D109" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="110">
           <cell r="B110">
@@ -2664,6 +2874,9 @@
           <cell r="C110" t="str">
             <v>雷霆领主</v>
           </cell>
+          <cell r="D110" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="111">
           <cell r="B111">
@@ -2672,6 +2885,9 @@
           <cell r="C111" t="str">
             <v>霹雳怪泥</v>
           </cell>
+          <cell r="D111" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="112">
           <cell r="B112">
@@ -2680,6 +2896,9 @@
           <cell r="C112" t="str">
             <v>雷霆战蜥</v>
           </cell>
+          <cell r="D112" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="113">
           <cell r="B113">
@@ -2688,6 +2907,9 @@
           <cell r="C113" t="str">
             <v>霹雳女妖</v>
           </cell>
+          <cell r="D113" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="114">
           <cell r="B114">
@@ -2696,6 +2918,9 @@
           <cell r="C114" t="str">
             <v>雷压巨兽</v>
           </cell>
+          <cell r="D114" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="115">
           <cell r="B115">
@@ -2704,6 +2929,9 @@
           <cell r="C115" t="str">
             <v>雷压射手</v>
           </cell>
+          <cell r="D115" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="116">
           <cell r="B116">
@@ -2712,6 +2940,9 @@
           <cell r="C116" t="str">
             <v>雷霆梦魇</v>
           </cell>
+          <cell r="D116" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="117">
           <cell r="B117">
@@ -2720,6 +2951,9 @@
           <cell r="C117" t="str">
             <v>冰川幼龟</v>
           </cell>
+          <cell r="D117" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="118">
           <cell r="B118">
@@ -2728,6 +2962,9 @@
           <cell r="C118" t="str">
             <v>近代冰魂</v>
           </cell>
+          <cell r="D118" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="119">
           <cell r="B119">
@@ -2736,6 +2973,9 @@
           <cell r="C119" t="str">
             <v>冰晶石甲虫</v>
           </cell>
+          <cell r="D119" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="120">
           <cell r="B120">
@@ -2744,6 +2984,9 @@
           <cell r="C120" t="str">
             <v>冰原犬</v>
           </cell>
+          <cell r="D120" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="121">
           <cell r="B121">
@@ -2752,6 +2995,9 @@
           <cell r="C121" t="str">
             <v>冰甲战熊</v>
           </cell>
+          <cell r="D121" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="122">
           <cell r="B122">
@@ -2760,6 +3006,9 @@
           <cell r="C122" t="str">
             <v>寒霜战士</v>
           </cell>
+          <cell r="D122" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="123">
           <cell r="B123">
@@ -2768,6 +3017,9 @@
           <cell r="C123" t="str">
             <v>寒霜萨满</v>
           </cell>
+          <cell r="D123" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="124">
           <cell r="B124">
@@ -2776,6 +3028,9 @@
           <cell r="C124" t="str">
             <v>冰原巨兽</v>
           </cell>
+          <cell r="D124" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="125">
           <cell r="B125">
@@ -2784,6 +3039,9 @@
           <cell r="C125" t="str">
             <v>极地熊战士</v>
           </cell>
+          <cell r="D125" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="126">
           <cell r="B126">
@@ -2792,6 +3050,9 @@
           <cell r="C126" t="str">
             <v>冰原猩猩兽</v>
           </cell>
+          <cell r="D126" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="127">
           <cell r="B127">
@@ -2800,6 +3061,9 @@
           <cell r="C127" t="str">
             <v>极地巨人</v>
           </cell>
+          <cell r="D127" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="128">
           <cell r="B128">
@@ -2808,6 +3072,9 @@
           <cell r="C128" t="str">
             <v>极地四脚兽</v>
           </cell>
+          <cell r="D128" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="129">
           <cell r="B129">
@@ -2816,6 +3083,9 @@
           <cell r="C129" t="str">
             <v>极地飞翼兽</v>
           </cell>
+          <cell r="D129" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="130">
           <cell r="B130">
@@ -2824,6 +3094,9 @@
           <cell r="C130" t="str">
             <v>极冰守卫</v>
           </cell>
+          <cell r="D130" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="131">
           <cell r="B131">
@@ -2832,6 +3105,9 @@
           <cell r="C131" t="str">
             <v>冰原守卫</v>
           </cell>
+          <cell r="D131" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="132">
           <cell r="B132">
@@ -2840,6 +3116,9 @@
           <cell r="C132" t="str">
             <v>绿洲剧毒飞蛇</v>
           </cell>
+          <cell r="D132" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="133">
           <cell r="B133">
@@ -2848,6 +3127,9 @@
           <cell r="C133" t="str">
             <v>绿洲魔法飞马</v>
           </cell>
+          <cell r="D133" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="134">
           <cell r="B134">
@@ -2856,6 +3138,9 @@
           <cell r="C134" t="str">
             <v>绿洲怪手</v>
           </cell>
+          <cell r="D134" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="135">
           <cell r="B135">
@@ -2864,6 +3149,9 @@
           <cell r="C135" t="str">
             <v>毒风鹫</v>
           </cell>
+          <cell r="D135" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="136">
           <cell r="B136">
@@ -2872,6 +3160,9 @@
           <cell r="C136" t="str">
             <v>天辉高级术士</v>
           </cell>
+          <cell r="D136" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="137">
           <cell r="B137">
@@ -2880,6 +3171,9 @@
           <cell r="C137" t="str">
             <v>独角沙兽</v>
           </cell>
+          <cell r="D137" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="138">
           <cell r="B138">
@@ -2888,6 +3182,9 @@
           <cell r="C138" t="str">
             <v>高级精灵战车</v>
           </cell>
+          <cell r="D138" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="139">
           <cell r="B139">
@@ -2896,6 +3193,9 @@
           <cell r="C139" t="str">
             <v>风沙狼</v>
           </cell>
+          <cell r="D139" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="140">
           <cell r="B140">
@@ -2904,6 +3204,9 @@
           <cell r="C140" t="str">
             <v>风沙狮</v>
           </cell>
+          <cell r="D140" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="141">
           <cell r="B141">
@@ -2912,6 +3215,9 @@
           <cell r="C141" t="str">
             <v>风沙战熊</v>
           </cell>
+          <cell r="D141" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="142">
           <cell r="B142">
@@ -2920,6 +3226,9 @@
           <cell r="C142" t="str">
             <v>绿洲守卫</v>
           </cell>
+          <cell r="D142" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="143">
           <cell r="B143">
@@ -2928,6 +3237,9 @@
           <cell r="C143" t="str">
             <v>风沙刺鼬</v>
           </cell>
+          <cell r="D143" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="144">
           <cell r="B144">
@@ -2936,6 +3248,9 @@
           <cell r="C144" t="str">
             <v>绿洲女巫</v>
           </cell>
+          <cell r="D144" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="145">
           <cell r="B145">
@@ -2944,6 +3259,9 @@
           <cell r="C145" t="str">
             <v>砂砾小巨人</v>
           </cell>
+          <cell r="D145" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="146">
           <cell r="B146">
@@ -2952,6 +3270,9 @@
           <cell r="C146" t="str">
             <v>幼年青眼雷龙</v>
           </cell>
+          <cell r="D146" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="147">
           <cell r="B147">
@@ -2960,6 +3281,9 @@
           <cell r="C147" t="str">
             <v>炼狱领主</v>
           </cell>
+          <cell r="D147" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="148">
           <cell r="B148">
@@ -2968,6 +3292,9 @@
           <cell r="C148" t="str">
             <v>熔岩巨人</v>
           </cell>
+          <cell r="D148" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="149">
           <cell r="B149">
@@ -2976,6 +3303,9 @@
           <cell r="C149" t="str">
             <v>烈焰神狐</v>
           </cell>
+          <cell r="D149" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="150">
           <cell r="B150">
@@ -2984,6 +3314,9 @@
           <cell r="C150" t="str">
             <v>炼狱双头犬</v>
           </cell>
+          <cell r="D150" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="151">
           <cell r="B151">
@@ -2992,6 +3325,9 @@
           <cell r="C151" t="str">
             <v>烈焰战神</v>
           </cell>
+          <cell r="D151" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="152">
           <cell r="B152">
@@ -3000,6 +3336,9 @@
           <cell r="C152" t="str">
             <v>青眼雷龙</v>
           </cell>
+          <cell r="D152" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="153">
           <cell r="B153">
@@ -3008,6 +3347,9 @@
           <cell r="C153" t="str">
             <v>雷压飞翼兽</v>
           </cell>
+          <cell r="D153" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="154">
           <cell r="B154">
@@ -3016,6 +3358,9 @@
           <cell r="C154" t="str">
             <v>雷电掌控者</v>
           </cell>
+          <cell r="D154" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="155">
           <cell r="B155">
@@ -3024,6 +3369,9 @@
           <cell r="C155" t="str">
             <v>雷神鸟</v>
           </cell>
+          <cell r="D155" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="156">
           <cell r="B156">
@@ -3032,6 +3380,9 @@
           <cell r="C156" t="str">
             <v>闪电制造者</v>
           </cell>
+          <cell r="D156" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="157">
           <cell r="B157">
@@ -3040,6 +3391,9 @@
           <cell r="C157" t="str">
             <v>极寒领主</v>
           </cell>
+          <cell r="D157" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="158">
           <cell r="B158">
@@ -3048,6 +3402,9 @@
           <cell r="C158" t="str">
             <v>极寒蛛美丽</v>
           </cell>
+          <cell r="D158" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="159">
           <cell r="B159">
@@ -3056,6 +3413,9 @@
           <cell r="C159" t="str">
             <v>冰原领主</v>
           </cell>
+          <cell r="D159" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="160">
           <cell r="B160">
@@ -3064,6 +3424,9 @@
           <cell r="C160" t="str">
             <v>狂沙熊战士</v>
           </cell>
+          <cell r="D160" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="161">
           <cell r="B161">
@@ -3072,6 +3435,9 @@
           <cell r="C161" t="str">
             <v>黄沙护卫</v>
           </cell>
+          <cell r="D161" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="162">
           <cell r="B162">
@@ -3080,6 +3446,9 @@
           <cell r="C162" t="str">
             <v>绿洲之主</v>
           </cell>
+          <cell r="D162" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="163">
           <cell r="B163">
@@ -3088,6 +3457,9 @@
           <cell r="C163" t="str">
             <v>黄沙之主</v>
           </cell>
+          <cell r="D163" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="164">
           <cell r="B164">
@@ -3096,6 +3468,9 @@
           <cell r="C164" t="str">
             <v>祈风使</v>
           </cell>
+          <cell r="D164" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="165">
           <cell r="B165">
@@ -3104,6 +3479,9 @@
           <cell r="C165" t="str">
             <v>寒冰使</v>
           </cell>
+          <cell r="D165" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="166">
           <cell r="B166">
@@ -3112,6 +3490,9 @@
           <cell r="C166" t="str">
             <v>霹雳使</v>
           </cell>
+          <cell r="D166" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="167">
           <cell r="B167">
@@ -3120,6 +3501,9 @@
           <cell r="C167" t="str">
             <v>烈火使</v>
           </cell>
+          <cell r="D167" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="168">
           <cell r="B168">
@@ -3128,6 +3512,9 @@
           <cell r="C168" t="str">
             <v>远古炼狱火</v>
           </cell>
+          <cell r="D168" t="str">
+            <v>一张看起来就很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="169">
           <cell r="B169">
@@ -3136,6 +3523,9 @@
           <cell r="C169" t="str">
             <v>炼狱之王</v>
           </cell>
+          <cell r="D169" t="str">
+            <v>一张确实确实很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="170">
           <cell r="B170">
@@ -3144,6 +3534,9 @@
           <cell r="C170" t="str">
             <v>雷神</v>
           </cell>
+          <cell r="D170" t="str">
+            <v>一张确实确实很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="171">
           <cell r="B171">
@@ -3152,6 +3545,9 @@
           <cell r="C171" t="str">
             <v>冰宫女王</v>
           </cell>
+          <cell r="D171" t="str">
+            <v>一张确实确实很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="172">
           <cell r="B172">
@@ -3160,6 +3556,9 @@
           <cell r="C172" t="str">
             <v>风神</v>
           </cell>
+          <cell r="D172" t="str">
+            <v>一张确实确实很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="173">
           <cell r="B173">
@@ -3168,6 +3567,9 @@
           <cell r="C173" t="str">
             <v>元素之主</v>
           </cell>
+          <cell r="D173" t="str">
+            <v>一张确实确实很牛ber的怪物卡片</v>
+          </cell>
         </row>
         <row r="174">
           <cell r="B174">
@@ -3350,10 +3752,10 @@
             <v>3517</v>
           </cell>
           <cell r="C190" t="str">
-            <v>精良图鉴箱（自选）</v>
+            <v>精良图鉴兑换券</v>
           </cell>
           <cell r="D190" t="str">
-            <v>可以自选获得一张精良级（C级）卡片</v>
+            <v>可以去商城【图鉴兑换】里面去兑换任意一张精良图鉴</v>
           </cell>
         </row>
         <row r="191">
@@ -3361,10 +3763,10 @@
             <v>3518</v>
           </cell>
           <cell r="C191" t="str">
-            <v>史诗图鉴箱（自选）</v>
+            <v>史诗图鉴兑换券</v>
           </cell>
           <cell r="D191" t="str">
-            <v>可以自选获得一张史诗级（B级）卡片</v>
+            <v>可以去商城【图鉴兑换】里面去兑换任意一张史诗图鉴</v>
           </cell>
         </row>
         <row r="192">
@@ -3372,10 +3774,10 @@
             <v>3519</v>
           </cell>
           <cell r="C192" t="str">
-            <v>传说图鉴箱（自选）</v>
+            <v>传说图鉴兑换券</v>
           </cell>
           <cell r="D192" t="str">
-            <v>可以自选获得一张传说级（A级）卡片</v>
+            <v>可以去商城【图鉴兑换】里面去兑换任意一张传说图鉴</v>
           </cell>
         </row>
         <row r="193">
@@ -3383,10 +3785,10 @@
             <v>3520</v>
           </cell>
           <cell r="C193" t="str">
-            <v>不朽图鉴箱（自选）</v>
+            <v>不朽图鉴兑换券</v>
           </cell>
           <cell r="D193" t="str">
-            <v>可以自选获得一张不朽级（S级）卡片</v>
+            <v>可以去商城【图鉴兑换】里面去兑换任意一张不朽图鉴</v>
           </cell>
         </row>
         <row r="194">
@@ -3394,10 +3796,10 @@
             <v>3521</v>
           </cell>
           <cell r="C194" t="str">
-            <v>熔火炼狱的图鉴箱（自选）</v>
+            <v>熔火炼狱的图鉴兑换券</v>
           </cell>
           <cell r="D194" t="str">
-            <v>可以自选获得一张地图·元素大陆出现的所有怪物的卡片</v>
+            <v>可以去商城【图鉴兑换】里面去兑换任意一张熔火炼狱的图鉴</v>
           </cell>
         </row>
         <row r="195">
@@ -3405,10 +3807,10 @@
             <v>3522</v>
           </cell>
           <cell r="C195" t="str">
-            <v>极北之地的图鉴箱（自选）</v>
+            <v>极北之地的图鉴兑换券</v>
           </cell>
           <cell r="D195" t="str">
-            <v>可以自选获得一张地图·熔火炼狱出现的所有怪物的卡片</v>
+            <v>可以去商城【图鉴兑换】里面去兑换任意一张极北之地的图鉴</v>
           </cell>
         </row>
         <row r="196">
@@ -3416,10 +3818,10 @@
             <v>3523</v>
           </cell>
           <cell r="C196" t="str">
-            <v>狂风沙漠的图鉴箱（自选）</v>
+            <v>狂风沙漠的图鉴兑换券</v>
           </cell>
           <cell r="D196" t="str">
-            <v>可以自选获得一张地图·极北之地出现的所有怪物的卡片</v>
+            <v>可以去商城【图鉴兑换】里面去兑换任意一张狂风沙漠的图鉴</v>
           </cell>
         </row>
         <row r="197">
@@ -3427,10 +3829,10 @@
             <v>3524</v>
           </cell>
           <cell r="C197" t="str">
-            <v>雷霆之地的图鉴箱（自选）</v>
+            <v>雷霆之地的图鉴兑换券</v>
           </cell>
           <cell r="D197" t="str">
-            <v>可以自选获得一张地图·狂风沙漠出现的所有怪物的卡片</v>
+            <v>可以去商城【图鉴兑换】里面去兑换任意一张雷霆之地的图鉴</v>
           </cell>
         </row>
         <row r="198">
@@ -3438,10 +3840,10 @@
             <v>3525</v>
           </cell>
           <cell r="C198" t="str">
-            <v>元素大陆图的鉴箱（自选）</v>
+            <v>元素大陆图的鉴兑换券</v>
           </cell>
           <cell r="D198" t="str">
-            <v>可以自选获得一张地图·雷霆之地出现的所有怪物的卡片</v>
+            <v>可以去商城【图鉴兑换】里面去兑换任意一张元素大陆的图鉴</v>
           </cell>
         </row>
         <row r="199">
@@ -3452,7 +3854,7 @@
             <v>1级魂石·攻击力</v>
           </cell>
           <cell r="D199" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="200">
@@ -3463,7 +3865,7 @@
             <v>1级魂石·固定伤害</v>
           </cell>
           <cell r="D200" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="201">
@@ -3474,7 +3876,7 @@
             <v>1级魂石·全元素伤害</v>
           </cell>
           <cell r="D201" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="202">
@@ -3485,7 +3887,7 @@
             <v>1级魂石·暴击概率</v>
           </cell>
           <cell r="D202" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="203">
@@ -3496,7 +3898,7 @@
             <v>1级魂石·暴击伤害</v>
           </cell>
           <cell r="D203" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="204">
@@ -3507,7 +3909,7 @@
             <v>1级魂石·元素穿透</v>
           </cell>
           <cell r="D204" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="205">
@@ -3518,7 +3920,7 @@
             <v>1级魂石·生命值</v>
           </cell>
           <cell r="D205" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="206">
@@ -3529,7 +3931,7 @@
             <v>1级魂石·攻击速度</v>
           </cell>
           <cell r="D206" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="207">
@@ -3540,727 +3942,749 @@
             <v>1级魂石·防御</v>
           </cell>
           <cell r="D207" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="208">
           <cell r="B208">
-            <v>10010</v>
+            <v>10011</v>
           </cell>
           <cell r="C208" t="str">
-            <v>1级魂石·元素抗性</v>
+            <v>1级魂石·暴击抵抗</v>
           </cell>
           <cell r="D208" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="209">
           <cell r="B209">
-            <v>10011</v>
+            <v>10012</v>
           </cell>
           <cell r="C209" t="str">
-            <v>1级魂石·暴击抵抗</v>
+            <v>1级魂石·爆伤抵抗</v>
           </cell>
           <cell r="D209" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="210">
           <cell r="B210">
-            <v>10012</v>
+            <v>10013</v>
           </cell>
           <cell r="C210" t="str">
-            <v>1级魂石·爆伤抵抗</v>
+            <v>1级魂石·生命回复</v>
           </cell>
           <cell r="D210" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="211">
           <cell r="B211">
-            <v>10013</v>
+            <v>10014</v>
           </cell>
           <cell r="C211" t="str">
-            <v>1级魂石·生命回复</v>
+            <v>1级魂石·固定伤害减免</v>
           </cell>
           <cell r="D211" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="212">
           <cell r="B212">
-            <v>10014</v>
+            <v>10015</v>
           </cell>
           <cell r="C212" t="str">
-            <v>1级魂石·固定伤害减免</v>
+            <v>1级魂石·技能急速</v>
           </cell>
           <cell r="D212" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="213">
           <cell r="B213">
-            <v>10015</v>
+            <v>10016</v>
           </cell>
           <cell r="C213" t="str">
-            <v>1级魂石·技能急速</v>
+            <v>1级魂石·全元素抗性</v>
           </cell>
           <cell r="D213" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="214">
           <cell r="B214">
-            <v>10016</v>
+            <v>10017</v>
           </cell>
           <cell r="C214" t="str">
-            <v>1级魂石·全元素抗性</v>
+            <v>1级魂石·移动速度</v>
           </cell>
           <cell r="D214" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="215">
           <cell r="B215">
-            <v>10017</v>
+            <v>10018</v>
           </cell>
           <cell r="C215" t="str">
-            <v>1级魂石·移动速度</v>
+            <v>1级魂石·闪避率</v>
           </cell>
           <cell r="D215" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="216">
           <cell r="B216">
-            <v>10018</v>
+            <v>10101</v>
           </cell>
           <cell r="C216" t="str">
-            <v>1级魂石·闪避率</v>
+            <v>2级魂石·攻击力</v>
           </cell>
           <cell r="D216" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="217">
           <cell r="B217">
-            <v>10101</v>
+            <v>10102</v>
           </cell>
           <cell r="C217" t="str">
-            <v>2级魂石·攻击力</v>
+            <v>2级魂石·固定伤害</v>
           </cell>
           <cell r="D217" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="218">
           <cell r="B218">
-            <v>10102</v>
+            <v>10103</v>
           </cell>
           <cell r="C218" t="str">
-            <v>2级魂石·固定伤害</v>
+            <v>2级魂石·全元素伤害</v>
           </cell>
           <cell r="D218" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="219">
           <cell r="B219">
-            <v>10103</v>
+            <v>10104</v>
           </cell>
           <cell r="C219" t="str">
-            <v>2级魂石·全元素伤害</v>
+            <v>2级魂石·暴击概率</v>
           </cell>
           <cell r="D219" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="220">
           <cell r="B220">
-            <v>10104</v>
+            <v>10105</v>
           </cell>
           <cell r="C220" t="str">
-            <v>2级魂石·暴击概率</v>
+            <v>2级魂石·暴击伤害</v>
           </cell>
           <cell r="D220" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="221">
           <cell r="B221">
-            <v>10105</v>
+            <v>10106</v>
           </cell>
           <cell r="C221" t="str">
-            <v>2级魂石·暴击伤害</v>
+            <v>2级魂石·元素穿透</v>
           </cell>
           <cell r="D221" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="222">
           <cell r="B222">
-            <v>10106</v>
+            <v>10107</v>
           </cell>
           <cell r="C222" t="str">
-            <v>2级魂石·元素穿透</v>
+            <v>2级魂石·生命值</v>
           </cell>
           <cell r="D222" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="223">
           <cell r="B223">
-            <v>10107</v>
+            <v>10108</v>
           </cell>
           <cell r="C223" t="str">
-            <v>2级魂石·生命值</v>
+            <v>2级魂石·攻击速度</v>
           </cell>
           <cell r="D223" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="224">
           <cell r="B224">
-            <v>10108</v>
+            <v>10109</v>
           </cell>
           <cell r="C224" t="str">
-            <v>2级魂石·攻击速度</v>
+            <v>2级魂石·防御</v>
           </cell>
           <cell r="D224" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="225">
           <cell r="B225">
-            <v>10109</v>
+            <v>10111</v>
           </cell>
           <cell r="C225" t="str">
-            <v>2级魂石·防御</v>
+            <v>2级魂石·暴击抵抗</v>
           </cell>
           <cell r="D225" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="226">
           <cell r="B226">
-            <v>10110</v>
+            <v>10112</v>
           </cell>
           <cell r="C226" t="str">
-            <v>2级魂石·元素抗性</v>
+            <v>2级魂石·爆伤抵抗</v>
           </cell>
           <cell r="D226" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="227">
           <cell r="B227">
-            <v>10111</v>
+            <v>10113</v>
           </cell>
           <cell r="C227" t="str">
-            <v>2级魂石·暴击抵抗</v>
+            <v>2级魂石·生命回复</v>
           </cell>
           <cell r="D227" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="228">
           <cell r="B228">
-            <v>10112</v>
+            <v>10114</v>
           </cell>
           <cell r="C228" t="str">
-            <v>2级魂石·爆伤抵抗</v>
+            <v>2级魂石·固定伤害减免</v>
           </cell>
           <cell r="D228" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="229">
           <cell r="B229">
-            <v>10113</v>
+            <v>10115</v>
           </cell>
           <cell r="C229" t="str">
-            <v>2级魂石·生命回复</v>
+            <v>2级魂石·技能急速</v>
           </cell>
           <cell r="D229" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="230">
           <cell r="B230">
-            <v>10114</v>
+            <v>10116</v>
           </cell>
           <cell r="C230" t="str">
-            <v>2级魂石·固定伤害减免</v>
+            <v>2级魂石·全元素抗性</v>
           </cell>
           <cell r="D230" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="231">
           <cell r="B231">
-            <v>10115</v>
+            <v>10117</v>
           </cell>
           <cell r="C231" t="str">
-            <v>2级魂石·技能急速</v>
+            <v>2级魂石·移动速度</v>
           </cell>
           <cell r="D231" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="232">
           <cell r="B232">
-            <v>10116</v>
+            <v>10118</v>
           </cell>
           <cell r="C232" t="str">
-            <v>2级魂石·全元素抗性</v>
+            <v>2级魂石·闪避率</v>
           </cell>
           <cell r="D232" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="233">
           <cell r="B233">
-            <v>10117</v>
+            <v>10201</v>
           </cell>
           <cell r="C233" t="str">
-            <v>2级魂石·移动速度</v>
+            <v>3级魂石·攻击力</v>
           </cell>
           <cell r="D233" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="234">
           <cell r="B234">
-            <v>10118</v>
+            <v>10202</v>
           </cell>
           <cell r="C234" t="str">
-            <v>2级魂石·闪避率</v>
+            <v>3级魂石·固定伤害</v>
           </cell>
           <cell r="D234" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="235">
           <cell r="B235">
-            <v>10201</v>
+            <v>10203</v>
           </cell>
           <cell r="C235" t="str">
-            <v>3级魂石·攻击力</v>
+            <v>3级魂石·全元素伤害</v>
           </cell>
           <cell r="D235" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="236">
           <cell r="B236">
-            <v>10202</v>
+            <v>10204</v>
           </cell>
           <cell r="C236" t="str">
-            <v>3级魂石·固定伤害</v>
+            <v>3级魂石·暴击概率</v>
           </cell>
           <cell r="D236" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="237">
           <cell r="B237">
-            <v>10203</v>
+            <v>10205</v>
           </cell>
           <cell r="C237" t="str">
-            <v>3级魂石·全元素伤害</v>
+            <v>3级魂石·暴击伤害</v>
           </cell>
           <cell r="D237" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="238">
           <cell r="B238">
-            <v>10204</v>
+            <v>10206</v>
           </cell>
           <cell r="C238" t="str">
-            <v>3级魂石·暴击概率</v>
+            <v>3级魂石·元素穿透</v>
           </cell>
           <cell r="D238" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="239">
           <cell r="B239">
-            <v>10205</v>
+            <v>10207</v>
           </cell>
           <cell r="C239" t="str">
-            <v>3级魂石·暴击伤害</v>
+            <v>3级魂石·生命值</v>
           </cell>
           <cell r="D239" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="240">
           <cell r="B240">
-            <v>10206</v>
+            <v>10208</v>
           </cell>
           <cell r="C240" t="str">
-            <v>3级魂石·元素穿透</v>
+            <v>3级魂石·攻击速度</v>
           </cell>
           <cell r="D240" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="241">
           <cell r="B241">
-            <v>10207</v>
+            <v>10209</v>
           </cell>
           <cell r="C241" t="str">
-            <v>3级魂石·生命值</v>
+            <v>3级魂石·防御</v>
           </cell>
           <cell r="D241" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="242">
           <cell r="B242">
-            <v>10208</v>
+            <v>10211</v>
           </cell>
           <cell r="C242" t="str">
-            <v>3级魂石·攻击速度</v>
+            <v>3级魂石·暴击抵抗</v>
           </cell>
           <cell r="D242" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="243">
           <cell r="B243">
-            <v>10209</v>
+            <v>10212</v>
           </cell>
           <cell r="C243" t="str">
-            <v>3级魂石·防御</v>
+            <v>3级魂石·爆伤抵抗</v>
           </cell>
           <cell r="D243" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="244">
           <cell r="B244">
-            <v>10210</v>
+            <v>10213</v>
           </cell>
           <cell r="C244" t="str">
-            <v>3级魂石·元素抗性</v>
+            <v>3级魂石·生命回复</v>
           </cell>
           <cell r="D244" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="245">
           <cell r="B245">
-            <v>10211</v>
+            <v>10214</v>
           </cell>
           <cell r="C245" t="str">
-            <v>3级魂石·暴击抵抗</v>
+            <v>3级魂石·固定伤害减免</v>
           </cell>
           <cell r="D245" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="246">
           <cell r="B246">
-            <v>10212</v>
+            <v>10215</v>
           </cell>
           <cell r="C246" t="str">
-            <v>3级魂石·爆伤抵抗</v>
+            <v>3级魂石·技能急速</v>
           </cell>
           <cell r="D246" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="247">
           <cell r="B247">
-            <v>10213</v>
+            <v>10216</v>
           </cell>
           <cell r="C247" t="str">
-            <v>3级魂石·生命回复</v>
+            <v>3级魂石·全元素抗性</v>
           </cell>
           <cell r="D247" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="248">
           <cell r="B248">
-            <v>10214</v>
+            <v>10217</v>
           </cell>
           <cell r="C248" t="str">
-            <v>3级魂石·固定伤害减免</v>
+            <v>3级魂石·移动速度</v>
           </cell>
           <cell r="D248" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="249">
           <cell r="B249">
-            <v>10215</v>
+            <v>10218</v>
           </cell>
           <cell r="C249" t="str">
-            <v>3级魂石·技能急速</v>
+            <v>3级魂石·闪避率</v>
           </cell>
           <cell r="D249" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="250">
           <cell r="B250">
-            <v>10216</v>
+            <v>10301</v>
           </cell>
           <cell r="C250" t="str">
-            <v>3级魂石·全元素抗性</v>
+            <v>4级魂石·攻击力</v>
           </cell>
           <cell r="D250" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="251">
           <cell r="B251">
-            <v>10217</v>
+            <v>10302</v>
           </cell>
           <cell r="C251" t="str">
-            <v>3级魂石·移动速度</v>
+            <v>4级魂石·固定伤害</v>
           </cell>
           <cell r="D251" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="252">
           <cell r="B252">
-            <v>10218</v>
+            <v>10303</v>
           </cell>
           <cell r="C252" t="str">
-            <v>3级魂石·闪避率</v>
+            <v>4级魂石·全元素伤害</v>
           </cell>
           <cell r="D252" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="253">
           <cell r="B253">
-            <v>10301</v>
+            <v>10304</v>
           </cell>
           <cell r="C253" t="str">
-            <v>4级魂石·攻击力</v>
+            <v>4级魂石·暴击概率</v>
           </cell>
           <cell r="D253" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="254">
           <cell r="B254">
-            <v>10302</v>
+            <v>10305</v>
           </cell>
           <cell r="C254" t="str">
-            <v>4级魂石·固定伤害</v>
+            <v>4级魂石·暴击伤害</v>
           </cell>
           <cell r="D254" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="255">
           <cell r="B255">
-            <v>10303</v>
+            <v>10306</v>
           </cell>
           <cell r="C255" t="str">
-            <v>4级魂石·全元素伤害</v>
+            <v>4级魂石·元素穿透</v>
           </cell>
           <cell r="D255" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="256">
           <cell r="B256">
-            <v>10304</v>
+            <v>10307</v>
           </cell>
           <cell r="C256" t="str">
-            <v>4级魂石·暴击概率</v>
+            <v>4级魂石·生命值</v>
           </cell>
           <cell r="D256" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="257">
           <cell r="B257">
-            <v>10305</v>
+            <v>10308</v>
           </cell>
           <cell r="C257" t="str">
-            <v>4级魂石·暴击伤害</v>
+            <v>4级魂石·攻击速度</v>
           </cell>
           <cell r="D257" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="258">
           <cell r="B258">
-            <v>10306</v>
+            <v>10309</v>
           </cell>
           <cell r="C258" t="str">
-            <v>4级魂石·元素穿透</v>
+            <v>4级魂石·防御</v>
           </cell>
           <cell r="D258" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="259">
           <cell r="B259">
-            <v>10307</v>
+            <v>10311</v>
           </cell>
           <cell r="C259" t="str">
-            <v>4级魂石·生命值</v>
+            <v>4级魂石·暴击抵抗</v>
           </cell>
           <cell r="D259" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="260">
           <cell r="B260">
-            <v>10308</v>
+            <v>10312</v>
           </cell>
           <cell r="C260" t="str">
-            <v>4级魂石·攻击速度</v>
+            <v>4级魂石·爆伤抵抗</v>
           </cell>
           <cell r="D260" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="261">
           <cell r="B261">
-            <v>10309</v>
+            <v>10313</v>
           </cell>
           <cell r="C261" t="str">
-            <v>4级魂石·防御</v>
+            <v>4级魂石·生命回复</v>
           </cell>
           <cell r="D261" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="262">
           <cell r="B262">
-            <v>10310</v>
+            <v>10314</v>
           </cell>
           <cell r="C262" t="str">
-            <v>4级魂石·元素抗性</v>
+            <v>4级魂石·固定伤害减免</v>
           </cell>
           <cell r="D262" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="263">
           <cell r="B263">
-            <v>10311</v>
+            <v>10315</v>
           </cell>
           <cell r="C263" t="str">
-            <v>4级魂石·暴击抵抗</v>
+            <v>4级魂石·技能急速</v>
           </cell>
           <cell r="D263" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="264">
           <cell r="B264">
-            <v>10312</v>
+            <v>10316</v>
           </cell>
           <cell r="C264" t="str">
-            <v>4级魂石·爆伤抵抗</v>
+            <v>4级魂石·全元素抗性</v>
           </cell>
           <cell r="D264" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="265">
           <cell r="B265">
-            <v>10313</v>
+            <v>10317</v>
           </cell>
           <cell r="C265" t="str">
-            <v>4级魂石·生命回复</v>
+            <v>4级魂石·移动速度</v>
           </cell>
           <cell r="D265" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="266">
           <cell r="B266">
-            <v>10314</v>
+            <v>10318</v>
           </cell>
           <cell r="C266" t="str">
-            <v>4级魂石·固定伤害减免</v>
+            <v>4级魂石·闪避率</v>
           </cell>
           <cell r="D266" t="str">
-            <v>魂石</v>
+            <v>可以在魂石界面进行镶嵌</v>
           </cell>
         </row>
         <row r="267">
           <cell r="B267">
-            <v>10315</v>
+            <v>20000</v>
           </cell>
           <cell r="C267" t="str">
-            <v>4级魂石·技能急速</v>
+            <v>月卡</v>
           </cell>
           <cell r="D267" t="str">
-            <v>魂石</v>
+            <v>购买直接获得3000铂金，之后每天登录获得20000钻石，
+获得30天效果：
+通关奖励中，技能精通经验获取率+10%，地图经验获取率+10%，通关银币获取率+20%(和终身叠加)</v>
           </cell>
         </row>
         <row r="268">
           <cell r="B268">
-            <v>10316</v>
+            <v>20001</v>
           </cell>
           <cell r="C268" t="str">
-            <v>4级魂石·全元素抗性</v>
+            <v>终身特权</v>
           </cell>
           <cell r="D268" t="str">
-            <v>魂石</v>
+            <v>效果：每天登录获得30000钻石，1张【祈福卷轴】，通关奖励中：技能精通经验获取率+20%，地图经验获取率+20%，通关银币获取率+30%(和月卡叠加)
+额外效果：魂石升级概率+10%，图鉴合成银币消耗-20%</v>
           </cell>
         </row>
         <row r="269">
           <cell r="B269">
-            <v>10317</v>
+            <v>20002</v>
           </cell>
           <cell r="C269" t="str">
-            <v>4级魂石·移动速度</v>
+            <v>元素祈福</v>
           </cell>
           <cell r="D269" t="str">
-            <v>魂石</v>
+            <v>特权</v>
           </cell>
         </row>
         <row r="270">
           <cell r="B270">
-            <v>10318</v>
+            <v>20003</v>
           </cell>
           <cell r="C270" t="str">
-            <v>4级魂石·闪避率</v>
+            <v>天辉信物</v>
           </cell>
           <cell r="D270" t="str">
-            <v>魂石</v>
+            <v>攻击力+10
+生命值+200
+最大蓝量+100
+蓝量回复+2/S
+生命恢复+5/S
+技能急速+20
+*天辉任务奖励+30%</v>
           </cell>
         </row>
         <row r="271">
           <cell r="B271">
-            <v>20000</v>
+            <v>20004</v>
           </cell>
           <cell r="C271" t="str">
-            <v>月卡</v>
+            <v>夜魇信物</v>
+          </cell>
+          <cell r="D271" t="str">
+            <v>暴击概率+15%
+暴击伤害+30%
+防御力+10
+技能伤害+20%
+移动速度+10%
+*夜魇任务奖励+30%</v>
           </cell>
         </row>
         <row r="272">
           <cell r="B272">
-            <v>20001</v>
+            <v>20005</v>
           </cell>
           <cell r="C272" t="str">
-            <v>终身特权</v>
+            <v>灵魂战刃</v>
           </cell>
           <cell r="D272" t="str">
-            <v>特权</v>
+            <v>攻击力+20
+攻击速度+50
+暴击伤害+20%
+移动速度+10%
+技能急速+10
+*局内金币获取率+30%</v>
           </cell>
         </row>
         <row r="273">
           <cell r="B273">
-            <v>20002</v>
+            <v>20006</v>
           </cell>
           <cell r="C273" t="str">
-            <v>元素祈福</v>
+            <v>老者的指引</v>
           </cell>
           <cell r="D273" t="str">
             <v>特权</v>
@@ -4268,21 +4692,24 @@
         </row>
         <row r="274">
           <cell r="B274">
-            <v>20003</v>
+            <v>20007</v>
           </cell>
           <cell r="C274" t="str">
-            <v>天辉信物</v>
+            <v>图鉴大师</v>
           </cell>
           <cell r="D274" t="str">
-            <v>特权</v>
+            <v>*图鉴合成高级卡的概率+12.5%
+*图鉴合成金币消耗-30%
+*图鉴上阵最大星级数+3
+*图鉴上阵属性效果+20%</v>
           </cell>
         </row>
         <row r="275">
           <cell r="B275">
-            <v>20004</v>
+            <v>20008</v>
           </cell>
           <cell r="C275" t="str">
-            <v>夜魇信物</v>
+            <v>不留遗憾之矢</v>
           </cell>
           <cell r="D275" t="str">
             <v>特权</v>
@@ -4290,65 +4717,97 @@
         </row>
         <row r="276">
           <cell r="B276">
-            <v>20005</v>
+            <v>20009</v>
           </cell>
           <cell r="C276" t="str">
-            <v>灵魂战刃</v>
+            <v>命运的骰子</v>
           </cell>
           <cell r="D276" t="str">
-            <v>特权</v>
+            <v>*升级技能时，有33%概率不消耗技能点
+*购买局内金币商店道具时，有33%概率不消耗局内金币
+*结算时，有33%概率使本局获得的技能精通经验翻倍
+*赞助本游戏时，有33%概率会获得额外10%的琥珀</v>
           </cell>
         </row>
         <row r="277">
           <cell r="B277">
-            <v>20006</v>
+            <v>20010</v>
           </cell>
           <cell r="C277" t="str">
-            <v>老者的指引</v>
+            <v>元素之地的救赎</v>
           </cell>
           <cell r="D277" t="str">
-            <v>特权</v>
+            <v>全元素伤害+50%
+*各个元素技能基础效果更变为：
+火元素：火元素技能附带5秒灼烧效果，灼烧每秒造成攻击力50%火元素伤害
+雷元素：雷元素技能附带1秒麻痹效果，相同单位5秒内最多生效1次，被麻痹的单位雷元素抗性降低15%
+冰元素：冰元素技能附带5秒减速30%效果，对减速的单位15%概率冰冻2秒
+风元素：风元素技能附带击退50码效果，相同单位5秒内最多生效1次</v>
           </cell>
         </row>
         <row r="278">
           <cell r="B278">
-            <v>20007</v>
+            <v>20011</v>
           </cell>
           <cell r="C278" t="str">
-            <v>图鉴大师</v>
+            <v>老者的指引·上</v>
           </cell>
           <cell r="D278" t="str">
-            <v>特权</v>
+            <v>暴击概率+5%
+伤害加成+10%
+伤害减免+5%
+攻击力+5%
+固定伤害+50
+固定伤害减免+50
+集齐【老者的指引·上、中、下】获得效果：
+老人言：
+个人经验获取率+30%</v>
           </cell>
         </row>
         <row r="279">
           <cell r="B279">
-            <v>20008</v>
+            <v>20012</v>
           </cell>
           <cell r="C279" t="str">
-            <v>不留遗憾之矢</v>
+            <v>老者的指引·中</v>
           </cell>
           <cell r="D279" t="str">
-            <v>特权</v>
+            <v>暴击概率+5%
+伤害加成+10%
+伤害减免+5%
+攻击力+5%
+固定伤害+50
+固定伤害减免+50
+集齐【老者的指引·上、中、下】获得效果：
+老人言：
+个人经验获取率+30%</v>
           </cell>
         </row>
         <row r="280">
           <cell r="B280">
-            <v>20009</v>
+            <v>20013</v>
           </cell>
           <cell r="C280" t="str">
-            <v>命运的骰子</v>
+            <v>老者的指引·下</v>
           </cell>
           <cell r="D280" t="str">
-            <v>特权</v>
+            <v>暴击概率+5%
+伤害加成+10%
+伤害减免+5%
+攻击力+5%
+固定伤害+50
+固定伤害减免+50
+集齐【老者的指引·上、中、下】获得效果：
+老人言：
+个人经验获取率+30%</v>
           </cell>
         </row>
         <row r="281">
           <cell r="B281">
-            <v>20010</v>
+            <v>20014</v>
           </cell>
           <cell r="C281" t="str">
-            <v>元素之地的救赎</v>
+            <v>图鉴大师·上</v>
           </cell>
           <cell r="D281" t="str">
             <v>特权</v>
@@ -4356,10 +4815,10 @@
         </row>
         <row r="282">
           <cell r="B282">
-            <v>20011</v>
+            <v>20015</v>
           </cell>
           <cell r="C282" t="str">
-            <v>老者的指引·上</v>
+            <v>图鉴大师·中</v>
           </cell>
           <cell r="D282" t="str">
             <v>特权</v>
@@ -4367,10 +4826,10 @@
         </row>
         <row r="283">
           <cell r="B283">
-            <v>20012</v>
+            <v>20016</v>
           </cell>
           <cell r="C283" t="str">
-            <v>老者的指引·中</v>
+            <v>图鉴大师·下</v>
           </cell>
           <cell r="D283" t="str">
             <v>特权</v>
@@ -4378,318 +4837,413 @@
         </row>
         <row r="284">
           <cell r="B284">
-            <v>20013</v>
+            <v>20017</v>
           </cell>
           <cell r="C284" t="str">
-            <v>老者的指引·下</v>
+            <v>不留遗憾之矢·上</v>
           </cell>
           <cell r="D284" t="str">
-            <v>特权</v>
+            <v>杀敌恢复生命值2
+杀敌回复蓝量1
+移动速度+5%
+技能急速+10
+最终伤害+10%
+暴击伤害+15%
+集齐【不留遗憾之矢·上、中、下】获得效果：
+不留遗憾：不会随着阵亡次数增加复活时间</v>
           </cell>
         </row>
         <row r="285">
           <cell r="B285">
-            <v>20014</v>
+            <v>20018</v>
           </cell>
           <cell r="C285" t="str">
-            <v>图鉴大师·上</v>
+            <v>不留遗憾之矢·中</v>
           </cell>
           <cell r="D285" t="str">
-            <v>特权</v>
+            <v>杀敌恢复生命值5
+杀敌回复蓝量2
+移动速度+5%
+技能急速+10
+最终伤害+10%
+暴击伤害+25%
+集齐【不留遗憾之矢·上、中、下】获得效果：
+不留遗憾：不会随着阵亡次数增加复活时间</v>
           </cell>
         </row>
         <row r="286">
           <cell r="B286">
-            <v>20015</v>
+            <v>20019</v>
           </cell>
           <cell r="C286" t="str">
-            <v>图鉴大师·中</v>
+            <v>不留遗憾之矢·下</v>
           </cell>
           <cell r="D286" t="str">
-            <v>特权</v>
+            <v>杀敌恢复生命值5
+杀敌回复蓝量2
+移动速度+5%
+技能急速+10
+最终伤害+10%
+暴击伤害+35%
+集齐【不留遗憾之矢·上、中、下】获得效果：
+不留遗憾：不会随着阵亡次数增加复活时间</v>
           </cell>
         </row>
         <row r="287">
           <cell r="B287">
-            <v>20016</v>
+            <v>20020</v>
           </cell>
           <cell r="C287" t="str">
-            <v>图鉴大师·下</v>
+            <v>超越极限·上</v>
           </cell>
           <cell r="D287" t="str">
-            <v>特权</v>
+            <v>局内金币商店刷新消耗-10%
+局内金币商店刷新次数+1
+局内金币获取率+10%
+伤害加成+10%
+暴击概率+5%
+集齐【超越极限·上、中、下】获得效果：
+超越极限：额外获得一个极限道具槽位</v>
           </cell>
         </row>
         <row r="288">
           <cell r="B288">
-            <v>20017</v>
+            <v>20021</v>
           </cell>
           <cell r="C288" t="str">
-            <v>不留遗憾之矢·上</v>
+            <v>超越极限·中</v>
           </cell>
           <cell r="D288" t="str">
-            <v>特权</v>
+            <v>特权局内金币商店刷新消耗-20%
+局内金币商店刷新次数+2
+局内金币获取率+20%
+伤害加成+10%
+暴击概率+5%
+集齐【超越极限·上、中、下】获得效果：
+超越极限：额外获得一个极限道具槽位</v>
           </cell>
         </row>
         <row r="289">
           <cell r="B289">
-            <v>20018</v>
+            <v>20022</v>
           </cell>
           <cell r="C289" t="str">
-            <v>不留遗憾之矢·中</v>
+            <v>超越极限·下</v>
           </cell>
           <cell r="D289" t="str">
-            <v>特权</v>
+            <v>局内金币商店刷新消耗-20%
+局内金币商店刷新次数+2
+局内金币获取率+20%
+伤害加成+10%
+暴击概率+10%
+集齐【超越极限·上、中、下】获得效果：
+超越极限：额外获得一个极限道具槽位</v>
           </cell>
         </row>
         <row r="290">
           <cell r="B290">
-            <v>20019</v>
+            <v>20023</v>
           </cell>
           <cell r="C290" t="str">
-            <v>不留遗憾之矢·下</v>
+            <v>消费大师·上</v>
           </cell>
           <cell r="D290" t="str">
-            <v>特权</v>
+            <v>投资等级+1
+局内金币商店折扣+5%
+攻击力+5%
+技能极速+5
+伤害减免+5%
+集齐【消费大师·上、中、下】
+获得效果：
+局内金币商店老板：
+局内金币商店常驻折扣25%
+局内金币商店提高稀有度物品出现概率</v>
           </cell>
         </row>
         <row r="291">
           <cell r="B291">
-            <v>20020</v>
+            <v>20024</v>
           </cell>
           <cell r="C291" t="str">
-            <v>超越极限·上</v>
+            <v>消费大师·中</v>
           </cell>
           <cell r="D291" t="str">
-            <v>特权</v>
+            <v>投资等级+1
+局内金币商店折扣+5%
+攻击力+5%
+技能极速+5
+伤害减免+5%
+集齐【消费大师·上、中、下】
+获得效果：
+局内金币商店老板：
+局内金币商店常驻折扣25%
+局内金币商店提高稀有度物品出现概率</v>
           </cell>
         </row>
         <row r="292">
           <cell r="B292">
-            <v>20021</v>
+            <v>20025</v>
           </cell>
           <cell r="C292" t="str">
-            <v>超越极限·中</v>
+            <v>消费大师·下</v>
           </cell>
           <cell r="D292" t="str">
-            <v>特权</v>
+            <v>投资等级+1
+局内金币商店折扣+5%
+攻击力+5%
+技能极速+5
+伤害减免+5%
+集齐【消费大师·上、中、下】
+获得效果：
+局内金币商店老板：
+局内金币商店常驻折扣25%
+局内金币商店提高稀有度物品出现概率</v>
           </cell>
         </row>
         <row r="293">
           <cell r="B293">
-            <v>20022</v>
+            <v>20026</v>
           </cell>
           <cell r="C293" t="str">
-            <v>超越极限·下</v>
+            <v>符文大师·上</v>
           </cell>
           <cell r="D293" t="str">
-            <v>特权</v>
+            <v>开局符文刷新次数+1
+团队经验获取率+10%
+伤害加成+5%
+技能急速+5
+集齐【符文大师·上、中、下】
+获得效果：
+符文强者：
+每击败1个boss，获得2次符文刷新次数（仅局内生效）</v>
           </cell>
         </row>
         <row r="294">
           <cell r="B294">
-            <v>20023</v>
+            <v>20027</v>
           </cell>
           <cell r="C294" t="str">
-            <v>消费大师·上</v>
+            <v>符文大师·中</v>
           </cell>
           <cell r="D294" t="str">
-            <v>特权</v>
+            <v>开局符文刷新次数+1
+团队经验获取率+10%
+伤害加成+5%
+技能急速+5
+集齐【符文大师·上、中、下】
+获得效果：
+符文强者：
+每击败1个boss，获得2次符文刷新次数（仅局内生效）</v>
           </cell>
         </row>
         <row r="295">
           <cell r="B295">
-            <v>20024</v>
+            <v>20028</v>
           </cell>
           <cell r="C295" t="str">
-            <v>消费大师·中</v>
+            <v>符文大师·下</v>
           </cell>
           <cell r="D295" t="str">
-            <v>特权</v>
+            <v>特权开局符文刷新次数+1
+团队经验获取率+10%
+伤害加成+5%
+技能急速+5
+集齐【符文大师·上、中、下】
+获得效果：
+符文强者：
+每击败1个boss，获得2次符文刷新次数（仅局内生效）</v>
           </cell>
         </row>
         <row r="296">
           <cell r="B296">
-            <v>20025</v>
+            <v>20029</v>
           </cell>
           <cell r="C296" t="str">
-            <v>消费大师·下</v>
+            <v>符文全知</v>
           </cell>
           <cell r="D296" t="str">
-            <v>特权</v>
+            <v>攻击力+5
+攻击速度+10
+移动速度+3%
+生命恢复+3/s
+*开局拥有5次刷新符文的机会，且每次刷新符文从2选1变为3选1</v>
           </cell>
         </row>
         <row r="297">
           <cell r="B297">
-            <v>20026</v>
+            <v>20101</v>
           </cell>
           <cell r="C297" t="str">
-            <v>符文大师·上</v>
+            <v>终结者</v>
           </cell>
           <cell r="D297" t="str">
-            <v>特权</v>
+            <v>称号收集效果：最终伤害+15%</v>
           </cell>
         </row>
         <row r="298">
           <cell r="B298">
-            <v>20027</v>
+            <v>20102</v>
           </cell>
           <cell r="C298" t="str">
-            <v>符文大师·中</v>
+            <v>领袖</v>
           </cell>
           <cell r="D298" t="str">
-            <v>特权</v>
+            <v>称号收集效果：团队经验获取率+15%</v>
           </cell>
         </row>
         <row r="299">
           <cell r="B299">
-            <v>20028</v>
+            <v>20103</v>
           </cell>
           <cell r="C299" t="str">
-            <v>符文大师·下</v>
+            <v>圣坛使者</v>
           </cell>
           <cell r="D299" t="str">
-            <v>特权</v>
+            <v>称号收集效果：圣坛持续时间+25%</v>
           </cell>
         </row>
         <row r="300">
           <cell r="B300">
-            <v>20029</v>
+            <v>20104</v>
           </cell>
           <cell r="C300" t="str">
-            <v>符文全知</v>
+            <v>元素大陆征服者</v>
           </cell>
           <cell r="D300" t="str">
-            <v>特权</v>
+            <v>称号收集效果：全元素伤害+50%</v>
           </cell>
         </row>
         <row r="301">
           <cell r="B301">
-            <v>20101</v>
+            <v>20105</v>
           </cell>
           <cell r="C301" t="str">
-            <v>终结者</v>
+            <v>图鉴领悟者</v>
           </cell>
           <cell r="D301" t="str">
-            <v>称号</v>
+            <v>称号收集效果：图鉴上阵属性效果+10%
+图鉴上阵最大星级数+2</v>
           </cell>
         </row>
         <row r="302">
           <cell r="B302">
-            <v>20102</v>
+            <v>20106</v>
           </cell>
           <cell r="C302" t="str">
-            <v>领袖</v>
+            <v>忠实粉丝</v>
           </cell>
           <cell r="D302" t="str">
-            <v>称号</v>
+            <v>称号收集效果：攻击力+6
+移动速度+6%
+技能急速+6
+全元素伤害+6%</v>
           </cell>
         </row>
         <row r="303">
           <cell r="B303">
-            <v>20103</v>
+            <v>20107</v>
           </cell>
           <cell r="C303" t="str">
-            <v>圣坛使者</v>
+            <v>魂石掌控者</v>
           </cell>
           <cell r="D303" t="str">
-            <v>称号</v>
+            <v>称号收集效果：魂石升级成功率+5%</v>
           </cell>
         </row>
         <row r="304">
           <cell r="B304">
-            <v>20104</v>
+            <v>20108</v>
           </cell>
           <cell r="C304" t="str">
-            <v>元素大陆征服者</v>
+            <v>风神</v>
           </cell>
           <cell r="D304" t="str">
-            <v>称号</v>
+            <v>称号收集效果：风元素伤害+50%，风元素穿透+25%</v>
           </cell>
         </row>
         <row r="305">
           <cell r="B305">
-            <v>20105</v>
+            <v>20109</v>
           </cell>
           <cell r="C305" t="str">
-            <v>图鉴领悟者</v>
+            <v>炼狱之王</v>
           </cell>
           <cell r="D305" t="str">
-            <v>称号</v>
+            <v>称号收集效果：火元素伤害+50%，火元素穿透+25%</v>
           </cell>
         </row>
         <row r="306">
           <cell r="B306">
-            <v>20106</v>
+            <v>20110</v>
           </cell>
           <cell r="C306" t="str">
-            <v>忠实粉丝</v>
+            <v>冰宫之主</v>
           </cell>
           <cell r="D306" t="str">
-            <v>称号</v>
+            <v>称号收集效果：冰元素伤害+50%，冰元素穿透+25%</v>
           </cell>
         </row>
         <row r="307">
           <cell r="B307">
-            <v>20107</v>
+            <v>20111</v>
           </cell>
           <cell r="C307" t="str">
-            <v>魂石掌控者</v>
+            <v>雷神</v>
           </cell>
           <cell r="D307" t="str">
-            <v>称号</v>
+            <v>称号收集效果：雷元素伤害+50%，雷元素穿透+25%</v>
           </cell>
         </row>
         <row r="308">
           <cell r="B308">
-            <v>20108</v>
+            <v>20201</v>
           </cell>
           <cell r="C308" t="str">
-            <v>风神</v>
+            <v>元素大陆征服者（成长礼）</v>
           </cell>
           <cell r="D308" t="str">
-            <v>称号</v>
+            <v>进阶成长礼</v>
           </cell>
         </row>
         <row r="309">
           <cell r="B309">
-            <v>20109</v>
+            <v>20202</v>
           </cell>
           <cell r="C309" t="str">
-            <v>炼狱之王</v>
+            <v>元素大陆首通点</v>
           </cell>
           <cell r="D309" t="str">
-            <v>称号</v>
+            <v>元素大陆成长礼的首通点</v>
           </cell>
         </row>
         <row r="310">
           <cell r="B310">
-            <v>20110</v>
+            <v>20203</v>
           </cell>
           <cell r="C310" t="str">
-            <v>冰宫之主</v>
+            <v>熔火炼狱征服者（成长礼）</v>
           </cell>
           <cell r="D310" t="str">
-            <v>称号</v>
+            <v>进阶成长礼</v>
           </cell>
         </row>
         <row r="311">
           <cell r="B311">
-            <v>20111</v>
+            <v>20204</v>
           </cell>
           <cell r="C311" t="str">
-            <v>雷神</v>
+            <v>熔火炼狱首通点</v>
           </cell>
           <cell r="D311" t="str">
-            <v>称号</v>
+            <v>熔火炼狱成长礼的首通点</v>
           </cell>
         </row>
         <row r="312">
           <cell r="B312">
-            <v>20201</v>
+            <v>20205</v>
           </cell>
           <cell r="C312" t="str">
-            <v>元素大陆征服者（成长礼）</v>
+            <v>极北之地征服者（成长礼）</v>
           </cell>
           <cell r="D312" t="str">
             <v>进阶成长礼</v>
@@ -4697,21 +5251,21 @@
         </row>
         <row r="313">
           <cell r="B313">
-            <v>20202</v>
+            <v>20206</v>
           </cell>
           <cell r="C313" t="str">
-            <v>元素大陆首通点</v>
+            <v>极北之地首通点</v>
           </cell>
           <cell r="D313" t="str">
-            <v>元素大陆成长礼的首通点</v>
+            <v>极北之地成长礼的首通点</v>
           </cell>
         </row>
         <row r="314">
           <cell r="B314">
-            <v>20203</v>
+            <v>20207</v>
           </cell>
           <cell r="C314" t="str">
-            <v>熔火炼狱征服者（成长礼）</v>
+            <v>雷霆之地征服者（成长礼）</v>
           </cell>
           <cell r="D314" t="str">
             <v>进阶成长礼</v>
@@ -4719,21 +5273,21 @@
         </row>
         <row r="315">
           <cell r="B315">
-            <v>20204</v>
+            <v>20208</v>
           </cell>
           <cell r="C315" t="str">
-            <v>熔火炼狱首通点</v>
+            <v>雷霆之地首通点</v>
           </cell>
           <cell r="D315" t="str">
-            <v>熔火炼狱成长礼的首通点</v>
+            <v>雷霆之地成长礼的首通点</v>
           </cell>
         </row>
         <row r="316">
           <cell r="B316">
-            <v>20205</v>
+            <v>20209</v>
           </cell>
           <cell r="C316" t="str">
-            <v>极北之地征服者（成长礼）</v>
+            <v>狂风沙漠征服者（成长礼）</v>
           </cell>
           <cell r="D316" t="str">
             <v>进阶成长礼</v>
@@ -4741,292 +5295,248 @@
         </row>
         <row r="317">
           <cell r="B317">
-            <v>20206</v>
+            <v>20210</v>
           </cell>
           <cell r="C317" t="str">
-            <v>极北之地首通点</v>
+            <v>狂风沙漠首通点</v>
           </cell>
           <cell r="D317" t="str">
-            <v>极北之地成长礼的首通点</v>
+            <v>狂风沙漠成长礼的首通点</v>
           </cell>
         </row>
         <row r="318">
           <cell r="B318">
-            <v>20207</v>
+            <v>21001</v>
           </cell>
           <cell r="C318" t="str">
-            <v>雷霆之地征服者（成长礼）</v>
+            <v>急速元素</v>
           </cell>
           <cell r="D318" t="str">
-            <v>进阶成长礼</v>
+            <v>元素供养属性道具，每一个+1技能急速，每10个提高1%技能冷却上限</v>
           </cell>
         </row>
         <row r="319">
           <cell r="B319">
-            <v>20208</v>
+            <v>21002</v>
           </cell>
           <cell r="C319" t="str">
-            <v>雷霆之地首通点</v>
+            <v>攻击元素</v>
           </cell>
           <cell r="D319" t="str">
-            <v>雷霆之地成长礼的首通点</v>
+            <v>元素供养属性道具，每一个+1攻击力，每10个提高1%攻击力</v>
           </cell>
         </row>
         <row r="320">
           <cell r="B320">
-            <v>20209</v>
+            <v>21003</v>
           </cell>
           <cell r="C320" t="str">
-            <v>狂风沙漠征服者（成长礼）</v>
+            <v>火元素</v>
           </cell>
           <cell r="D320" t="str">
-            <v>进阶成长礼</v>
+            <v>元素供养属性道具，每一个+1%火元素伤害，每10个提高1%火元素穿透</v>
           </cell>
         </row>
         <row r="321">
           <cell r="B321">
-            <v>20210</v>
+            <v>21004</v>
           </cell>
           <cell r="C321" t="str">
-            <v>狂风沙漠首通点</v>
+            <v>冰元素</v>
           </cell>
           <cell r="D321" t="str">
-            <v>狂风沙漠成长礼的首通点</v>
+            <v>元素供养属性道具，每一个+1%冰元素伤害，每10个提高1%冰元素穿透</v>
           </cell>
         </row>
         <row r="322">
           <cell r="B322">
-            <v>21001</v>
+            <v>21005</v>
           </cell>
           <cell r="C322" t="str">
-            <v>急速元素</v>
+            <v>雷元素</v>
           </cell>
           <cell r="D322" t="str">
-            <v>元素供养属性道具</v>
+            <v>元素供养属性道具，每一个+1%雷元素伤害，每10个提高1%雷元素穿透</v>
           </cell>
         </row>
         <row r="323">
           <cell r="B323">
-            <v>21002</v>
+            <v>21006</v>
           </cell>
           <cell r="C323" t="str">
-            <v>攻击元素</v>
+            <v>风元素</v>
           </cell>
           <cell r="D323" t="str">
-            <v>元素供养属性道具</v>
+            <v>元素供养属性道具，每一个+1%风元素伤害，每10个提高1%风元素穿透</v>
           </cell>
         </row>
         <row r="324">
           <cell r="B324">
-            <v>21003</v>
+            <v>21007</v>
           </cell>
           <cell r="C324" t="str">
-            <v>火元素</v>
+            <v>攻速元素</v>
           </cell>
           <cell r="D324" t="str">
-            <v>元素供养属性道具</v>
+            <v>元素供养属性道具，每一个+1攻击速度，每10个降低0.01攻击间隔</v>
           </cell>
         </row>
         <row r="325">
           <cell r="B325">
-            <v>21004</v>
+            <v>21101</v>
           </cell>
           <cell r="C325" t="str">
-            <v>冰元素</v>
+            <v>暴击元素</v>
           </cell>
           <cell r="D325" t="str">
-            <v>元素供养属性道具</v>
+            <v>元素供养属性道具，每一个+0.25%暴击概率</v>
           </cell>
         </row>
         <row r="326">
           <cell r="B326">
-            <v>21005</v>
+            <v>21102</v>
           </cell>
           <cell r="C326" t="str">
-            <v>雷元素</v>
+            <v>爆伤元素</v>
           </cell>
           <cell r="D326" t="str">
-            <v>元素供养属性道具</v>
+            <v>元素供养属性道具，每一个+1%暴击伤害</v>
           </cell>
         </row>
         <row r="327">
           <cell r="B327">
-            <v>21006</v>
+            <v>21103</v>
           </cell>
           <cell r="C327" t="str">
-            <v>风元素</v>
+            <v>生命元素</v>
           </cell>
           <cell r="D327" t="str">
-            <v>元素供养属性道具</v>
+            <v>元素供养属性道具，每一个+5最大生命值</v>
           </cell>
         </row>
         <row r="328">
           <cell r="B328">
-            <v>21007</v>
+            <v>21104</v>
           </cell>
           <cell r="C328" t="str">
-            <v>攻速元素</v>
+            <v>蓝量元素</v>
           </cell>
           <cell r="D328" t="str">
-            <v>元素供养属性道具</v>
+            <v>元素供养属性道具，每一个+1最大蓝量</v>
           </cell>
         </row>
         <row r="329">
           <cell r="B329">
-            <v>21101</v>
+            <v>21105</v>
           </cell>
           <cell r="C329" t="str">
-            <v>暴击元素</v>
+            <v>移速元素</v>
           </cell>
           <cell r="D329" t="str">
-            <v>元素供养属性道具</v>
+            <v>元素供养属性道具，每一个+1移动速度</v>
           </cell>
         </row>
         <row r="330">
           <cell r="B330">
-            <v>21102</v>
+            <v>21106</v>
           </cell>
           <cell r="C330" t="str">
-            <v>爆伤元素</v>
+            <v>伤害元素</v>
           </cell>
           <cell r="D330" t="str">
-            <v>元素供养属性道具</v>
+            <v>元素供养属性道具，每一个+1%伤害加成</v>
           </cell>
         </row>
         <row r="331">
           <cell r="B331">
-            <v>21103</v>
+            <v>21107</v>
           </cell>
           <cell r="C331" t="str">
-            <v>生命元素</v>
+            <v>固伤元素</v>
           </cell>
           <cell r="D331" t="str">
-            <v>元素供养属性道具</v>
+            <v>元素供养属性道具，每一个+5固定伤害</v>
           </cell>
         </row>
         <row r="332">
           <cell r="B332">
-            <v>21104</v>
+            <v>21108</v>
           </cell>
           <cell r="C332" t="str">
-            <v>蓝量元素</v>
+            <v>固免元素</v>
           </cell>
           <cell r="D332" t="str">
-            <v>元素供养属性道具</v>
+            <v>元素供养属性道具，每一个+5固定伤害减免</v>
           </cell>
         </row>
         <row r="333">
           <cell r="B333">
-            <v>21105</v>
+            <v>21109</v>
           </cell>
           <cell r="C333" t="str">
-            <v>移速元素</v>
+            <v>暴击抵抗元素</v>
           </cell>
           <cell r="D333" t="str">
-            <v>元素供养属性道具</v>
+            <v>元素供养属性道具，每一个+0.25%暴击抵抗</v>
           </cell>
         </row>
         <row r="334">
           <cell r="B334">
-            <v>21106</v>
+            <v>21110</v>
           </cell>
           <cell r="C334" t="str">
-            <v>伤害元素</v>
+            <v>爆伤抵抗元素</v>
           </cell>
           <cell r="D334" t="str">
-            <v>元素供养属性道具</v>
+            <v>元素供养属性道具，每一个+1%暴击伤害抵抗</v>
           </cell>
         </row>
         <row r="335">
           <cell r="B335">
-            <v>21107</v>
+            <v>21111</v>
           </cell>
           <cell r="C335" t="str">
-            <v>固伤元素</v>
+            <v>元素抗性</v>
           </cell>
           <cell r="D335" t="str">
-            <v>元素供养属性道具</v>
+            <v>元素供养属性道具，每一个+1%全元素抗性</v>
           </cell>
         </row>
         <row r="336">
           <cell r="B336">
-            <v>21108</v>
+            <v>21112</v>
           </cell>
           <cell r="C336" t="str">
-            <v>固免元素</v>
+            <v>护甲元素</v>
           </cell>
           <cell r="D336" t="str">
-            <v>元素供养属性道具</v>
+            <v>元素供养属性道具，每一个+1护甲</v>
           </cell>
         </row>
         <row r="337">
           <cell r="B337">
-            <v>21109</v>
+            <v>100001</v>
           </cell>
           <cell r="C337" t="str">
-            <v>暴击抵抗元素</v>
+            <v>怪物图鉴卡</v>
           </cell>
           <cell r="D337" t="str">
-            <v>元素供养属性道具</v>
+            <v>击杀怪物有概率获得该怪物的图鉴卡</v>
           </cell>
         </row>
         <row r="338">
           <cell r="B338">
-            <v>21110</v>
+            <v>100002</v>
           </cell>
           <cell r="C338" t="str">
-            <v>爆伤抵抗元素</v>
-          </cell>
-          <cell r="D338" t="str">
-            <v>元素供养属性道具</v>
+            <v>随机1级元素</v>
           </cell>
         </row>
         <row r="339">
           <cell r="B339">
-            <v>21111</v>
+            <v>100003</v>
           </cell>
           <cell r="C339" t="str">
-            <v>元素抗性</v>
-          </cell>
-          <cell r="D339" t="str">
-            <v>元素供养属性道具</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="B340">
-            <v>21112</v>
-          </cell>
-          <cell r="C340" t="str">
-            <v>护甲元素</v>
-          </cell>
-          <cell r="D340" t="str">
-            <v>元素供养属性道具</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="B341">
-            <v>100001</v>
-          </cell>
-          <cell r="C341" t="str">
-            <v>怪物图鉴卡</v>
-          </cell>
-          <cell r="D341" t="str">
-            <v>击杀怪物有概率获得该怪物的图鉴卡</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="B342">
-            <v>100002</v>
-          </cell>
-          <cell r="C342" t="str">
-            <v>随机1级元素</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="B343">
-            <v>100003</v>
-          </cell>
-          <cell r="C343" t="str">
             <v>随机2级元素</v>
           </cell>
         </row>
@@ -5328,9 +5838,9 @@
   <dimension ref="A1:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6653,7 +7163,7 @@
       </c>
       <c r="D26" s="19" t="str">
         <f>VLOOKUP(C26,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E26</f>
-        <v>精良图鉴箱（自选）*1</v>
+        <v>精良图鉴兑换券*1</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -6705,7 +7215,7 @@
       </c>
       <c r="D27" s="19" t="str">
         <f>VLOOKUP(C27,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E27</f>
-        <v>史诗图鉴箱（自选）*1</v>
+        <v>史诗图鉴兑换券*1</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -6757,7 +7267,7 @@
       </c>
       <c r="D28" s="19" t="str">
         <f>VLOOKUP(C28,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E28</f>
-        <v>传说图鉴箱（自选）*1</v>
+        <v>传说图鉴兑换券*1</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -6809,7 +7319,7 @@
       </c>
       <c r="D29" s="19" t="str">
         <f>VLOOKUP(C29,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E29</f>
-        <v>不朽图鉴箱（自选）*1</v>
+        <v>不朽图鉴兑换券*1</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -6861,7 +7371,7 @@
       </c>
       <c r="D30" s="19" t="str">
         <f>VLOOKUP(C30,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E30</f>
-        <v>熔火炼狱的图鉴箱（自选）*1</v>
+        <v>熔火炼狱的图鉴兑换券*1</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -6913,7 +7423,7 @@
       </c>
       <c r="D31" s="19" t="str">
         <f>VLOOKUP(C31,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E31</f>
-        <v>极北之地的图鉴箱（自选）*1</v>
+        <v>极北之地的图鉴兑换券*1</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -6965,7 +7475,7 @@
       </c>
       <c r="D32" s="19" t="str">
         <f>VLOOKUP(C32,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E32</f>
-        <v>狂风沙漠的图鉴箱（自选）*1</v>
+        <v>狂风沙漠的图鉴兑换券*1</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -7017,7 +7527,7 @@
       </c>
       <c r="D33" s="19" t="str">
         <f>VLOOKUP(C33,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E33</f>
-        <v>雷霆之地的图鉴箱（自选）*1</v>
+        <v>雷霆之地的图鉴兑换券*1</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -7069,7 +7579,7 @@
       </c>
       <c r="D34" s="19" t="str">
         <f>VLOOKUP(C34,[1]Sheet1!$B:$D,2,FALSE)&amp;"*"&amp;E34</f>
-        <v>元素大陆图的鉴箱（自选）*1</v>
+        <v>元素大陆图的鉴兑换券*1</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -10601,544 +11111,408 @@
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3"/>
-      <c r="E3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" ht="17.25" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="2"/>
-      <c r="D4"/>
-      <c r="E4"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" ht="17.25" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
-      <c r="D5"/>
-      <c r="E5"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" ht="17.25" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
-      <c r="D6"/>
-      <c r="E6"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" ht="17.25" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
-      <c r="D7"/>
-      <c r="E7"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" ht="17.25" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
-      <c r="D8"/>
-      <c r="E8"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" ht="17.25" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
-      <c r="D9"/>
-      <c r="E9"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" ht="17.25" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10"/>
-      <c r="E10"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" ht="17.25" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11"/>
-      <c r="E11"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" ht="17.25" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12"/>
-      <c r="E12"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" ht="17.25" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13"/>
-      <c r="E13"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" ht="17.25" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14"/>
-      <c r="E14"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" ht="17.25" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
-      <c r="D15"/>
-      <c r="E15"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" ht="17.25" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
-      <c r="D16"/>
-      <c r="E16"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" ht="17.25" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
-      <c r="D17"/>
-      <c r="E17"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" ht="17.25" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
-      <c r="D18"/>
-      <c r="E18"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" ht="17.25" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19"/>
-      <c r="E19"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" ht="17.25" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20"/>
-      <c r="E20"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" ht="17.25" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21"/>
-      <c r="E21"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" ht="17.25" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22"/>
-      <c r="E22"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" ht="17.25" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23"/>
-      <c r="E23"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" ht="17.25" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24"/>
-      <c r="E24"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" ht="17.25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25"/>
-      <c r="E25"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" ht="17.25" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
-      <c r="D26"/>
-      <c r="E26"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" ht="17.25" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
       <c r="C27" s="2"/>
-      <c r="D27"/>
-      <c r="E27"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" ht="17.25" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
       <c r="C28" s="2"/>
-      <c r="D28"/>
-      <c r="E28"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" ht="17.25" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
       <c r="C29" s="2"/>
-      <c r="D29"/>
-      <c r="E29"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" ht="17.25" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30"/>
-      <c r="E30"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" ht="17.25" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31"/>
-      <c r="E31"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" ht="17.25" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32"/>
-      <c r="E32"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" ht="17.25" spans="1:6">
       <c r="A33" s="1"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33"/>
-      <c r="E33"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" ht="17.25" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34"/>
-      <c r="E34"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" ht="17.25" spans="1:6">
       <c r="A35" s="1"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35"/>
-      <c r="E35"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" ht="17.25" spans="1:6">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36"/>
-      <c r="E36"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" ht="17.25" spans="1:6">
       <c r="A37" s="1"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37"/>
-      <c r="E37"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" ht="17.25" spans="1:6">
       <c r="A38" s="1"/>
       <c r="B38" s="4"/>
       <c r="C38" s="2"/>
-      <c r="D38"/>
-      <c r="E38"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" ht="17.25" spans="1:6">
       <c r="A39" s="1"/>
       <c r="B39" s="4"/>
       <c r="C39" s="2"/>
-      <c r="D39"/>
-      <c r="E39"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" ht="17.25" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40"/>
-      <c r="E40"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" ht="17.25" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41"/>
-      <c r="E41"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" ht="17.25" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42"/>
-      <c r="E42"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" ht="17.25" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43"/>
-      <c r="E43"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" ht="17.25" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44"/>
-      <c r="E44"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" ht="17.25" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45"/>
-      <c r="E45"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" ht="17.25" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="D46"/>
-      <c r="E46"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" ht="17.25" spans="1:6">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47"/>
-      <c r="E47"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" ht="17.25" spans="1:6">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="4"/>
-      <c r="D48"/>
-      <c r="E48"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" ht="17.25" spans="1:6">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49"/>
-      <c r="E49"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" ht="17.25" spans="1:6">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="4"/>
-      <c r="D50"/>
-      <c r="E50"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" ht="17.25" spans="1:6">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51"/>
-      <c r="E51"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" ht="17.25" spans="1:6">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="4"/>
-      <c r="D52"/>
-      <c r="E52"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" ht="17.25" spans="1:6">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53"/>
-      <c r="E53"/>
       <c r="F53" s="3"/>
     </row>
     <row r="54" ht="17.25" spans="1:6">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="4"/>
-      <c r="D54"/>
-      <c r="E54"/>
       <c r="F54" s="3"/>
     </row>
     <row r="55" ht="17.25" spans="1:6">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55"/>
-      <c r="E55"/>
       <c r="F55" s="3"/>
     </row>
     <row r="56" ht="17.25" spans="1:6">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="4"/>
-      <c r="D56"/>
-      <c r="E56"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" ht="17.25" spans="1:6">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57"/>
-      <c r="E57"/>
       <c r="F57" s="3"/>
     </row>
     <row r="58" ht="17.25" spans="1:6">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="4"/>
-      <c r="D58"/>
-      <c r="E58"/>
       <c r="F58" s="3"/>
     </row>
     <row r="59" ht="17.25" spans="1:6">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59"/>
-      <c r="E59"/>
       <c r="F59" s="3"/>
     </row>
     <row r="60" ht="17.25" spans="1:6">
       <c r="A60" s="1"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-      <c r="D60"/>
-      <c r="E60"/>
       <c r="F60" s="3"/>
     </row>
     <row r="61" ht="17.25" spans="1:6">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61"/>
-      <c r="E61"/>
       <c r="F61" s="3"/>
     </row>
     <row r="62" ht="17.25" spans="1:6">
       <c r="A62" s="1"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62"/>
-      <c r="E62"/>
       <c r="F62" s="3"/>
     </row>
     <row r="63" ht="17.25" spans="1:6">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63"/>
-      <c r="E63"/>
       <c r="F63" s="3"/>
     </row>
     <row r="64" ht="17.25" spans="1:6">
       <c r="A64" s="1"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64"/>
-      <c r="E64"/>
       <c r="F64" s="3"/>
     </row>
     <row r="65" ht="17.25" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65"/>
-      <c r="E65"/>
       <c r="F65" s="3"/>
     </row>
     <row r="66" ht="17.25" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66"/>
-      <c r="E66"/>
       <c r="F66" s="3"/>
     </row>
     <row r="67" ht="17.25" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67"/>
-      <c r="E67"/>
       <c r="F67" s="3"/>
     </row>
     <row r="68" ht="17.25" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-      <c r="D68"/>
-      <c r="E68"/>
       <c r="F68" s="3"/>
     </row>
     <row r="69" ht="17.25" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69"/>
-      <c r="E69"/>
       <c r="F69" s="3"/>
     </row>
     <row r="70" ht="17.25" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="D70"/>
-      <c r="E70"/>
       <c r="F70" s="3"/>
     </row>
   </sheetData>
